--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,9 +16,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$182</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$183</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -956,10 +956,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E190" sqref="E190"/>
+      <selection pane="bottomRight" activeCell="U183" sqref="U183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -980,7 +980,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44094.592812499999</v>
+        <v>44095.638596180557</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11127,6 +11127,51 @@
       <c r="R182" s="35"/>
     </row>
     <row r="183" spans="1:18">
+      <c r="A183" s="12">
+        <v>44095</v>
+      </c>
+      <c r="B183" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" s="1">
+        <v>1</v>
+      </c>
+      <c r="E183" s="1">
+        <v>555</v>
+      </c>
+      <c r="F183" s="1">
+        <v>555</v>
+      </c>
+      <c r="G183" s="1">
+        <v>17</v>
+      </c>
+      <c r="H183" s="1">
+        <v>17</v>
+      </c>
+      <c r="I183" s="1">
+        <v>0</v>
+      </c>
+      <c r="J183" s="1">
+        <v>9</v>
+      </c>
+      <c r="K183" s="1">
+        <v>529</v>
+      </c>
+      <c r="L183" s="1">
+        <v>0</v>
+      </c>
+      <c r="M183" s="1">
+        <v>108</v>
+      </c>
+      <c r="N183" s="1">
+        <v>0</v>
+      </c>
+      <c r="O183" s="1">
+        <v>467</v>
+      </c>
       <c r="R183" s="35"/>
     </row>
     <row r="184" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$183</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$184</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -956,10 +956,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U183" sqref="U183"/>
+      <selection pane="bottomRight" activeCell="P180" sqref="P180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -980,7 +980,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44095.638596180557</v>
+        <v>44096.58877800926</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11175,6 +11175,51 @@
       <c r="R183" s="35"/>
     </row>
     <row r="184" spans="1:18">
+      <c r="A184" s="12">
+        <v>44096</v>
+      </c>
+      <c r="B184" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1</v>
+      </c>
+      <c r="E184" s="1">
+        <v>556</v>
+      </c>
+      <c r="F184" s="1">
+        <v>556</v>
+      </c>
+      <c r="G184" s="1">
+        <v>18</v>
+      </c>
+      <c r="H184" s="1">
+        <v>18</v>
+      </c>
+      <c r="I184" s="1">
+        <v>0</v>
+      </c>
+      <c r="J184" s="1">
+        <v>9</v>
+      </c>
+      <c r="K184" s="1">
+        <v>529</v>
+      </c>
+      <c r="L184" s="1">
+        <v>0</v>
+      </c>
+      <c r="M184" s="1">
+        <v>108</v>
+      </c>
+      <c r="N184" s="1">
+        <v>0</v>
+      </c>
+      <c r="O184" s="1">
+        <v>467</v>
+      </c>
       <c r="R184" s="35"/>
     </row>
     <row r="185" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,9 +16,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$184</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$185</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -48,7 +48,7 @@
     <rPh sb="0" eb="3">
       <t>ナラケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>最終更新_年月日時間</t>
@@ -64,7 +64,7 @@
     <rPh sb="8" eb="10">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>感染症対応病床数</t>
@@ -77,7 +77,7 @@
     <rPh sb="5" eb="8">
       <t>ビョウショウスウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入院者中の患者数</t>
@@ -93,7 +93,7 @@
     <rPh sb="5" eb="8">
       <t>カンジャスウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入院者中の無症状病原体保有者数</t>
@@ -109,14 +109,14 @@
     <rPh sb="14" eb="15">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>公表_年月日</t>
     <rPh sb="0" eb="2">
       <t>コウヒョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>死亡者_累計</t>
@@ -126,7 +126,7 @@
     <rPh sb="4" eb="6">
       <t>ルイケイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>退院者_累計</t>
@@ -139,7 +139,7 @@
     <rPh sb="4" eb="6">
       <t>ルイケイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入院者数</t>
@@ -149,7 +149,7 @@
     <rPh sb="2" eb="3">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>陽性確認_件数</t>
@@ -162,7 +162,7 @@
     <rPh sb="5" eb="7">
       <t>ケンスウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入院者数_累計及び退院者_累計からクルーズ船乗客5名分を除外</t>
@@ -202,7 +202,7 @@
     <rPh sb="28" eb="30">
       <t>ジョガイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>陽性確認_件数_累計</t>
@@ -218,7 +218,7 @@
     <rPh sb="8" eb="10">
       <t>ルイケイルイケイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入院者数_累計</t>
@@ -234,19 +234,19 @@
     <rPh sb="5" eb="7">
       <t>ルイケイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>備考</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>感染症指定医療機関における指定病床数に加え一般病床40床を確保</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入院調整中で2名未入院</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>現在感染者数</t>
@@ -259,14 +259,14 @@
     <rPh sb="5" eb="6">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>重症</t>
     <rPh sb="0" eb="2">
       <t>ジュウショウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>宿泊療養者数</t>
@@ -282,7 +282,7 @@
     <rPh sb="5" eb="6">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>宿泊療養室数</t>
@@ -298,7 +298,7 @@
     <rPh sb="5" eb="6">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>自宅療養数</t>
@@ -311,7 +311,7 @@
     <rPh sb="4" eb="5">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>県内PCR検査数</t>
@@ -324,7 +324,7 @@
     <rPh sb="7" eb="8">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>県内PCR検査数_陽性確認</t>
@@ -343,7 +343,7 @@
     <rPh sb="11" eb="13">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>陽性率（7日間移動平均）</t>
@@ -359,63 +359,63 @@
     <rPh sb="9" eb="11">
       <t>ヘイキン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>奈良県</t>
     <rPh sb="0" eb="3">
       <t>ナラケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>奈良県</t>
     <rPh sb="0" eb="3">
       <t>ナラケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>奈良県</t>
     <rPh sb="0" eb="3">
       <t>ナラケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>奈良県</t>
     <rPh sb="0" eb="3">
       <t>ナラケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>奈良県</t>
     <rPh sb="0" eb="3">
       <t>ナラケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>奈良県</t>
     <rPh sb="0" eb="3">
       <t>ナラケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>奈良県</t>
     <rPh sb="0" eb="3">
       <t>ナラケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>奈良県</t>
     <rPh sb="0" eb="3">
       <t>ナラケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/1より県内ＰＣＲ検査数はＰＣＲ検査と抗原検査を合算した数値になります。</t>
@@ -443,29 +443,22 @@
     <rPh sb="29" eb="31">
       <t>スウチ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -498,22 +491,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -618,7 +605,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -626,116 +613,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -956,10 +943,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P180" sqref="P180"/>
+      <selection pane="bottomRight" activeCell="P184" sqref="P184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -980,7 +967,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44096.58877800926</v>
+        <v>44097.726585879631</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1345,13 +1332,13 @@
       <c r="O10" s="1">
         <v>64</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="20">
         <v>29</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="20">
         <v>4</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="21">
         <v>3.718695098005443E-2</v>
       </c>
       <c r="S10" s="1">
@@ -1398,13 +1385,13 @@
       <c r="O11" s="1">
         <v>64</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="20">
         <v>25</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="20">
         <v>3</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="21">
         <v>5.432980812291157E-2</v>
       </c>
       <c r="S11" s="1">
@@ -1451,13 +1438,13 @@
       <c r="O12" s="1">
         <v>64</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="20">
         <v>23</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="20">
         <v>4</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="21">
         <v>7.9174528619805978E-2</v>
       </c>
       <c r="S12" s="1">
@@ -1504,13 +1491,13 @@
       <c r="O13" s="1">
         <v>64</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="20">
         <v>28</v>
       </c>
-      <c r="Q13" s="21">
-        <v>0</v>
-      </c>
-      <c r="R13" s="22">
+      <c r="Q13" s="20">
+        <v>0</v>
+      </c>
+      <c r="R13" s="21">
         <v>6.8185517630794987E-2</v>
       </c>
       <c r="S13" s="1">
@@ -1557,13 +1544,13 @@
       <c r="O14" s="1">
         <v>64</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="20">
         <v>26</v>
       </c>
-      <c r="Q14" s="21">
-        <v>2</v>
-      </c>
-      <c r="R14" s="22">
+      <c r="Q14" s="20">
+        <v>2</v>
+      </c>
+      <c r="R14" s="21">
         <v>7.9174528619805978E-2</v>
       </c>
       <c r="S14" s="1">
@@ -1610,13 +1597,13 @@
       <c r="O15" s="1">
         <v>64</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="20">
         <v>28</v>
       </c>
-      <c r="Q15" s="21">
-        <v>1</v>
-      </c>
-      <c r="R15" s="22">
+      <c r="Q15" s="20">
+        <v>1</v>
+      </c>
+      <c r="R15" s="21">
         <v>8.4276569436132501E-2</v>
       </c>
       <c r="S15" s="1">
@@ -1663,13 +1650,13 @@
       <c r="O16" s="1">
         <v>64</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="20">
         <v>21</v>
       </c>
-      <c r="Q16" s="21">
-        <v>1</v>
-      </c>
-      <c r="R16" s="22">
+      <c r="Q16" s="20">
+        <v>1</v>
+      </c>
+      <c r="R16" s="21">
         <v>8.4585784031061387E-2</v>
       </c>
       <c r="S16" s="1">
@@ -1716,13 +1703,13 @@
       <c r="O17" s="1">
         <v>64</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="20">
         <v>28</v>
       </c>
-      <c r="Q17" s="21">
-        <v>2</v>
-      </c>
-      <c r="R17" s="22">
+      <c r="Q17" s="20">
+        <v>2</v>
+      </c>
+      <c r="R17" s="21">
         <v>7.5085432166177496E-2</v>
       </c>
       <c r="S17" s="1">
@@ -1769,13 +1756,13 @@
       <c r="O18" s="1">
         <v>64</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="20">
         <v>45</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="20">
         <v>4</v>
       </c>
-      <c r="R18" s="22">
+      <c r="R18" s="21">
         <v>7.0640987721733065E-2</v>
       </c>
       <c r="S18" s="1">
@@ -1822,13 +1809,13 @@
       <c r="O19" s="1">
         <v>64</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="20">
         <v>42</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="20">
         <v>4</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="21">
         <v>5.9401709401709399E-2</v>
       </c>
       <c r="S19" s="1">
@@ -1875,13 +1862,13 @@
       <c r="O20" s="1">
         <v>64</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P20" s="20">
         <v>35</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="20">
         <v>3</v>
       </c>
-      <c r="R20" s="22">
+      <c r="R20" s="21">
         <v>7.164660736089308E-2</v>
       </c>
       <c r="S20" s="1">
@@ -1928,13 +1915,13 @@
       <c r="O21" s="1">
         <v>64</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P21" s="20">
         <v>26</v>
       </c>
-      <c r="Q21" s="21">
-        <v>1</v>
-      </c>
-      <c r="R21" s="22">
+      <c r="Q21" s="20">
+        <v>1</v>
+      </c>
+      <c r="R21" s="21">
         <v>6.6152101866387578E-2</v>
       </c>
       <c r="S21" s="1">
@@ -1981,13 +1968,13 @@
       <c r="O22" s="1">
         <v>64</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="20">
         <v>36</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="20">
         <v>3</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="21">
         <v>7.2954822954822945E-2</v>
       </c>
       <c r="S22" s="1">
@@ -2034,13 +2021,13 @@
       <c r="O23" s="1">
         <v>64</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="20">
         <v>44</v>
       </c>
-      <c r="Q23" s="21">
+      <c r="Q23" s="20">
         <v>5</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="21">
         <v>8.2385868100153803E-2</v>
       </c>
       <c r="S23" s="1">
@@ -2087,13 +2074,13 @@
       <c r="O24" s="1">
         <v>64</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="20">
         <v>31</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="20">
         <v>4</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R24" s="21">
         <v>9.0614966191003052E-2</v>
       </c>
       <c r="S24" s="1">
@@ -2140,13 +2127,13 @@
       <c r="O25" s="1">
         <v>64</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="20">
         <v>62</v>
       </c>
-      <c r="Q25" s="21">
-        <v>1</v>
-      </c>
-      <c r="R25" s="22">
+      <c r="Q25" s="20">
+        <v>1</v>
+      </c>
+      <c r="R25" s="21">
         <v>8.0220700958028149E-2</v>
       </c>
       <c r="S25" s="1">
@@ -2193,13 +2180,13 @@
       <c r="O26" s="1">
         <v>64</v>
       </c>
-      <c r="P26" s="21">
+      <c r="P26" s="20">
         <v>67</v>
       </c>
-      <c r="Q26" s="21">
-        <v>2</v>
-      </c>
-      <c r="R26" s="22">
+      <c r="Q26" s="20">
+        <v>2</v>
+      </c>
+      <c r="R26" s="21">
         <v>7.0879651105251212E-2</v>
       </c>
       <c r="S26" s="1">
@@ -2249,13 +2236,13 @@
       <c r="O27" s="1">
         <v>64</v>
       </c>
-      <c r="P27" s="21">
+      <c r="P27" s="20">
         <v>48</v>
       </c>
-      <c r="Q27" s="21">
-        <v>2</v>
-      </c>
-      <c r="R27" s="22">
+      <c r="Q27" s="20">
+        <v>2</v>
+      </c>
+      <c r="R27" s="21">
         <v>6.458713409844849E-2</v>
       </c>
       <c r="S27" s="1">
@@ -2302,13 +2289,13 @@
       <c r="O28" s="1">
         <v>64</v>
       </c>
-      <c r="P28" s="21">
+      <c r="P28" s="20">
         <v>37</v>
       </c>
-      <c r="Q28" s="21">
-        <v>1</v>
-      </c>
-      <c r="R28" s="22">
+      <c r="Q28" s="20">
+        <v>1</v>
+      </c>
+      <c r="R28" s="21">
         <v>6.2953632464946854E-2</v>
       </c>
       <c r="S28" s="1">
@@ -2355,13 +2342,13 @@
       <c r="O29" s="1">
         <v>64</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P29" s="20">
         <v>81</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="Q29" s="20">
         <v>8</v>
       </c>
-      <c r="R29" s="22">
+      <c r="R29" s="21">
         <v>6.5158218002865725E-2</v>
       </c>
       <c r="S29" s="1">
@@ -2408,13 +2395,13 @@
       <c r="O30" s="1">
         <v>64</v>
       </c>
-      <c r="P30" s="21">
+      <c r="P30" s="20">
         <v>43</v>
       </c>
-      <c r="Q30" s="21">
-        <v>1</v>
-      </c>
-      <c r="R30" s="22">
+      <c r="Q30" s="20">
+        <v>1</v>
+      </c>
+      <c r="R30" s="21">
         <v>5.2246710905312119E-2</v>
       </c>
       <c r="S30" s="1">
@@ -2464,13 +2451,13 @@
       <c r="O31" s="1">
         <v>64</v>
       </c>
-      <c r="P31" s="21">
+      <c r="P31" s="20">
         <v>46</v>
       </c>
-      <c r="Q31" s="21">
-        <v>0</v>
-      </c>
-      <c r="R31" s="22">
+      <c r="Q31" s="20">
+        <v>0</v>
+      </c>
+      <c r="R31" s="21">
         <v>3.3813531181809818E-2</v>
       </c>
       <c r="S31" s="1">
@@ -2517,13 +2504,13 @@
       <c r="O32" s="1">
         <v>64</v>
       </c>
-      <c r="P32" s="21">
+      <c r="P32" s="20">
         <v>62</v>
       </c>
-      <c r="Q32" s="21">
-        <v>0</v>
-      </c>
-      <c r="R32" s="22">
+      <c r="Q32" s="20">
+        <v>0</v>
+      </c>
+      <c r="R32" s="21">
         <v>3.1509383716372026E-2</v>
       </c>
       <c r="S32" s="1">
@@ -2570,13 +2557,13 @@
       <c r="O33" s="1">
         <v>64</v>
       </c>
-      <c r="P33" s="21">
+      <c r="P33" s="20">
         <v>77</v>
       </c>
-      <c r="Q33" s="21">
-        <v>0</v>
-      </c>
-      <c r="R33" s="22">
+      <c r="Q33" s="20">
+        <v>0</v>
+      </c>
+      <c r="R33" s="21">
         <v>2.7244991392278213E-2</v>
       </c>
       <c r="S33" s="1">
@@ -2623,13 +2610,13 @@
       <c r="O34" s="1">
         <v>64</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="20">
         <v>65</v>
       </c>
-      <c r="Q34" s="21">
-        <v>2</v>
-      </c>
-      <c r="R34" s="22">
+      <c r="Q34" s="20">
+        <v>2</v>
+      </c>
+      <c r="R34" s="21">
         <v>2.5688214835501655E-2</v>
       </c>
       <c r="W34" s="16"/>
@@ -2670,13 +2657,13 @@
       <c r="O35" s="1">
         <v>64</v>
       </c>
-      <c r="P35" s="21">
+      <c r="P35" s="20">
         <v>66</v>
       </c>
-      <c r="Q35" s="21">
-        <v>0</v>
-      </c>
-      <c r="R35" s="22">
+      <c r="Q35" s="20">
+        <v>0</v>
+      </c>
+      <c r="R35" s="21">
         <v>2.1827210974497795E-2</v>
       </c>
       <c r="W35" s="16"/>
@@ -2732,13 +2719,13 @@
       <c r="O36" s="1">
         <v>64</v>
       </c>
-      <c r="P36" s="21">
+      <c r="P36" s="20">
         <v>36</v>
       </c>
-      <c r="Q36" s="21">
-        <v>1</v>
-      </c>
-      <c r="R36" s="22">
+      <c r="Q36" s="20">
+        <v>1</v>
+      </c>
+      <c r="R36" s="21">
         <v>1.1686117500070989E-2</v>
       </c>
       <c r="W36" s="16"/>
@@ -2794,13 +2781,13 @@
       <c r="O37" s="1">
         <v>64</v>
       </c>
-      <c r="P37" s="21">
+      <c r="P37" s="20">
         <v>58</v>
       </c>
-      <c r="Q37" s="21">
-        <v>2</v>
-      </c>
-      <c r="R37" s="22">
+      <c r="Q37" s="20">
+        <v>2</v>
+      </c>
+      <c r="R37" s="21">
         <v>1.3289966738242601E-2</v>
       </c>
       <c r="W37" s="16"/>
@@ -2856,13 +2843,13 @@
       <c r="O38" s="1">
         <v>64</v>
       </c>
-      <c r="P38" s="21">
+      <c r="P38" s="20">
         <v>35</v>
       </c>
-      <c r="Q38" s="21">
-        <v>1</v>
-      </c>
-      <c r="R38" s="22">
+      <c r="Q38" s="20">
+        <v>1</v>
+      </c>
+      <c r="R38" s="21">
         <v>1.7371599391303824E-2</v>
       </c>
       <c r="W38" s="16"/>
@@ -2918,13 +2905,13 @@
       <c r="O39" s="1">
         <v>64</v>
       </c>
-      <c r="P39" s="21">
+      <c r="P39" s="20">
         <v>102</v>
       </c>
-      <c r="Q39" s="21">
+      <c r="Q39" s="20">
         <v>3</v>
       </c>
-      <c r="R39" s="22">
+      <c r="R39" s="21">
         <v>2.1573280063572731E-2</v>
       </c>
       <c r="W39" s="16"/>
@@ -2980,13 +2967,13 @@
       <c r="O40" s="1">
         <v>240</v>
       </c>
-      <c r="P40" s="21">
+      <c r="P40" s="20">
         <v>51</v>
       </c>
-      <c r="Q40" s="21">
-        <v>0</v>
-      </c>
-      <c r="R40" s="22">
+      <c r="Q40" s="20">
+        <v>0</v>
+      </c>
+      <c r="R40" s="21">
         <v>2.1573280063572731E-2</v>
       </c>
       <c r="W40" s="16"/>
@@ -3042,13 +3029,13 @@
       <c r="O41" s="1">
         <v>240</v>
       </c>
-      <c r="P41" s="21">
+      <c r="P41" s="20">
         <v>93</v>
       </c>
-      <c r="Q41" s="21">
-        <v>1</v>
-      </c>
-      <c r="R41" s="22">
+      <c r="Q41" s="20">
+        <v>1</v>
+      </c>
+      <c r="R41" s="21">
         <v>1.8713773978260191E-2</v>
       </c>
       <c r="W41" s="16"/>
@@ -3104,13 +3091,13 @@
       <c r="O42" s="1">
         <v>240</v>
       </c>
-      <c r="P42" s="21">
+      <c r="P42" s="20">
         <v>41</v>
       </c>
-      <c r="Q42" s="21">
-        <v>0</v>
-      </c>
-      <c r="R42" s="22">
+      <c r="Q42" s="20">
+        <v>0</v>
+      </c>
+      <c r="R42" s="21">
         <v>1.8713773978260191E-2</v>
       </c>
       <c r="W42" s="16"/>
@@ -3166,13 +3153,13 @@
       <c r="O43" s="1">
         <v>240</v>
       </c>
-      <c r="P43" s="21">
+      <c r="P43" s="20">
         <v>27</v>
       </c>
-      <c r="Q43" s="21">
-        <v>0</v>
-      </c>
-      <c r="R43" s="22">
+      <c r="Q43" s="20">
+        <v>0</v>
+      </c>
+      <c r="R43" s="21">
         <v>1.4745520010006228E-2</v>
       </c>
       <c r="W43" s="16"/>
@@ -3228,13 +3215,13 @@
       <c r="O44" s="1">
         <v>240</v>
       </c>
-      <c r="P44" s="21">
+      <c r="P44" s="20">
         <v>44</v>
       </c>
-      <c r="Q44" s="21">
-        <v>1</v>
-      </c>
-      <c r="R44" s="22">
+      <c r="Q44" s="20">
+        <v>1</v>
+      </c>
+      <c r="R44" s="21">
         <v>1.3066164882375239E-2</v>
       </c>
       <c r="U44" s="17"/>
@@ -3291,13 +3278,13 @@
       <c r="O45" s="1">
         <v>240</v>
       </c>
-      <c r="P45" s="21">
+      <c r="P45" s="20">
         <v>35</v>
       </c>
-      <c r="Q45" s="21">
-        <v>1</v>
-      </c>
-      <c r="R45" s="22">
+      <c r="Q45" s="20">
+        <v>1</v>
+      </c>
+      <c r="R45" s="21">
         <v>8.9845322293140139E-3</v>
       </c>
       <c r="U45" s="17"/>
@@ -3354,13 +3341,13 @@
       <c r="O46" s="1">
         <v>240</v>
       </c>
-      <c r="P46" s="21">
+      <c r="P46" s="20">
         <v>50</v>
       </c>
-      <c r="Q46" s="21">
-        <v>1</v>
-      </c>
-      <c r="R46" s="22">
+      <c r="Q46" s="20">
+        <v>1</v>
+      </c>
+      <c r="R46" s="21">
         <v>7.6399944141879632E-3</v>
       </c>
       <c r="U46" s="17"/>
@@ -3417,13 +3404,13 @@
       <c r="O47" s="1">
         <v>240</v>
       </c>
-      <c r="P47" s="21">
+      <c r="P47" s="20">
         <v>76</v>
       </c>
-      <c r="Q47" s="21">
-        <v>0</v>
-      </c>
-      <c r="R47" s="22">
+      <c r="Q47" s="20">
+        <v>0</v>
+      </c>
+      <c r="R47" s="21">
         <v>7.6399944141879632E-3</v>
       </c>
       <c r="U47" s="17"/>
@@ -3480,13 +3467,13 @@
       <c r="O48" s="1">
         <v>240</v>
       </c>
-      <c r="P48" s="21">
+      <c r="P48" s="20">
         <v>54</v>
       </c>
-      <c r="Q48" s="21">
-        <v>1</v>
-      </c>
-      <c r="R48" s="22">
+      <c r="Q48" s="20">
+        <v>1</v>
+      </c>
+      <c r="R48" s="21">
         <v>8.7493987493987482E-3</v>
       </c>
       <c r="U48" s="17"/>
@@ -3543,13 +3530,13 @@
       <c r="O49" s="1">
         <v>240</v>
       </c>
-      <c r="P49" s="21">
+      <c r="P49" s="20">
         <v>45</v>
       </c>
-      <c r="Q49" s="21">
-        <v>0</v>
-      </c>
-      <c r="R49" s="22">
+      <c r="Q49" s="20">
+        <v>0</v>
+      </c>
+      <c r="R49" s="21">
         <v>8.7493987493987482E-3</v>
       </c>
       <c r="U49" s="17"/>
@@ -3606,13 +3593,13 @@
       <c r="O50" s="1">
         <v>240</v>
       </c>
-      <c r="P50" s="21">
+      <c r="P50" s="20">
         <v>35</v>
       </c>
-      <c r="Q50" s="21">
-        <v>0</v>
-      </c>
-      <c r="R50" s="22">
+      <c r="Q50" s="20">
+        <v>0</v>
+      </c>
+      <c r="R50" s="21">
         <v>8.7493987493987482E-3</v>
       </c>
       <c r="U50" s="17"/>
@@ -3669,13 +3656,13 @@
       <c r="O51" s="1">
         <v>240</v>
       </c>
-      <c r="P51" s="21">
+      <c r="P51" s="20">
         <v>56</v>
       </c>
-      <c r="Q51" s="21">
-        <v>0</v>
-      </c>
-      <c r="R51" s="22">
+      <c r="Q51" s="20">
+        <v>0</v>
+      </c>
+      <c r="R51" s="21">
         <v>5.5026455026455029E-3</v>
       </c>
       <c r="W51" s="16"/>
@@ -3731,13 +3718,13 @@
       <c r="O52" s="1">
         <v>240</v>
       </c>
-      <c r="P52" s="21">
+      <c r="P52" s="20">
         <v>104</v>
       </c>
-      <c r="Q52" s="21">
-        <v>0</v>
-      </c>
-      <c r="R52" s="22">
+      <c r="Q52" s="20">
+        <v>0</v>
+      </c>
+      <c r="R52" s="21">
         <v>5.5026455026455029E-3</v>
       </c>
       <c r="W52" s="16"/>
@@ -3793,13 +3780,13 @@
       <c r="O53" s="1">
         <v>240</v>
       </c>
-      <c r="P53" s="21">
+      <c r="P53" s="20">
         <v>44</v>
       </c>
-      <c r="Q53" s="21">
-        <v>0</v>
-      </c>
-      <c r="R53" s="22">
+      <c r="Q53" s="20">
+        <v>0</v>
+      </c>
+      <c r="R53" s="21">
         <v>2.6455026455026454E-3</v>
       </c>
       <c r="W53" s="16"/>
@@ -3855,13 +3842,13 @@
       <c r="O54" s="1">
         <v>240</v>
       </c>
-      <c r="P54" s="21">
+      <c r="P54" s="20">
         <v>101</v>
       </c>
-      <c r="Q54" s="21">
-        <v>0</v>
-      </c>
-      <c r="R54" s="22">
+      <c r="Q54" s="20">
+        <v>0</v>
+      </c>
+      <c r="R54" s="21">
         <v>2.6455026455026454E-3</v>
       </c>
       <c r="W54" s="16"/>
@@ -3917,13 +3904,13 @@
       <c r="O55" s="1">
         <v>240</v>
       </c>
-      <c r="P55" s="21">
+      <c r="P55" s="20">
         <v>51</v>
       </c>
-      <c r="Q55" s="21">
-        <v>0</v>
-      </c>
-      <c r="R55" s="22">
+      <c r="Q55" s="20">
+        <v>0</v>
+      </c>
+      <c r="R55" s="21">
         <v>0</v>
       </c>
       <c r="W55" s="16"/>
@@ -3979,13 +3966,13 @@
       <c r="O56" s="1">
         <v>240</v>
       </c>
-      <c r="P56" s="21">
+      <c r="P56" s="20">
         <v>21</v>
       </c>
-      <c r="Q56" s="21">
-        <v>0</v>
-      </c>
-      <c r="R56" s="22">
+      <c r="Q56" s="20">
+        <v>0</v>
+      </c>
+      <c r="R56" s="21">
         <v>0</v>
       </c>
       <c r="W56" s="16"/>
@@ -4041,13 +4028,13 @@
       <c r="O57" s="1">
         <v>240</v>
       </c>
-      <c r="P57" s="21">
+      <c r="P57" s="20">
         <v>58</v>
       </c>
-      <c r="Q57" s="21">
-        <v>0</v>
-      </c>
-      <c r="R57" s="22">
+      <c r="Q57" s="20">
+        <v>0</v>
+      </c>
+      <c r="R57" s="21">
         <v>0</v>
       </c>
       <c r="W57" s="16"/>
@@ -4103,13 +4090,13 @@
       <c r="O58" s="1">
         <v>240</v>
       </c>
-      <c r="P58" s="21">
+      <c r="P58" s="20">
         <v>52</v>
       </c>
-      <c r="Q58" s="21">
-        <v>0</v>
-      </c>
-      <c r="R58" s="22">
+      <c r="Q58" s="20">
+        <v>0</v>
+      </c>
+      <c r="R58" s="21">
         <v>0</v>
       </c>
       <c r="W58" s="16"/>
@@ -4165,13 +4152,13 @@
       <c r="O59" s="1">
         <v>240</v>
       </c>
-      <c r="P59" s="21">
+      <c r="P59" s="20">
         <v>58</v>
       </c>
-      <c r="Q59" s="21">
-        <v>0</v>
-      </c>
-      <c r="R59" s="22">
+      <c r="Q59" s="20">
+        <v>0</v>
+      </c>
+      <c r="R59" s="21">
         <v>0</v>
       </c>
       <c r="W59" s="16"/>
@@ -4227,13 +4214,13 @@
       <c r="O60" s="1">
         <v>240</v>
       </c>
-      <c r="P60" s="21">
+      <c r="P60" s="20">
         <v>39</v>
       </c>
-      <c r="Q60" s="21">
-        <v>0</v>
-      </c>
-      <c r="R60" s="22">
+      <c r="Q60" s="20">
+        <v>0</v>
+      </c>
+      <c r="R60" s="21">
         <v>0</v>
       </c>
       <c r="W60" s="16"/>
@@ -4289,13 +4276,13 @@
       <c r="O61" s="1">
         <v>318</v>
       </c>
-      <c r="P61" s="21">
+      <c r="P61" s="20">
         <v>72</v>
       </c>
-      <c r="Q61" s="21">
-        <v>0</v>
-      </c>
-      <c r="R61" s="22">
+      <c r="Q61" s="20">
+        <v>0</v>
+      </c>
+      <c r="R61" s="21">
         <v>0</v>
       </c>
       <c r="W61" s="16"/>
@@ -4351,13 +4338,13 @@
       <c r="O62" s="1">
         <v>318</v>
       </c>
-      <c r="P62" s="21">
+      <c r="P62" s="20">
         <v>21</v>
       </c>
-      <c r="Q62" s="21">
-        <v>0</v>
-      </c>
-      <c r="R62" s="22">
+      <c r="Q62" s="20">
+        <v>0</v>
+      </c>
+      <c r="R62" s="21">
         <v>0</v>
       </c>
       <c r="W62" s="16"/>
@@ -4413,13 +4400,13 @@
       <c r="O63" s="1">
         <v>318</v>
       </c>
-      <c r="P63" s="21">
+      <c r="P63" s="20">
         <v>34</v>
       </c>
-      <c r="Q63" s="21">
-        <v>0</v>
-      </c>
-      <c r="R63" s="22">
+      <c r="Q63" s="20">
+        <v>0</v>
+      </c>
+      <c r="R63" s="21">
         <v>0</v>
       </c>
       <c r="W63" s="16"/>
@@ -4475,13 +4462,13 @@
       <c r="O64" s="1">
         <v>318</v>
       </c>
-      <c r="P64" s="21">
+      <c r="P64" s="20">
         <v>25</v>
       </c>
-      <c r="Q64" s="21">
-        <v>0</v>
-      </c>
-      <c r="R64" s="22">
+      <c r="Q64" s="20">
+        <v>0</v>
+      </c>
+      <c r="R64" s="21">
         <v>0</v>
       </c>
       <c r="W64" s="16"/>
@@ -4537,13 +4524,13 @@
       <c r="O65" s="1">
         <v>318</v>
       </c>
-      <c r="P65" s="21">
+      <c r="P65" s="20">
         <v>43</v>
       </c>
-      <c r="Q65" s="21">
-        <v>0</v>
-      </c>
-      <c r="R65" s="22">
+      <c r="Q65" s="20">
+        <v>0</v>
+      </c>
+      <c r="R65" s="21">
         <v>3.3222591362126247E-3</v>
       </c>
       <c r="W65" s="16"/>
@@ -4599,13 +4586,13 @@
       <c r="O66" s="1">
         <v>318</v>
       </c>
-      <c r="P66" s="21">
+      <c r="P66" s="20">
         <v>47</v>
       </c>
-      <c r="Q66" s="21">
-        <v>1</v>
-      </c>
-      <c r="R66" s="22">
+      <c r="Q66" s="20">
+        <v>1</v>
+      </c>
+      <c r="R66" s="21">
         <v>3.3222591362126247E-3</v>
       </c>
       <c r="W66" s="16"/>
@@ -4661,13 +4648,13 @@
       <c r="O67" s="1">
         <v>318</v>
       </c>
-      <c r="P67" s="21">
+      <c r="P67" s="20">
         <v>49</v>
       </c>
-      <c r="Q67" s="21">
-        <v>0</v>
-      </c>
-      <c r="R67" s="22">
+      <c r="Q67" s="20">
+        <v>0</v>
+      </c>
+      <c r="R67" s="21">
         <v>3.3222591362126247E-3</v>
       </c>
       <c r="W67" s="16"/>
@@ -4723,13 +4710,13 @@
       <c r="O68" s="1">
         <v>318</v>
       </c>
-      <c r="P68" s="21">
+      <c r="P68" s="20">
         <v>62</v>
       </c>
-      <c r="Q68" s="21">
-        <v>0</v>
-      </c>
-      <c r="R68" s="22">
+      <c r="Q68" s="20">
+        <v>0</v>
+      </c>
+      <c r="R68" s="21">
         <v>3.3222591362126247E-3</v>
       </c>
       <c r="W68" s="16"/>
@@ -4785,13 +4772,13 @@
       <c r="O69" s="1">
         <v>318</v>
       </c>
-      <c r="P69" s="21">
+      <c r="P69" s="20">
         <v>28</v>
       </c>
-      <c r="Q69" s="21">
-        <v>0</v>
-      </c>
-      <c r="R69" s="22">
+      <c r="Q69" s="20">
+        <v>0</v>
+      </c>
+      <c r="R69" s="21">
         <v>3.3222591362126247E-3</v>
       </c>
       <c r="W69" s="16"/>
@@ -4847,13 +4834,13 @@
       <c r="O70" s="1">
         <v>318</v>
       </c>
-      <c r="P70" s="21">
+      <c r="P70" s="20">
         <v>25</v>
       </c>
-      <c r="Q70" s="21">
-        <v>0</v>
-      </c>
-      <c r="R70" s="22">
+      <c r="Q70" s="20">
+        <v>0</v>
+      </c>
+      <c r="R70" s="21">
         <v>3.3222591362126247E-3</v>
       </c>
       <c r="W70" s="16"/>
@@ -4909,13 +4896,13 @@
       <c r="O71" s="1">
         <v>318</v>
       </c>
-      <c r="P71" s="21">
+      <c r="P71" s="20">
         <v>26</v>
       </c>
-      <c r="Q71" s="21">
-        <v>0</v>
-      </c>
-      <c r="R71" s="23">
+      <c r="Q71" s="20">
+        <v>0</v>
+      </c>
+      <c r="R71" s="22">
         <v>3.3222591362126247E-3</v>
       </c>
       <c r="W71" s="16"/>
@@ -4971,13 +4958,13 @@
       <c r="O72" s="1">
         <v>318</v>
       </c>
-      <c r="P72" s="21">
+      <c r="P72" s="20">
         <v>33</v>
       </c>
-      <c r="Q72" s="21">
-        <v>0</v>
-      </c>
-      <c r="R72" s="23">
+      <c r="Q72" s="20">
+        <v>0</v>
+      </c>
+      <c r="R72" s="22">
         <v>0</v>
       </c>
       <c r="W72" s="16"/>
@@ -5033,13 +5020,13 @@
       <c r="O73" s="1">
         <v>318</v>
       </c>
-      <c r="P73" s="21">
+      <c r="P73" s="20">
         <v>77</v>
       </c>
-      <c r="Q73" s="21">
-        <v>0</v>
-      </c>
-      <c r="R73" s="23">
+      <c r="Q73" s="20">
+        <v>0</v>
+      </c>
+      <c r="R73" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5089,13 +5076,13 @@
       <c r="O74" s="1">
         <v>318</v>
       </c>
-      <c r="P74" s="21">
+      <c r="P74" s="20">
         <v>46</v>
       </c>
-      <c r="Q74" s="21">
-        <v>0</v>
-      </c>
-      <c r="R74" s="23">
+      <c r="Q74" s="20">
+        <v>0</v>
+      </c>
+      <c r="R74" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5145,13 +5132,13 @@
       <c r="O75" s="1">
         <v>318</v>
       </c>
-      <c r="P75" s="21">
+      <c r="P75" s="20">
         <v>61</v>
       </c>
-      <c r="Q75" s="21">
-        <v>0</v>
-      </c>
-      <c r="R75" s="23">
+      <c r="Q75" s="20">
+        <v>0</v>
+      </c>
+      <c r="R75" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5201,13 +5188,13 @@
       <c r="O76" s="1">
         <v>318</v>
       </c>
-      <c r="P76" s="21">
+      <c r="P76" s="20">
         <v>44</v>
       </c>
-      <c r="Q76" s="21">
-        <v>0</v>
-      </c>
-      <c r="R76" s="23">
+      <c r="Q76" s="20">
+        <v>0</v>
+      </c>
+      <c r="R76" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5257,13 +5244,13 @@
       <c r="O77" s="1">
         <v>318</v>
       </c>
-      <c r="P77" s="21">
+      <c r="P77" s="20">
         <v>38</v>
       </c>
-      <c r="Q77" s="21">
-        <v>0</v>
-      </c>
-      <c r="R77" s="23">
+      <c r="Q77" s="20">
+        <v>0</v>
+      </c>
+      <c r="R77" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5313,13 +5300,13 @@
       <c r="O78" s="1">
         <v>318</v>
       </c>
-      <c r="P78" s="21">
+      <c r="P78" s="20">
         <v>78</v>
       </c>
-      <c r="Q78" s="21">
-        <v>0</v>
-      </c>
-      <c r="R78" s="23">
+      <c r="Q78" s="20">
+        <v>0</v>
+      </c>
+      <c r="R78" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5369,13 +5356,13 @@
       <c r="O79" s="1">
         <v>318</v>
       </c>
-      <c r="P79" s="21">
+      <c r="P79" s="20">
         <v>49</v>
       </c>
-      <c r="Q79" s="21">
-        <v>0</v>
-      </c>
-      <c r="R79" s="23">
+      <c r="Q79" s="20">
+        <v>0</v>
+      </c>
+      <c r="R79" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5425,13 +5412,13 @@
       <c r="O80" s="1">
         <v>318</v>
       </c>
-      <c r="P80" s="21">
+      <c r="P80" s="20">
         <v>43</v>
       </c>
-      <c r="Q80" s="21">
-        <v>0</v>
-      </c>
-      <c r="R80" s="23">
+      <c r="Q80" s="20">
+        <v>0</v>
+      </c>
+      <c r="R80" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5481,13 +5468,13 @@
       <c r="O81" s="1">
         <v>318</v>
       </c>
-      <c r="P81" s="21">
+      <c r="P81" s="20">
         <v>37</v>
       </c>
-      <c r="Q81" s="21">
-        <v>0</v>
-      </c>
-      <c r="R81" s="23">
+      <c r="Q81" s="20">
+        <v>0</v>
+      </c>
+      <c r="R81" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5537,13 +5524,13 @@
       <c r="O82" s="1">
         <v>318</v>
       </c>
-      <c r="P82" s="21">
+      <c r="P82" s="20">
         <v>64</v>
       </c>
-      <c r="Q82" s="21">
-        <v>0</v>
-      </c>
-      <c r="R82" s="23">
+      <c r="Q82" s="20">
+        <v>0</v>
+      </c>
+      <c r="R82" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5593,13 +5580,13 @@
       <c r="O83" s="1">
         <v>318</v>
       </c>
-      <c r="P83" s="21">
+      <c r="P83" s="20">
         <v>23</v>
       </c>
-      <c r="Q83" s="21">
-        <v>0</v>
-      </c>
-      <c r="R83" s="23">
+      <c r="Q83" s="20">
+        <v>0</v>
+      </c>
+      <c r="R83" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5649,13 +5636,13 @@
       <c r="O84" s="1">
         <v>318</v>
       </c>
-      <c r="P84" s="21">
+      <c r="P84" s="20">
         <v>26</v>
       </c>
-      <c r="Q84" s="21">
-        <v>0</v>
-      </c>
-      <c r="R84" s="23">
+      <c r="Q84" s="20">
+        <v>0</v>
+      </c>
+      <c r="R84" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5705,13 +5692,13 @@
       <c r="O85" s="1">
         <v>318</v>
       </c>
-      <c r="P85" s="21">
+      <c r="P85" s="20">
         <v>43</v>
       </c>
-      <c r="Q85" s="21">
-        <v>0</v>
-      </c>
-      <c r="R85" s="23">
+      <c r="Q85" s="20">
+        <v>0</v>
+      </c>
+      <c r="R85" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5761,13 +5748,13 @@
       <c r="O86" s="1">
         <v>318</v>
       </c>
-      <c r="P86" s="21">
+      <c r="P86" s="20">
         <v>42</v>
       </c>
-      <c r="Q86" s="21">
-        <v>0</v>
-      </c>
-      <c r="R86" s="23">
+      <c r="Q86" s="20">
+        <v>0</v>
+      </c>
+      <c r="R86" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5817,13 +5804,13 @@
       <c r="O87" s="1">
         <v>318</v>
       </c>
-      <c r="P87" s="21">
+      <c r="P87" s="20">
         <v>49</v>
       </c>
-      <c r="Q87" s="21">
-        <v>0</v>
-      </c>
-      <c r="R87" s="23">
+      <c r="Q87" s="20">
+        <v>0</v>
+      </c>
+      <c r="R87" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5873,13 +5860,13 @@
       <c r="O88" s="1">
         <v>318</v>
       </c>
-      <c r="P88" s="21">
+      <c r="P88" s="20">
         <v>44</v>
       </c>
-      <c r="Q88" s="21">
-        <v>0</v>
-      </c>
-      <c r="R88" s="23">
+      <c r="Q88" s="20">
+        <v>0</v>
+      </c>
+      <c r="R88" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5929,13 +5916,13 @@
       <c r="O89" s="1">
         <v>318</v>
       </c>
-      <c r="P89" s="21">
+      <c r="P89" s="20">
         <v>53</v>
       </c>
-      <c r="Q89" s="21">
-        <v>0</v>
-      </c>
-      <c r="R89" s="23">
+      <c r="Q89" s="20">
+        <v>0</v>
+      </c>
+      <c r="R89" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5985,13 +5972,13 @@
       <c r="O90" s="1">
         <v>318</v>
       </c>
-      <c r="P90" s="21">
+      <c r="P90" s="20">
         <v>14</v>
       </c>
-      <c r="Q90" s="21">
-        <v>0</v>
-      </c>
-      <c r="R90" s="23">
+      <c r="Q90" s="20">
+        <v>0</v>
+      </c>
+      <c r="R90" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6041,13 +6028,13 @@
       <c r="O91" s="1">
         <v>318</v>
       </c>
-      <c r="P91" s="21">
+      <c r="P91" s="20">
         <v>11</v>
       </c>
-      <c r="Q91" s="21">
-        <v>0</v>
-      </c>
-      <c r="R91" s="23">
+      <c r="Q91" s="20">
+        <v>0</v>
+      </c>
+      <c r="R91" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6097,13 +6084,13 @@
       <c r="O92" s="1">
         <v>318</v>
       </c>
-      <c r="P92" s="21">
+      <c r="P92" s="20">
         <v>27</v>
       </c>
-      <c r="Q92" s="21">
-        <v>0</v>
-      </c>
-      <c r="R92" s="23">
+      <c r="Q92" s="20">
+        <v>0</v>
+      </c>
+      <c r="R92" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6153,13 +6140,13 @@
       <c r="O93" s="1">
         <v>318</v>
       </c>
-      <c r="P93" s="21">
+      <c r="P93" s="20">
         <v>43</v>
       </c>
-      <c r="Q93" s="21">
-        <v>0</v>
-      </c>
-      <c r="R93" s="23">
+      <c r="Q93" s="20">
+        <v>0</v>
+      </c>
+      <c r="R93" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6209,13 +6196,13 @@
       <c r="O94" s="1">
         <v>318</v>
       </c>
-      <c r="P94" s="21">
+      <c r="P94" s="20">
         <v>43</v>
       </c>
-      <c r="Q94" s="21">
-        <v>0</v>
-      </c>
-      <c r="R94" s="23">
+      <c r="Q94" s="20">
+        <v>0</v>
+      </c>
+      <c r="R94" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6265,13 +6252,13 @@
       <c r="O95" s="1">
         <v>318</v>
       </c>
-      <c r="P95" s="21">
+      <c r="P95" s="20">
         <v>33</v>
       </c>
-      <c r="Q95" s="21">
-        <v>0</v>
-      </c>
-      <c r="R95" s="23">
+      <c r="Q95" s="20">
+        <v>0</v>
+      </c>
+      <c r="R95" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6321,13 +6308,13 @@
       <c r="O96" s="1">
         <v>318</v>
       </c>
-      <c r="P96" s="21">
+      <c r="P96" s="20">
         <v>56</v>
       </c>
-      <c r="Q96" s="21">
-        <v>0</v>
-      </c>
-      <c r="R96" s="23">
+      <c r="Q96" s="20">
+        <v>0</v>
+      </c>
+      <c r="R96" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6377,13 +6364,13 @@
       <c r="O97" s="1">
         <v>318</v>
       </c>
-      <c r="P97" s="21">
+      <c r="P97" s="20">
         <v>21</v>
       </c>
-      <c r="Q97" s="21">
-        <v>0</v>
-      </c>
-      <c r="R97" s="23">
+      <c r="Q97" s="20">
+        <v>0</v>
+      </c>
+      <c r="R97" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6433,13 +6420,13 @@
       <c r="O98" s="1">
         <v>318</v>
       </c>
-      <c r="P98" s="21">
+      <c r="P98" s="20">
         <v>8</v>
       </c>
-      <c r="Q98" s="21">
-        <v>0</v>
-      </c>
-      <c r="R98" s="23">
+      <c r="Q98" s="20">
+        <v>0</v>
+      </c>
+      <c r="R98" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6489,13 +6476,13 @@
       <c r="O99" s="1">
         <v>318</v>
       </c>
-      <c r="P99" s="21">
+      <c r="P99" s="20">
         <v>23</v>
       </c>
-      <c r="Q99" s="21">
-        <v>0</v>
-      </c>
-      <c r="R99" s="23">
+      <c r="Q99" s="20">
+        <v>0</v>
+      </c>
+      <c r="R99" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6545,13 +6532,13 @@
       <c r="O100" s="1">
         <v>318</v>
       </c>
-      <c r="P100" s="21">
+      <c r="P100" s="20">
         <v>39</v>
       </c>
-      <c r="Q100" s="21">
-        <v>0</v>
-      </c>
-      <c r="R100" s="23">
+      <c r="Q100" s="20">
+        <v>0</v>
+      </c>
+      <c r="R100" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6601,13 +6588,13 @@
       <c r="O101" s="1">
         <v>318</v>
       </c>
-      <c r="P101" s="24">
+      <c r="P101" s="23">
         <v>53</v>
       </c>
-      <c r="Q101" s="24">
-        <v>0</v>
-      </c>
-      <c r="R101" s="25">
+      <c r="Q101" s="23">
+        <v>0</v>
+      </c>
+      <c r="R101" s="24">
         <v>0</v>
       </c>
     </row>
@@ -6657,13 +6644,13 @@
       <c r="O102" s="1">
         <v>318</v>
       </c>
-      <c r="P102" s="24">
+      <c r="P102" s="23">
         <v>42</v>
       </c>
-      <c r="Q102" s="24">
-        <v>0</v>
-      </c>
-      <c r="R102" s="25">
+      <c r="Q102" s="23">
+        <v>0</v>
+      </c>
+      <c r="R102" s="24">
         <v>0</v>
       </c>
     </row>
@@ -6713,13 +6700,13 @@
       <c r="O103" s="1">
         <v>318</v>
       </c>
-      <c r="P103" s="24">
+      <c r="P103" s="23">
         <v>71</v>
       </c>
-      <c r="Q103" s="24">
-        <v>1</v>
-      </c>
-      <c r="R103" s="25">
+      <c r="Q103" s="23">
+        <v>1</v>
+      </c>
+      <c r="R103" s="24">
         <v>2.012072434607646E-3</v>
       </c>
     </row>
@@ -6769,13 +6756,13 @@
       <c r="O104" s="1">
         <v>434</v>
       </c>
-      <c r="P104" s="24">
+      <c r="P104" s="23">
         <v>44</v>
       </c>
-      <c r="Q104" s="24">
-        <v>2</v>
-      </c>
-      <c r="R104" s="25">
+      <c r="Q104" s="23">
+        <v>2</v>
+      </c>
+      <c r="R104" s="24">
         <v>6.4935064935064939E-3</v>
       </c>
     </row>
@@ -6825,13 +6812,13 @@
       <c r="O105" s="1">
         <v>434</v>
       </c>
-      <c r="P105" s="24">
+      <c r="P105" s="23">
         <v>40</v>
       </c>
-      <c r="Q105" s="24">
-        <v>1</v>
-      </c>
-      <c r="R105" s="25">
+      <c r="Q105" s="23">
+        <v>1</v>
+      </c>
+      <c r="R105" s="24">
         <v>5.5835010060362178E-3</v>
       </c>
     </row>
@@ -6881,13 +6868,13 @@
       <c r="O106" s="1">
         <v>434</v>
       </c>
-      <c r="P106" s="24">
+      <c r="P106" s="23">
         <v>52</v>
       </c>
-      <c r="Q106" s="24">
-        <v>1</v>
-      </c>
-      <c r="R106" s="25">
+      <c r="Q106" s="23">
+        <v>1</v>
+      </c>
+      <c r="R106" s="24">
         <v>1.1252831675366889E-2</v>
       </c>
     </row>
@@ -6937,13 +6924,13 @@
       <c r="O107" s="1">
         <v>434</v>
       </c>
-      <c r="P107" s="24">
+      <c r="P107" s="23">
         <v>81</v>
       </c>
-      <c r="Q107" s="24">
-        <v>2</v>
-      </c>
-      <c r="R107" s="25">
+      <c r="Q107" s="23">
+        <v>2</v>
+      </c>
+      <c r="R107" s="24">
         <v>1.5604344360212906E-2</v>
       </c>
     </row>
@@ -6993,13 +6980,13 @@
       <c r="O108" s="1">
         <v>434</v>
       </c>
-      <c r="P108" s="24">
+      <c r="P108" s="23">
         <v>135</v>
       </c>
-      <c r="Q108" s="24">
+      <c r="Q108" s="23">
         <v>3</v>
       </c>
-      <c r="R108" s="25">
+      <c r="R108" s="24">
         <v>1.7998863421398635E-2</v>
       </c>
     </row>
@@ -7049,13 +7036,13 @@
       <c r="O109" s="1">
         <v>434</v>
       </c>
-      <c r="P109" s="24">
+      <c r="P109" s="23">
         <v>76</v>
       </c>
-      <c r="Q109" s="24">
-        <v>2</v>
-      </c>
-      <c r="R109" s="25">
+      <c r="Q109" s="23">
+        <v>2</v>
+      </c>
+      <c r="R109" s="24">
         <v>2.2110995603706253E-2</v>
       </c>
     </row>
@@ -7105,13 +7092,13 @@
       <c r="O110" s="1">
         <v>434</v>
       </c>
-      <c r="P110" s="24">
+      <c r="P110" s="23">
         <v>187</v>
       </c>
-      <c r="Q110" s="24">
+      <c r="Q110" s="23">
         <v>10</v>
       </c>
-      <c r="R110" s="25">
+      <c r="R110" s="24">
         <v>2.9165619686194112E-2</v>
       </c>
     </row>
@@ -7161,13 +7148,13 @@
       <c r="O111" s="1">
         <v>434</v>
       </c>
-      <c r="P111" s="24">
+      <c r="P111" s="23">
         <v>601</v>
       </c>
-      <c r="Q111" s="24">
-        <v>1</v>
-      </c>
-      <c r="R111" s="25">
+      <c r="Q111" s="23">
+        <v>1</v>
+      </c>
+      <c r="R111" s="24">
         <v>2.3511225416675396E-2</v>
       </c>
     </row>
@@ -7217,13 +7204,13 @@
       <c r="O112" s="1">
         <v>434</v>
       </c>
-      <c r="P112" s="24">
+      <c r="P112" s="23">
         <v>549</v>
       </c>
-      <c r="Q112" s="24">
+      <c r="Q112" s="23">
         <v>7</v>
       </c>
-      <c r="R112" s="25">
+      <c r="R112" s="24">
         <v>2.6240932879092887E-2</v>
       </c>
     </row>
@@ -7273,13 +7260,13 @@
       <c r="O113" s="1">
         <v>434</v>
       </c>
-      <c r="P113" s="26">
+      <c r="P113" s="25">
         <v>331</v>
       </c>
-      <c r="Q113" s="26">
+      <c r="Q113" s="25">
         <v>4</v>
       </c>
-      <c r="R113" s="27">
+      <c r="R113" s="26">
         <v>2.2812080062296351E-2</v>
       </c>
     </row>
@@ -7329,13 +7316,13 @@
       <c r="O114" s="1">
         <v>434</v>
       </c>
-      <c r="P114" s="24">
+      <c r="P114" s="23">
         <v>523</v>
       </c>
-      <c r="Q114" s="24">
+      <c r="Q114" s="23">
         <v>4</v>
       </c>
-      <c r="R114" s="25">
+      <c r="R114" s="24">
         <v>2.1252548284300232E-2</v>
       </c>
     </row>
@@ -7385,13 +7372,13 @@
       <c r="O115" s="1">
         <v>434</v>
       </c>
-      <c r="P115" s="24">
+      <c r="P115" s="23">
         <v>423</v>
       </c>
-      <c r="Q115" s="24">
+      <c r="Q115" s="23">
         <v>8</v>
       </c>
-      <c r="R115" s="25">
+      <c r="R115" s="24">
         <v>2.106077401497821E-2</v>
       </c>
     </row>
@@ -7441,13 +7428,13 @@
       <c r="O116" s="1">
         <v>434</v>
       </c>
-      <c r="P116" s="24">
+      <c r="P116" s="23">
         <v>184</v>
       </c>
-      <c r="Q116" s="24">
+      <c r="Q116" s="23">
         <v>5</v>
       </c>
-      <c r="R116" s="25">
+      <c r="R116" s="24">
         <v>2.0158966133097346E-2</v>
       </c>
     </row>
@@ -7497,13 +7484,13 @@
       <c r="O117" s="1">
         <v>434</v>
       </c>
-      <c r="P117" s="24">
+      <c r="P117" s="23">
         <v>212</v>
       </c>
-      <c r="Q117" s="24">
+      <c r="Q117" s="23">
         <v>8</v>
       </c>
-      <c r="R117" s="25">
+      <c r="R117" s="24">
         <v>2.0610205574564309E-2</v>
       </c>
     </row>
@@ -7553,13 +7540,13 @@
       <c r="O118" s="1">
         <v>434</v>
       </c>
-      <c r="P118" s="24">
+      <c r="P118" s="23">
         <v>147</v>
       </c>
-      <c r="Q118" s="24">
-        <v>2</v>
-      </c>
-      <c r="R118" s="25">
+      <c r="Q118" s="23">
+        <v>2</v>
+      </c>
+      <c r="R118" s="24">
         <v>1.3405572765259771E-2</v>
       </c>
     </row>
@@ -7609,13 +7596,13 @@
       <c r="O119" s="1">
         <v>434</v>
       </c>
-      <c r="P119" s="26">
+      <c r="P119" s="25">
         <v>87</v>
       </c>
-      <c r="Q119" s="26">
+      <c r="Q119" s="25">
         <v>3</v>
       </c>
-      <c r="R119" s="27">
+      <c r="R119" s="26">
         <v>2.1541183049489394E-2</v>
       </c>
     </row>
@@ -7665,13 +7652,13 @@
       <c r="O120" s="1">
         <v>434</v>
       </c>
-      <c r="P120" s="24">
+      <c r="P120" s="23">
         <v>117</v>
       </c>
-      <c r="Q120" s="24">
+      <c r="Q120" s="23">
         <v>7</v>
       </c>
-      <c r="R120" s="25">
+      <c r="R120" s="24">
         <v>2.5284224194037214E-2</v>
       </c>
     </row>
@@ -7721,13 +7708,13 @@
       <c r="O121" s="1">
         <v>434</v>
       </c>
-      <c r="P121" s="24">
+      <c r="P121" s="23">
         <v>143</v>
       </c>
-      <c r="Q121" s="24">
+      <c r="Q121" s="23">
         <v>7</v>
       </c>
-      <c r="R121" s="25">
+      <c r="R121" s="24">
         <v>2.6929960707989167E-2</v>
       </c>
     </row>
@@ -7777,13 +7764,13 @@
       <c r="O122" s="1">
         <v>434</v>
       </c>
-      <c r="P122" s="24">
+      <c r="P122" s="23">
         <v>205</v>
       </c>
-      <c r="Q122" s="24">
+      <c r="Q122" s="23">
         <v>15</v>
       </c>
-      <c r="R122" s="25">
+      <c r="R122" s="24">
         <v>3.7844326283549543E-2</v>
       </c>
     </row>
@@ -7833,13 +7820,13 @@
       <c r="O123" s="1">
         <v>434</v>
       </c>
-      <c r="P123" s="24">
+      <c r="P123" s="23">
         <v>99</v>
       </c>
-      <c r="Q123" s="24">
+      <c r="Q123" s="23">
         <v>7</v>
       </c>
-      <c r="R123" s="25">
+      <c r="R123" s="24">
         <v>4.3226593212261723E-2</v>
       </c>
     </row>
@@ -7889,13 +7876,13 @@
       <c r="O124" s="1">
         <v>434</v>
       </c>
-      <c r="P124" s="24">
+      <c r="P124" s="23">
         <v>200</v>
       </c>
-      <c r="Q124" s="24">
+      <c r="Q124" s="23">
         <v>7</v>
       </c>
-      <c r="R124" s="25">
+      <c r="R124" s="24">
         <v>4.3253555763084282E-2</v>
       </c>
     </row>
@@ -7945,13 +7932,13 @@
       <c r="O125" s="1">
         <v>434</v>
       </c>
-      <c r="P125" s="24">
+      <c r="P125" s="23">
         <v>162</v>
       </c>
-      <c r="Q125" s="24">
+      <c r="Q125" s="23">
         <v>4</v>
       </c>
-      <c r="R125" s="25">
+      <c r="R125" s="24">
         <v>4.7934068588251208E-2</v>
       </c>
     </row>
@@ -8001,13 +7988,13 @@
       <c r="O126" s="1">
         <v>434</v>
       </c>
-      <c r="P126" s="24">
+      <c r="P126" s="23">
         <v>93</v>
       </c>
-      <c r="Q126" s="24">
+      <c r="Q126" s="23">
         <v>4</v>
       </c>
-      <c r="R126" s="25">
+      <c r="R126" s="24">
         <v>5.3607490372052632E-2</v>
       </c>
     </row>
@@ -8057,13 +8044,13 @@
       <c r="O127" s="1">
         <v>434</v>
       </c>
-      <c r="P127" s="26">
+      <c r="P127" s="25">
         <v>141</v>
       </c>
-      <c r="Q127" s="26">
+      <c r="Q127" s="25">
         <v>7</v>
       </c>
-      <c r="R127" s="27">
+      <c r="R127" s="26">
         <v>5.3156524198731424E-2</v>
       </c>
     </row>
@@ -8113,13 +8100,13 @@
       <c r="O128" s="1">
         <v>434</v>
       </c>
-      <c r="P128" s="24">
+      <c r="P128" s="23">
         <v>77</v>
       </c>
-      <c r="Q128" s="24">
+      <c r="Q128" s="23">
         <v>4</v>
       </c>
-      <c r="R128" s="25">
+      <c r="R128" s="24">
         <v>5.108286058962317E-2</v>
       </c>
     </row>
@@ -8169,13 +8156,13 @@
       <c r="O129" s="1">
         <v>434</v>
       </c>
-      <c r="P129" s="24">
+      <c r="P129" s="23">
         <v>189</v>
       </c>
-      <c r="Q129" s="24">
+      <c r="Q129" s="23">
         <v>7</v>
       </c>
-      <c r="R129" s="25">
+      <c r="R129" s="24">
         <v>4.9051907190888623E-2</v>
       </c>
     </row>
@@ -8225,13 +8212,13 @@
       <c r="O130" s="1">
         <v>434</v>
       </c>
-      <c r="P130" s="24">
+      <c r="P130" s="23">
         <v>164</v>
       </c>
-      <c r="Q130" s="24">
+      <c r="Q130" s="23">
         <v>9</v>
       </c>
-      <c r="R130" s="25">
+      <c r="R130" s="24">
         <v>4.8568811760057999E-2</v>
       </c>
     </row>
@@ -8281,13 +8268,13 @@
       <c r="O131" s="1">
         <v>467</v>
       </c>
-      <c r="P131" s="24">
+      <c r="P131" s="23">
         <v>203</v>
       </c>
-      <c r="Q131" s="24">
+      <c r="Q131" s="23">
         <v>23</v>
       </c>
-      <c r="R131" s="25">
+      <c r="R131" s="24">
         <v>5.0661868911387402E-2</v>
       </c>
     </row>
@@ -8337,13 +8324,13 @@
       <c r="O132" s="1">
         <v>467</v>
       </c>
-      <c r="P132" s="24">
+      <c r="P132" s="23">
         <v>163</v>
       </c>
-      <c r="Q132" s="24">
+      <c r="Q132" s="23">
         <v>4</v>
       </c>
-      <c r="R132" s="25">
+      <c r="R132" s="24">
         <v>4.0821502264282238E-2</v>
       </c>
     </row>
@@ -8393,13 +8380,13 @@
       <c r="O133" s="1">
         <v>467</v>
       </c>
-      <c r="P133" s="24">
+      <c r="P133" s="23">
         <v>191</v>
       </c>
-      <c r="Q133" s="24">
+      <c r="Q133" s="23">
         <v>7</v>
       </c>
-      <c r="R133" s="25">
+      <c r="R133" s="24">
         <v>5.5209855399313446E-2</v>
       </c>
     </row>
@@ -8449,13 +8436,13 @@
       <c r="O134" s="1">
         <v>467</v>
       </c>
-      <c r="P134" s="24">
+      <c r="P134" s="23">
         <v>149</v>
       </c>
-      <c r="Q134" s="24">
+      <c r="Q134" s="23">
         <v>3</v>
       </c>
-      <c r="R134" s="25">
+      <c r="R134" s="24">
         <v>5.0211875133695592E-2</v>
       </c>
     </row>
@@ -8505,13 +8492,13 @@
       <c r="O135" s="1">
         <v>467</v>
       </c>
-      <c r="P135" s="24">
+      <c r="P135" s="23">
         <v>152</v>
       </c>
-      <c r="Q135" s="24">
+      <c r="Q135" s="23">
         <v>13</v>
       </c>
-      <c r="R135" s="25">
+      <c r="R135" s="24">
         <v>5.7697005446598178E-2</v>
       </c>
     </row>
@@ -8561,13 +8548,13 @@
       <c r="O136" s="1">
         <v>467</v>
       </c>
-      <c r="P136" s="24">
+      <c r="P136" s="23">
         <v>258</v>
       </c>
-      <c r="Q136" s="24">
+      <c r="Q136" s="23">
         <v>9</v>
       </c>
-      <c r="R136" s="25">
+      <c r="R136" s="24">
         <v>4.591751707240195E-2</v>
       </c>
     </row>
@@ -8617,13 +8604,13 @@
       <c r="O137" s="1">
         <v>467</v>
       </c>
-      <c r="P137" s="24">
+      <c r="P137" s="23">
         <v>231</v>
       </c>
-      <c r="Q137" s="24">
+      <c r="Q137" s="23">
         <v>11</v>
       </c>
-      <c r="R137" s="25">
+      <c r="R137" s="24">
         <v>5.4663889278295054E-2</v>
       </c>
     </row>
@@ -8673,13 +8660,13 @@
       <c r="O138" s="1">
         <v>467</v>
       </c>
-      <c r="P138" s="24">
+      <c r="P138" s="23">
         <v>183</v>
       </c>
-      <c r="Q138" s="24">
+      <c r="Q138" s="23">
         <v>16</v>
       </c>
-      <c r="R138" s="25">
+      <c r="R138" s="24">
         <v>5.7495077638261935E-2</v>
       </c>
     </row>
@@ -8729,13 +8716,13 @@
       <c r="O139" s="1">
         <v>467</v>
       </c>
-      <c r="P139" s="24">
+      <c r="P139" s="23">
         <v>166</v>
       </c>
-      <c r="Q139" s="24">
+      <c r="Q139" s="23">
         <v>6</v>
       </c>
-      <c r="R139" s="25">
+      <c r="R139" s="24">
         <v>4.0785283257175099E-2</v>
       </c>
     </row>
@@ -8785,13 +8772,13 @@
       <c r="O140" s="1">
         <v>467</v>
       </c>
-      <c r="P140" s="24">
+      <c r="P140" s="23">
         <v>114</v>
       </c>
-      <c r="Q140" s="24">
+      <c r="Q140" s="23">
         <v>8</v>
       </c>
-      <c r="R140" s="25">
+      <c r="R140" s="24">
         <v>5.4631379967417348E-2</v>
       </c>
     </row>
@@ -8841,13 +8828,13 @@
       <c r="O141" s="1">
         <v>467</v>
       </c>
-      <c r="P141" s="28">
+      <c r="P141" s="27">
         <v>139</v>
       </c>
-      <c r="Q141" s="28">
+      <c r="Q141" s="27">
         <v>3</v>
       </c>
-      <c r="R141" s="29">
+      <c r="R141" s="28">
         <v>4.7617474091706712E-2</v>
       </c>
     </row>
@@ -8897,13 +8884,13 @@
       <c r="O142" s="1">
         <v>467</v>
       </c>
-      <c r="P142" s="30">
+      <c r="P142" s="29">
         <v>134</v>
       </c>
-      <c r="Q142" s="30">
+      <c r="Q142" s="29">
         <v>4</v>
       </c>
-      <c r="R142" s="31">
+      <c r="R142" s="30">
         <v>5.5947363072317971E-2</v>
       </c>
     </row>
@@ -8953,13 +8940,13 @@
       <c r="O143" s="1">
         <v>467</v>
       </c>
-      <c r="P143" s="30">
+      <c r="P143" s="29">
         <v>188</v>
       </c>
-      <c r="Q143" s="30">
+      <c r="Q143" s="29">
         <v>11</v>
       </c>
-      <c r="R143" s="31">
+      <c r="R143" s="30">
         <v>5.09068359369882E-2</v>
       </c>
     </row>
@@ -9009,13 +8996,13 @@
       <c r="O144" s="1">
         <v>467</v>
       </c>
-      <c r="P144" s="30">
+      <c r="P144" s="29">
         <v>148</v>
       </c>
-      <c r="Q144" s="30">
+      <c r="Q144" s="29">
         <v>4</v>
       </c>
-      <c r="R144" s="31">
+      <c r="R144" s="30">
         <v>4.5690180803785174E-2</v>
       </c>
     </row>
@@ -9065,13 +9052,13 @@
       <c r="O145" s="1">
         <v>467</v>
       </c>
-      <c r="P145" s="30">
+      <c r="P145" s="29">
         <v>247</v>
       </c>
-      <c r="Q145" s="30">
+      <c r="Q145" s="29">
         <v>11</v>
       </c>
-      <c r="R145" s="31">
+      <c r="R145" s="30">
         <v>4.974717746196565E-2</v>
       </c>
     </row>
@@ -9121,13 +9108,13 @@
       <c r="O146" s="1">
         <v>467</v>
       </c>
-      <c r="P146" s="30">
+      <c r="P146" s="29">
         <v>246</v>
       </c>
-      <c r="Q146" s="30">
+      <c r="Q146" s="29">
         <v>20</v>
       </c>
-      <c r="R146" s="31">
+      <c r="R146" s="30">
         <v>4.637028218919715E-2</v>
       </c>
     </row>
@@ -9177,13 +9164,13 @@
       <c r="O147" s="1">
         <v>467</v>
       </c>
-      <c r="P147" s="30">
+      <c r="P147" s="29">
         <v>124</v>
       </c>
-      <c r="Q147" s="30">
+      <c r="Q147" s="29">
         <v>13</v>
       </c>
-      <c r="R147" s="31">
+      <c r="R147" s="30">
         <v>5.0931386662268839E-2</v>
       </c>
     </row>
@@ -9233,13 +9220,13 @@
       <c r="O148" s="1">
         <v>467</v>
       </c>
-      <c r="P148" s="30">
+      <c r="P148" s="29">
         <v>131</v>
       </c>
-      <c r="Q148" s="30">
+      <c r="Q148" s="29">
         <v>9</v>
       </c>
-      <c r="R148" s="31">
+      <c r="R148" s="30">
         <v>4.7358380206633903E-2</v>
       </c>
     </row>
@@ -9289,13 +9276,13 @@
       <c r="O149" s="1">
         <v>467</v>
       </c>
-      <c r="P149" s="32">
+      <c r="P149" s="31">
         <v>146</v>
       </c>
-      <c r="Q149" s="32">
+      <c r="Q149" s="31">
         <v>36</v>
       </c>
-      <c r="R149" s="33">
+      <c r="R149" s="32">
         <v>7.2768816262264974E-2</v>
       </c>
     </row>
@@ -9345,13 +9332,13 @@
       <c r="O150" s="1">
         <v>467</v>
       </c>
-      <c r="P150" s="32">
+      <c r="P150" s="31">
         <v>169</v>
       </c>
-      <c r="Q150" s="32">
-        <v>2</v>
-      </c>
-      <c r="R150" s="33">
+      <c r="Q150" s="31">
+        <v>2</v>
+      </c>
+      <c r="R150" s="32">
         <v>5.1128095251599767E-2</v>
       </c>
     </row>
@@ -9401,13 +9388,13 @@
       <c r="O151" s="1">
         <v>467</v>
       </c>
-      <c r="P151" s="32">
+      <c r="P151" s="31">
         <v>278</v>
       </c>
-      <c r="Q151" s="32">
+      <c r="Q151" s="31">
         <v>8</v>
       </c>
-      <c r="R151" s="33">
+      <c r="R151" s="32">
         <v>5.9098695637073775E-2</v>
       </c>
     </row>
@@ -9457,13 +9444,13 @@
       <c r="O152" s="1">
         <v>467</v>
       </c>
-      <c r="P152" s="32">
+      <c r="P152" s="31">
         <v>196</v>
       </c>
-      <c r="Q152" s="32">
+      <c r="Q152" s="31">
         <v>11</v>
       </c>
-      <c r="R152" s="33">
+      <c r="R152" s="32">
         <v>8.9871577741389028E-2</v>
       </c>
     </row>
@@ -9513,13 +9500,13 @@
       <c r="O153" s="1">
         <v>467</v>
       </c>
-      <c r="P153" s="32">
+      <c r="P153" s="31">
         <v>84</v>
       </c>
-      <c r="Q153" s="32">
+      <c r="Q153" s="31">
         <v>4</v>
       </c>
-      <c r="R153" s="33">
+      <c r="R153" s="32">
         <v>8.6486419332682737E-2</v>
       </c>
     </row>
@@ -9569,13 +9556,13 @@
       <c r="O154" s="1">
         <v>467</v>
       </c>
-      <c r="P154" s="32">
+      <c r="P154" s="31">
         <v>87</v>
       </c>
-      <c r="Q154" s="32">
-        <v>1</v>
-      </c>
-      <c r="R154" s="33">
+      <c r="Q154" s="31">
+        <v>1</v>
+      </c>
+      <c r="R154" s="32">
         <v>7.9074672292156478E-2</v>
       </c>
     </row>
@@ -9625,13 +9612,13 @@
       <c r="O155" s="1">
         <v>467</v>
       </c>
-      <c r="P155" s="32">
+      <c r="P155" s="31">
         <v>157</v>
       </c>
-      <c r="Q155" s="32">
+      <c r="Q155" s="31">
         <v>5</v>
       </c>
-      <c r="R155" s="33">
+      <c r="R155" s="32">
         <v>7.8385317557279385E-2</v>
       </c>
     </row>
@@ -9681,13 +9668,13 @@
       <c r="O156" s="1">
         <v>467</v>
       </c>
-      <c r="P156" s="32">
+      <c r="P156" s="31">
         <v>81</v>
       </c>
-      <c r="Q156" s="32">
+      <c r="Q156" s="31">
         <v>5</v>
       </c>
-      <c r="R156" s="33">
+      <c r="R156" s="32">
         <v>7.4479831735192931E-2</v>
       </c>
     </row>
@@ -9737,13 +9724,13 @@
       <c r="O157" s="1">
         <v>467</v>
       </c>
-      <c r="P157" s="32">
+      <c r="P157" s="31">
         <v>173</v>
       </c>
-      <c r="Q157" s="32">
+      <c r="Q157" s="31">
         <v>4</v>
       </c>
-      <c r="R157" s="33">
+      <c r="R157" s="32">
         <v>6.0791968166440925E-2</v>
       </c>
     </row>
@@ -9793,13 +9780,13 @@
       <c r="O158" s="1">
         <v>467</v>
       </c>
-      <c r="P158" s="32">
+      <c r="P158" s="31">
         <v>113</v>
       </c>
-      <c r="Q158" s="32">
-        <v>1</v>
-      </c>
-      <c r="R158" s="33">
+      <c r="Q158" s="31">
+        <v>1</v>
+      </c>
+      <c r="R158" s="32">
         <v>2.8077676956597391E-2</v>
       </c>
     </row>
@@ -9849,13 +9836,13 @@
       <c r="O159" s="1">
         <v>467</v>
       </c>
-      <c r="P159" s="32">
+      <c r="P159" s="31">
         <v>164</v>
       </c>
-      <c r="Q159" s="32">
-        <v>1</v>
-      </c>
-      <c r="R159" s="33">
+      <c r="Q159" s="31">
+        <v>1</v>
+      </c>
+      <c r="R159" s="32">
         <v>3.4812259669252679E-2</v>
       </c>
     </row>
@@ -9905,13 +9892,13 @@
       <c r="O160" s="1">
         <v>467</v>
       </c>
-      <c r="P160" s="32">
+      <c r="P160" s="31">
         <v>167</v>
       </c>
-      <c r="Q160" s="32">
+      <c r="Q160" s="31">
         <v>6</v>
       </c>
-      <c r="R160" s="33">
+      <c r="R160" s="32">
         <v>3.8265829898243522E-2</v>
       </c>
     </row>
@@ -9961,13 +9948,13 @@
       <c r="O161" s="1">
         <v>467</v>
       </c>
-      <c r="P161" s="32">
+      <c r="P161" s="31">
         <v>93</v>
       </c>
-      <c r="Q161" s="32">
-        <v>2</v>
-      </c>
-      <c r="R161" s="33">
+      <c r="Q161" s="31">
+        <v>2</v>
+      </c>
+      <c r="R161" s="32">
         <v>2.9452164351678273E-2</v>
       </c>
     </row>
@@ -10017,13 +10004,13 @@
       <c r="O162" s="1">
         <v>467</v>
       </c>
-      <c r="P162" s="30">
+      <c r="P162" s="29">
         <v>129</v>
       </c>
-      <c r="Q162" s="30">
+      <c r="Q162" s="29">
         <v>4</v>
       </c>
-      <c r="R162" s="31">
+      <c r="R162" s="30">
         <v>2.4878005630315503E-2</v>
       </c>
     </row>
@@ -10073,13 +10060,13 @@
       <c r="O163" s="1">
         <v>467</v>
       </c>
-      <c r="P163" s="34">
+      <c r="P163" s="33">
         <v>211</v>
       </c>
-      <c r="Q163" s="24">
-        <v>2</v>
-      </c>
-      <c r="R163" s="35">
+      <c r="Q163" s="23">
+        <v>2</v>
+      </c>
+      <c r="R163" s="34">
         <v>1.8896643350411496E-2</v>
       </c>
       <c r="U163" s="13" t="s">
@@ -10132,13 +10119,13 @@
       <c r="O164" s="1">
         <v>467</v>
       </c>
-      <c r="P164" s="34">
+      <c r="P164" s="33">
         <v>267</v>
       </c>
-      <c r="Q164" s="24">
-        <v>2</v>
-      </c>
-      <c r="R164" s="35">
+      <c r="Q164" s="23">
+        <v>2</v>
+      </c>
+      <c r="R164" s="34">
         <v>1.6518229725575512E-2</v>
       </c>
     </row>
@@ -10188,13 +10175,13 @@
       <c r="O165" s="1">
         <v>467</v>
       </c>
-      <c r="P165" s="36">
+      <c r="P165" s="35">
         <v>186</v>
       </c>
-      <c r="Q165" s="26">
-        <v>2</v>
-      </c>
-      <c r="R165" s="35">
+      <c r="Q165" s="25">
+        <v>2</v>
+      </c>
+      <c r="R165" s="34">
         <v>1.6934679491322522E-2</v>
       </c>
     </row>
@@ -10244,13 +10231,13 @@
       <c r="O166" s="1">
         <v>467</v>
       </c>
-      <c r="P166" s="34">
+      <c r="P166" s="33">
         <v>206</v>
       </c>
-      <c r="Q166" s="24">
+      <c r="Q166" s="23">
         <v>3</v>
       </c>
-      <c r="R166" s="35">
+      <c r="R166" s="34">
         <v>1.840844004474983E-2</v>
       </c>
     </row>
@@ -10300,13 +10287,13 @@
       <c r="O167" s="1">
         <v>467</v>
       </c>
-      <c r="P167" s="34">
+      <c r="P167" s="33">
         <v>79</v>
       </c>
-      <c r="Q167" s="24">
+      <c r="Q167" s="23">
         <v>4</v>
       </c>
-      <c r="R167" s="35">
+      <c r="R167" s="34">
         <v>2.3128064834579031E-2</v>
       </c>
     </row>
@@ -10356,13 +10343,13 @@
       <c r="O168" s="1">
         <v>467</v>
       </c>
-      <c r="P168" s="34">
+      <c r="P168" s="33">
         <v>25</v>
       </c>
-      <c r="Q168" s="24">
-        <v>0</v>
-      </c>
-      <c r="R168" s="35">
+      <c r="Q168" s="23">
+        <v>0</v>
+      </c>
+      <c r="R168" s="34">
         <v>2.0457837865286647E-2</v>
       </c>
     </row>
@@ -10412,13 +10399,13 @@
       <c r="O169" s="1">
         <v>467</v>
       </c>
-      <c r="P169" s="34">
+      <c r="P169" s="33">
         <v>163</v>
       </c>
-      <c r="Q169" s="24">
-        <v>1</v>
-      </c>
-      <c r="R169" s="35">
+      <c r="Q169" s="23">
+        <v>1</v>
+      </c>
+      <c r="R169" s="34">
         <v>1.7128331550705703E-2</v>
       </c>
     </row>
@@ -10468,13 +10455,13 @@
       <c r="O170" s="1">
         <v>467</v>
       </c>
-      <c r="P170" s="34">
+      <c r="P170" s="33">
         <v>121</v>
       </c>
-      <c r="Q170" s="34">
-        <v>1</v>
-      </c>
-      <c r="R170" s="35">
+      <c r="Q170" s="33">
+        <v>1</v>
+      </c>
+      <c r="R170" s="34">
         <v>1.7405616377679973E-2</v>
       </c>
     </row>
@@ -10524,13 +10511,13 @@
       <c r="O171" s="1">
         <v>467</v>
       </c>
-      <c r="P171" s="37">
+      <c r="P171" s="36">
         <v>130</v>
       </c>
-      <c r="Q171" s="37">
-        <v>2</v>
-      </c>
-      <c r="R171" s="35">
+      <c r="Q171" s="36">
+        <v>2</v>
+      </c>
+      <c r="R171" s="34">
         <v>1.8678776874141437E-2</v>
       </c>
     </row>
@@ -10580,13 +10567,13 @@
       <c r="O172" s="1">
         <v>467</v>
       </c>
-      <c r="P172" s="37">
+      <c r="P172" s="36">
         <v>104</v>
       </c>
-      <c r="Q172" s="37">
-        <v>1</v>
-      </c>
-      <c r="R172" s="35">
+      <c r="Q172" s="36">
+        <v>1</v>
+      </c>
+      <c r="R172" s="34">
         <v>1.8426676033805305E-2</v>
       </c>
     </row>
@@ -10636,13 +10623,13 @@
       <c r="O173" s="1">
         <v>467</v>
       </c>
-      <c r="P173" s="37">
+      <c r="P173" s="36">
         <v>158</v>
       </c>
-      <c r="Q173" s="37">
-        <v>1</v>
-      </c>
-      <c r="R173" s="35">
+      <c r="Q173" s="36">
+        <v>1</v>
+      </c>
+      <c r="R173" s="34">
         <v>1.694669756428363E-2</v>
       </c>
     </row>
@@ -10692,13 +10679,13 @@
       <c r="O174" s="1">
         <v>467</v>
       </c>
-      <c r="P174" s="37">
+      <c r="P174" s="36">
         <v>62</v>
       </c>
-      <c r="Q174" s="37">
-        <v>0</v>
-      </c>
-      <c r="R174" s="35">
+      <c r="Q174" s="36">
+        <v>0</v>
+      </c>
+      <c r="R174" s="34">
         <v>7.09448081551516E-3</v>
       </c>
     </row>
@@ -10748,13 +10735,13 @@
       <c r="O175" s="1">
         <v>467</v>
       </c>
-      <c r="P175" s="37">
+      <c r="P175" s="36">
         <v>29</v>
       </c>
-      <c r="Q175" s="37">
-        <v>1</v>
-      </c>
-      <c r="R175" s="35">
+      <c r="Q175" s="36">
+        <v>1</v>
+      </c>
+      <c r="R175" s="34">
         <v>1.2020589189899396E-2</v>
       </c>
     </row>
@@ -10804,13 +10791,13 @@
       <c r="O176" s="1">
         <v>467</v>
       </c>
-      <c r="P176" s="37">
+      <c r="P176" s="36">
         <v>195</v>
       </c>
-      <c r="Q176" s="37">
+      <c r="Q176" s="36">
         <v>4</v>
       </c>
-      <c r="R176" s="35">
+      <c r="R176" s="34">
         <v>1.388489403927887E-2</v>
       </c>
     </row>
@@ -10860,13 +10847,13 @@
       <c r="O177" s="1">
         <v>467</v>
       </c>
-      <c r="P177" s="37">
+      <c r="P177" s="36">
         <v>147</v>
       </c>
-      <c r="Q177" s="37">
-        <v>1</v>
-      </c>
-      <c r="R177" s="35">
+      <c r="Q177" s="36">
+        <v>1</v>
+      </c>
+      <c r="R177" s="34">
         <v>1.3303916306570882E-2</v>
       </c>
     </row>
@@ -10916,13 +10903,13 @@
       <c r="O178" s="1">
         <v>467</v>
       </c>
-      <c r="P178" s="37">
-        <v>134</v>
-      </c>
-      <c r="Q178" s="37">
-        <v>1</v>
-      </c>
-      <c r="R178" s="35">
+      <c r="P178" s="36">
+        <v>135</v>
+      </c>
+      <c r="Q178" s="36">
+        <v>1</v>
+      </c>
+      <c r="R178" s="34">
         <v>1.2180227964837429E-2</v>
       </c>
     </row>
@@ -10973,12 +10960,12 @@
         <v>467</v>
       </c>
       <c r="P179" s="1">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="Q179" s="1">
         <v>0</v>
       </c>
-      <c r="R179" s="35">
+      <c r="R179" s="34">
         <v>1.0798585816165763E-2</v>
       </c>
     </row>
@@ -11028,7 +11015,15 @@
       <c r="O180" s="1">
         <v>467</v>
       </c>
-      <c r="R180" s="35"/>
+      <c r="P180" s="1">
+        <v>158</v>
+      </c>
+      <c r="Q180" s="1">
+        <v>1</v>
+      </c>
+      <c r="R180" s="34">
+        <v>1.0790688793343368E-2</v>
+      </c>
     </row>
     <row r="181" spans="1:18">
       <c r="A181" s="12">
@@ -11076,7 +11071,15 @@
       <c r="O181" s="1">
         <v>467</v>
       </c>
-      <c r="R181" s="35"/>
+      <c r="P181" s="1">
+        <v>63</v>
+      </c>
+      <c r="Q181" s="1">
+        <v>2</v>
+      </c>
+      <c r="R181" s="34">
+        <v>1.5325836185633617E-2</v>
+      </c>
     </row>
     <row r="182" spans="1:18">
       <c r="A182" s="12">
@@ -11124,7 +11127,15 @@
       <c r="O182" s="1">
         <v>467</v>
       </c>
-      <c r="R182" s="35"/>
+      <c r="P182" s="1">
+        <v>71</v>
+      </c>
+      <c r="Q182" s="1">
+        <v>1</v>
+      </c>
+      <c r="R182" s="34">
+        <v>1.2411800245857028E-2</v>
+      </c>
     </row>
     <row r="183" spans="1:18">
       <c r="A183" s="12">
@@ -11172,7 +11183,15 @@
       <c r="O183" s="1">
         <v>467</v>
       </c>
-      <c r="R183" s="35"/>
+      <c r="P183" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q183" s="1">
+        <v>1</v>
+      </c>
+      <c r="R183" s="34">
+        <v>1.1267111601168384E-2</v>
+      </c>
     </row>
     <row r="184" spans="1:18">
       <c r="A184" s="12">
@@ -11220,1033 +11239,1086 @@
       <c r="O184" s="1">
         <v>467</v>
       </c>
-      <c r="R184" s="35"/>
+      <c r="P184" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q184" s="1">
+        <v>1</v>
+      </c>
+      <c r="R184" s="34">
+        <v>1.3095145601006792E-2</v>
+      </c>
     </row>
     <row r="185" spans="1:18">
-      <c r="R185" s="35"/>
+      <c r="A185" s="12">
+        <v>44097</v>
+      </c>
+      <c r="B185" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" s="1">
+        <v>2</v>
+      </c>
+      <c r="E185" s="1">
+        <v>558</v>
+      </c>
+      <c r="F185" s="1">
+        <v>558</v>
+      </c>
+      <c r="G185" s="1">
+        <v>18</v>
+      </c>
+      <c r="H185" s="1">
+        <v>18</v>
+      </c>
+      <c r="I185" s="1">
+        <v>0</v>
+      </c>
+      <c r="J185" s="1">
+        <v>9</v>
+      </c>
+      <c r="K185" s="1">
+        <v>531</v>
+      </c>
+      <c r="L185" s="1">
+        <v>0</v>
+      </c>
+      <c r="M185" s="1">
+        <v>108</v>
+      </c>
+      <c r="N185" s="1">
+        <v>0</v>
+      </c>
+      <c r="O185" s="1">
+        <v>467</v>
+      </c>
+      <c r="R185" s="34"/>
     </row>
     <row r="186" spans="1:18">
-      <c r="R186" s="35"/>
+      <c r="R186" s="34"/>
     </row>
     <row r="187" spans="1:18">
-      <c r="R187" s="35"/>
+      <c r="R187" s="34"/>
     </row>
     <row r="188" spans="1:18">
-      <c r="R188" s="35"/>
+      <c r="R188" s="34"/>
     </row>
     <row r="189" spans="1:18">
-      <c r="R189" s="35"/>
+      <c r="R189" s="34"/>
     </row>
     <row r="190" spans="1:18">
-      <c r="R190" s="35"/>
+      <c r="R190" s="34"/>
     </row>
     <row r="191" spans="1:18">
-      <c r="R191" s="35"/>
+      <c r="R191" s="34"/>
     </row>
     <row r="192" spans="1:18">
-      <c r="R192" s="35"/>
+      <c r="R192" s="34"/>
     </row>
     <row r="193" spans="18:18">
-      <c r="R193" s="35"/>
+      <c r="R193" s="34"/>
     </row>
     <row r="194" spans="18:18">
-      <c r="R194" s="35"/>
+      <c r="R194" s="34"/>
     </row>
     <row r="195" spans="18:18">
-      <c r="R195" s="35"/>
+      <c r="R195" s="34"/>
     </row>
     <row r="196" spans="18:18">
-      <c r="R196" s="35"/>
+      <c r="R196" s="34"/>
     </row>
     <row r="197" spans="18:18">
-      <c r="R197" s="35"/>
+      <c r="R197" s="34"/>
     </row>
     <row r="198" spans="18:18">
-      <c r="R198" s="35"/>
+      <c r="R198" s="34"/>
     </row>
     <row r="199" spans="18:18">
-      <c r="R199" s="35"/>
+      <c r="R199" s="34"/>
     </row>
     <row r="200" spans="18:18">
-      <c r="R200" s="35"/>
+      <c r="R200" s="34"/>
     </row>
     <row r="201" spans="18:18">
-      <c r="R201" s="35"/>
+      <c r="R201" s="34"/>
     </row>
     <row r="202" spans="18:18">
-      <c r="R202" s="35"/>
+      <c r="R202" s="34"/>
     </row>
     <row r="203" spans="18:18">
-      <c r="R203" s="35"/>
+      <c r="R203" s="34"/>
     </row>
     <row r="204" spans="18:18">
-      <c r="R204" s="35"/>
+      <c r="R204" s="34"/>
     </row>
     <row r="205" spans="18:18">
-      <c r="R205" s="35"/>
+      <c r="R205" s="34"/>
     </row>
     <row r="206" spans="18:18">
-      <c r="R206" s="35"/>
+      <c r="R206" s="34"/>
     </row>
     <row r="207" spans="18:18">
-      <c r="R207" s="35"/>
+      <c r="R207" s="34"/>
     </row>
     <row r="208" spans="18:18">
-      <c r="R208" s="35"/>
+      <c r="R208" s="34"/>
     </row>
     <row r="209" spans="18:18">
-      <c r="R209" s="35"/>
+      <c r="R209" s="34"/>
     </row>
     <row r="210" spans="18:18">
-      <c r="R210" s="35"/>
+      <c r="R210" s="34"/>
     </row>
     <row r="211" spans="18:18">
-      <c r="R211" s="35"/>
+      <c r="R211" s="34"/>
     </row>
     <row r="212" spans="18:18">
-      <c r="R212" s="35"/>
+      <c r="R212" s="34"/>
     </row>
     <row r="213" spans="18:18">
-      <c r="R213" s="35"/>
+      <c r="R213" s="34"/>
     </row>
     <row r="214" spans="18:18">
-      <c r="R214" s="35"/>
+      <c r="R214" s="34"/>
     </row>
     <row r="215" spans="18:18">
-      <c r="R215" s="35"/>
+      <c r="R215" s="34"/>
     </row>
     <row r="216" spans="18:18">
-      <c r="R216" s="35"/>
+      <c r="R216" s="34"/>
     </row>
     <row r="217" spans="18:18">
-      <c r="R217" s="35"/>
+      <c r="R217" s="34"/>
     </row>
     <row r="218" spans="18:18">
-      <c r="R218" s="35"/>
+      <c r="R218" s="34"/>
     </row>
     <row r="219" spans="18:18">
-      <c r="R219" s="35"/>
+      <c r="R219" s="34"/>
     </row>
     <row r="220" spans="18:18">
-      <c r="R220" s="35"/>
+      <c r="R220" s="34"/>
     </row>
     <row r="221" spans="18:18">
-      <c r="R221" s="35"/>
+      <c r="R221" s="34"/>
     </row>
     <row r="222" spans="18:18">
-      <c r="R222" s="35"/>
+      <c r="R222" s="34"/>
     </row>
     <row r="223" spans="18:18">
-      <c r="R223" s="35"/>
+      <c r="R223" s="34"/>
     </row>
     <row r="224" spans="18:18">
-      <c r="R224" s="35"/>
+      <c r="R224" s="34"/>
     </row>
     <row r="225" spans="18:18">
-      <c r="R225" s="35"/>
+      <c r="R225" s="34"/>
     </row>
     <row r="226" spans="18:18">
-      <c r="R226" s="35"/>
+      <c r="R226" s="34"/>
     </row>
     <row r="227" spans="18:18">
-      <c r="R227" s="35"/>
+      <c r="R227" s="34"/>
     </row>
     <row r="228" spans="18:18">
-      <c r="R228" s="35"/>
+      <c r="R228" s="34"/>
     </row>
     <row r="229" spans="18:18">
-      <c r="R229" s="35"/>
+      <c r="R229" s="34"/>
     </row>
     <row r="230" spans="18:18">
-      <c r="R230" s="35"/>
+      <c r="R230" s="34"/>
     </row>
     <row r="231" spans="18:18">
-      <c r="R231" s="35"/>
+      <c r="R231" s="34"/>
     </row>
     <row r="232" spans="18:18">
-      <c r="R232" s="35"/>
+      <c r="R232" s="34"/>
     </row>
     <row r="233" spans="18:18">
-      <c r="R233" s="35"/>
+      <c r="R233" s="34"/>
     </row>
     <row r="234" spans="18:18">
-      <c r="R234" s="35"/>
+      <c r="R234" s="34"/>
     </row>
     <row r="235" spans="18:18">
-      <c r="R235" s="35"/>
+      <c r="R235" s="34"/>
     </row>
     <row r="236" spans="18:18">
-      <c r="R236" s="35"/>
+      <c r="R236" s="34"/>
     </row>
     <row r="237" spans="18:18">
-      <c r="R237" s="35"/>
+      <c r="R237" s="34"/>
     </row>
     <row r="238" spans="18:18">
-      <c r="R238" s="35"/>
+      <c r="R238" s="34"/>
     </row>
     <row r="239" spans="18:18">
-      <c r="R239" s="35"/>
+      <c r="R239" s="34"/>
     </row>
     <row r="240" spans="18:18">
-      <c r="R240" s="35"/>
+      <c r="R240" s="34"/>
     </row>
     <row r="241" spans="18:18">
-      <c r="R241" s="35"/>
+      <c r="R241" s="34"/>
     </row>
     <row r="242" spans="18:18">
-      <c r="R242" s="35"/>
+      <c r="R242" s="34"/>
     </row>
     <row r="243" spans="18:18">
-      <c r="R243" s="35"/>
+      <c r="R243" s="34"/>
     </row>
     <row r="244" spans="18:18">
-      <c r="R244" s="35"/>
+      <c r="R244" s="34"/>
     </row>
     <row r="245" spans="18:18">
-      <c r="R245" s="35"/>
+      <c r="R245" s="34"/>
     </row>
     <row r="246" spans="18:18">
-      <c r="R246" s="35"/>
+      <c r="R246" s="34"/>
     </row>
     <row r="247" spans="18:18">
-      <c r="R247" s="35"/>
+      <c r="R247" s="34"/>
     </row>
     <row r="248" spans="18:18">
-      <c r="R248" s="35"/>
+      <c r="R248" s="34"/>
     </row>
     <row r="249" spans="18:18">
-      <c r="R249" s="35"/>
+      <c r="R249" s="34"/>
     </row>
     <row r="250" spans="18:18">
-      <c r="R250" s="35"/>
+      <c r="R250" s="34"/>
     </row>
     <row r="251" spans="18:18">
-      <c r="R251" s="35"/>
+      <c r="R251" s="34"/>
     </row>
     <row r="252" spans="18:18">
-      <c r="R252" s="35"/>
+      <c r="R252" s="34"/>
     </row>
     <row r="253" spans="18:18">
-      <c r="R253" s="35"/>
+      <c r="R253" s="34"/>
     </row>
     <row r="254" spans="18:18">
-      <c r="R254" s="35"/>
+      <c r="R254" s="34"/>
     </row>
     <row r="255" spans="18:18">
-      <c r="R255" s="35"/>
+      <c r="R255" s="34"/>
     </row>
     <row r="256" spans="18:18">
-      <c r="R256" s="35"/>
+      <c r="R256" s="34"/>
     </row>
     <row r="257" spans="18:18">
-      <c r="R257" s="35"/>
+      <c r="R257" s="34"/>
     </row>
     <row r="258" spans="18:18">
-      <c r="R258" s="35"/>
+      <c r="R258" s="34"/>
     </row>
     <row r="259" spans="18:18">
-      <c r="R259" s="35"/>
+      <c r="R259" s="34"/>
     </row>
     <row r="260" spans="18:18">
-      <c r="R260" s="35"/>
+      <c r="R260" s="34"/>
     </row>
     <row r="261" spans="18:18">
-      <c r="R261" s="35"/>
+      <c r="R261" s="34"/>
     </row>
     <row r="262" spans="18:18">
-      <c r="R262" s="35"/>
+      <c r="R262" s="34"/>
     </row>
     <row r="263" spans="18:18">
-      <c r="R263" s="35"/>
+      <c r="R263" s="34"/>
     </row>
     <row r="264" spans="18:18">
-      <c r="R264" s="35"/>
+      <c r="R264" s="34"/>
     </row>
     <row r="265" spans="18:18">
-      <c r="R265" s="35"/>
+      <c r="R265" s="34"/>
     </row>
     <row r="266" spans="18:18">
-      <c r="R266" s="35"/>
+      <c r="R266" s="34"/>
     </row>
     <row r="267" spans="18:18">
-      <c r="R267" s="35"/>
+      <c r="R267" s="34"/>
     </row>
     <row r="268" spans="18:18">
-      <c r="R268" s="35"/>
+      <c r="R268" s="34"/>
     </row>
     <row r="269" spans="18:18">
-      <c r="R269" s="35"/>
+      <c r="R269" s="34"/>
     </row>
     <row r="270" spans="18:18">
-      <c r="R270" s="35"/>
+      <c r="R270" s="34"/>
     </row>
     <row r="271" spans="18:18">
-      <c r="R271" s="35"/>
+      <c r="R271" s="34"/>
     </row>
     <row r="272" spans="18:18">
-      <c r="R272" s="35"/>
+      <c r="R272" s="34"/>
     </row>
     <row r="273" spans="18:18">
-      <c r="R273" s="35"/>
+      <c r="R273" s="34"/>
     </row>
     <row r="274" spans="18:18">
-      <c r="R274" s="35"/>
+      <c r="R274" s="34"/>
     </row>
     <row r="275" spans="18:18">
-      <c r="R275" s="35"/>
+      <c r="R275" s="34"/>
     </row>
     <row r="276" spans="18:18">
-      <c r="R276" s="35"/>
+      <c r="R276" s="34"/>
     </row>
     <row r="277" spans="18:18">
-      <c r="R277" s="35"/>
+      <c r="R277" s="34"/>
     </row>
     <row r="278" spans="18:18">
-      <c r="R278" s="35"/>
+      <c r="R278" s="34"/>
     </row>
     <row r="279" spans="18:18">
-      <c r="R279" s="35"/>
+      <c r="R279" s="34"/>
     </row>
     <row r="280" spans="18:18">
-      <c r="R280" s="35"/>
+      <c r="R280" s="34"/>
     </row>
     <row r="281" spans="18:18">
-      <c r="R281" s="35"/>
+      <c r="R281" s="34"/>
     </row>
     <row r="282" spans="18:18">
-      <c r="R282" s="35"/>
+      <c r="R282" s="34"/>
     </row>
     <row r="283" spans="18:18">
-      <c r="R283" s="35"/>
+      <c r="R283" s="34"/>
     </row>
     <row r="284" spans="18:18">
-      <c r="R284" s="35"/>
+      <c r="R284" s="34"/>
     </row>
     <row r="285" spans="18:18">
-      <c r="R285" s="35"/>
+      <c r="R285" s="34"/>
     </row>
     <row r="286" spans="18:18">
-      <c r="R286" s="35"/>
+      <c r="R286" s="34"/>
     </row>
     <row r="287" spans="18:18">
-      <c r="R287" s="35"/>
+      <c r="R287" s="34"/>
     </row>
     <row r="288" spans="18:18">
-      <c r="R288" s="35"/>
+      <c r="R288" s="34"/>
     </row>
     <row r="289" spans="18:18">
-      <c r="R289" s="35"/>
+      <c r="R289" s="34"/>
     </row>
     <row r="290" spans="18:18">
-      <c r="R290" s="35"/>
+      <c r="R290" s="34"/>
     </row>
     <row r="291" spans="18:18">
-      <c r="R291" s="35"/>
+      <c r="R291" s="34"/>
     </row>
     <row r="292" spans="18:18">
-      <c r="R292" s="35"/>
+      <c r="R292" s="34"/>
     </row>
     <row r="293" spans="18:18">
-      <c r="R293" s="35"/>
+      <c r="R293" s="34"/>
     </row>
     <row r="294" spans="18:18">
-      <c r="R294" s="35"/>
+      <c r="R294" s="34"/>
     </row>
     <row r="295" spans="18:18">
-      <c r="R295" s="35"/>
+      <c r="R295" s="34"/>
     </row>
     <row r="296" spans="18:18">
-      <c r="R296" s="35"/>
+      <c r="R296" s="34"/>
     </row>
     <row r="297" spans="18:18">
-      <c r="R297" s="35"/>
+      <c r="R297" s="34"/>
     </row>
     <row r="298" spans="18:18">
-      <c r="R298" s="35"/>
+      <c r="R298" s="34"/>
     </row>
     <row r="299" spans="18:18">
-      <c r="R299" s="35"/>
+      <c r="R299" s="34"/>
     </row>
     <row r="300" spans="18:18">
-      <c r="R300" s="35"/>
+      <c r="R300" s="34"/>
     </row>
     <row r="301" spans="18:18">
-      <c r="R301" s="35"/>
+      <c r="R301" s="34"/>
     </row>
     <row r="302" spans="18:18">
-      <c r="R302" s="35"/>
+      <c r="R302" s="34"/>
     </row>
     <row r="303" spans="18:18">
-      <c r="R303" s="35"/>
+      <c r="R303" s="34"/>
     </row>
     <row r="304" spans="18:18">
-      <c r="R304" s="35"/>
+      <c r="R304" s="34"/>
     </row>
     <row r="305" spans="18:18">
-      <c r="R305" s="35"/>
+      <c r="R305" s="34"/>
     </row>
     <row r="306" spans="18:18">
-      <c r="R306" s="35"/>
+      <c r="R306" s="34"/>
     </row>
     <row r="307" spans="18:18">
-      <c r="R307" s="35"/>
+      <c r="R307" s="34"/>
     </row>
     <row r="308" spans="18:18">
-      <c r="R308" s="35"/>
+      <c r="R308" s="34"/>
     </row>
     <row r="309" spans="18:18">
-      <c r="R309" s="35"/>
+      <c r="R309" s="34"/>
     </row>
     <row r="310" spans="18:18">
-      <c r="R310" s="35"/>
+      <c r="R310" s="34"/>
     </row>
     <row r="311" spans="18:18">
-      <c r="R311" s="35"/>
+      <c r="R311" s="34"/>
     </row>
     <row r="312" spans="18:18">
-      <c r="R312" s="35"/>
+      <c r="R312" s="34"/>
     </row>
     <row r="313" spans="18:18">
-      <c r="R313" s="35"/>
+      <c r="R313" s="34"/>
     </row>
     <row r="314" spans="18:18">
-      <c r="R314" s="35"/>
+      <c r="R314" s="34"/>
     </row>
     <row r="315" spans="18:18">
-      <c r="R315" s="35"/>
+      <c r="R315" s="34"/>
     </row>
     <row r="316" spans="18:18">
-      <c r="R316" s="35"/>
+      <c r="R316" s="34"/>
     </row>
     <row r="317" spans="18:18">
-      <c r="R317" s="35"/>
+      <c r="R317" s="34"/>
     </row>
     <row r="318" spans="18:18">
-      <c r="R318" s="35"/>
+      <c r="R318" s="34"/>
     </row>
     <row r="319" spans="18:18">
-      <c r="R319" s="35"/>
+      <c r="R319" s="34"/>
     </row>
     <row r="320" spans="18:18">
-      <c r="R320" s="35"/>
+      <c r="R320" s="34"/>
     </row>
     <row r="321" spans="18:18">
-      <c r="R321" s="35"/>
+      <c r="R321" s="34"/>
     </row>
     <row r="322" spans="18:18">
-      <c r="R322" s="35"/>
+      <c r="R322" s="34"/>
     </row>
     <row r="323" spans="18:18">
-      <c r="R323" s="35"/>
+      <c r="R323" s="34"/>
     </row>
     <row r="324" spans="18:18">
-      <c r="R324" s="35"/>
+      <c r="R324" s="34"/>
     </row>
     <row r="325" spans="18:18">
-      <c r="R325" s="35"/>
+      <c r="R325" s="34"/>
     </row>
     <row r="326" spans="18:18">
-      <c r="R326" s="35"/>
+      <c r="R326" s="34"/>
     </row>
     <row r="327" spans="18:18">
-      <c r="R327" s="35"/>
+      <c r="R327" s="34"/>
     </row>
     <row r="328" spans="18:18">
-      <c r="R328" s="35"/>
+      <c r="R328" s="34"/>
     </row>
     <row r="329" spans="18:18">
-      <c r="R329" s="35"/>
+      <c r="R329" s="34"/>
     </row>
     <row r="330" spans="18:18">
-      <c r="R330" s="35"/>
+      <c r="R330" s="34"/>
     </row>
     <row r="331" spans="18:18">
-      <c r="R331" s="35"/>
+      <c r="R331" s="34"/>
     </row>
     <row r="332" spans="18:18">
-      <c r="R332" s="35"/>
+      <c r="R332" s="34"/>
     </row>
     <row r="333" spans="18:18">
-      <c r="R333" s="35"/>
+      <c r="R333" s="34"/>
     </row>
     <row r="334" spans="18:18">
-      <c r="R334" s="35"/>
+      <c r="R334" s="34"/>
     </row>
     <row r="335" spans="18:18">
-      <c r="R335" s="35"/>
+      <c r="R335" s="34"/>
     </row>
     <row r="336" spans="18:18">
-      <c r="R336" s="35"/>
+      <c r="R336" s="34"/>
     </row>
     <row r="337" spans="18:18">
-      <c r="R337" s="35"/>
+      <c r="R337" s="34"/>
     </row>
     <row r="338" spans="18:18">
-      <c r="R338" s="35"/>
+      <c r="R338" s="34"/>
     </row>
     <row r="339" spans="18:18">
-      <c r="R339" s="35"/>
+      <c r="R339" s="34"/>
     </row>
     <row r="340" spans="18:18">
-      <c r="R340" s="35"/>
+      <c r="R340" s="34"/>
     </row>
     <row r="341" spans="18:18">
-      <c r="R341" s="35"/>
+      <c r="R341" s="34"/>
     </row>
     <row r="342" spans="18:18">
-      <c r="R342" s="35"/>
+      <c r="R342" s="34"/>
     </row>
     <row r="343" spans="18:18">
-      <c r="R343" s="35"/>
+      <c r="R343" s="34"/>
     </row>
     <row r="344" spans="18:18">
-      <c r="R344" s="35"/>
+      <c r="R344" s="34"/>
     </row>
     <row r="345" spans="18:18">
-      <c r="R345" s="35"/>
+      <c r="R345" s="34"/>
     </row>
     <row r="346" spans="18:18">
-      <c r="R346" s="35"/>
+      <c r="R346" s="34"/>
     </row>
     <row r="347" spans="18:18">
-      <c r="R347" s="35"/>
+      <c r="R347" s="34"/>
     </row>
     <row r="348" spans="18:18">
-      <c r="R348" s="35"/>
+      <c r="R348" s="34"/>
     </row>
     <row r="349" spans="18:18">
-      <c r="R349" s="35"/>
+      <c r="R349" s="34"/>
     </row>
     <row r="350" spans="18:18">
-      <c r="R350" s="35"/>
+      <c r="R350" s="34"/>
     </row>
     <row r="351" spans="18:18">
-      <c r="R351" s="35"/>
+      <c r="R351" s="34"/>
     </row>
     <row r="352" spans="18:18">
-      <c r="R352" s="35"/>
+      <c r="R352" s="34"/>
     </row>
     <row r="353" spans="18:18">
-      <c r="R353" s="35"/>
+      <c r="R353" s="34"/>
     </row>
     <row r="354" spans="18:18">
-      <c r="R354" s="35"/>
+      <c r="R354" s="34"/>
     </row>
     <row r="355" spans="18:18">
-      <c r="R355" s="35"/>
+      <c r="R355" s="34"/>
     </row>
     <row r="356" spans="18:18">
-      <c r="R356" s="35"/>
+      <c r="R356" s="34"/>
     </row>
     <row r="357" spans="18:18">
-      <c r="R357" s="35"/>
+      <c r="R357" s="34"/>
     </row>
     <row r="358" spans="18:18">
-      <c r="R358" s="35"/>
+      <c r="R358" s="34"/>
     </row>
     <row r="359" spans="18:18">
-      <c r="R359" s="35"/>
+      <c r="R359" s="34"/>
     </row>
     <row r="360" spans="18:18">
-      <c r="R360" s="35"/>
+      <c r="R360" s="34"/>
     </row>
     <row r="361" spans="18:18">
-      <c r="R361" s="35"/>
+      <c r="R361" s="34"/>
     </row>
     <row r="362" spans="18:18">
-      <c r="R362" s="35"/>
+      <c r="R362" s="34"/>
     </row>
     <row r="363" spans="18:18">
-      <c r="R363" s="35"/>
+      <c r="R363" s="34"/>
     </row>
     <row r="364" spans="18:18">
-      <c r="R364" s="20"/>
+      <c r="R364" s="37"/>
     </row>
     <row r="365" spans="18:18">
-      <c r="R365" s="20"/>
+      <c r="R365" s="37"/>
     </row>
     <row r="366" spans="18:18">
-      <c r="R366" s="20"/>
+      <c r="R366" s="37"/>
     </row>
     <row r="367" spans="18:18">
-      <c r="R367" s="20"/>
+      <c r="R367" s="37"/>
     </row>
     <row r="368" spans="18:18">
-      <c r="R368" s="20"/>
+      <c r="R368" s="37"/>
     </row>
     <row r="369" spans="18:18">
-      <c r="R369" s="20"/>
+      <c r="R369" s="37"/>
     </row>
     <row r="370" spans="18:18">
-      <c r="R370" s="20"/>
+      <c r="R370" s="37"/>
     </row>
     <row r="371" spans="18:18">
-      <c r="R371" s="20"/>
+      <c r="R371" s="37"/>
     </row>
     <row r="372" spans="18:18">
-      <c r="R372" s="20"/>
+      <c r="R372" s="37"/>
     </row>
     <row r="373" spans="18:18">
-      <c r="R373" s="20"/>
+      <c r="R373" s="37"/>
     </row>
     <row r="374" spans="18:18">
-      <c r="R374" s="20"/>
+      <c r="R374" s="37"/>
     </row>
     <row r="375" spans="18:18">
-      <c r="R375" s="20"/>
+      <c r="R375" s="37"/>
     </row>
     <row r="376" spans="18:18">
-      <c r="R376" s="20"/>
+      <c r="R376" s="37"/>
     </row>
     <row r="377" spans="18:18">
-      <c r="R377" s="20"/>
+      <c r="R377" s="37"/>
     </row>
     <row r="378" spans="18:18">
-      <c r="R378" s="20"/>
+      <c r="R378" s="37"/>
     </row>
     <row r="379" spans="18:18">
-      <c r="R379" s="20"/>
+      <c r="R379" s="37"/>
     </row>
     <row r="380" spans="18:18">
-      <c r="R380" s="20"/>
+      <c r="R380" s="37"/>
     </row>
     <row r="381" spans="18:18">
-      <c r="R381" s="20"/>
+      <c r="R381" s="37"/>
     </row>
     <row r="382" spans="18:18">
-      <c r="R382" s="20"/>
+      <c r="R382" s="37"/>
     </row>
     <row r="383" spans="18:18">
-      <c r="R383" s="20"/>
+      <c r="R383" s="37"/>
     </row>
     <row r="384" spans="18:18">
-      <c r="R384" s="20"/>
+      <c r="R384" s="37"/>
     </row>
     <row r="385" spans="18:18">
-      <c r="R385" s="20"/>
+      <c r="R385" s="37"/>
     </row>
     <row r="386" spans="18:18">
-      <c r="R386" s="20"/>
+      <c r="R386" s="37"/>
     </row>
     <row r="387" spans="18:18">
-      <c r="R387" s="20"/>
+      <c r="R387" s="37"/>
     </row>
     <row r="388" spans="18:18">
-      <c r="R388" s="20"/>
+      <c r="R388" s="37"/>
     </row>
     <row r="389" spans="18:18">
-      <c r="R389" s="20"/>
+      <c r="R389" s="37"/>
     </row>
     <row r="390" spans="18:18">
-      <c r="R390" s="20"/>
+      <c r="R390" s="37"/>
     </row>
     <row r="391" spans="18:18">
-      <c r="R391" s="20"/>
+      <c r="R391" s="37"/>
     </row>
     <row r="392" spans="18:18">
-      <c r="R392" s="20"/>
+      <c r="R392" s="37"/>
     </row>
     <row r="393" spans="18:18">
-      <c r="R393" s="20"/>
+      <c r="R393" s="37"/>
     </row>
     <row r="394" spans="18:18">
-      <c r="R394" s="20"/>
+      <c r="R394" s="37"/>
     </row>
     <row r="395" spans="18:18">
-      <c r="R395" s="20"/>
+      <c r="R395" s="37"/>
     </row>
     <row r="396" spans="18:18">
-      <c r="R396" s="20"/>
+      <c r="R396" s="37"/>
     </row>
     <row r="397" spans="18:18">
-      <c r="R397" s="20"/>
+      <c r="R397" s="37"/>
     </row>
     <row r="398" spans="18:18">
-      <c r="R398" s="20"/>
+      <c r="R398" s="37"/>
     </row>
     <row r="399" spans="18:18">
-      <c r="R399" s="20"/>
+      <c r="R399" s="37"/>
     </row>
     <row r="400" spans="18:18">
-      <c r="R400" s="20"/>
+      <c r="R400" s="37"/>
     </row>
     <row r="401" spans="18:18">
-      <c r="R401" s="20"/>
+      <c r="R401" s="37"/>
     </row>
     <row r="402" spans="18:18">
-      <c r="R402" s="20"/>
+      <c r="R402" s="37"/>
     </row>
     <row r="403" spans="18:18">
-      <c r="R403" s="20"/>
+      <c r="R403" s="37"/>
     </row>
     <row r="404" spans="18:18">
-      <c r="R404" s="20"/>
+      <c r="R404" s="37"/>
     </row>
     <row r="405" spans="18:18">
-      <c r="R405" s="20"/>
+      <c r="R405" s="37"/>
     </row>
     <row r="406" spans="18:18">
-      <c r="R406" s="20"/>
+      <c r="R406" s="37"/>
     </row>
     <row r="407" spans="18:18">
-      <c r="R407" s="20"/>
+      <c r="R407" s="37"/>
     </row>
     <row r="408" spans="18:18">
-      <c r="R408" s="20"/>
+      <c r="R408" s="37"/>
     </row>
     <row r="409" spans="18:18">
-      <c r="R409" s="20"/>
+      <c r="R409" s="37"/>
     </row>
     <row r="410" spans="18:18">
-      <c r="R410" s="20"/>
+      <c r="R410" s="37"/>
     </row>
     <row r="411" spans="18:18">
-      <c r="R411" s="20"/>
+      <c r="R411" s="37"/>
     </row>
     <row r="412" spans="18:18">
-      <c r="R412" s="20"/>
+      <c r="R412" s="37"/>
     </row>
     <row r="413" spans="18:18">
-      <c r="R413" s="20"/>
+      <c r="R413" s="37"/>
     </row>
     <row r="414" spans="18:18">
-      <c r="R414" s="20"/>
+      <c r="R414" s="37"/>
     </row>
     <row r="415" spans="18:18">
-      <c r="R415" s="20"/>
+      <c r="R415" s="37"/>
     </row>
     <row r="416" spans="18:18">
-      <c r="R416" s="20"/>
+      <c r="R416" s="37"/>
     </row>
     <row r="417" spans="18:18">
-      <c r="R417" s="20"/>
+      <c r="R417" s="37"/>
     </row>
     <row r="418" spans="18:18">
-      <c r="R418" s="20"/>
+      <c r="R418" s="37"/>
     </row>
     <row r="419" spans="18:18">
-      <c r="R419" s="20"/>
+      <c r="R419" s="37"/>
     </row>
     <row r="420" spans="18:18">
-      <c r="R420" s="20"/>
+      <c r="R420" s="37"/>
     </row>
     <row r="421" spans="18:18">
-      <c r="R421" s="20"/>
+      <c r="R421" s="37"/>
     </row>
     <row r="422" spans="18:18">
-      <c r="R422" s="20"/>
+      <c r="R422" s="37"/>
     </row>
     <row r="423" spans="18:18">
-      <c r="R423" s="20"/>
+      <c r="R423" s="37"/>
     </row>
     <row r="424" spans="18:18">
-      <c r="R424" s="20"/>
+      <c r="R424" s="37"/>
     </row>
     <row r="425" spans="18:18">
-      <c r="R425" s="20"/>
+      <c r="R425" s="37"/>
     </row>
     <row r="426" spans="18:18">
-      <c r="R426" s="20"/>
+      <c r="R426" s="37"/>
     </row>
     <row r="427" spans="18:18">
-      <c r="R427" s="20"/>
+      <c r="R427" s="37"/>
     </row>
     <row r="428" spans="18:18">
-      <c r="R428" s="20"/>
+      <c r="R428" s="37"/>
     </row>
     <row r="429" spans="18:18">
-      <c r="R429" s="20"/>
+      <c r="R429" s="37"/>
     </row>
     <row r="430" spans="18:18">
-      <c r="R430" s="20"/>
+      <c r="R430" s="37"/>
     </row>
     <row r="431" spans="18:18">
-      <c r="R431" s="20"/>
+      <c r="R431" s="37"/>
     </row>
     <row r="432" spans="18:18">
-      <c r="R432" s="20"/>
+      <c r="R432" s="37"/>
     </row>
     <row r="433" spans="18:18">
-      <c r="R433" s="20"/>
+      <c r="R433" s="37"/>
     </row>
     <row r="434" spans="18:18">
-      <c r="R434" s="20"/>
+      <c r="R434" s="37"/>
     </row>
     <row r="435" spans="18:18">
-      <c r="R435" s="20"/>
+      <c r="R435" s="37"/>
     </row>
     <row r="436" spans="18:18">
-      <c r="R436" s="20"/>
+      <c r="R436" s="37"/>
     </row>
     <row r="437" spans="18:18">
-      <c r="R437" s="20"/>
+      <c r="R437" s="37"/>
     </row>
     <row r="438" spans="18:18">
-      <c r="R438" s="20"/>
+      <c r="R438" s="37"/>
     </row>
     <row r="439" spans="18:18">
-      <c r="R439" s="20"/>
+      <c r="R439" s="37"/>
     </row>
     <row r="440" spans="18:18">
-      <c r="R440" s="20"/>
+      <c r="R440" s="37"/>
     </row>
     <row r="441" spans="18:18">
-      <c r="R441" s="20"/>
+      <c r="R441" s="37"/>
     </row>
     <row r="442" spans="18:18">
-      <c r="R442" s="20"/>
+      <c r="R442" s="37"/>
     </row>
     <row r="443" spans="18:18">
-      <c r="R443" s="20"/>
+      <c r="R443" s="37"/>
     </row>
     <row r="444" spans="18:18">
-      <c r="R444" s="20"/>
+      <c r="R444" s="37"/>
     </row>
     <row r="445" spans="18:18">
-      <c r="R445" s="20"/>
+      <c r="R445" s="37"/>
     </row>
     <row r="446" spans="18:18">
-      <c r="R446" s="20"/>
+      <c r="R446" s="37"/>
     </row>
     <row r="447" spans="18:18">
-      <c r="R447" s="20"/>
+      <c r="R447" s="37"/>
     </row>
     <row r="448" spans="18:18">
-      <c r="R448" s="20"/>
+      <c r="R448" s="37"/>
     </row>
     <row r="449" spans="18:18">
-      <c r="R449" s="20"/>
+      <c r="R449" s="37"/>
     </row>
     <row r="450" spans="18:18">
-      <c r="R450" s="20"/>
+      <c r="R450" s="37"/>
     </row>
     <row r="451" spans="18:18">
-      <c r="R451" s="20"/>
+      <c r="R451" s="37"/>
     </row>
     <row r="452" spans="18:18">
-      <c r="R452" s="20"/>
+      <c r="R452" s="37"/>
     </row>
     <row r="453" spans="18:18">
-      <c r="R453" s="20"/>
+      <c r="R453" s="37"/>
     </row>
     <row r="454" spans="18:18">
-      <c r="R454" s="20"/>
+      <c r="R454" s="37"/>
     </row>
     <row r="455" spans="18:18">
-      <c r="R455" s="20"/>
+      <c r="R455" s="37"/>
     </row>
     <row r="456" spans="18:18">
-      <c r="R456" s="20"/>
+      <c r="R456" s="37"/>
     </row>
     <row r="457" spans="18:18">
-      <c r="R457" s="20"/>
+      <c r="R457" s="37"/>
     </row>
     <row r="458" spans="18:18">
-      <c r="R458" s="20"/>
+      <c r="R458" s="37"/>
     </row>
     <row r="459" spans="18:18">
-      <c r="R459" s="20"/>
+      <c r="R459" s="37"/>
     </row>
     <row r="460" spans="18:18">
-      <c r="R460" s="20"/>
+      <c r="R460" s="37"/>
     </row>
     <row r="461" spans="18:18">
-      <c r="R461" s="20"/>
+      <c r="R461" s="37"/>
     </row>
     <row r="462" spans="18:18">
-      <c r="R462" s="20"/>
+      <c r="R462" s="37"/>
     </row>
     <row r="463" spans="18:18">
-      <c r="R463" s="20"/>
+      <c r="R463" s="37"/>
     </row>
     <row r="464" spans="18:18">
-      <c r="R464" s="20"/>
+      <c r="R464" s="37"/>
     </row>
     <row r="465" spans="18:18">
-      <c r="R465" s="20"/>
+      <c r="R465" s="37"/>
     </row>
     <row r="466" spans="18:18">
-      <c r="R466" s="20"/>
+      <c r="R466" s="37"/>
     </row>
     <row r="467" spans="18:18">
-      <c r="R467" s="20"/>
+      <c r="R467" s="37"/>
     </row>
     <row r="468" spans="18:18">
-      <c r="R468" s="20"/>
+      <c r="R468" s="37"/>
     </row>
     <row r="469" spans="18:18">
-      <c r="R469" s="20"/>
+      <c r="R469" s="37"/>
     </row>
     <row r="470" spans="18:18">
-      <c r="R470" s="20"/>
+      <c r="R470" s="37"/>
     </row>
     <row r="471" spans="18:18">
-      <c r="R471" s="20"/>
+      <c r="R471" s="37"/>
     </row>
     <row r="472" spans="18:18">
-      <c r="R472" s="20"/>
+      <c r="R472" s="37"/>
     </row>
     <row r="473" spans="18:18">
-      <c r="R473" s="20"/>
+      <c r="R473" s="37"/>
     </row>
     <row r="474" spans="18:18">
-      <c r="R474" s="20"/>
+      <c r="R474" s="37"/>
     </row>
     <row r="475" spans="18:18">
-      <c r="R475" s="20"/>
+      <c r="R475" s="37"/>
     </row>
     <row r="476" spans="18:18">
-      <c r="R476" s="20"/>
+      <c r="R476" s="37"/>
     </row>
     <row r="477" spans="18:18">
-      <c r="R477" s="20"/>
+      <c r="R477" s="37"/>
     </row>
     <row r="478" spans="18:18">
-      <c r="R478" s="20"/>
+      <c r="R478" s="37"/>
     </row>
     <row r="479" spans="18:18">
-      <c r="R479" s="20"/>
+      <c r="R479" s="37"/>
     </row>
     <row r="480" spans="18:18">
-      <c r="R480" s="20"/>
+      <c r="R480" s="37"/>
     </row>
     <row r="481" spans="18:18">
-      <c r="R481" s="20"/>
+      <c r="R481" s="37"/>
     </row>
     <row r="482" spans="18:18">
-      <c r="R482" s="20"/>
+      <c r="R482" s="37"/>
     </row>
     <row r="483" spans="18:18">
-      <c r="R483" s="20"/>
+      <c r="R483" s="37"/>
     </row>
     <row r="484" spans="18:18">
-      <c r="R484" s="20"/>
+      <c r="R484" s="37"/>
     </row>
     <row r="485" spans="18:18">
-      <c r="R485" s="20"/>
+      <c r="R485" s="37"/>
     </row>
     <row r="486" spans="18:18">
-      <c r="R486" s="20"/>
+      <c r="R486" s="37"/>
     </row>
     <row r="487" spans="18:18">
-      <c r="R487" s="20"/>
+      <c r="R487" s="37"/>
     </row>
     <row r="488" spans="18:18">
-      <c r="R488" s="20"/>
+      <c r="R488" s="37"/>
     </row>
     <row r="489" spans="18:18">
-      <c r="R489" s="20"/>
+      <c r="R489" s="37"/>
     </row>
     <row r="490" spans="18:18">
-      <c r="R490" s="20"/>
+      <c r="R490" s="37"/>
     </row>
     <row r="491" spans="18:18">
-      <c r="R491" s="20"/>
+      <c r="R491" s="37"/>
     </row>
     <row r="492" spans="18:18">
-      <c r="R492" s="20"/>
+      <c r="R492" s="37"/>
     </row>
     <row r="493" spans="18:18">
-      <c r="R493" s="20"/>
+      <c r="R493" s="37"/>
     </row>
     <row r="494" spans="18:18">
-      <c r="R494" s="20"/>
+      <c r="R494" s="37"/>
     </row>
     <row r="495" spans="18:18">
-      <c r="R495" s="20"/>
+      <c r="R495" s="37"/>
     </row>
     <row r="496" spans="18:18">
-      <c r="R496" s="20"/>
+      <c r="R496" s="37"/>
     </row>
     <row r="497" spans="18:18">
-      <c r="R497" s="20"/>
+      <c r="R497" s="37"/>
     </row>
     <row r="498" spans="18:18">
-      <c r="R498" s="20"/>
+      <c r="R498" s="37"/>
     </row>
     <row r="499" spans="18:18">
-      <c r="R499" s="20"/>
+      <c r="R499" s="37"/>
     </row>
     <row r="500" spans="18:18">
-      <c r="R500" s="20"/>
+      <c r="R500" s="37"/>
     </row>
     <row r="501" spans="18:18">
-      <c r="R501" s="20"/>
+      <c r="R501" s="37"/>
     </row>
     <row r="502" spans="18:18">
-      <c r="R502" s="20"/>
+      <c r="R502" s="37"/>
     </row>
     <row r="503" spans="18:18">
-      <c r="R503" s="20"/>
+      <c r="R503" s="37"/>
     </row>
     <row r="504" spans="18:18">
-      <c r="R504" s="20"/>
+      <c r="R504" s="37"/>
     </row>
     <row r="505" spans="18:18">
-      <c r="R505" s="20"/>
+      <c r="R505" s="37"/>
     </row>
     <row r="506" spans="18:18">
-      <c r="R506" s="20"/>
+      <c r="R506" s="37"/>
     </row>
     <row r="507" spans="18:18">
-      <c r="R507" s="20"/>
+      <c r="R507" s="37"/>
     </row>
     <row r="508" spans="18:18">
-      <c r="R508" s="20"/>
+      <c r="R508" s="37"/>
     </row>
     <row r="509" spans="18:18">
-      <c r="R509" s="20"/>
+      <c r="R509" s="37"/>
     </row>
     <row r="510" spans="18:18">
-      <c r="R510" s="20"/>
+      <c r="R510" s="37"/>
     </row>
     <row r="511" spans="18:18">
-      <c r="R511" s="20"/>
+      <c r="R511" s="37"/>
     </row>
     <row r="512" spans="18:18">
-      <c r="R512" s="20"/>
+      <c r="R512" s="37"/>
     </row>
     <row r="513" spans="18:18">
-      <c r="R513" s="20"/>
+      <c r="R513" s="37"/>
     </row>
     <row r="514" spans="18:18">
-      <c r="R514" s="20"/>
+      <c r="R514" s="37"/>
     </row>
     <row r="515" spans="18:18">
-      <c r="R515" s="20"/>
+      <c r="R515" s="37"/>
     </row>
     <row r="516" spans="18:18">
-      <c r="R516" s="20"/>
+      <c r="R516" s="37"/>
     </row>
     <row r="517" spans="18:18">
-      <c r="R517" s="20"/>
+      <c r="R517" s="37"/>
     </row>
     <row r="518" spans="18:18">
-      <c r="R518" s="20"/>
+      <c r="R518" s="37"/>
     </row>
     <row r="519" spans="18:18">
-      <c r="R519" s="20"/>
+      <c r="R519" s="37"/>
     </row>
     <row r="520" spans="18:18">
-      <c r="R520" s="20"/>
+      <c r="R520" s="37"/>
     </row>
     <row r="521" spans="18:18">
-      <c r="R521" s="20"/>
+      <c r="R521" s="37"/>
     </row>
     <row r="522" spans="18:18">
-      <c r="R522" s="20"/>
+      <c r="R522" s="37"/>
     </row>
     <row r="523" spans="18:18">
-      <c r="R523" s="20"/>
+      <c r="R523" s="37"/>
     </row>
     <row r="524" spans="18:18">
-      <c r="R524" s="20"/>
+      <c r="R524" s="37"/>
     </row>
     <row r="525" spans="18:18">
-      <c r="R525" s="20"/>
+      <c r="R525" s="37"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$185</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$186</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -943,10 +943,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="O171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P184" sqref="P184"/>
+      <selection pane="bottomRight" activeCell="S185" sqref="S185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -967,7 +967,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44097.726585879631</v>
+        <v>44098.715549537039</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11072,13 +11072,13 @@
         <v>467</v>
       </c>
       <c r="P181" s="1">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q181" s="1">
         <v>2</v>
       </c>
       <c r="R181" s="34">
-        <v>1.5325836185633617E-2</v>
+        <v>1.5055081117437185E-2</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -11128,13 +11128,13 @@
         <v>467</v>
       </c>
       <c r="P182" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q182" s="1">
         <v>1</v>
       </c>
       <c r="R182" s="34">
-        <v>1.2411800245857028E-2</v>
+        <v>1.2085919905479563E-2</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -11184,13 +11184,13 @@
         <v>467</v>
       </c>
       <c r="P183" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q183" s="1">
         <v>1</v>
       </c>
       <c r="R183" s="34">
-        <v>1.1267111601168384E-2</v>
+        <v>1.0856197247185477E-2</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -11240,13 +11240,13 @@
         <v>467</v>
       </c>
       <c r="P184" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q184" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R184" s="34">
-        <v>1.3095145601006792E-2</v>
+        <v>1.5055081117437185E-2</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -11295,9 +11295,62 @@
       <c r="O185" s="1">
         <v>467</v>
       </c>
-      <c r="R185" s="34"/>
+      <c r="P185" s="1">
+        <v>186</v>
+      </c>
+      <c r="Q185" s="1">
+        <v>0</v>
+      </c>
+      <c r="R185" s="34">
+        <v>9.155516975076633E-3</v>
+      </c>
     </row>
     <row r="186" spans="1:18">
+      <c r="A186" s="12">
+        <v>44098</v>
+      </c>
+      <c r="B186" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0</v>
+      </c>
+      <c r="E186" s="1">
+        <v>558</v>
+      </c>
+      <c r="F186" s="1">
+        <v>558</v>
+      </c>
+      <c r="G186" s="1">
+        <v>13</v>
+      </c>
+      <c r="H186" s="1">
+        <v>13</v>
+      </c>
+      <c r="I186" s="1">
+        <v>0</v>
+      </c>
+      <c r="J186" s="1">
+        <v>9</v>
+      </c>
+      <c r="K186" s="1">
+        <v>536</v>
+      </c>
+      <c r="L186" s="1">
+        <v>0</v>
+      </c>
+      <c r="M186" s="1">
+        <v>108</v>
+      </c>
+      <c r="N186" s="1">
+        <v>0</v>
+      </c>
+      <c r="O186" s="1">
+        <v>467</v>
+      </c>
       <c r="R186" s="34"/>
     </row>
     <row r="187" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$186</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$187</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -943,10 +943,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S185" sqref="S185"/>
+      <selection pane="bottomRight" activeCell="S186" sqref="S186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -967,7 +967,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44098.715549537039</v>
+        <v>44099.718224305558</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11128,7 +11128,7 @@
         <v>467</v>
       </c>
       <c r="P182" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q182" s="1">
         <v>1</v>
@@ -11190,7 +11190,7 @@
         <v>1</v>
       </c>
       <c r="R183" s="34">
-        <v>1.0856197247185477E-2</v>
+        <v>1.0829752015260792E-2</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -11240,13 +11240,13 @@
         <v>467</v>
       </c>
       <c r="P184" s="1">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Q184" s="1">
         <v>2</v>
       </c>
       <c r="R184" s="34">
-        <v>1.5055081117437185E-2</v>
+        <v>1.4524577138657345E-2</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -11296,13 +11296,13 @@
         <v>467</v>
       </c>
       <c r="P185" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q185" s="1">
         <v>0</v>
       </c>
       <c r="R185" s="34">
-        <v>9.155516975076633E-3</v>
+        <v>9.1290717431519487E-3</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11351,9 +11351,62 @@
       <c r="O186" s="1">
         <v>467</v>
       </c>
-      <c r="R186" s="34"/>
+      <c r="P186" s="1">
+        <v>147</v>
+      </c>
+      <c r="Q186" s="1">
+        <v>1</v>
+      </c>
+      <c r="R186" s="34">
+        <v>1.0829752015260791E-2</v>
+      </c>
     </row>
     <row r="187" spans="1:18">
+      <c r="A187" s="12">
+        <v>44099</v>
+      </c>
+      <c r="B187" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" s="1">
+        <v>2</v>
+      </c>
+      <c r="E187" s="1">
+        <v>560</v>
+      </c>
+      <c r="F187" s="1">
+        <v>560</v>
+      </c>
+      <c r="G187" s="1">
+        <v>13</v>
+      </c>
+      <c r="H187" s="1">
+        <v>13</v>
+      </c>
+      <c r="I187" s="1">
+        <v>0</v>
+      </c>
+      <c r="J187" s="1">
+        <v>9</v>
+      </c>
+      <c r="K187" s="1">
+        <v>538</v>
+      </c>
+      <c r="L187" s="1">
+        <v>0</v>
+      </c>
+      <c r="M187" s="1">
+        <v>108</v>
+      </c>
+      <c r="N187" s="1">
+        <v>0</v>
+      </c>
+      <c r="O187" s="1">
+        <v>467</v>
+      </c>
       <c r="R187" s="34"/>
     </row>
     <row r="188" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$187</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$188</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -943,31 +943,31 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S186" sqref="S186"/>
+      <selection pane="bottomRight" activeCell="O188" sqref="O188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22.5">
+    <row r="1" spans="1:28" ht="22">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44099.718224305558</v>
+        <v>44100.624049537037</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -989,7 +989,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="67.5">
+    <row r="2" spans="1:28" ht="65">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -11410,6 +11410,51 @@
       <c r="R187" s="34"/>
     </row>
     <row r="188" spans="1:18">
+      <c r="A188" s="12">
+        <v>44100</v>
+      </c>
+      <c r="B188" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" s="1">
+        <v>2</v>
+      </c>
+      <c r="E188" s="1">
+        <v>562</v>
+      </c>
+      <c r="F188" s="1">
+        <v>562</v>
+      </c>
+      <c r="G188" s="1">
+        <v>15</v>
+      </c>
+      <c r="H188" s="1">
+        <v>15</v>
+      </c>
+      <c r="I188" s="1">
+        <v>0</v>
+      </c>
+      <c r="J188" s="1">
+        <v>9</v>
+      </c>
+      <c r="K188" s="1">
+        <v>538</v>
+      </c>
+      <c r="L188" s="1">
+        <v>0</v>
+      </c>
+      <c r="M188" s="1">
+        <v>108</v>
+      </c>
+      <c r="N188" s="1">
+        <v>0</v>
+      </c>
+      <c r="O188" s="1">
+        <v>467</v>
+      </c>
       <c r="R188" s="34"/>
     </row>
     <row r="189" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,9 +16,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$188</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$189</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -946,28 +946,28 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O188" sqref="O188"/>
+      <selection pane="bottomRight" activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22">
+    <row r="1" spans="1:28" ht="22.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44100.624049537037</v>
+        <v>44101.569666550924</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -989,7 +989,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="65">
+    <row r="2" spans="1:28" ht="67.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -11458,6 +11458,51 @@
       <c r="R188" s="34"/>
     </row>
     <row r="189" spans="1:18">
+      <c r="A189" s="12">
+        <v>44101</v>
+      </c>
+      <c r="B189" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="1">
+        <v>2</v>
+      </c>
+      <c r="E189" s="1">
+        <v>562</v>
+      </c>
+      <c r="F189" s="1">
+        <v>562</v>
+      </c>
+      <c r="G189" s="1">
+        <v>14</v>
+      </c>
+      <c r="H189" s="1">
+        <v>14</v>
+      </c>
+      <c r="I189" s="1">
+        <v>0</v>
+      </c>
+      <c r="J189" s="1">
+        <v>9</v>
+      </c>
+      <c r="K189" s="1">
+        <v>539</v>
+      </c>
+      <c r="L189" s="1">
+        <v>0</v>
+      </c>
+      <c r="M189" s="1">
+        <v>108</v>
+      </c>
+      <c r="N189" s="1">
+        <v>0</v>
+      </c>
+      <c r="O189" s="1">
+        <v>467</v>
+      </c>
       <c r="R189" s="34"/>
     </row>
     <row r="190" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,9 +16,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$189</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$190</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -943,10 +943,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="M177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A189" sqref="A189"/>
+      <selection pane="bottomRight" activeCell="S185" sqref="S185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -967,7 +967,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44101.569666550924</v>
+        <v>44102.717698958331</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -10904,7 +10904,7 @@
         <v>467</v>
       </c>
       <c r="P178" s="36">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q178" s="36">
         <v>1</v>
@@ -11078,7 +11078,7 @@
         <v>2</v>
       </c>
       <c r="R181" s="34">
-        <v>1.5055081117437185E-2</v>
+        <v>1.5047300227303353E-2</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -11134,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="R182" s="34">
-        <v>1.2085919905479563E-2</v>
+        <v>1.2051693783421049E-2</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -11184,13 +11184,13 @@
         <v>467</v>
       </c>
       <c r="P183" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q183" s="1">
         <v>1</v>
       </c>
       <c r="R183" s="34">
-        <v>1.0829752015260792E-2</v>
+        <v>1.0801963121925681E-2</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -11246,7 +11246,7 @@
         <v>2</v>
       </c>
       <c r="R184" s="34">
-        <v>1.4524577138657345E-2</v>
+        <v>1.4516796248523514E-2</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -11296,13 +11296,13 @@
         <v>467</v>
       </c>
       <c r="P185" s="1">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q185" s="1">
         <v>0</v>
       </c>
       <c r="R185" s="34">
-        <v>9.1290717431519487E-3</v>
+        <v>9.1212908530181186E-3</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11352,13 +11352,13 @@
         <v>467</v>
       </c>
       <c r="P186" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q186" s="1">
         <v>1</v>
       </c>
       <c r="R186" s="34">
-        <v>1.0829752015260791E-2</v>
+        <v>1.0788918594431079E-2</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11407,7 +11407,15 @@
       <c r="O187" s="1">
         <v>467</v>
       </c>
-      <c r="R187" s="34"/>
+      <c r="P187" s="1">
+        <v>207</v>
+      </c>
+      <c r="Q187" s="1">
+        <v>3</v>
+      </c>
+      <c r="R187" s="34">
+        <v>1.5245723425856141E-2</v>
+      </c>
     </row>
     <row r="188" spans="1:18">
       <c r="A188" s="12">
@@ -11455,7 +11463,15 @@
       <c r="O188" s="1">
         <v>467</v>
       </c>
-      <c r="R188" s="34"/>
+      <c r="P188" s="1">
+        <v>93</v>
+      </c>
+      <c r="Q188" s="1">
+        <v>0</v>
+      </c>
+      <c r="R188" s="34">
+        <v>1.3175330051114939E-2</v>
+      </c>
     </row>
     <row r="189" spans="1:18">
       <c r="A189" s="12">
@@ -11468,7 +11484,7 @@
         <v>2</v>
       </c>
       <c r="D189" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E189" s="1">
         <v>562</v>
@@ -11503,9 +11519,62 @@
       <c r="O189" s="1">
         <v>467</v>
       </c>
-      <c r="R189" s="34"/>
+      <c r="P189" s="1">
+        <v>114</v>
+      </c>
+      <c r="Q189" s="1">
+        <v>5</v>
+      </c>
+      <c r="R189" s="34">
+        <v>1.9495607850362012E-2</v>
+      </c>
     </row>
     <row r="190" spans="1:18">
+      <c r="A190" s="12">
+        <v>44102</v>
+      </c>
+      <c r="B190" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="1">
+        <v>5</v>
+      </c>
+      <c r="E190" s="1">
+        <v>567</v>
+      </c>
+      <c r="F190" s="1">
+        <v>567</v>
+      </c>
+      <c r="G190" s="1">
+        <v>17</v>
+      </c>
+      <c r="H190" s="1">
+        <v>17</v>
+      </c>
+      <c r="I190" s="1">
+        <v>0</v>
+      </c>
+      <c r="J190" s="1">
+        <v>9</v>
+      </c>
+      <c r="K190" s="1">
+        <v>541</v>
+      </c>
+      <c r="L190" s="1">
+        <v>0</v>
+      </c>
+      <c r="M190" s="1">
+        <v>108</v>
+      </c>
+      <c r="N190" s="1">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1">
+        <v>467</v>
+      </c>
       <c r="R190" s="34"/>
     </row>
     <row r="191" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$190</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -943,10 +943,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="M177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S185" sqref="S185"/>
+      <selection pane="bottomRight" activeCell="Q191" sqref="Q191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -967,7 +967,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44102.717698958331</v>
+        <v>44103.716750462961</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11296,7 +11296,7 @@
         <v>467</v>
       </c>
       <c r="P185" s="1">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q185" s="1">
         <v>0</v>
@@ -11575,9 +11575,62 @@
       <c r="O190" s="1">
         <v>467</v>
       </c>
-      <c r="R190" s="34"/>
+      <c r="P190" s="1">
+        <v>170</v>
+      </c>
+      <c r="Q190" s="1">
+        <v>1</v>
+      </c>
+      <c r="R190" s="34">
+        <v>1.187628087506218E-2</v>
+      </c>
     </row>
     <row r="191" spans="1:18">
+      <c r="A191" s="12">
+        <v>44103</v>
+      </c>
+      <c r="B191" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="1">
+        <v>1</v>
+      </c>
+      <c r="E191" s="1">
+        <v>568</v>
+      </c>
+      <c r="F191" s="1">
+        <v>568</v>
+      </c>
+      <c r="G191" s="1">
+        <v>18</v>
+      </c>
+      <c r="H191" s="1">
+        <v>18</v>
+      </c>
+      <c r="I191" s="1">
+        <v>0</v>
+      </c>
+      <c r="J191" s="1">
+        <v>9</v>
+      </c>
+      <c r="K191" s="1">
+        <v>541</v>
+      </c>
+      <c r="L191" s="1">
+        <v>0</v>
+      </c>
+      <c r="M191" s="1">
+        <v>108</v>
+      </c>
+      <c r="N191" s="1">
+        <v>0</v>
+      </c>
+      <c r="O191" s="1">
+        <v>467</v>
+      </c>
       <c r="R191" s="34"/>
     </row>
     <row r="192" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -943,10 +943,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q191" sqref="Q191"/>
+      <selection pane="bottomRight" activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -967,7 +967,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44103.716750462961</v>
+        <v>44104.61523009259</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11634,6 +11634,51 @@
       <c r="R191" s="34"/>
     </row>
     <row r="192" spans="1:18">
+      <c r="A192" s="12">
+        <v>44104</v>
+      </c>
+      <c r="B192" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
+      <c r="E192" s="1">
+        <v>569</v>
+      </c>
+      <c r="F192" s="1">
+        <v>569</v>
+      </c>
+      <c r="G192" s="1">
+        <v>15</v>
+      </c>
+      <c r="H192" s="1">
+        <v>14</v>
+      </c>
+      <c r="I192" s="1">
+        <v>0</v>
+      </c>
+      <c r="J192" s="1">
+        <v>9</v>
+      </c>
+      <c r="K192" s="1">
+        <v>545</v>
+      </c>
+      <c r="L192" s="1">
+        <v>1</v>
+      </c>
+      <c r="M192" s="1">
+        <v>108</v>
+      </c>
+      <c r="N192" s="1">
+        <v>0</v>
+      </c>
+      <c r="O192" s="1">
+        <v>467</v>
+      </c>
       <c r="R192" s="34"/>
     </row>
     <row r="193" spans="18:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -943,10 +943,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="O180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A195" sqref="A195"/>
+      <selection pane="bottomRight" activeCell="Q192" sqref="Q192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -967,7 +967,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44104.61523009259</v>
+        <v>44104.712300231484</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11520,13 +11520,13 @@
         <v>467</v>
       </c>
       <c r="P189" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q189" s="1">
         <v>5</v>
       </c>
       <c r="R189" s="34">
-        <v>1.9495607850362012E-2</v>
+        <v>1.9441123814184613E-2</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11576,13 +11576,13 @@
         <v>467</v>
       </c>
       <c r="P190" s="1">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q190" s="1">
         <v>1</v>
       </c>
       <c r="R190" s="34">
-        <v>1.187628087506218E-2</v>
+        <v>1.1852271271220644E-2</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11631,7 +11631,15 @@
       <c r="O191" s="1">
         <v>467</v>
       </c>
-      <c r="R191" s="34"/>
+      <c r="P191" s="1">
+        <v>123</v>
+      </c>
+      <c r="Q191" s="1">
+        <v>2</v>
+      </c>
+      <c r="R191" s="34">
+        <v>1.1428323181767328E-2</v>
+      </c>
     </row>
     <row r="192" spans="1:18">
       <c r="A192" s="12">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -943,10 +943,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q192" sqref="Q192"/>
+      <selection pane="bottomRight" activeCell="P193" sqref="P193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -967,7 +967,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44104.712300231484</v>
+        <v>44105.716642013889</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -10904,13 +10904,13 @@
         <v>467</v>
       </c>
       <c r="P178" s="36">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q178" s="36">
         <v>1</v>
       </c>
       <c r="R178" s="34">
-        <v>1.2180227964837429E-2</v>
+        <v>1.214886697633907E-2</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="R179" s="34">
-        <v>1.0798585816165763E-2</v>
+        <v>1.0775240602712694E-2</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -11022,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="R180" s="34">
-        <v>1.0790688793343368E-2</v>
+        <v>1.0775240602712696E-2</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -11078,7 +11078,7 @@
         <v>2</v>
       </c>
       <c r="R181" s="34">
-        <v>1.5047300227303353E-2</v>
+        <v>1.5039632926806512E-2</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -11134,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="R182" s="34">
-        <v>1.2051693783421049E-2</v>
+        <v>1.2044026482924209E-2</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -11190,7 +11190,7 @@
         <v>1</v>
       </c>
       <c r="R183" s="34">
-        <v>1.0801963121925681E-2</v>
+        <v>1.0794295821428839E-2</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -11240,13 +11240,13 @@
         <v>467</v>
       </c>
       <c r="P184" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q184" s="1">
         <v>2</v>
       </c>
       <c r="R184" s="34">
-        <v>1.4516796248523514E-2</v>
+        <v>1.4442528881426607E-2</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -11296,13 +11296,13 @@
         <v>467</v>
       </c>
       <c r="P185" s="1">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q185" s="1">
         <v>0</v>
       </c>
       <c r="R185" s="34">
-        <v>9.1212908530181186E-3</v>
+        <v>9.1136235525212765E-3</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11352,13 +11352,13 @@
         <v>467</v>
       </c>
       <c r="P186" s="1">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q186" s="1">
         <v>1</v>
       </c>
       <c r="R186" s="34">
-        <v>1.0788918594431079E-2</v>
+        <v>1.0762328147141079E-2</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11408,13 +11408,13 @@
         <v>467</v>
       </c>
       <c r="P187" s="1">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q187" s="1">
         <v>3</v>
       </c>
       <c r="R187" s="34">
-        <v>1.5245723425856141E-2</v>
+        <v>1.5149546311045484E-2</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11464,13 +11464,13 @@
         <v>467</v>
       </c>
       <c r="P188" s="1">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q188" s="1">
         <v>0</v>
       </c>
       <c r="R188" s="34">
-        <v>1.3175330051114939E-2</v>
+        <v>1.3108729984514872E-2</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11520,13 +11520,13 @@
         <v>467</v>
       </c>
       <c r="P189" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q189" s="1">
         <v>5</v>
       </c>
       <c r="R189" s="34">
-        <v>1.9441123814184613E-2</v>
+        <v>1.9302055944548084E-2</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11576,13 +11576,13 @@
         <v>467</v>
       </c>
       <c r="P190" s="1">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q190" s="1">
         <v>1</v>
       </c>
       <c r="R190" s="34">
-        <v>1.1852271271220644E-2</v>
+        <v>1.1718929075971865E-2</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11632,13 +11632,13 @@
         <v>467</v>
       </c>
       <c r="P191" s="1">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q191" s="1">
         <v>2</v>
       </c>
       <c r="R191" s="34">
-        <v>1.1428323181767328E-2</v>
+        <v>1.1240061333654513E-2</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11687,54 +11687,107 @@
       <c r="O192" s="1">
         <v>467</v>
       </c>
-      <c r="R192" s="34"/>
-    </row>
-    <row r="193" spans="18:18">
+      <c r="P192" s="1">
+        <v>124</v>
+      </c>
+      <c r="Q192" s="1">
+        <v>4</v>
+      </c>
+      <c r="R192" s="34">
+        <v>1.8075600678450963E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18">
+      <c r="A193" s="12">
+        <v>44105</v>
+      </c>
+      <c r="B193" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="1">
+        <v>5</v>
+      </c>
+      <c r="E193" s="1">
+        <v>574</v>
+      </c>
+      <c r="F193" s="1">
+        <v>574</v>
+      </c>
+      <c r="G193" s="18">
+        <v>17</v>
+      </c>
+      <c r="H193" s="18">
+        <v>16</v>
+      </c>
+      <c r="I193" s="18">
+        <v>0</v>
+      </c>
+      <c r="J193" s="18">
+        <v>9</v>
+      </c>
+      <c r="K193" s="18">
+        <v>548</v>
+      </c>
+      <c r="L193" s="18">
+        <v>1</v>
+      </c>
+      <c r="M193" s="1">
+        <v>108</v>
+      </c>
+      <c r="N193" s="1">
+        <v>0</v>
+      </c>
+      <c r="O193" s="1">
+        <v>467</v>
+      </c>
       <c r="R193" s="34"/>
     </row>
-    <row r="194" spans="18:18">
+    <row r="194" spans="1:18">
       <c r="R194" s="34"/>
     </row>
-    <row r="195" spans="18:18">
+    <row r="195" spans="1:18">
       <c r="R195" s="34"/>
     </row>
-    <row r="196" spans="18:18">
+    <row r="196" spans="1:18">
       <c r="R196" s="34"/>
     </row>
-    <row r="197" spans="18:18">
+    <row r="197" spans="1:18">
       <c r="R197" s="34"/>
     </row>
-    <row r="198" spans="18:18">
+    <row r="198" spans="1:18">
       <c r="R198" s="34"/>
     </row>
-    <row r="199" spans="18:18">
+    <row r="199" spans="1:18">
       <c r="R199" s="34"/>
     </row>
-    <row r="200" spans="18:18">
+    <row r="200" spans="1:18">
       <c r="R200" s="34"/>
     </row>
-    <row r="201" spans="18:18">
+    <row r="201" spans="1:18">
       <c r="R201" s="34"/>
     </row>
-    <row r="202" spans="18:18">
+    <row r="202" spans="1:18">
       <c r="R202" s="34"/>
     </row>
-    <row r="203" spans="18:18">
+    <row r="203" spans="1:18">
       <c r="R203" s="34"/>
     </row>
-    <row r="204" spans="18:18">
+    <row r="204" spans="1:18">
       <c r="R204" s="34"/>
     </row>
-    <row r="205" spans="18:18">
+    <row r="205" spans="1:18">
       <c r="R205" s="34"/>
     </row>
-    <row r="206" spans="18:18">
+    <row r="206" spans="1:18">
       <c r="R206" s="34"/>
     </row>
-    <row r="207" spans="18:18">
+    <row r="207" spans="1:18">
       <c r="R207" s="34"/>
     </row>
-    <row r="208" spans="18:18">
+    <row r="208" spans="1:18">
       <c r="R208" s="34"/>
     </row>
     <row r="209" spans="18:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -943,10 +943,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P193" sqref="P193"/>
+      <selection pane="bottomRight" activeCell="Q195" sqref="Q195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -967,7 +967,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44105.716642013889</v>
+        <v>44106.768851736109</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2184,10 +2184,10 @@
         <v>67</v>
       </c>
       <c r="Q26" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R26" s="21">
-        <v>7.0879651105251212E-2</v>
+        <v>7.3011847267298119E-2</v>
       </c>
       <c r="S26" s="1">
         <v>38</v>
@@ -2243,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="R27" s="21">
-        <v>6.458713409844849E-2</v>
+        <v>6.671933026049541E-2</v>
       </c>
       <c r="S27" s="1">
         <v>38</v>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="R28" s="21">
-        <v>6.2953632464946854E-2</v>
+        <v>6.5085828626993775E-2</v>
       </c>
       <c r="S28" s="1">
         <v>40</v>
@@ -2349,7 +2349,7 @@
         <v>8</v>
       </c>
       <c r="R29" s="21">
-        <v>6.5158218002865725E-2</v>
+        <v>6.7290414164912646E-2</v>
       </c>
       <c r="S29" s="1">
         <v>39</v>
@@ -2399,10 +2399,10 @@
         <v>43</v>
       </c>
       <c r="Q30" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R30" s="21">
-        <v>5.2246710905312119E-2</v>
+        <v>5.7701166203571651E-2</v>
       </c>
       <c r="S30" s="1">
         <v>42</v>
@@ -2455,10 +2455,10 @@
         <v>46</v>
       </c>
       <c r="Q31" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="21">
-        <v>3.3813531181809818E-2</v>
+        <v>4.237357654218115E-2</v>
       </c>
       <c r="S31" s="1">
         <v>44</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="21">
-        <v>3.1509383716372026E-2</v>
+        <v>4.0069429076743365E-2</v>
       </c>
       <c r="S32" s="1">
         <v>43</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="21">
-        <v>2.7244991392278213E-2</v>
+        <v>3.3672840590602639E-2</v>
       </c>
       <c r="S33" s="1">
         <v>40</v>
@@ -2617,7 +2617,7 @@
         <v>2</v>
       </c>
       <c r="R34" s="21">
-        <v>2.5688214835501655E-2</v>
+        <v>3.2116064033826087E-2</v>
       </c>
       <c r="W34" s="16"/>
       <c r="X34" s="15"/>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="21">
-        <v>2.1827210974497795E-2</v>
+        <v>2.8255060172822224E-2</v>
       </c>
       <c r="W35" s="16"/>
       <c r="X35" s="15"/>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="R36" s="21">
-        <v>1.1686117500070989E-2</v>
+        <v>1.8113966698395413E-2</v>
       </c>
       <c r="W36" s="16"/>
       <c r="X36" s="15"/>
@@ -2788,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="R37" s="21">
-        <v>1.3289966738242601E-2</v>
+        <v>1.6395556800354403E-2</v>
       </c>
       <c r="W37" s="16"/>
       <c r="X37" s="15"/>
@@ -3282,7 +3282,7 @@
         <v>35</v>
       </c>
       <c r="Q45" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="21">
         <v>8.9845322293140139E-3</v>
@@ -4528,7 +4528,7 @@
         <v>43</v>
       </c>
       <c r="Q65" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="21">
         <v>3.3222591362126247E-3</v>
@@ -4590,7 +4590,7 @@
         <v>47</v>
       </c>
       <c r="Q66" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" s="21">
         <v>3.3222591362126247E-3</v>
@@ -7824,7 +7824,7 @@
         <v>99</v>
       </c>
       <c r="Q123" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R123" s="24">
         <v>4.3226593212261723E-2</v>
@@ -8160,10 +8160,10 @@
         <v>189</v>
       </c>
       <c r="Q129" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R129" s="24">
-        <v>4.9051907190888623E-2</v>
+        <v>4.9807765089603662E-2</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8216,10 +8216,10 @@
         <v>164</v>
       </c>
       <c r="Q130" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R130" s="24">
-        <v>4.8568811760057999E-2</v>
+        <v>4.9439891899430821E-2</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8275,7 +8275,7 @@
         <v>23</v>
       </c>
       <c r="R131" s="24">
-        <v>5.0661868911387402E-2</v>
+        <v>5.1417726810102447E-2</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8331,7 +8331,7 @@
         <v>4</v>
       </c>
       <c r="R132" s="24">
-        <v>4.0821502264282238E-2</v>
+        <v>4.2448440302370105E-2</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8387,7 +8387,7 @@
         <v>7</v>
       </c>
       <c r="R133" s="24">
-        <v>5.5209855399313446E-2</v>
+        <v>5.6836793437401299E-2</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8443,7 +8443,7 @@
         <v>3</v>
       </c>
       <c r="R134" s="24">
-        <v>5.0211875133695592E-2</v>
+        <v>5.1838813171783467E-2</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8499,7 +8499,7 @@
         <v>13</v>
       </c>
       <c r="R135" s="24">
-        <v>5.7697005446598178E-2</v>
+        <v>5.9323943484686052E-2</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8555,7 +8555,7 @@
         <v>9</v>
       </c>
       <c r="R136" s="24">
-        <v>4.591751707240195E-2</v>
+        <v>4.7544455110489811E-2</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8611,7 +8611,7 @@
         <v>11</v>
       </c>
       <c r="R137" s="24">
-        <v>5.4663889278295054E-2</v>
+        <v>5.5534969417667869E-2</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8944,10 +8944,10 @@
         <v>188</v>
       </c>
       <c r="Q143" s="29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R143" s="30">
-        <v>5.09068359369882E-2</v>
+        <v>5.1666714356441087E-2</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -9059,7 +9059,7 @@
         <v>11</v>
       </c>
       <c r="R145" s="30">
-        <v>4.974717746196565E-2</v>
+        <v>5.0507055881418531E-2</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9115,7 +9115,7 @@
         <v>20</v>
       </c>
       <c r="R146" s="30">
-        <v>4.637028218919715E-2</v>
+        <v>4.7130160608650037E-2</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9171,7 +9171,7 @@
         <v>13</v>
       </c>
       <c r="R147" s="30">
-        <v>5.0931386662268839E-2</v>
+        <v>5.1691265081721727E-2</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9227,7 +9227,7 @@
         <v>9</v>
       </c>
       <c r="R148" s="30">
-        <v>4.7358380206633903E-2</v>
+        <v>4.8118258626086777E-2</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9283,7 +9283,7 @@
         <v>36</v>
       </c>
       <c r="R149" s="32">
-        <v>7.2768816262264974E-2</v>
+        <v>7.3528694681717854E-2</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9336,10 +9336,10 @@
         <v>169</v>
       </c>
       <c r="Q150" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R150" s="32">
-        <v>5.1128095251599767E-2</v>
+        <v>5.2733282208668873E-2</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9392,10 +9392,10 @@
         <v>278</v>
       </c>
       <c r="Q151" s="31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R151" s="32">
-        <v>5.9098695637073775E-2</v>
+        <v>6.0372448671120703E-2</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9507,7 +9507,7 @@
         <v>4</v>
       </c>
       <c r="R153" s="32">
-        <v>8.6486419332682737E-2</v>
+        <v>8.733172787029897E-2</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9557,13 +9557,13 @@
         <v>467</v>
       </c>
       <c r="P154" s="31">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Q154" s="31">
         <v>1</v>
       </c>
       <c r="R154" s="32">
-        <v>7.9074672292156478E-2</v>
+        <v>8.027991455766724E-2</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9613,13 +9613,13 @@
         <v>467</v>
       </c>
       <c r="P155" s="31">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q155" s="31">
         <v>5</v>
       </c>
       <c r="R155" s="32">
-        <v>7.8385317557279385E-2</v>
+        <v>7.9715705832674136E-2</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9675,7 +9675,7 @@
         <v>5</v>
       </c>
       <c r="R156" s="32">
-        <v>7.4479831735192931E-2</v>
+        <v>7.5839014887403203E-2</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9731,7 +9731,7 @@
         <v>4</v>
       </c>
       <c r="R157" s="32">
-        <v>6.0791968166440925E-2</v>
+        <v>6.1997210431951687E-2</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9787,7 +9787,7 @@
         <v>1</v>
       </c>
       <c r="R158" s="32">
-        <v>2.8077676956597391E-2</v>
+        <v>2.9254124345292638E-2</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9837,13 +9837,13 @@
         <v>467</v>
       </c>
       <c r="P159" s="31">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q159" s="31">
         <v>1</v>
       </c>
       <c r="R159" s="32">
-        <v>3.4812259669252679E-2</v>
+        <v>3.5127750374115418E-2</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9899,7 +9899,7 @@
         <v>6</v>
       </c>
       <c r="R160" s="32">
-        <v>3.8265829898243522E-2</v>
+        <v>3.8083094134728504E-2</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -9949,13 +9949,13 @@
         <v>467</v>
       </c>
       <c r="P161" s="31">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="Q161" s="31">
         <v>2</v>
       </c>
       <c r="R161" s="32">
-        <v>2.9452164351678273E-2</v>
+        <v>2.8867458936871919E-2</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10005,13 +10005,13 @@
         <v>467</v>
       </c>
       <c r="P162" s="29">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q162" s="29">
         <v>4</v>
       </c>
       <c r="R162" s="30">
-        <v>2.4878005630315503E-2</v>
+        <v>2.4645547267905094E-2</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10518,7 +10518,7 @@
         <v>2</v>
       </c>
       <c r="R171" s="34">
-        <v>1.8678776874141437E-2</v>
+        <v>1.8678776874141441E-2</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -10574,7 +10574,7 @@
         <v>1</v>
       </c>
       <c r="R172" s="34">
-        <v>1.8426676033805305E-2</v>
+        <v>1.8371730978860249E-2</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="R179" s="34">
-        <v>1.0775240602712694E-2</v>
+        <v>1.0775240602712696E-2</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -11022,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="R180" s="34">
-        <v>1.0775240602712696E-2</v>
+        <v>1.0775240602712694E-2</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -11190,7 +11190,7 @@
         <v>1</v>
       </c>
       <c r="R183" s="34">
-        <v>1.0794295821428839E-2</v>
+        <v>1.0794295821428841E-2</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -11246,7 +11246,7 @@
         <v>2</v>
       </c>
       <c r="R184" s="34">
-        <v>1.4442528881426607E-2</v>
+        <v>1.415148285208526E-2</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="R185" s="34">
-        <v>9.1136235525212765E-3</v>
+        <v>1.3108729984514872E-2</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11352,13 +11352,13 @@
         <v>467</v>
       </c>
       <c r="P186" s="1">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q186" s="1">
         <v>1</v>
       </c>
       <c r="R186" s="34">
-        <v>1.0762328147141079E-2</v>
+        <v>1.4036373769301514E-2</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11414,7 +11414,7 @@
         <v>3</v>
       </c>
       <c r="R187" s="34">
-        <v>1.5149546311045484E-2</v>
+        <v>1.5173030963824894E-2</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11464,13 +11464,13 @@
         <v>467</v>
       </c>
       <c r="P188" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q188" s="1">
         <v>0</v>
       </c>
       <c r="R188" s="34">
-        <v>1.3108729984514872E-2</v>
+        <v>1.0908638639731075E-2</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11520,13 +11520,13 @@
         <v>467</v>
       </c>
       <c r="P189" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q189" s="1">
         <v>5</v>
       </c>
       <c r="R189" s="34">
-        <v>1.9302055944548084E-2</v>
+        <v>1.4980537669613301E-2</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11576,13 +11576,13 @@
         <v>467</v>
       </c>
       <c r="P190" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q190" s="1">
         <v>1</v>
       </c>
       <c r="R190" s="34">
-        <v>1.1718929075971865E-2</v>
+        <v>1.4093516194356531E-2</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11632,13 +11632,13 @@
         <v>467</v>
       </c>
       <c r="P191" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q191" s="1">
         <v>2</v>
       </c>
       <c r="R191" s="34">
-        <v>1.1240061333654513E-2</v>
+        <v>1.1979351289493952E-2</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11688,13 +11688,13 @@
         <v>467</v>
       </c>
       <c r="P192" s="1">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="Q192" s="1">
         <v>4</v>
       </c>
       <c r="R192" s="34">
-        <v>1.8075600678450963E-2</v>
+        <v>1.6150362759775497E-2</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11743,9 +11743,62 @@
       <c r="O193" s="1">
         <v>467</v>
       </c>
-      <c r="R193" s="34"/>
+      <c r="P193" s="1">
+        <v>126</v>
+      </c>
+      <c r="Q193" s="1">
+        <v>2</v>
+      </c>
+      <c r="R193" s="34">
+        <v>1.7490292671133976E-2</v>
+      </c>
     </row>
     <row r="194" spans="1:18">
+      <c r="A194" s="12">
+        <v>44106</v>
+      </c>
+      <c r="B194" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1</v>
+      </c>
+      <c r="E194" s="1">
+        <v>575</v>
+      </c>
+      <c r="F194" s="1">
+        <v>575</v>
+      </c>
+      <c r="G194" s="18">
+        <v>17</v>
+      </c>
+      <c r="H194" s="18">
+        <v>16</v>
+      </c>
+      <c r="I194" s="18">
+        <v>0</v>
+      </c>
+      <c r="J194" s="18">
+        <v>9</v>
+      </c>
+      <c r="K194" s="18">
+        <v>549</v>
+      </c>
+      <c r="L194" s="18">
+        <v>1</v>
+      </c>
+      <c r="M194" s="1">
+        <v>108</v>
+      </c>
+      <c r="N194" s="1">
+        <v>0</v>
+      </c>
+      <c r="O194" s="1">
+        <v>467</v>
+      </c>
       <c r="R194" s="34"/>
     </row>
     <row r="195" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -943,31 +943,31 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q195" sqref="Q195"/>
+      <selection pane="bottomRight" activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22.5">
+    <row r="1" spans="1:28" ht="22">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44106.768851736109</v>
+        <v>44107.625932175928</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -989,7 +989,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="67.5">
+    <row r="2" spans="1:28" ht="65">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -11802,6 +11802,51 @@
       <c r="R194" s="34"/>
     </row>
     <row r="195" spans="1:18">
+      <c r="A195" s="12">
+        <v>44107</v>
+      </c>
+      <c r="B195" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="1">
+        <v>5</v>
+      </c>
+      <c r="E195" s="1">
+        <v>580</v>
+      </c>
+      <c r="F195" s="1">
+        <v>580</v>
+      </c>
+      <c r="G195" s="1">
+        <v>22</v>
+      </c>
+      <c r="H195" s="1">
+        <v>20</v>
+      </c>
+      <c r="I195" s="1">
+        <v>0</v>
+      </c>
+      <c r="J195" s="1">
+        <v>9</v>
+      </c>
+      <c r="K195" s="1">
+        <v>549</v>
+      </c>
+      <c r="L195" s="1">
+        <v>2</v>
+      </c>
+      <c r="M195" s="1">
+        <v>108</v>
+      </c>
+      <c r="N195" s="1">
+        <v>0</v>
+      </c>
+      <c r="O195" s="1">
+        <v>467</v>
+      </c>
       <c r="R195" s="34"/>
     </row>
     <row r="196" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -946,28 +946,28 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A195" sqref="A195"/>
+      <selection pane="bottomRight" activeCell="L196" sqref="L196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22">
+    <row r="1" spans="1:28" ht="22.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44107.625932175928</v>
+        <v>44108.601719907405</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -989,7 +989,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="65">
+    <row r="2" spans="1:28" ht="67.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -11850,6 +11850,51 @@
       <c r="R195" s="34"/>
     </row>
     <row r="196" spans="1:18">
+      <c r="A196" s="12">
+        <v>44108</v>
+      </c>
+      <c r="B196" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="1">
+        <v>1</v>
+      </c>
+      <c r="E196" s="1">
+        <v>581</v>
+      </c>
+      <c r="F196" s="1">
+        <v>581</v>
+      </c>
+      <c r="G196" s="1">
+        <v>22</v>
+      </c>
+      <c r="H196" s="1">
+        <v>21</v>
+      </c>
+      <c r="I196" s="1">
+        <v>0</v>
+      </c>
+      <c r="J196" s="1">
+        <v>9</v>
+      </c>
+      <c r="K196" s="1">
+        <v>550</v>
+      </c>
+      <c r="L196" s="1">
+        <v>1</v>
+      </c>
+      <c r="M196" s="1">
+        <v>108</v>
+      </c>
+      <c r="N196" s="1">
+        <v>0</v>
+      </c>
+      <c r="O196" s="1">
+        <v>467</v>
+      </c>
       <c r="R196" s="34"/>
     </row>
     <row r="197" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,12 +449,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +500,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -609,7 +616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -723,6 +730,18 @@
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -946,7 +965,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L196" sqref="L196"/>
+      <selection pane="bottomRight" activeCell="O197" sqref="O197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -967,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44108.601719907405</v>
+        <v>44109.630350810185</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11697,7 +11716,7 @@
         <v>1.6150362759775497E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:21">
       <c r="A193" s="12">
         <v>44105</v>
       </c>
@@ -11753,7 +11772,7 @@
         <v>1.7490292671133976E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:21">
       <c r="A194" s="12">
         <v>44106</v>
       </c>
@@ -11801,7 +11820,7 @@
       </c>
       <c r="R194" s="34"/>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:21">
       <c r="A195" s="12">
         <v>44107</v>
       </c>
@@ -11849,7 +11868,7 @@
       </c>
       <c r="R195" s="34"/>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:21">
       <c r="A196" s="12">
         <v>44108</v>
       </c>
@@ -11897,40 +11916,90 @@
       </c>
       <c r="R196" s="34"/>
     </row>
-    <row r="197" spans="1:18">
-      <c r="R197" s="34"/>
-    </row>
-    <row r="198" spans="1:18">
+    <row r="197" spans="1:21" s="41" customFormat="1">
+      <c r="A197" s="12">
+        <v>44109</v>
+      </c>
+      <c r="B197" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" s="1">
+        <v>0</v>
+      </c>
+      <c r="E197" s="1">
+        <v>581</v>
+      </c>
+      <c r="F197" s="1">
+        <v>581</v>
+      </c>
+      <c r="G197" s="1">
+        <v>22</v>
+      </c>
+      <c r="H197" s="1">
+        <v>21</v>
+      </c>
+      <c r="I197" s="1">
+        <v>0</v>
+      </c>
+      <c r="J197" s="1">
+        <v>9</v>
+      </c>
+      <c r="K197" s="1">
+        <v>550</v>
+      </c>
+      <c r="L197" s="1">
+        <v>1</v>
+      </c>
+      <c r="M197" s="1">
+        <v>108</v>
+      </c>
+      <c r="N197" s="1">
+        <v>0</v>
+      </c>
+      <c r="O197" s="1">
+        <v>467</v>
+      </c>
+      <c r="P197" s="38"/>
+      <c r="Q197" s="38"/>
+      <c r="R197" s="39"/>
+      <c r="S197" s="38"/>
+      <c r="T197" s="38"/>
+      <c r="U197" s="40"/>
+    </row>
+    <row r="198" spans="1:21">
       <c r="R198" s="34"/>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:21">
       <c r="R199" s="34"/>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:21">
       <c r="R200" s="34"/>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:21">
       <c r="R201" s="34"/>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:21">
       <c r="R202" s="34"/>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:21">
       <c r="R203" s="34"/>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:21">
       <c r="R204" s="34"/>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:21">
       <c r="R205" s="34"/>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:21">
       <c r="R206" s="34"/>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:21">
       <c r="R207" s="34"/>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:21">
       <c r="R208" s="34"/>
     </row>
     <row r="209" spans="18:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D190" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O197" sqref="O197"/>
+      <selection pane="bottomRight" activeCell="P197" sqref="P197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44109.630350810185</v>
+        <v>44109.714314699071</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11763,13 +11763,13 @@
         <v>467</v>
       </c>
       <c r="P193" s="1">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q193" s="1">
         <v>2</v>
       </c>
       <c r="R193" s="34">
-        <v>1.7490292671133976E-2</v>
+        <v>1.7323559311123306E-2</v>
       </c>
     </row>
     <row r="194" spans="1:21">
@@ -11818,7 +11818,15 @@
       <c r="O194" s="1">
         <v>467</v>
       </c>
-      <c r="R194" s="34"/>
+      <c r="P194" s="1">
+        <v>181</v>
+      </c>
+      <c r="Q194" s="1">
+        <v>5</v>
+      </c>
+      <c r="R194" s="34">
+        <v>1.9229072897773435E-2</v>
+      </c>
     </row>
     <row r="195" spans="1:21">
       <c r="A195" s="12">
@@ -11866,7 +11874,15 @@
       <c r="O195" s="1">
         <v>467</v>
       </c>
-      <c r="R195" s="34"/>
+      <c r="P195" s="1">
+        <v>175</v>
+      </c>
+      <c r="Q195" s="1">
+        <v>0</v>
+      </c>
+      <c r="R195" s="34">
+        <v>1.9229072897773435E-2</v>
+      </c>
     </row>
     <row r="196" spans="1:21">
       <c r="A196" s="12">
@@ -11914,7 +11930,15 @@
       <c r="O196" s="1">
         <v>467</v>
       </c>
-      <c r="R196" s="34"/>
+      <c r="P196" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q196" s="1">
+        <v>0</v>
+      </c>
+      <c r="R196" s="34">
+        <v>1.3226671937389283E-2</v>
+      </c>
     </row>
     <row r="197" spans="1:21" s="41" customFormat="1">
       <c r="A197" s="12">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -734,14 +734,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P197" sqref="P197"/>
+      <selection pane="bottomRight" activeCell="H194" sqref="H194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44109.714314699071</v>
+        <v>44110.734709375</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11819,7 +11819,7 @@
         <v>467</v>
       </c>
       <c r="P194" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q194" s="1">
         <v>5</v>
@@ -11875,7 +11875,7 @@
         <v>467</v>
       </c>
       <c r="P195" s="1">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q195" s="1">
         <v>0</v>
@@ -11931,7 +11931,7 @@
         <v>467</v>
       </c>
       <c r="P196" s="1">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="Q196" s="1">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>1.3226671937389283E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:21" s="41" customFormat="1">
+    <row r="197" spans="1:21" s="40" customFormat="1">
       <c r="A197" s="12">
         <v>44109</v>
       </c>
@@ -11986,14 +11986,65 @@
       <c r="O197" s="1">
         <v>467</v>
       </c>
-      <c r="P197" s="38"/>
-      <c r="Q197" s="38"/>
-      <c r="R197" s="39"/>
+      <c r="P197" s="1">
+        <v>222</v>
+      </c>
+      <c r="Q197" s="1">
+        <v>0</v>
+      </c>
+      <c r="R197" s="41">
+        <v>1.2411338012347384E-2</v>
+      </c>
       <c r="S197" s="38"/>
       <c r="T197" s="38"/>
-      <c r="U197" s="40"/>
+      <c r="U197" s="39"/>
     </row>
     <row r="198" spans="1:21">
+      <c r="A198" s="12">
+        <v>44110</v>
+      </c>
+      <c r="B198" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="1">
+        <v>0</v>
+      </c>
+      <c r="E198" s="1">
+        <v>581</v>
+      </c>
+      <c r="F198" s="1">
+        <v>581</v>
+      </c>
+      <c r="G198" s="1">
+        <v>19</v>
+      </c>
+      <c r="H198" s="1">
+        <v>18</v>
+      </c>
+      <c r="I198" s="1">
+        <v>0</v>
+      </c>
+      <c r="J198" s="1">
+        <v>9</v>
+      </c>
+      <c r="K198" s="1">
+        <v>553</v>
+      </c>
+      <c r="L198" s="1">
+        <v>1</v>
+      </c>
+      <c r="M198" s="1">
+        <v>108</v>
+      </c>
+      <c r="N198" s="1">
+        <v>0</v>
+      </c>
+      <c r="O198" s="1">
+        <v>467</v>
+      </c>
       <c r="R198" s="34"/>
     </row>
     <row r="199" spans="1:21">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H194" sqref="H194"/>
+      <selection pane="bottomRight" activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44110.734709375</v>
+        <v>44111.716097569442</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11987,7 +11987,7 @@
         <v>467</v>
       </c>
       <c r="P197" s="1">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q197" s="1">
         <v>0</v>
@@ -12045,9 +12045,62 @@
       <c r="O198" s="1">
         <v>467</v>
       </c>
-      <c r="R198" s="34"/>
+      <c r="P198" s="1">
+        <v>142</v>
+      </c>
+      <c r="Q198" s="1">
+        <v>2</v>
+      </c>
+      <c r="R198" s="34">
+        <v>1.2208571022813282E-2</v>
+      </c>
     </row>
     <row r="199" spans="1:21">
+      <c r="A199" s="12">
+        <v>44111</v>
+      </c>
+      <c r="B199" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="1">
+        <v>2</v>
+      </c>
+      <c r="E199" s="1">
+        <v>583</v>
+      </c>
+      <c r="F199" s="1">
+        <v>583</v>
+      </c>
+      <c r="G199" s="1">
+        <v>18</v>
+      </c>
+      <c r="H199" s="1">
+        <v>17</v>
+      </c>
+      <c r="I199" s="1">
+        <v>0</v>
+      </c>
+      <c r="J199" s="1">
+        <v>9</v>
+      </c>
+      <c r="K199" s="1">
+        <v>556</v>
+      </c>
+      <c r="L199" s="1">
+        <v>1</v>
+      </c>
+      <c r="M199" s="1">
+        <v>108</v>
+      </c>
+      <c r="N199" s="1">
+        <v>0</v>
+      </c>
+      <c r="O199" s="1">
+        <v>467</v>
+      </c>
       <c r="R199" s="34"/>
     </row>
     <row r="200" spans="1:21">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -965,7 +965,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A199" sqref="A199"/>
+      <selection pane="bottomRight" activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44111.716097569442</v>
+        <v>44112.593756712966</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -12104,6 +12104,51 @@
       <c r="R199" s="34"/>
     </row>
     <row r="200" spans="1:21">
+      <c r="A200" s="12">
+        <v>44112</v>
+      </c>
+      <c r="B200" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" s="1">
+        <v>4</v>
+      </c>
+      <c r="E200" s="1">
+        <v>587</v>
+      </c>
+      <c r="F200" s="1">
+        <v>587</v>
+      </c>
+      <c r="G200" s="1">
+        <v>20</v>
+      </c>
+      <c r="H200" s="1">
+        <v>19</v>
+      </c>
+      <c r="I200" s="1">
+        <v>0</v>
+      </c>
+      <c r="J200" s="1">
+        <v>9</v>
+      </c>
+      <c r="K200" s="1">
+        <v>558</v>
+      </c>
+      <c r="L200" s="1">
+        <v>1</v>
+      </c>
+      <c r="M200" s="1">
+        <v>108</v>
+      </c>
+      <c r="N200" s="1">
+        <v>0</v>
+      </c>
+      <c r="O200" s="1">
+        <v>467</v>
+      </c>
       <c r="R200" s="34"/>
     </row>
     <row r="201" spans="1:21">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A201" sqref="A201"/>
+      <selection pane="bottomRight" activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44112.593756712966</v>
+        <v>44112.712676967596</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11987,7 +11987,7 @@
         <v>467</v>
       </c>
       <c r="P197" s="1">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q197" s="1">
         <v>0</v>
@@ -12046,7 +12046,7 @@
         <v>467</v>
       </c>
       <c r="P198" s="1">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q198" s="1">
         <v>2</v>
@@ -12101,7 +12101,15 @@
       <c r="O199" s="1">
         <v>467</v>
       </c>
-      <c r="R199" s="34"/>
+      <c r="P199" s="1">
+        <v>156</v>
+      </c>
+      <c r="Q199" s="1">
+        <v>5</v>
+      </c>
+      <c r="R199" s="34">
+        <v>1.2574685046432365E-2</v>
+      </c>
     </row>
     <row r="200" spans="1:21">
       <c r="A200" s="12">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A200" sqref="A200"/>
+      <selection pane="bottomRight" activeCell="Q203" sqref="Q203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44112.712676967596</v>
+        <v>44113.735313078701</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11819,7 +11819,7 @@
         <v>467</v>
       </c>
       <c r="P194" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q194" s="1">
         <v>5</v>
@@ -12052,7 +12052,7 @@
         <v>2</v>
       </c>
       <c r="R198" s="34">
-        <v>1.2208571022813282E-2</v>
+        <v>1.2145495780681791E-2</v>
       </c>
     </row>
     <row r="199" spans="1:21">
@@ -12102,13 +12102,13 @@
         <v>467</v>
       </c>
       <c r="P199" s="1">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q199" s="1">
         <v>5</v>
       </c>
       <c r="R199" s="34">
-        <v>1.2574685046432365E-2</v>
+        <v>1.2303488639404577E-2</v>
       </c>
     </row>
     <row r="200" spans="1:21">
@@ -12157,9 +12157,62 @@
       <c r="O200" s="1">
         <v>467</v>
       </c>
-      <c r="R200" s="34"/>
+      <c r="P200" s="1">
+        <v>129</v>
+      </c>
+      <c r="Q200" s="1">
+        <v>4</v>
+      </c>
+      <c r="R200" s="34">
+        <v>1.4632327151553623E-2</v>
+      </c>
     </row>
     <row r="201" spans="1:21">
+      <c r="A201" s="12">
+        <v>44113</v>
+      </c>
+      <c r="B201" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" s="1">
+        <v>8</v>
+      </c>
+      <c r="E201" s="1">
+        <v>595</v>
+      </c>
+      <c r="F201" s="1">
+        <v>595</v>
+      </c>
+      <c r="G201" s="1">
+        <v>27</v>
+      </c>
+      <c r="H201" s="1">
+        <v>26</v>
+      </c>
+      <c r="I201" s="1">
+        <v>0</v>
+      </c>
+      <c r="J201" s="1">
+        <v>9</v>
+      </c>
+      <c r="K201" s="1">
+        <v>559</v>
+      </c>
+      <c r="L201" s="1">
+        <v>1</v>
+      </c>
+      <c r="M201" s="1">
+        <v>108</v>
+      </c>
+      <c r="N201" s="1">
+        <v>0</v>
+      </c>
+      <c r="O201" s="1">
+        <v>467</v>
+      </c>
       <c r="R201" s="34"/>
     </row>
     <row r="202" spans="1:21">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -965,7 +965,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q203" sqref="Q203"/>
+      <selection pane="bottomRight" activeCell="P201" sqref="P201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44113.735313078701</v>
+        <v>44114.605338078705</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -12216,6 +12216,51 @@
       <c r="R201" s="34"/>
     </row>
     <row r="202" spans="1:21">
+      <c r="A202" s="12">
+        <v>44114</v>
+      </c>
+      <c r="B202" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" s="1">
+        <v>0</v>
+      </c>
+      <c r="E202" s="1">
+        <v>595</v>
+      </c>
+      <c r="F202" s="1">
+        <v>595</v>
+      </c>
+      <c r="G202" s="1">
+        <v>26</v>
+      </c>
+      <c r="H202" s="1">
+        <v>26</v>
+      </c>
+      <c r="I202" s="1">
+        <v>0</v>
+      </c>
+      <c r="J202" s="1">
+        <v>9</v>
+      </c>
+      <c r="K202" s="1">
+        <v>560</v>
+      </c>
+      <c r="L202" s="1">
+        <v>0</v>
+      </c>
+      <c r="M202" s="1">
+        <v>108</v>
+      </c>
+      <c r="N202" s="1">
+        <v>0</v>
+      </c>
+      <c r="O202" s="1">
+        <v>467</v>
+      </c>
       <c r="R202" s="34"/>
     </row>
     <row r="203" spans="1:21">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -965,28 +965,28 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P201" sqref="P201"/>
+      <selection pane="bottomRight" activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22.5">
+    <row r="1" spans="1:28" ht="22">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44114.605338078705</v>
+        <v>44115.61079791667</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1008,7 +1008,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="67.5">
+    <row r="2" spans="1:28" ht="65">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -12264,6 +12264,51 @@
       <c r="R202" s="34"/>
     </row>
     <row r="203" spans="1:21">
+      <c r="A203" s="12">
+        <v>44115</v>
+      </c>
+      <c r="B203" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="1">
+        <v>4</v>
+      </c>
+      <c r="E203" s="1">
+        <v>599</v>
+      </c>
+      <c r="F203" s="1">
+        <v>599</v>
+      </c>
+      <c r="G203" s="1">
+        <v>27</v>
+      </c>
+      <c r="H203" s="1">
+        <v>27</v>
+      </c>
+      <c r="I203" s="1">
+        <v>1</v>
+      </c>
+      <c r="J203" s="1">
+        <v>9</v>
+      </c>
+      <c r="K203" s="1">
+        <v>563</v>
+      </c>
+      <c r="L203" s="1">
+        <v>0</v>
+      </c>
+      <c r="M203" s="1">
+        <v>108</v>
+      </c>
+      <c r="N203" s="1">
+        <v>0</v>
+      </c>
+      <c r="O203" s="1">
+        <v>467</v>
+      </c>
       <c r="R203" s="34"/>
     </row>
     <row r="204" spans="1:21">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -962,31 +962,31 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A203" sqref="A203"/>
+      <selection pane="bottomRight" activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22">
+    <row r="1" spans="1:28" ht="22.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44115.61079791667</v>
+        <v>44116.713082986113</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1008,7 +1008,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="65">
+    <row r="2" spans="1:28" ht="67.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -12158,13 +12158,13 @@
         <v>467</v>
       </c>
       <c r="P200" s="1">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q200" s="1">
         <v>4</v>
       </c>
       <c r="R200" s="34">
-        <v>1.4632327151553623E-2</v>
+        <v>1.4499103727545096E-2</v>
       </c>
     </row>
     <row r="201" spans="1:21">
@@ -12213,7 +12213,15 @@
       <c r="O201" s="1">
         <v>467</v>
       </c>
-      <c r="R201" s="34"/>
+      <c r="P201" s="1">
+        <v>237</v>
+      </c>
+      <c r="Q201" s="1">
+        <v>5</v>
+      </c>
+      <c r="R201" s="34">
+        <v>1.360976687639044E-2</v>
+      </c>
     </row>
     <row r="202" spans="1:21">
       <c r="A202" s="12">
@@ -12261,7 +12269,15 @@
       <c r="O202" s="1">
         <v>467</v>
       </c>
-      <c r="R202" s="34"/>
+      <c r="P202" s="1">
+        <v>119</v>
+      </c>
+      <c r="Q202" s="1">
+        <v>2</v>
+      </c>
+      <c r="R202" s="34">
+        <v>1.6010727260544103E-2</v>
+      </c>
     </row>
     <row r="203" spans="1:21">
       <c r="A203" s="12">
@@ -12309,9 +12325,62 @@
       <c r="O203" s="1">
         <v>467</v>
       </c>
-      <c r="R203" s="34"/>
+      <c r="P203" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q203" s="1">
+        <v>1</v>
+      </c>
+      <c r="R203" s="34">
+        <v>2.3153584403401244E-2</v>
+      </c>
     </row>
     <row r="204" spans="1:21">
+      <c r="A204" s="12">
+        <v>44116</v>
+      </c>
+      <c r="B204" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1</v>
+      </c>
+      <c r="E204" s="1">
+        <v>600</v>
+      </c>
+      <c r="F204" s="1">
+        <v>600</v>
+      </c>
+      <c r="G204" s="1">
+        <v>26</v>
+      </c>
+      <c r="H204" s="1">
+        <v>26</v>
+      </c>
+      <c r="I204" s="1">
+        <v>1</v>
+      </c>
+      <c r="J204" s="1">
+        <v>9</v>
+      </c>
+      <c r="K204" s="1">
+        <v>565</v>
+      </c>
+      <c r="L204" s="1">
+        <v>0</v>
+      </c>
+      <c r="M204" s="1">
+        <v>108</v>
+      </c>
+      <c r="N204" s="1">
+        <v>0</v>
+      </c>
+      <c r="O204" s="1">
+        <v>467</v>
+      </c>
       <c r="R204" s="34"/>
     </row>
     <row r="205" spans="1:21">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J201" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L202" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A204" sqref="A204"/>
+      <selection pane="bottomRight" activeCell="R205" sqref="R205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44116.713082986113</v>
+        <v>44117.717787037036</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11203,7 +11203,7 @@
         <v>467</v>
       </c>
       <c r="P183" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q183" s="1">
         <v>1</v>
@@ -11763,7 +11763,7 @@
         <v>467</v>
       </c>
       <c r="P193" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q193" s="1">
         <v>2</v>
@@ -12214,7 +12214,7 @@
         <v>467</v>
       </c>
       <c r="P201" s="1">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q201" s="1">
         <v>5</v>
@@ -12326,13 +12326,13 @@
         <v>467</v>
       </c>
       <c r="P203" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q203" s="1">
         <v>1</v>
       </c>
       <c r="R203" s="34">
-        <v>2.3153584403401244E-2</v>
+        <v>2.1480012137699324E-2</v>
       </c>
     </row>
     <row r="204" spans="1:21">
@@ -12381,9 +12381,62 @@
       <c r="O204" s="1">
         <v>467</v>
       </c>
-      <c r="R204" s="34"/>
+      <c r="P204" s="1">
+        <v>236</v>
+      </c>
+      <c r="Q204" s="1">
+        <v>3</v>
+      </c>
+      <c r="R204" s="34">
+        <v>2.3295992767239277E-2</v>
+      </c>
     </row>
     <row r="205" spans="1:21">
+      <c r="A205" s="12">
+        <v>44117</v>
+      </c>
+      <c r="B205" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" s="1">
+        <v>3</v>
+      </c>
+      <c r="E205" s="1">
+        <v>603</v>
+      </c>
+      <c r="F205" s="1">
+        <v>603</v>
+      </c>
+      <c r="G205" s="1">
+        <v>26</v>
+      </c>
+      <c r="H205" s="1">
+        <v>26</v>
+      </c>
+      <c r="I205" s="1">
+        <v>1</v>
+      </c>
+      <c r="J205" s="1">
+        <v>9</v>
+      </c>
+      <c r="K205" s="1">
+        <v>568</v>
+      </c>
+      <c r="L205" s="1">
+        <v>0</v>
+      </c>
+      <c r="M205" s="1">
+        <v>108</v>
+      </c>
+      <c r="N205" s="1">
+        <v>0</v>
+      </c>
+      <c r="O205" s="1">
+        <v>467</v>
+      </c>
       <c r="R205" s="34"/>
     </row>
     <row r="206" spans="1:21">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L202" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R205" sqref="R205"/>
+      <selection pane="bottomRight" activeCell="P211" sqref="P211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44117.717787037036</v>
+        <v>44118.711952662037</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -12102,7 +12102,7 @@
         <v>467</v>
       </c>
       <c r="P199" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q199" s="1">
         <v>5</v>
@@ -12158,7 +12158,7 @@
         <v>467</v>
       </c>
       <c r="P200" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q200" s="1">
         <v>4</v>
@@ -12214,13 +12214,13 @@
         <v>467</v>
       </c>
       <c r="P201" s="1">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q201" s="1">
         <v>5</v>
       </c>
       <c r="R201" s="34">
-        <v>1.360976687639044E-2</v>
+        <v>1.3505688265755354E-2</v>
       </c>
     </row>
     <row r="202" spans="1:21">
@@ -12276,7 +12276,7 @@
         <v>2</v>
       </c>
       <c r="R202" s="34">
-        <v>1.6010727260544103E-2</v>
+        <v>1.5906648649909014E-2</v>
       </c>
     </row>
     <row r="203" spans="1:21">
@@ -12332,7 +12332,7 @@
         <v>1</v>
       </c>
       <c r="R203" s="34">
-        <v>2.1480012137699324E-2</v>
+        <v>2.140115414441451E-2</v>
       </c>
     </row>
     <row r="204" spans="1:21">
@@ -12382,13 +12382,13 @@
         <v>467</v>
       </c>
       <c r="P204" s="1">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="Q204" s="1">
         <v>3</v>
       </c>
       <c r="R204" s="34">
-        <v>2.3295992767239277E-2</v>
+        <v>2.3122324540283699E-2</v>
       </c>
     </row>
     <row r="205" spans="1:21">
@@ -12437,9 +12437,62 @@
       <c r="O205" s="1">
         <v>467</v>
       </c>
-      <c r="R205" s="34"/>
+      <c r="P205" s="1">
+        <v>172</v>
+      </c>
+      <c r="Q205" s="1">
+        <v>2</v>
+      </c>
+      <c r="R205" s="34">
+        <v>2.2813010758636319E-2</v>
+      </c>
     </row>
     <row r="206" spans="1:21">
+      <c r="A206" s="12">
+        <v>44118</v>
+      </c>
+      <c r="B206" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" s="1">
+        <v>2</v>
+      </c>
+      <c r="E206" s="1">
+        <v>605</v>
+      </c>
+      <c r="F206" s="1">
+        <v>605</v>
+      </c>
+      <c r="G206" s="18">
+        <v>27</v>
+      </c>
+      <c r="H206" s="18">
+        <v>27</v>
+      </c>
+      <c r="I206" s="18">
+        <v>1</v>
+      </c>
+      <c r="J206" s="18">
+        <v>9</v>
+      </c>
+      <c r="K206" s="18">
+        <v>569</v>
+      </c>
+      <c r="L206" s="1">
+        <v>0</v>
+      </c>
+      <c r="M206" s="1">
+        <v>108</v>
+      </c>
+      <c r="N206" s="1">
+        <v>0</v>
+      </c>
+      <c r="O206" s="1">
+        <v>467</v>
+      </c>
       <c r="R206" s="34"/>
     </row>
     <row r="207" spans="1:21">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D199" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="N196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P211" sqref="P211"/>
+      <selection pane="bottomRight" activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44118.711952662037</v>
+        <v>44119.713018634262</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11203,13 +11203,13 @@
         <v>467</v>
       </c>
       <c r="P183" s="1">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q183" s="1">
         <v>1</v>
       </c>
       <c r="R183" s="34">
-        <v>1.0794295821428841E-2</v>
+        <v>1.0718759989118389E-2</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -11259,13 +11259,13 @@
         <v>467</v>
       </c>
       <c r="P184" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q184" s="1">
         <v>2</v>
       </c>
       <c r="R184" s="34">
-        <v>1.415148285208526E-2</v>
+        <v>1.3948623363039385E-2</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="R185" s="34">
-        <v>1.3108729984514872E-2</v>
+        <v>1.2905870495468999E-2</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11371,13 +11371,13 @@
         <v>467</v>
       </c>
       <c r="P186" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q186" s="1">
         <v>1</v>
       </c>
       <c r="R186" s="34">
-        <v>1.4036373769301514E-2</v>
+        <v>1.3827529481644115E-2</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11433,7 +11433,7 @@
         <v>3</v>
       </c>
       <c r="R187" s="34">
-        <v>1.5173030963824894E-2</v>
+        <v>1.4964186676167493E-2</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="R188" s="34">
-        <v>1.0908638639731075E-2</v>
+        <v>1.0699794352073676E-2</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11545,7 +11545,7 @@
         <v>5</v>
       </c>
       <c r="R189" s="34">
-        <v>1.4980537669613301E-2</v>
+        <v>1.47716933819559E-2</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="R190" s="34">
-        <v>1.4093516194356531E-2</v>
+        <v>1.3960207739009583E-2</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11651,13 +11651,13 @@
         <v>467</v>
       </c>
       <c r="P191" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q191" s="1">
         <v>2</v>
       </c>
       <c r="R191" s="34">
-        <v>1.1979351289493952E-2</v>
+        <v>1.1956329264542874E-2</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11713,7 +11713,7 @@
         <v>4</v>
       </c>
       <c r="R192" s="34">
-        <v>1.6150362759775497E-2</v>
+        <v>1.6127340734824417E-2</v>
       </c>
     </row>
     <row r="193" spans="1:21">
@@ -11763,13 +11763,13 @@
         <v>467</v>
       </c>
       <c r="P193" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q193" s="1">
         <v>2</v>
       </c>
       <c r="R193" s="34">
-        <v>1.7323559311123306E-2</v>
+        <v>1.7276075123390501E-2</v>
       </c>
     </row>
     <row r="194" spans="1:21">
@@ -11819,13 +11819,13 @@
         <v>467</v>
       </c>
       <c r="P194" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q194" s="1">
         <v>5</v>
       </c>
       <c r="R194" s="34">
-        <v>1.9229072897773435E-2</v>
+        <v>1.9117246374499637E-2</v>
       </c>
     </row>
     <row r="195" spans="1:21">
@@ -11875,13 +11875,13 @@
         <v>467</v>
       </c>
       <c r="P195" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q195" s="1">
         <v>0</v>
       </c>
       <c r="R195" s="34">
-        <v>1.9229072897773435E-2</v>
+        <v>1.9117246374499641E-2</v>
       </c>
     </row>
     <row r="196" spans="1:21">
@@ -11931,13 +11931,13 @@
         <v>467</v>
       </c>
       <c r="P196" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q196" s="1">
         <v>0</v>
       </c>
       <c r="R196" s="34">
-        <v>1.3226671937389283E-2</v>
+        <v>1.3114845414115487E-2</v>
       </c>
     </row>
     <row r="197" spans="1:21" s="40" customFormat="1">
@@ -11987,13 +11987,13 @@
         <v>467</v>
       </c>
       <c r="P197" s="1">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q197" s="1">
         <v>0</v>
       </c>
       <c r="R197" s="41">
-        <v>1.2411338012347384E-2</v>
+        <v>1.2321194620464692E-2</v>
       </c>
       <c r="S197" s="38"/>
       <c r="T197" s="38"/>
@@ -12046,13 +12046,13 @@
         <v>467</v>
       </c>
       <c r="P198" s="1">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q198" s="1">
         <v>2</v>
       </c>
       <c r="R198" s="34">
-        <v>1.2145495780681791E-2</v>
+        <v>1.2053894353164426E-2</v>
       </c>
     </row>
     <row r="199" spans="1:21">
@@ -12102,13 +12102,13 @@
         <v>467</v>
       </c>
       <c r="P199" s="1">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q199" s="1">
         <v>5</v>
       </c>
       <c r="R199" s="34">
-        <v>1.2303488639404577E-2</v>
+        <v>1.208456355515179E-2</v>
       </c>
     </row>
     <row r="200" spans="1:21">
@@ -12158,13 +12158,13 @@
         <v>467</v>
       </c>
       <c r="P200" s="1">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q200" s="1">
         <v>4</v>
       </c>
       <c r="R200" s="34">
-        <v>1.4499103727545096E-2</v>
+        <v>1.4154956929892991E-2</v>
       </c>
     </row>
     <row r="201" spans="1:21">
@@ -12214,13 +12214,13 @@
         <v>467</v>
       </c>
       <c r="P201" s="1">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q201" s="1">
         <v>5</v>
       </c>
       <c r="R201" s="34">
-        <v>1.3505688265755354E-2</v>
+        <v>1.3096233045082149E-2</v>
       </c>
     </row>
     <row r="202" spans="1:21">
@@ -12270,13 +12270,13 @@
         <v>467</v>
       </c>
       <c r="P202" s="1">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q202" s="1">
         <v>2</v>
       </c>
       <c r="R202" s="34">
-        <v>1.5906648649909014E-2</v>
+        <v>1.5381947330796437E-2</v>
       </c>
     </row>
     <row r="203" spans="1:21">
@@ -12326,13 +12326,13 @@
         <v>467</v>
       </c>
       <c r="P203" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q203" s="1">
         <v>1</v>
       </c>
       <c r="R203" s="34">
-        <v>2.140115414441451E-2</v>
+        <v>2.0143852092701198E-2</v>
       </c>
     </row>
     <row r="204" spans="1:21">
@@ -12382,13 +12382,13 @@
         <v>467</v>
       </c>
       <c r="P204" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q204" s="1">
         <v>3</v>
       </c>
       <c r="R204" s="34">
-        <v>2.3122324540283699E-2</v>
+        <v>2.1858137806986911E-2</v>
       </c>
     </row>
     <row r="205" spans="1:21">
@@ -12438,13 +12438,13 @@
         <v>467</v>
       </c>
       <c r="P205" s="1">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q205" s="1">
         <v>2</v>
       </c>
       <c r="R205" s="34">
-        <v>2.2813010758636319E-2</v>
+        <v>2.151493746378657E-2</v>
       </c>
     </row>
     <row r="206" spans="1:21">
@@ -12493,9 +12493,62 @@
       <c r="O206" s="1">
         <v>467</v>
       </c>
-      <c r="R206" s="34"/>
+      <c r="P206" s="1">
+        <v>135</v>
+      </c>
+      <c r="Q206" s="1">
+        <v>2</v>
+      </c>
+      <c r="R206" s="34">
+        <v>1.942965890791978E-2</v>
+      </c>
     </row>
     <row r="207" spans="1:21">
+      <c r="A207" s="12">
+        <v>44119</v>
+      </c>
+      <c r="B207" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" s="1">
+        <v>2</v>
+      </c>
+      <c r="E207" s="1">
+        <v>607</v>
+      </c>
+      <c r="F207" s="1">
+        <v>607</v>
+      </c>
+      <c r="G207" s="1">
+        <v>27</v>
+      </c>
+      <c r="H207" s="1">
+        <v>27</v>
+      </c>
+      <c r="I207" s="1">
+        <v>2</v>
+      </c>
+      <c r="J207" s="1">
+        <v>9</v>
+      </c>
+      <c r="K207" s="1">
+        <v>571</v>
+      </c>
+      <c r="L207" s="1">
+        <v>0</v>
+      </c>
+      <c r="M207" s="1">
+        <v>108</v>
+      </c>
+      <c r="N207" s="1">
+        <v>0</v>
+      </c>
+      <c r="O207" s="1">
+        <v>467</v>
+      </c>
       <c r="R207" s="34"/>
     </row>
     <row r="208" spans="1:21">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="O202" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A207" sqref="A207"/>
+      <selection pane="bottomRight" activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44119.713018634262</v>
+        <v>44120.714362268518</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -12494,7 +12494,7 @@
         <v>467</v>
       </c>
       <c r="P206" s="1">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q206" s="1">
         <v>2</v>
@@ -12549,9 +12549,62 @@
       <c r="O207" s="1">
         <v>467</v>
       </c>
-      <c r="R207" s="34"/>
+      <c r="P207" s="1">
+        <v>82</v>
+      </c>
+      <c r="Q207" s="1">
+        <v>3</v>
+      </c>
+      <c r="R207" s="34">
+        <v>2.0469344253013395E-2</v>
+      </c>
     </row>
     <row r="208" spans="1:21">
+      <c r="A208" s="12">
+        <v>44120</v>
+      </c>
+      <c r="B208" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" s="1">
+        <v>3</v>
+      </c>
+      <c r="E208" s="1">
+        <v>610</v>
+      </c>
+      <c r="F208" s="1">
+        <v>610</v>
+      </c>
+      <c r="G208" s="1">
+        <v>29</v>
+      </c>
+      <c r="H208" s="1">
+        <v>29</v>
+      </c>
+      <c r="I208" s="1">
+        <v>2</v>
+      </c>
+      <c r="J208" s="1">
+        <v>9</v>
+      </c>
+      <c r="K208" s="1">
+        <v>572</v>
+      </c>
+      <c r="L208" s="1">
+        <v>0</v>
+      </c>
+      <c r="M208" s="1">
+        <v>108</v>
+      </c>
+      <c r="N208" s="1">
+        <v>0</v>
+      </c>
+      <c r="O208" s="1">
+        <v>467</v>
+      </c>
       <c r="R208" s="34"/>
     </row>
     <row r="209" spans="18:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -962,31 +962,31 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O202" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D203" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A208" sqref="A208"/>
+      <selection pane="bottomRight" activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22.5">
+    <row r="1" spans="1:28" ht="22">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44120.714362268518</v>
+        <v>44121.607211226852</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1008,7 +1008,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="67.5">
+    <row r="2" spans="1:28" ht="65">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -12607,52 +12607,97 @@
       </c>
       <c r="R208" s="34"/>
     </row>
-    <row r="209" spans="18:18">
+    <row r="209" spans="1:18">
+      <c r="A209" s="12">
+        <v>44121</v>
+      </c>
+      <c r="B209" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" s="1">
+        <v>3</v>
+      </c>
+      <c r="E209" s="1">
+        <v>613</v>
+      </c>
+      <c r="F209" s="1">
+        <v>613</v>
+      </c>
+      <c r="G209" s="1">
+        <v>30</v>
+      </c>
+      <c r="H209" s="1">
+        <v>30</v>
+      </c>
+      <c r="I209" s="1">
+        <v>2</v>
+      </c>
+      <c r="J209" s="1">
+        <v>9</v>
+      </c>
+      <c r="K209" s="1">
+        <v>574</v>
+      </c>
+      <c r="L209" s="1">
+        <v>0</v>
+      </c>
+      <c r="M209" s="1">
+        <v>108</v>
+      </c>
+      <c r="N209" s="1">
+        <v>0</v>
+      </c>
+      <c r="O209" s="1">
+        <v>467</v>
+      </c>
       <c r="R209" s="34"/>
     </row>
-    <row r="210" spans="18:18">
+    <row r="210" spans="1:18">
       <c r="R210" s="34"/>
     </row>
-    <row r="211" spans="18:18">
+    <row r="211" spans="1:18">
       <c r="R211" s="34"/>
     </row>
-    <row r="212" spans="18:18">
+    <row r="212" spans="1:18">
       <c r="R212" s="34"/>
     </row>
-    <row r="213" spans="18:18">
+    <row r="213" spans="1:18">
       <c r="R213" s="34"/>
     </row>
-    <row r="214" spans="18:18">
+    <row r="214" spans="1:18">
       <c r="R214" s="34"/>
     </row>
-    <row r="215" spans="18:18">
+    <row r="215" spans="1:18">
       <c r="R215" s="34"/>
     </row>
-    <row r="216" spans="18:18">
+    <row r="216" spans="1:18">
       <c r="R216" s="34"/>
     </row>
-    <row r="217" spans="18:18">
+    <row r="217" spans="1:18">
       <c r="R217" s="34"/>
     </row>
-    <row r="218" spans="18:18">
+    <row r="218" spans="1:18">
       <c r="R218" s="34"/>
     </row>
-    <row r="219" spans="18:18">
+    <row r="219" spans="1:18">
       <c r="R219" s="34"/>
     </row>
-    <row r="220" spans="18:18">
+    <row r="220" spans="1:18">
       <c r="R220" s="34"/>
     </row>
-    <row r="221" spans="18:18">
+    <row r="221" spans="1:18">
       <c r="R221" s="34"/>
     </row>
-    <row r="222" spans="18:18">
+    <row r="222" spans="1:18">
       <c r="R222" s="34"/>
     </row>
-    <row r="223" spans="18:18">
+    <row r="223" spans="1:18">
       <c r="R223" s="34"/>
     </row>
-    <row r="224" spans="18:18">
+    <row r="224" spans="1:18">
       <c r="R224" s="34"/>
     </row>
     <row r="225" spans="18:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -962,31 +962,31 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D203" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A209" sqref="A209"/>
+      <selection pane="bottomRight" activeCell="U210" sqref="U210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22">
+    <row r="1" spans="1:28" ht="22.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44121.607211226852</v>
+        <v>44122.548896296299</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1008,7 +1008,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="65">
+    <row r="2" spans="1:28" ht="67.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -12656,6 +12656,51 @@
       <c r="R209" s="34"/>
     </row>
     <row r="210" spans="1:18">
+      <c r="A210" s="12">
+        <v>44122</v>
+      </c>
+      <c r="B210" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="1">
+        <v>0</v>
+      </c>
+      <c r="E210" s="1">
+        <v>613</v>
+      </c>
+      <c r="F210" s="1">
+        <v>613</v>
+      </c>
+      <c r="G210" s="1">
+        <v>28</v>
+      </c>
+      <c r="H210" s="1">
+        <v>28</v>
+      </c>
+      <c r="I210" s="1">
+        <v>2</v>
+      </c>
+      <c r="J210" s="1">
+        <v>9</v>
+      </c>
+      <c r="K210" s="1">
+        <v>576</v>
+      </c>
+      <c r="L210" s="1">
+        <v>0</v>
+      </c>
+      <c r="M210" s="1">
+        <v>108</v>
+      </c>
+      <c r="N210" s="1">
+        <v>0</v>
+      </c>
+      <c r="O210" s="1">
+        <v>467</v>
+      </c>
       <c r="R210" s="34"/>
     </row>
     <row r="211" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H201" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U210" sqref="U210"/>
+      <selection pane="bottomRight" activeCell="P211" sqref="P211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44122.548896296299</v>
+        <v>44123.596999768517</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -12704,6 +12704,39 @@
       <c r="R210" s="34"/>
     </row>
     <row r="211" spans="1:18">
+      <c r="A211" s="12">
+        <v>44123</v>
+      </c>
+      <c r="B211" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H211" s="1">
+        <v>23</v>
+      </c>
+      <c r="I211" s="1">
+        <v>2</v>
+      </c>
+      <c r="J211" s="1">
+        <v>9</v>
+      </c>
+      <c r="K211" s="1">
+        <v>581</v>
+      </c>
+      <c r="L211" s="1">
+        <v>0</v>
+      </c>
+      <c r="M211" s="1">
+        <v>108</v>
+      </c>
+      <c r="N211" s="1">
+        <v>0</v>
+      </c>
+      <c r="O211" s="1">
+        <v>467</v>
+      </c>
       <c r="R211" s="34"/>
     </row>
     <row r="212" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H198" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="N198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P211" sqref="P211"/>
+      <selection pane="bottomRight" activeCell="O211" sqref="O211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44123.596999768517</v>
+        <v>44123.725226388888</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -12550,13 +12550,13 @@
         <v>467</v>
       </c>
       <c r="P207" s="1">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Q207" s="1">
         <v>3</v>
       </c>
       <c r="R207" s="34">
-        <v>2.0469344253013395E-2</v>
+        <v>1.8844303993006954E-2</v>
       </c>
     </row>
     <row r="208" spans="1:21">
@@ -12605,7 +12605,15 @@
       <c r="O208" s="1">
         <v>467</v>
       </c>
-      <c r="R208" s="34"/>
+      <c r="P208" s="1">
+        <v>115</v>
+      </c>
+      <c r="Q208" s="1">
+        <v>3</v>
+      </c>
+      <c r="R208" s="34">
+        <v>1.9747748374712205E-2</v>
+      </c>
     </row>
     <row r="209" spans="1:18">
       <c r="A209" s="12">
@@ -12653,7 +12661,15 @@
       <c r="O209" s="1">
         <v>467</v>
       </c>
-      <c r="R209" s="34"/>
+      <c r="P209" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q209" s="1">
+        <v>0</v>
+      </c>
+      <c r="R209" s="34">
+        <v>1.7462034088997918E-2</v>
+      </c>
     </row>
     <row r="210" spans="1:18">
       <c r="A210" s="12">
@@ -12701,7 +12717,15 @@
       <c r="O210" s="1">
         <v>467</v>
       </c>
-      <c r="R210" s="34"/>
+      <c r="P210" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q210" s="1">
+        <v>0</v>
+      </c>
+      <c r="R210" s="34">
+        <v>1.2700129327093154E-2</v>
+      </c>
     </row>
     <row r="211" spans="1:18">
       <c r="A211" s="12">
@@ -12712,6 +12736,18 @@
       </c>
       <c r="C211" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D211" s="1">
+        <v>0</v>
+      </c>
+      <c r="E211" s="1">
+        <v>613</v>
+      </c>
+      <c r="F211" s="1">
+        <v>613</v>
+      </c>
+      <c r="G211" s="1">
+        <v>23</v>
       </c>
       <c r="H211" s="1">
         <v>23</v>

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N198" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O211" sqref="O211"/>
+      <selection pane="bottomRight" activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44123.725226388888</v>
+        <v>44124.619782870373</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -12776,6 +12776,51 @@
       <c r="R211" s="34"/>
     </row>
     <row r="212" spans="1:18">
+      <c r="A212" s="12">
+        <v>44124</v>
+      </c>
+      <c r="B212" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" s="1">
+        <v>0</v>
+      </c>
+      <c r="E212" s="1">
+        <v>615</v>
+      </c>
+      <c r="F212" s="1">
+        <v>615</v>
+      </c>
+      <c r="G212" s="1">
+        <v>20</v>
+      </c>
+      <c r="H212" s="1">
+        <v>20</v>
+      </c>
+      <c r="I212" s="1">
+        <v>2</v>
+      </c>
+      <c r="J212" s="1">
+        <v>9</v>
+      </c>
+      <c r="K212" s="1">
+        <v>586</v>
+      </c>
+      <c r="L212" s="1">
+        <v>0</v>
+      </c>
+      <c r="M212" s="1">
+        <v>108</v>
+      </c>
+      <c r="N212" s="1">
+        <v>0</v>
+      </c>
+      <c r="O212" s="1">
+        <v>467</v>
+      </c>
       <c r="R212" s="34"/>
     </row>
     <row r="213" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -961,11 +961,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB525"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D201" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D205" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A212" sqref="A212"/>
+      <selection pane="bottomRight" activeCell="P214" sqref="P214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44124.619782870373</v>
+        <v>44126.710431250001</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -12718,7 +12718,7 @@
         <v>467</v>
       </c>
       <c r="P210" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="Q210" s="1">
         <v>0</v>
@@ -12773,7 +12773,15 @@
       <c r="O211" s="1">
         <v>467</v>
       </c>
-      <c r="R211" s="34"/>
+      <c r="P211" s="1">
+        <v>168</v>
+      </c>
+      <c r="Q211" s="1">
+        <v>2</v>
+      </c>
+      <c r="R211" s="34">
+        <v>1.2686523884916286E-2</v>
+      </c>
     </row>
     <row r="212" spans="1:18">
       <c r="A212" s="12">
@@ -12786,7 +12794,7 @@
         <v>2</v>
       </c>
       <c r="D212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E212" s="1">
         <v>615</v>
@@ -12821,12 +12829,118 @@
       <c r="O212" s="1">
         <v>467</v>
       </c>
-      <c r="R212" s="34"/>
+      <c r="P212" s="1">
+        <v>152</v>
+      </c>
+      <c r="Q212" s="1">
+        <v>2</v>
+      </c>
+      <c r="R212" s="34">
+        <v>1.2978921545735E-2</v>
+      </c>
     </row>
     <row r="213" spans="1:18">
-      <c r="R213" s="34"/>
+      <c r="A213" s="12">
+        <v>44125</v>
+      </c>
+      <c r="B213" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" s="1">
+        <v>3</v>
+      </c>
+      <c r="E213" s="1">
+        <v>618</v>
+      </c>
+      <c r="F213" s="1">
+        <v>618</v>
+      </c>
+      <c r="G213" s="1">
+        <v>21</v>
+      </c>
+      <c r="H213" s="1">
+        <v>21</v>
+      </c>
+      <c r="I213" s="1">
+        <v>2</v>
+      </c>
+      <c r="J213" s="1">
+        <v>9</v>
+      </c>
+      <c r="K213" s="1">
+        <v>588</v>
+      </c>
+      <c r="L213" s="1">
+        <v>0</v>
+      </c>
+      <c r="M213" s="1">
+        <v>108</v>
+      </c>
+      <c r="N213" s="1">
+        <v>0</v>
+      </c>
+      <c r="O213" s="1">
+        <v>467</v>
+      </c>
+      <c r="P213" s="1">
+        <v>67</v>
+      </c>
+      <c r="Q213" s="1">
+        <v>3</v>
+      </c>
+      <c r="R213" s="34">
+        <v>1.7305116657134519E-2</v>
+      </c>
     </row>
     <row r="214" spans="1:18">
+      <c r="A214" s="12">
+        <v>44126</v>
+      </c>
+      <c r="B214" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" s="1">
+        <v>3</v>
+      </c>
+      <c r="E214" s="1">
+        <v>621</v>
+      </c>
+      <c r="F214" s="1">
+        <v>621</v>
+      </c>
+      <c r="G214" s="1">
+        <v>23</v>
+      </c>
+      <c r="H214" s="1">
+        <v>23</v>
+      </c>
+      <c r="I214" s="1">
+        <v>2</v>
+      </c>
+      <c r="J214" s="1">
+        <v>9</v>
+      </c>
+      <c r="K214" s="1">
+        <v>589</v>
+      </c>
+      <c r="L214" s="1">
+        <v>0</v>
+      </c>
+      <c r="M214" s="1">
+        <v>108</v>
+      </c>
+      <c r="N214" s="1">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1">
+        <v>467</v>
+      </c>
       <c r="R214" s="34"/>
     </row>
     <row r="215" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D205" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D206" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P214" sqref="P214"/>
+      <selection pane="bottomRight" activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44126.710431250001</v>
+        <v>44127.72527800926</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -12886,13 +12886,13 @@
         <v>467</v>
       </c>
       <c r="P213" s="1">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="Q213" s="1">
         <v>3</v>
       </c>
       <c r="R213" s="34">
-        <v>1.7305116657134519E-2</v>
+        <v>1.4913868624932382E-2</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12941,9 +12941,62 @@
       <c r="O214" s="1">
         <v>467</v>
       </c>
-      <c r="R214" s="34"/>
+      <c r="P214" s="1">
+        <v>82</v>
+      </c>
+      <c r="Q214" s="1">
+        <v>3</v>
+      </c>
+      <c r="R214" s="34">
+        <v>1.6538908884938825E-2</v>
+      </c>
     </row>
     <row r="215" spans="1:18">
+      <c r="A215" s="12">
+        <v>44127</v>
+      </c>
+      <c r="B215" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" s="1">
+        <v>3</v>
+      </c>
+      <c r="E215" s="1">
+        <v>624</v>
+      </c>
+      <c r="F215" s="1">
+        <v>624</v>
+      </c>
+      <c r="G215" s="1">
+        <v>26</v>
+      </c>
+      <c r="H215" s="1">
+        <v>25</v>
+      </c>
+      <c r="I215" s="1">
+        <v>2</v>
+      </c>
+      <c r="J215" s="1">
+        <v>9</v>
+      </c>
+      <c r="K215" s="1">
+        <v>589</v>
+      </c>
+      <c r="L215" s="1">
+        <v>1</v>
+      </c>
+      <c r="M215" s="1">
+        <v>108</v>
+      </c>
+      <c r="N215" s="1">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1">
+        <v>467</v>
+      </c>
       <c r="R215" s="34"/>
     </row>
     <row r="216" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -965,7 +965,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D206" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A215" sqref="A215"/>
+      <selection pane="bottomRight" activeCell="L216" sqref="L216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44127.72527800926</v>
+        <v>44128.589831249999</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13000,6 +13000,51 @@
       <c r="R215" s="34"/>
     </row>
     <row r="216" spans="1:18">
+      <c r="A216" s="12">
+        <v>44128</v>
+      </c>
+      <c r="B216" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1</v>
+      </c>
+      <c r="E216" s="1">
+        <v>625</v>
+      </c>
+      <c r="F216" s="1">
+        <v>625</v>
+      </c>
+      <c r="G216" s="1">
+        <v>24</v>
+      </c>
+      <c r="H216" s="1">
+        <v>23</v>
+      </c>
+      <c r="I216" s="1">
+        <v>2</v>
+      </c>
+      <c r="J216" s="1">
+        <v>9</v>
+      </c>
+      <c r="K216" s="1">
+        <v>592</v>
+      </c>
+      <c r="L216" s="1">
+        <v>1</v>
+      </c>
+      <c r="M216" s="1">
+        <v>108</v>
+      </c>
+      <c r="N216" s="1">
+        <v>0</v>
+      </c>
+      <c r="O216" s="1">
+        <v>467</v>
+      </c>
       <c r="R216" s="34"/>
     </row>
     <row r="217" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -965,28 +965,28 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D206" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L216" sqref="L216"/>
+      <selection pane="bottomRight" activeCell="P217" sqref="P217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22.5">
+    <row r="1" spans="1:28" ht="22">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44128.589831249999</v>
+        <v>44129.590829745372</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1008,7 +1008,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="67.5">
+    <row r="2" spans="1:28" ht="65">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -13048,6 +13048,51 @@
       <c r="R216" s="34"/>
     </row>
     <row r="217" spans="1:18">
+      <c r="A217" s="12">
+        <v>44129</v>
+      </c>
+      <c r="B217" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" s="1">
+        <v>0</v>
+      </c>
+      <c r="E217" s="1">
+        <v>625</v>
+      </c>
+      <c r="F217" s="1">
+        <v>625</v>
+      </c>
+      <c r="G217" s="1">
+        <v>23</v>
+      </c>
+      <c r="H217" s="1">
+        <v>22</v>
+      </c>
+      <c r="I217" s="1">
+        <v>2</v>
+      </c>
+      <c r="J217" s="1">
+        <v>9</v>
+      </c>
+      <c r="K217" s="1">
+        <v>593</v>
+      </c>
+      <c r="L217" s="1">
+        <v>1</v>
+      </c>
+      <c r="M217" s="1">
+        <v>108</v>
+      </c>
+      <c r="N217" s="1">
+        <v>0</v>
+      </c>
+      <c r="O217" s="1">
+        <v>467</v>
+      </c>
       <c r="R217" s="34"/>
     </row>
     <row r="218" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -962,31 +962,31 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P217" sqref="P217"/>
+      <selection pane="bottomRight" activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22">
+    <row r="1" spans="1:28" ht="22.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44129.590829745372</v>
+        <v>44130.726128125003</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1008,7 +1008,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="65">
+    <row r="2" spans="1:28" ht="67.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>467</v>
       </c>
       <c r="P207" s="1">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q207" s="1">
         <v>3</v>
@@ -12606,13 +12606,13 @@
         <v>467</v>
       </c>
       <c r="P208" s="1">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Q208" s="1">
         <v>3</v>
       </c>
       <c r="R208" s="34">
-        <v>1.9747748374712205E-2</v>
+        <v>1.9333840830226125E-2</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12662,13 +12662,13 @@
         <v>467</v>
       </c>
       <c r="P209" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q209" s="1">
         <v>0</v>
       </c>
       <c r="R209" s="34">
-        <v>1.7462034088997918E-2</v>
+        <v>1.7048126544511839E-2</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12718,13 +12718,13 @@
         <v>467</v>
       </c>
       <c r="P210" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q210" s="1">
         <v>0</v>
       </c>
       <c r="R210" s="34">
-        <v>1.2700129327093154E-2</v>
+        <v>1.228622178260708E-2</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12774,13 +12774,13 @@
         <v>467</v>
       </c>
       <c r="P211" s="1">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q211" s="1">
         <v>2</v>
       </c>
       <c r="R211" s="34">
-        <v>1.2686523884916286E-2</v>
+        <v>1.2204589129545853E-2</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12830,13 +12830,13 @@
         <v>467</v>
       </c>
       <c r="P212" s="1">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Q212" s="1">
         <v>2</v>
       </c>
       <c r="R212" s="34">
-        <v>1.2978921545735E-2</v>
+        <v>1.2348889273846E-2</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12892,7 +12892,7 @@
         <v>3</v>
       </c>
       <c r="R213" s="34">
-        <v>1.4913868624932382E-2</v>
+        <v>1.4283836353043382E-2</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12942,13 +12942,13 @@
         <v>467</v>
       </c>
       <c r="P214" s="1">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="Q214" s="1">
         <v>3</v>
       </c>
       <c r="R214" s="34">
-        <v>1.6538908884938825E-2</v>
+        <v>1.3854203478546727E-2</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12997,7 +12997,15 @@
       <c r="O215" s="1">
         <v>467</v>
       </c>
-      <c r="R215" s="34"/>
+      <c r="P215" s="1">
+        <v>112</v>
+      </c>
+      <c r="Q215" s="1">
+        <v>1</v>
+      </c>
+      <c r="R215" s="34">
+        <v>1.1728353138410672E-2</v>
+      </c>
     </row>
     <row r="216" spans="1:18">
       <c r="A216" s="12">
@@ -13045,7 +13053,15 @@
       <c r="O216" s="1">
         <v>467</v>
       </c>
-      <c r="R216" s="34"/>
+      <c r="P216" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q216" s="1">
+        <v>0</v>
+      </c>
+      <c r="R216" s="34">
+        <v>1.1728353138410672E-2</v>
+      </c>
     </row>
     <row r="217" spans="1:18">
       <c r="A217" s="12">
@@ -13093,9 +13109,62 @@
       <c r="O217" s="1">
         <v>467</v>
       </c>
-      <c r="R217" s="34"/>
+      <c r="P217" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q217" s="1">
+        <v>1</v>
+      </c>
+      <c r="R217" s="34">
+        <v>2.6014067424124959E-2</v>
+      </c>
     </row>
     <row r="218" spans="1:18">
+      <c r="A218" s="12">
+        <v>44130</v>
+      </c>
+      <c r="B218" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" s="1">
+        <v>1</v>
+      </c>
+      <c r="E218" s="1">
+        <v>626</v>
+      </c>
+      <c r="F218" s="1">
+        <v>626</v>
+      </c>
+      <c r="G218" s="1">
+        <v>19</v>
+      </c>
+      <c r="H218" s="1">
+        <v>18</v>
+      </c>
+      <c r="I218" s="1">
+        <v>2</v>
+      </c>
+      <c r="J218" s="1">
+        <v>9</v>
+      </c>
+      <c r="K218" s="1">
+        <v>598</v>
+      </c>
+      <c r="L218" s="1">
+        <v>1</v>
+      </c>
+      <c r="M218" s="1">
+        <v>108</v>
+      </c>
+      <c r="N218" s="1">
+        <v>0</v>
+      </c>
+      <c r="O218" s="1">
+        <v>467</v>
+      </c>
       <c r="R218" s="34"/>
     </row>
     <row r="219" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A218" sqref="A218"/>
+      <selection pane="bottomRight" activeCell="P219" sqref="P219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44130.726128125003</v>
+        <v>44131.594873148148</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13168,6 +13168,51 @@
       <c r="R218" s="34"/>
     </row>
     <row r="219" spans="1:18">
+      <c r="A219" s="12">
+        <v>44131</v>
+      </c>
+      <c r="B219" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" s="1">
+        <v>0</v>
+      </c>
+      <c r="E219" s="1">
+        <v>626</v>
+      </c>
+      <c r="F219" s="1">
+        <v>626</v>
+      </c>
+      <c r="G219" s="1">
+        <v>15</v>
+      </c>
+      <c r="H219" s="1">
+        <v>14</v>
+      </c>
+      <c r="I219" s="1">
+        <v>1</v>
+      </c>
+      <c r="J219" s="1">
+        <v>9</v>
+      </c>
+      <c r="K219" s="1">
+        <v>602</v>
+      </c>
+      <c r="L219" s="1">
+        <v>1</v>
+      </c>
+      <c r="M219" s="1">
+        <v>108</v>
+      </c>
+      <c r="N219" s="1">
+        <v>0</v>
+      </c>
+      <c r="O219" s="1">
+        <v>467</v>
+      </c>
       <c r="R219" s="34"/>
     </row>
     <row r="220" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P219" sqref="P219"/>
+      <selection pane="bottomRight" activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44131.594873148148</v>
+        <v>44131.731657638891</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13110,13 +13110,13 @@
         <v>467</v>
       </c>
       <c r="P217" s="1">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="Q217" s="1">
         <v>1</v>
       </c>
       <c r="R217" s="34">
-        <v>2.6014067424124959E-2</v>
+        <v>1.4149660644463944E-2</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -13165,7 +13165,15 @@
       <c r="O218" s="1">
         <v>467</v>
       </c>
-      <c r="R218" s="34"/>
+      <c r="P218" s="1">
+        <v>111</v>
+      </c>
+      <c r="Q218" s="1">
+        <v>0</v>
+      </c>
+      <c r="R218" s="34">
+        <v>1.2517007583239452E-2</v>
+      </c>
     </row>
     <row r="219" spans="1:18">
       <c r="A219" s="12">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="35">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -962,10 +962,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A219" sqref="A219"/>
+      <selection pane="bottomRight" activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44131.731657638891</v>
+        <v>44132.712369560184</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13166,10 +13166,10 @@
         <v>467</v>
       </c>
       <c r="P218" s="1">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="Q218" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R218" s="34">
         <v>1.2517007583239452E-2</v>
@@ -13221,9 +13221,62 @@
       <c r="O219" s="1">
         <v>467</v>
       </c>
-      <c r="R219" s="34"/>
+      <c r="P219" s="1">
+        <v>95</v>
+      </c>
+      <c r="Q219" s="1">
+        <v>4</v>
+      </c>
+      <c r="R219" s="34">
+        <v>1.078540585163772E-2</v>
+      </c>
     </row>
     <row r="220" spans="1:18">
+      <c r="A220" s="12">
+        <v>44132</v>
+      </c>
+      <c r="B220" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" s="1">
+        <v>5</v>
+      </c>
+      <c r="E220" s="1">
+        <v>631</v>
+      </c>
+      <c r="F220" s="1">
+        <v>631</v>
+      </c>
+      <c r="G220" s="1">
+        <v>18</v>
+      </c>
+      <c r="H220" s="1">
+        <v>17</v>
+      </c>
+      <c r="I220" s="1">
+        <v>1</v>
+      </c>
+      <c r="J220" s="1">
+        <v>9</v>
+      </c>
+      <c r="K220" s="1">
+        <v>604</v>
+      </c>
+      <c r="L220" s="1">
+        <v>1</v>
+      </c>
+      <c r="M220" s="1">
+        <v>108</v>
+      </c>
+      <c r="N220" s="1">
+        <v>0</v>
+      </c>
+      <c r="O220" s="1">
+        <v>467</v>
+      </c>
       <c r="R220" s="34"/>
     </row>
     <row r="221" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -442,6 +442,13 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>奈良県</t>
+    <rPh sb="0" eb="3">
+      <t>ナラケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -962,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A220" sqref="A220"/>
+      <selection pane="bottomRight" activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44132.712369560184</v>
+        <v>44133.715029513885</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13172,7 +13179,7 @@
         <v>1</v>
       </c>
       <c r="R218" s="34">
-        <v>1.2517007583239452E-2</v>
+        <v>1.3372439576395997E-2</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -13222,13 +13229,13 @@
         <v>467</v>
       </c>
       <c r="P219" s="1">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="Q219" s="1">
         <v>4</v>
       </c>
       <c r="R219" s="34">
-        <v>1.078540585163772E-2</v>
+        <v>1.5722470497855488E-2</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -13277,9 +13284,62 @@
       <c r="O220" s="1">
         <v>467</v>
       </c>
-      <c r="R220" s="34"/>
+      <c r="P220" s="1">
+        <v>85</v>
+      </c>
+      <c r="Q220" s="1">
+        <v>4</v>
+      </c>
+      <c r="R220" s="34">
+        <v>1.8439819119547157E-2</v>
+      </c>
     </row>
     <row r="221" spans="1:18">
+      <c r="A221" s="12">
+        <v>44133</v>
+      </c>
+      <c r="B221" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D221" s="1">
+        <v>4</v>
+      </c>
+      <c r="E221" s="1">
+        <v>635</v>
+      </c>
+      <c r="F221" s="1">
+        <v>635</v>
+      </c>
+      <c r="G221" s="1">
+        <v>19</v>
+      </c>
+      <c r="H221" s="1">
+        <v>18</v>
+      </c>
+      <c r="I221" s="1">
+        <v>1</v>
+      </c>
+      <c r="J221" s="1">
+        <v>9</v>
+      </c>
+      <c r="K221" s="1">
+        <v>607</v>
+      </c>
+      <c r="L221" s="1">
+        <v>1</v>
+      </c>
+      <c r="M221" s="1">
+        <v>108</v>
+      </c>
+      <c r="N221" s="1">
+        <v>0</v>
+      </c>
+      <c r="O221" s="1">
+        <v>467</v>
+      </c>
       <c r="R221" s="34"/>
     </row>
     <row r="222" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$225</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D212" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A221" sqref="A221"/>
+      <selection pane="bottomRight" activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44133.715029513885</v>
+        <v>44134.712518287037</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13285,13 +13285,13 @@
         <v>467</v>
       </c>
       <c r="P220" s="1">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="Q220" s="1">
         <v>4</v>
       </c>
       <c r="R220" s="34">
-        <v>1.8439819119547157E-2</v>
+        <v>1.7057583982501685E-2</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -13340,9 +13340,62 @@
       <c r="O221" s="1">
         <v>467</v>
       </c>
-      <c r="R221" s="34"/>
+      <c r="P221" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q221" s="1">
+        <v>4</v>
+      </c>
+      <c r="R221" s="34">
+        <v>2.1117193437794588E-2</v>
+      </c>
     </row>
     <row r="222" spans="1:18">
+      <c r="A222" s="12">
+        <v>44134</v>
+      </c>
+      <c r="B222" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" s="1">
+        <v>4</v>
+      </c>
+      <c r="E222" s="1">
+        <v>639</v>
+      </c>
+      <c r="F222" s="1">
+        <v>639</v>
+      </c>
+      <c r="G222" s="1">
+        <v>22</v>
+      </c>
+      <c r="H222" s="1">
+        <v>21</v>
+      </c>
+      <c r="I222" s="1">
+        <v>0</v>
+      </c>
+      <c r="J222" s="1">
+        <v>10</v>
+      </c>
+      <c r="K222" s="1">
+        <v>607</v>
+      </c>
+      <c r="L222" s="1">
+        <v>1</v>
+      </c>
+      <c r="M222" s="1">
+        <v>108</v>
+      </c>
+      <c r="N222" s="1">
+        <v>0</v>
+      </c>
+      <c r="O222" s="1">
+        <v>467</v>
+      </c>
       <c r="R222" s="34"/>
     </row>
     <row r="223" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$225</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E212" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A222" sqref="A222"/>
+      <selection pane="bottomRight" activeCell="N222" sqref="N222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44134.712518287037</v>
+        <v>44135.57618113426</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13399,6 +13399,51 @@
       <c r="R222" s="34"/>
     </row>
     <row r="223" spans="1:18">
+      <c r="A223" s="12">
+        <v>44135</v>
+      </c>
+      <c r="B223" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223" s="1">
+        <v>9</v>
+      </c>
+      <c r="E223" s="1">
+        <v>648</v>
+      </c>
+      <c r="F223" s="1">
+        <v>648</v>
+      </c>
+      <c r="G223" s="1">
+        <v>29</v>
+      </c>
+      <c r="H223" s="1">
+        <v>27</v>
+      </c>
+      <c r="I223" s="1">
+        <v>0</v>
+      </c>
+      <c r="J223" s="1">
+        <v>10</v>
+      </c>
+      <c r="K223" s="1">
+        <v>609</v>
+      </c>
+      <c r="L223" s="1">
+        <v>2</v>
+      </c>
+      <c r="M223" s="1">
+        <v>108</v>
+      </c>
+      <c r="N223" s="1">
+        <v>0</v>
+      </c>
+      <c r="O223" s="1">
+        <v>467</v>
+      </c>
       <c r="R223" s="34"/>
     </row>
     <row r="224" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$225</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -972,7 +972,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N222" sqref="N222"/>
+      <selection pane="bottomRight" activeCell="O224" sqref="O224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44135.57618113426</v>
+        <v>44136.623061805556</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13447,6 +13447,51 @@
       <c r="R223" s="34"/>
     </row>
     <row r="224" spans="1:18">
+      <c r="A224" s="12">
+        <v>44136</v>
+      </c>
+      <c r="B224" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" s="1">
+        <v>11</v>
+      </c>
+      <c r="E224" s="1">
+        <v>659</v>
+      </c>
+      <c r="F224" s="1">
+        <v>659</v>
+      </c>
+      <c r="G224" s="1">
+        <v>40</v>
+      </c>
+      <c r="H224" s="1">
+        <v>37</v>
+      </c>
+      <c r="I224" s="1">
+        <v>0</v>
+      </c>
+      <c r="J224" s="1">
+        <v>10</v>
+      </c>
+      <c r="K224" s="1">
+        <v>609</v>
+      </c>
+      <c r="L224" s="1">
+        <v>3</v>
+      </c>
+      <c r="M224" s="1">
+        <v>108</v>
+      </c>
+      <c r="N224" s="1">
+        <v>0</v>
+      </c>
+      <c r="O224" s="1">
+        <v>467</v>
+      </c>
       <c r="R224" s="34"/>
     </row>
     <row r="225" spans="18:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -972,7 +972,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O224" sqref="O224"/>
+      <selection pane="bottomRight" activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44136.623061805556</v>
+        <v>44137.770398842593</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13341,13 +13341,13 @@
         <v>467</v>
       </c>
       <c r="P221" s="1">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="Q221" s="1">
         <v>4</v>
       </c>
       <c r="R221" s="34">
-        <v>2.1117193437794588E-2</v>
+        <v>1.8776257063244768E-2</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -13396,7 +13396,15 @@
       <c r="O222" s="1">
         <v>467</v>
       </c>
-      <c r="R222" s="34"/>
+      <c r="P222" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q222" s="1">
+        <v>12</v>
+      </c>
+      <c r="R222" s="34">
+        <v>3.1786461144877425E-2</v>
+      </c>
     </row>
     <row r="223" spans="1:18">
       <c r="A223" s="12">
@@ -13444,7 +13452,15 @@
       <c r="O223" s="1">
         <v>467</v>
       </c>
-      <c r="R223" s="34"/>
+      <c r="P223" s="1">
+        <v>92</v>
+      </c>
+      <c r="Q223" s="1">
+        <v>8</v>
+      </c>
+      <c r="R223" s="34">
+        <v>4.4208821393324625E-2</v>
+      </c>
     </row>
     <row r="224" spans="1:18">
       <c r="A224" s="12">
@@ -13492,54 +13508,107 @@
       <c r="O224" s="1">
         <v>467</v>
       </c>
-      <c r="R224" s="34"/>
-    </row>
-    <row r="225" spans="18:18">
+      <c r="P224" s="1">
+        <v>114</v>
+      </c>
+      <c r="Q224" s="1">
+        <v>5</v>
+      </c>
+      <c r="R224" s="34">
+        <v>4.8053178047672361E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
+      <c r="A225" s="12">
+        <v>44137</v>
+      </c>
+      <c r="B225" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" s="1">
+        <v>5</v>
+      </c>
+      <c r="E225" s="1">
+        <v>664</v>
+      </c>
+      <c r="F225" s="1">
+        <v>664</v>
+      </c>
+      <c r="G225" s="1">
+        <v>43</v>
+      </c>
+      <c r="H225" s="1">
+        <v>41</v>
+      </c>
+      <c r="I225" s="1">
+        <v>0</v>
+      </c>
+      <c r="J225" s="1">
+        <v>10</v>
+      </c>
+      <c r="K225" s="1">
+        <v>611</v>
+      </c>
+      <c r="L225" s="1">
+        <v>2</v>
+      </c>
+      <c r="M225" s="1">
+        <v>108</v>
+      </c>
+      <c r="N225" s="1">
+        <v>0</v>
+      </c>
+      <c r="O225" s="1">
+        <v>467</v>
+      </c>
       <c r="R225" s="34"/>
     </row>
-    <row r="226" spans="18:18">
+    <row r="226" spans="1:18">
       <c r="R226" s="34"/>
     </row>
-    <row r="227" spans="18:18">
+    <row r="227" spans="1:18">
       <c r="R227" s="34"/>
     </row>
-    <row r="228" spans="18:18">
+    <row r="228" spans="1:18">
       <c r="R228" s="34"/>
     </row>
-    <row r="229" spans="18:18">
+    <row r="229" spans="1:18">
       <c r="R229" s="34"/>
     </row>
-    <row r="230" spans="18:18">
+    <row r="230" spans="1:18">
       <c r="R230" s="34"/>
     </row>
-    <row r="231" spans="18:18">
+    <row r="231" spans="1:18">
       <c r="R231" s="34"/>
     </row>
-    <row r="232" spans="18:18">
+    <row r="232" spans="1:18">
       <c r="R232" s="34"/>
     </row>
-    <row r="233" spans="18:18">
+    <row r="233" spans="1:18">
       <c r="R233" s="34"/>
     </row>
-    <row r="234" spans="18:18">
+    <row r="234" spans="1:18">
       <c r="R234" s="34"/>
     </row>
-    <row r="235" spans="18:18">
+    <row r="235" spans="1:18">
       <c r="R235" s="34"/>
     </row>
-    <row r="236" spans="18:18">
+    <row r="236" spans="1:18">
       <c r="R236" s="34"/>
     </row>
-    <row r="237" spans="18:18">
+    <row r="237" spans="1:18">
       <c r="R237" s="34"/>
     </row>
-    <row r="238" spans="18:18">
+    <row r="238" spans="1:18">
       <c r="R238" s="34"/>
     </row>
-    <row r="239" spans="18:18">
+    <row r="239" spans="1:18">
       <c r="R239" s="34"/>
     </row>
-    <row r="240" spans="18:18">
+    <row r="240" spans="1:18">
       <c r="R240" s="34"/>
     </row>
     <row r="241" spans="18:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,9 +16,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$225</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D212" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A225" sqref="A225"/>
+      <selection pane="bottomRight" activeCell="P226" sqref="P226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44137.770398842593</v>
+        <v>44138.645612268519</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13567,6 +13567,51 @@
       <c r="R225" s="34"/>
     </row>
     <row r="226" spans="1:18">
+      <c r="A226" s="12">
+        <v>44138</v>
+      </c>
+      <c r="B226" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" s="1">
+        <v>11</v>
+      </c>
+      <c r="E226" s="1">
+        <v>675</v>
+      </c>
+      <c r="F226" s="1">
+        <v>675</v>
+      </c>
+      <c r="G226" s="1">
+        <v>51</v>
+      </c>
+      <c r="H226" s="1">
+        <v>49</v>
+      </c>
+      <c r="I226" s="1">
+        <v>0</v>
+      </c>
+      <c r="J226" s="1">
+        <v>10</v>
+      </c>
+      <c r="K226" s="1">
+        <v>614</v>
+      </c>
+      <c r="L226" s="1">
+        <v>2</v>
+      </c>
+      <c r="M226" s="1">
+        <v>108</v>
+      </c>
+      <c r="N226" s="1">
+        <v>0</v>
+      </c>
+      <c r="O226" s="1">
+        <v>467</v>
+      </c>
       <c r="R226" s="34"/>
     </row>
     <row r="227" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,9 +16,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$226</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$227</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -972,7 +972,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P226" sqref="P226"/>
+      <selection pane="bottomRight" activeCell="P227" sqref="P227:R227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44138.645612268519</v>
+        <v>44139.707760879632</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13509,13 +13509,13 @@
         <v>467</v>
       </c>
       <c r="P224" s="1">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="Q224" s="1">
         <v>5</v>
       </c>
       <c r="R224" s="34">
-        <v>4.8053178047672361E-2</v>
+        <v>4.692626003321175E-2</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -13564,7 +13564,15 @@
       <c r="O225" s="1">
         <v>467</v>
       </c>
-      <c r="R225" s="34"/>
+      <c r="P225" s="1">
+        <v>133</v>
+      </c>
+      <c r="Q225" s="1">
+        <v>14</v>
+      </c>
+      <c r="R225" s="34">
+        <v>6.1108422025017615E-2</v>
+      </c>
     </row>
     <row r="226" spans="1:18">
       <c r="A226" s="12">
@@ -13612,9 +13620,62 @@
       <c r="O226" s="1">
         <v>467</v>
       </c>
-      <c r="R226" s="34"/>
+      <c r="P226" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q226" s="1">
+        <v>2</v>
+      </c>
+      <c r="R226" s="34">
+        <v>6.519005467807884E-2</v>
+      </c>
     </row>
     <row r="227" spans="1:18">
+      <c r="A227" s="12">
+        <v>44139</v>
+      </c>
+      <c r="B227" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" s="1">
+        <v>4</v>
+      </c>
+      <c r="E227" s="1">
+        <v>679</v>
+      </c>
+      <c r="F227" s="1">
+        <v>679</v>
+      </c>
+      <c r="G227" s="1">
+        <v>54</v>
+      </c>
+      <c r="H227" s="1">
+        <v>49</v>
+      </c>
+      <c r="I227" s="1">
+        <v>0</v>
+      </c>
+      <c r="J227" s="1">
+        <v>10</v>
+      </c>
+      <c r="K227" s="1">
+        <v>615</v>
+      </c>
+      <c r="L227" s="1">
+        <v>5</v>
+      </c>
+      <c r="M227" s="1">
+        <v>108</v>
+      </c>
+      <c r="N227" s="1">
+        <v>0</v>
+      </c>
+      <c r="O227" s="1">
+        <v>467</v>
+      </c>
       <c r="R227" s="34"/>
     </row>
     <row r="228" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$227</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D211" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H217" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P227" sqref="P227:R227"/>
+      <selection pane="bottomRight" activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44139.707760879632</v>
+        <v>44140.719838194447</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -12613,13 +12613,13 @@
         <v>467</v>
       </c>
       <c r="P208" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q208" s="1">
         <v>3</v>
       </c>
       <c r="R208" s="34">
-        <v>1.9333840830226125E-2</v>
+        <v>1.9280694571722722E-2</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12669,13 +12669,13 @@
         <v>467</v>
       </c>
       <c r="P209" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q209" s="1">
         <v>0</v>
       </c>
       <c r="R209" s="34">
-        <v>1.7048126544511839E-2</v>
+        <v>1.6994980286008439E-2</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12731,7 +12731,7 @@
         <v>0</v>
       </c>
       <c r="R210" s="34">
-        <v>1.228622178260708E-2</v>
+        <v>1.2233075524103678E-2</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12787,7 +12787,7 @@
         <v>2</v>
       </c>
       <c r="R211" s="34">
-        <v>1.2204589129545853E-2</v>
+        <v>1.2151442871042454E-2</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12843,7 +12843,7 @@
         <v>2</v>
       </c>
       <c r="R212" s="34">
-        <v>1.2348889273846E-2</v>
+        <v>1.2295743015342598E-2</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12893,13 +12893,13 @@
         <v>467</v>
       </c>
       <c r="P213" s="1">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Q213" s="1">
         <v>3</v>
       </c>
       <c r="R213" s="34">
-        <v>1.4283836353043382E-2</v>
+        <v>1.388835330360506E-2</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12949,13 +12949,13 @@
         <v>467</v>
       </c>
       <c r="P214" s="1">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q214" s="1">
         <v>3</v>
       </c>
       <c r="R214" s="34">
-        <v>1.3854203478546727E-2</v>
+        <v>1.3351663217734646E-2</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -13005,13 +13005,13 @@
         <v>467</v>
       </c>
       <c r="P215" s="1">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q215" s="1">
         <v>1</v>
       </c>
       <c r="R215" s="34">
-        <v>1.1728353138410672E-2</v>
+        <v>1.1214102685046995E-2</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -13061,13 +13061,13 @@
         <v>467</v>
       </c>
       <c r="P216" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q216" s="1">
         <v>0</v>
       </c>
       <c r="R216" s="34">
-        <v>1.1728353138410672E-2</v>
+        <v>1.1214102685046995E-2</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -13123,7 +13123,7 @@
         <v>1</v>
       </c>
       <c r="R217" s="34">
-        <v>1.4149660644463944E-2</v>
+        <v>1.3635410191100263E-2</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -13179,7 +13179,7 @@
         <v>1</v>
       </c>
       <c r="R218" s="34">
-        <v>1.3372439576395997E-2</v>
+        <v>1.2858189123032318E-2</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -13229,13 +13229,13 @@
         <v>467</v>
       </c>
       <c r="P219" s="1">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q219" s="1">
         <v>4</v>
       </c>
       <c r="R219" s="34">
-        <v>1.5722470497855488E-2</v>
+        <v>1.512259138743458E-2</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -13285,13 +13285,13 @@
         <v>467</v>
       </c>
       <c r="P220" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q220" s="1">
         <v>4</v>
       </c>
       <c r="R220" s="34">
-        <v>1.7057583982501685E-2</v>
+        <v>1.6702051682491208E-2</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -13347,7 +13347,7 @@
         <v>4</v>
       </c>
       <c r="R221" s="34">
-        <v>1.8776257063244768E-2</v>
+        <v>1.8527781974608054E-2</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -13403,7 +13403,7 @@
         <v>12</v>
       </c>
       <c r="R222" s="34">
-        <v>3.1786461144877425E-2</v>
+        <v>3.1602842507295704E-2</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -13453,13 +13453,13 @@
         <v>467</v>
       </c>
       <c r="P223" s="1">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="Q223" s="1">
         <v>8</v>
       </c>
       <c r="R223" s="34">
-        <v>4.4208821393324625E-2</v>
+        <v>3.9324850229303432E-2</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -13509,13 +13509,13 @@
         <v>467</v>
       </c>
       <c r="P224" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q224" s="1">
         <v>5</v>
       </c>
       <c r="R224" s="34">
-        <v>4.692626003321175E-2</v>
+        <v>4.2005583539576688E-2</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -13565,13 +13565,13 @@
         <v>467</v>
       </c>
       <c r="P225" s="1">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="Q225" s="1">
         <v>14</v>
       </c>
       <c r="R225" s="34">
-        <v>6.1108422025017615E-2</v>
+        <v>5.2139162535431126E-2</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -13621,13 +13621,13 @@
         <v>467</v>
       </c>
       <c r="P226" s="1">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="Q226" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R226" s="34">
-        <v>6.519005467807884E-2</v>
+        <v>5.3185175346149825E-2</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13676,9 +13676,62 @@
       <c r="O227" s="1">
         <v>467</v>
       </c>
-      <c r="R227" s="34"/>
+      <c r="P227" s="1">
+        <v>134</v>
+      </c>
+      <c r="Q227" s="1">
+        <v>13</v>
+      </c>
+      <c r="R227" s="34">
+        <v>6.1801986441394438E-2</v>
+      </c>
     </row>
     <row r="228" spans="1:18">
+      <c r="A228" s="12">
+        <v>44140</v>
+      </c>
+      <c r="B228" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" s="1">
+        <v>15</v>
+      </c>
+      <c r="E228" s="1">
+        <v>694</v>
+      </c>
+      <c r="F228" s="1">
+        <v>694</v>
+      </c>
+      <c r="G228" s="1">
+        <v>66</v>
+      </c>
+      <c r="H228" s="1">
+        <v>62</v>
+      </c>
+      <c r="I228" s="1">
+        <v>0</v>
+      </c>
+      <c r="J228" s="1">
+        <v>10</v>
+      </c>
+      <c r="K228" s="1">
+        <v>618</v>
+      </c>
+      <c r="L228" s="1">
+        <v>4</v>
+      </c>
+      <c r="M228" s="1">
+        <v>108</v>
+      </c>
+      <c r="N228" s="1">
+        <v>0</v>
+      </c>
+      <c r="O228" s="1">
+        <v>467</v>
+      </c>
       <c r="R228" s="34"/>
     </row>
     <row r="229" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H217" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D217" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A228" sqref="A228"/>
+      <selection pane="bottomRight" activeCell="P229" sqref="P229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44140.719838194447</v>
+        <v>44141.658288657411</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13735,6 +13735,51 @@
       <c r="R228" s="34"/>
     </row>
     <row r="229" spans="1:18">
+      <c r="A229" s="12">
+        <v>44141</v>
+      </c>
+      <c r="B229" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" s="1">
+        <v>19</v>
+      </c>
+      <c r="E229" s="1">
+        <v>713</v>
+      </c>
+      <c r="F229" s="1">
+        <v>713</v>
+      </c>
+      <c r="G229" s="1">
+        <v>81</v>
+      </c>
+      <c r="H229" s="1">
+        <v>77</v>
+      </c>
+      <c r="I229" s="1">
+        <v>0</v>
+      </c>
+      <c r="J229" s="1">
+        <v>10</v>
+      </c>
+      <c r="K229" s="1">
+        <v>622</v>
+      </c>
+      <c r="L229" s="1">
+        <v>4</v>
+      </c>
+      <c r="M229" s="1">
+        <v>108</v>
+      </c>
+      <c r="N229" s="1">
+        <v>0</v>
+      </c>
+      <c r="O229" s="1">
+        <v>467</v>
+      </c>
       <c r="R229" s="34"/>
     </row>
     <row r="230" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D217" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P229" sqref="P229"/>
+      <selection pane="bottomRight" activeCell="R230" sqref="R230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44141.658288657411</v>
+        <v>44141.783498032404</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13677,13 +13677,13 @@
         <v>467</v>
       </c>
       <c r="P227" s="1">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="Q227" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R227" s="34">
-        <v>6.1801986441394438E-2</v>
+        <v>5.8637898553864934E-2</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13732,7 +13732,15 @@
       <c r="O228" s="1">
         <v>467</v>
       </c>
-      <c r="R228" s="34"/>
+      <c r="P228" s="1">
+        <v>175</v>
+      </c>
+      <c r="Q228" s="1">
+        <v>16</v>
+      </c>
+      <c r="R228" s="34">
+        <v>6.6897202275353534E-2</v>
+      </c>
     </row>
     <row r="229" spans="1:18">
       <c r="A229" s="12">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -972,28 +972,28 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R230" sqref="R230"/>
+      <selection pane="bottomRight" activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22.5">
+    <row r="1" spans="1:28" ht="22">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44141.783498032404</v>
+        <v>44142.656230671295</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1015,7 +1015,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="67.5">
+    <row r="2" spans="1:28" ht="65">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -13791,6 +13791,51 @@
       <c r="R229" s="34"/>
     </row>
     <row r="230" spans="1:18">
+      <c r="A230" s="12">
+        <v>44142</v>
+      </c>
+      <c r="B230" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" s="1">
+        <v>13</v>
+      </c>
+      <c r="E230" s="1">
+        <v>726</v>
+      </c>
+      <c r="F230" s="1">
+        <v>726</v>
+      </c>
+      <c r="G230" s="1">
+        <v>93</v>
+      </c>
+      <c r="H230" s="1">
+        <v>88</v>
+      </c>
+      <c r="I230" s="1">
+        <v>0</v>
+      </c>
+      <c r="J230" s="1">
+        <v>10</v>
+      </c>
+      <c r="K230" s="1">
+        <v>623</v>
+      </c>
+      <c r="L230" s="1">
+        <v>5</v>
+      </c>
+      <c r="M230" s="1">
+        <v>108</v>
+      </c>
+      <c r="N230" s="1">
+        <v>0</v>
+      </c>
+      <c r="O230" s="1">
+        <v>467</v>
+      </c>
       <c r="R230" s="34"/>
     </row>
     <row r="231" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,31 +969,31 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D214" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D220" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A230" sqref="A230"/>
+      <selection pane="bottomRight" activeCell="O231" sqref="O231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22">
+    <row r="1" spans="1:28" ht="22.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44142.656230671295</v>
+        <v>44143.643815046293</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1015,7 +1015,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="65">
+    <row r="2" spans="1:28" ht="67.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -13839,6 +13839,51 @@
       <c r="R230" s="34"/>
     </row>
     <row r="231" spans="1:18">
+      <c r="A231" s="12">
+        <v>44143</v>
+      </c>
+      <c r="B231" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="1">
+        <v>11</v>
+      </c>
+      <c r="E231" s="1">
+        <v>737</v>
+      </c>
+      <c r="F231" s="1">
+        <v>737</v>
+      </c>
+      <c r="G231" s="1">
+        <v>98</v>
+      </c>
+      <c r="H231" s="1">
+        <v>93</v>
+      </c>
+      <c r="I231" s="1">
+        <v>0</v>
+      </c>
+      <c r="J231" s="1">
+        <v>11</v>
+      </c>
+      <c r="K231" s="1">
+        <v>628</v>
+      </c>
+      <c r="L231" s="1">
+        <v>5</v>
+      </c>
+      <c r="M231" s="1">
+        <v>108</v>
+      </c>
+      <c r="N231" s="1">
+        <v>0</v>
+      </c>
+      <c r="O231" s="1">
+        <v>467</v>
+      </c>
       <c r="R231" s="34"/>
     </row>
     <row r="232" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D220" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D225" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O231" sqref="O231"/>
+      <selection pane="bottomRight" activeCell="P232" sqref="P232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44143.643815046293</v>
+        <v>44144.712300347222</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13733,13 +13733,13 @@
         <v>467</v>
       </c>
       <c r="P228" s="1">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="Q228" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R228" s="34">
-        <v>6.6897202275353534E-2</v>
+        <v>6.3708219365116267E-2</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13788,7 +13788,15 @@
       <c r="O229" s="1">
         <v>467</v>
       </c>
-      <c r="R229" s="34"/>
+      <c r="P229" s="1">
+        <v>147</v>
+      </c>
+      <c r="Q229" s="1">
+        <v>17</v>
+      </c>
+      <c r="R229" s="34">
+        <v>6.5943399151316459E-2</v>
+      </c>
     </row>
     <row r="230" spans="1:18">
       <c r="A230" s="12">
@@ -13836,7 +13844,15 @@
       <c r="O230" s="1">
         <v>467</v>
       </c>
-      <c r="R230" s="34"/>
+      <c r="P230" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q230" s="1">
+        <v>8</v>
+      </c>
+      <c r="R230" s="34">
+        <v>8.0199413407330722E-2</v>
+      </c>
     </row>
     <row r="231" spans="1:18">
       <c r="A231" s="12">
@@ -13884,9 +13900,62 @@
       <c r="O231" s="1">
         <v>467</v>
       </c>
-      <c r="R231" s="34"/>
+      <c r="P231" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q231" s="1">
+        <v>6</v>
+      </c>
+      <c r="R231" s="34">
+        <v>9.8906896400527994E-2</v>
+      </c>
     </row>
     <row r="232" spans="1:18">
+      <c r="A232" s="12">
+        <v>44144</v>
+      </c>
+      <c r="B232" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232" s="1">
+        <v>8</v>
+      </c>
+      <c r="E232" s="1">
+        <v>745</v>
+      </c>
+      <c r="F232" s="1">
+        <v>745</v>
+      </c>
+      <c r="G232" s="1">
+        <v>98</v>
+      </c>
+      <c r="H232" s="1">
+        <v>92</v>
+      </c>
+      <c r="I232" s="1">
+        <v>0</v>
+      </c>
+      <c r="J232" s="1">
+        <v>11</v>
+      </c>
+      <c r="K232" s="1">
+        <v>636</v>
+      </c>
+      <c r="L232" s="1">
+        <v>6</v>
+      </c>
+      <c r="M232" s="1">
+        <v>108</v>
+      </c>
+      <c r="N232" s="1">
+        <v>0</v>
+      </c>
+      <c r="O232" s="1">
+        <v>467</v>
+      </c>
       <c r="R232" s="34"/>
     </row>
     <row r="233" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D225" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P232" sqref="P232"/>
+      <selection pane="bottomRight" activeCell="Q235" sqref="Q235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44144.712300347222</v>
+        <v>44145.711451504627</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13789,13 +13789,13 @@
         <v>467</v>
       </c>
       <c r="P229" s="1">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="Q229" s="1">
         <v>17</v>
       </c>
       <c r="R229" s="34">
-        <v>6.5943399151316459E-2</v>
+        <v>6.0932322276422972E-2</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13845,13 +13845,13 @@
         <v>467</v>
       </c>
       <c r="P230" s="1">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="Q230" s="1">
         <v>8</v>
       </c>
       <c r="R230" s="34">
-        <v>8.0199413407330722E-2</v>
+        <v>6.2353171697272392E-2</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13901,13 +13901,13 @@
         <v>467</v>
       </c>
       <c r="P231" s="1">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="Q231" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R231" s="34">
-        <v>9.8906896400527994E-2</v>
+        <v>6.8120696098337166E-2</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13956,9 +13956,62 @@
       <c r="O232" s="1">
         <v>467</v>
       </c>
-      <c r="R232" s="34"/>
+      <c r="P232" s="1">
+        <v>186</v>
+      </c>
+      <c r="Q232" s="1">
+        <v>8</v>
+      </c>
+      <c r="R232" s="34">
+        <v>6.3276078350493606E-2</v>
+      </c>
     </row>
     <row r="233" spans="1:18">
+      <c r="A233" s="12">
+        <v>44145</v>
+      </c>
+      <c r="B233" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" s="1">
+        <v>9</v>
+      </c>
+      <c r="E233" s="1">
+        <v>754</v>
+      </c>
+      <c r="F233" s="1">
+        <v>754</v>
+      </c>
+      <c r="G233" s="1">
+        <v>103</v>
+      </c>
+      <c r="H233" s="1">
+        <v>95</v>
+      </c>
+      <c r="I233" s="1">
+        <v>0</v>
+      </c>
+      <c r="J233" s="1">
+        <v>11</v>
+      </c>
+      <c r="K233" s="1">
+        <v>640</v>
+      </c>
+      <c r="L233" s="1">
+        <v>8</v>
+      </c>
+      <c r="M233" s="1">
+        <v>108</v>
+      </c>
+      <c r="N233" s="1">
+        <v>0</v>
+      </c>
+      <c r="O233" s="1">
+        <v>467</v>
+      </c>
       <c r="R233" s="34"/>
     </row>
     <row r="234" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D222" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D210" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q235" sqref="Q235"/>
+      <selection pane="bottomRight" activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44145.711451504627</v>
+        <v>44146.645855671297</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14015,6 +14015,51 @@
       <c r="R233" s="34"/>
     </row>
     <row r="234" spans="1:18">
+      <c r="A234" s="12">
+        <v>44146</v>
+      </c>
+      <c r="B234" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="1">
+        <v>17</v>
+      </c>
+      <c r="E234" s="1">
+        <v>771</v>
+      </c>
+      <c r="F234" s="1">
+        <v>771</v>
+      </c>
+      <c r="G234" s="1">
+        <v>108</v>
+      </c>
+      <c r="H234" s="1">
+        <v>96</v>
+      </c>
+      <c r="I234" s="1">
+        <v>1</v>
+      </c>
+      <c r="J234" s="1">
+        <v>11</v>
+      </c>
+      <c r="K234" s="1">
+        <v>652</v>
+      </c>
+      <c r="L234" s="1">
+        <v>12</v>
+      </c>
+      <c r="M234" s="1">
+        <v>108</v>
+      </c>
+      <c r="N234" s="1">
+        <v>0</v>
+      </c>
+      <c r="O234" s="1">
+        <v>467</v>
+      </c>
       <c r="R234" s="34"/>
     </row>
     <row r="235" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D210" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D226" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C235" sqref="C235"/>
+      <selection pane="bottomRight" activeCell="J238" sqref="J238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44146.645855671297</v>
+        <v>44146.713594791669</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13957,13 +13957,13 @@
         <v>467</v>
       </c>
       <c r="P232" s="1">
-        <v>186</v>
+        <v>283</v>
       </c>
       <c r="Q232" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R232" s="34">
-        <v>6.3276078350493606E-2</v>
+        <v>6.4198822918513462E-2</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -14012,7 +14012,15 @@
       <c r="O233" s="1">
         <v>467</v>
       </c>
-      <c r="R233" s="34"/>
+      <c r="P233" s="1">
+        <v>224</v>
+      </c>
+      <c r="Q233" s="1">
+        <v>9</v>
+      </c>
+      <c r="R233" s="34">
+        <v>6.489660203015811E-2</v>
+      </c>
     </row>
     <row r="234" spans="1:18">
       <c r="A234" s="12">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D226" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D223" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J238" sqref="J238"/>
+      <selection pane="bottomRight" activeCell="Q239" sqref="Q239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44146.713594791669</v>
+        <v>44147.708850347219</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14013,13 +14013,13 @@
         <v>467</v>
       </c>
       <c r="P233" s="1">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="Q233" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="R233" s="34">
-        <v>6.489660203015811E-2</v>
+        <v>7.0866407985327062E-2</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -14068,9 +14068,62 @@
       <c r="O234" s="1">
         <v>467</v>
       </c>
-      <c r="R234" s="34"/>
+      <c r="P234" s="1">
+        <v>337</v>
+      </c>
+      <c r="Q234" s="1">
+        <v>6</v>
+      </c>
+      <c r="R234" s="34">
+        <v>6.2714671434218897E-2</v>
+      </c>
     </row>
     <row r="235" spans="1:18">
+      <c r="A235" s="12">
+        <v>44147</v>
+      </c>
+      <c r="B235" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="1">
+        <v>17</v>
+      </c>
+      <c r="E235" s="1">
+        <v>788</v>
+      </c>
+      <c r="F235" s="1">
+        <v>778</v>
+      </c>
+      <c r="G235" s="1">
+        <v>117</v>
+      </c>
+      <c r="H235" s="1">
+        <v>104</v>
+      </c>
+      <c r="I235" s="1">
+        <v>1</v>
+      </c>
+      <c r="J235" s="1">
+        <v>11</v>
+      </c>
+      <c r="K235" s="1">
+        <v>660</v>
+      </c>
+      <c r="L235" s="1">
+        <v>13</v>
+      </c>
+      <c r="M235" s="1">
+        <v>108</v>
+      </c>
+      <c r="N235" s="1">
+        <v>0</v>
+      </c>
+      <c r="O235" s="1">
+        <v>467</v>
+      </c>
       <c r="R235" s="34"/>
     </row>
     <row r="236" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D223" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D229" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q239" sqref="Q239"/>
+      <selection pane="bottomRight" activeCell="Q237" sqref="Q237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44147.708850347219</v>
+        <v>44148.746284259258</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13789,13 +13789,13 @@
         <v>467</v>
       </c>
       <c r="P229" s="1">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="Q229" s="1">
         <v>17</v>
       </c>
       <c r="R229" s="34">
-        <v>6.0932322276422972E-2</v>
+        <v>6.0264341814095859E-2</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13845,13 +13845,13 @@
         <v>467</v>
       </c>
       <c r="P230" s="1">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q230" s="1">
         <v>8</v>
       </c>
       <c r="R230" s="34">
-        <v>6.2353171697272392E-2</v>
+        <v>6.1007942557696593E-2</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13901,13 +13901,13 @@
         <v>467</v>
       </c>
       <c r="P231" s="1">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="Q231" s="1">
         <v>7</v>
       </c>
       <c r="R231" s="34">
-        <v>6.8120696098337166E-2</v>
+        <v>6.580689184037998E-2</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13957,13 +13957,13 @@
         <v>467</v>
       </c>
       <c r="P232" s="1">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="Q232" s="1">
         <v>14</v>
       </c>
       <c r="R232" s="34">
-        <v>6.4198822918513462E-2</v>
+        <v>6.0823886857374998E-2</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -14013,13 +14013,13 @@
         <v>467</v>
       </c>
       <c r="P233" s="1">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="Q233" s="1">
         <v>20</v>
       </c>
       <c r="R233" s="34">
-        <v>7.0866407985327062E-2</v>
+        <v>6.591358231002413E-2</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -14069,13 +14069,13 @@
         <v>467</v>
       </c>
       <c r="P234" s="1">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="Q234" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="R234" s="34">
-        <v>6.2714671434218897E-2</v>
+        <v>6.0580325439154904E-2</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -14124,9 +14124,62 @@
       <c r="O235" s="1">
         <v>467</v>
       </c>
-      <c r="R235" s="34"/>
+      <c r="P235" s="1">
+        <v>247</v>
+      </c>
+      <c r="Q235" s="1">
+        <v>15</v>
+      </c>
+      <c r="R235" s="34">
+        <v>5.9383618850920708E-2</v>
+      </c>
     </row>
     <row r="236" spans="1:18">
+      <c r="A236" s="12">
+        <v>44148</v>
+      </c>
+      <c r="B236" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236" s="1">
+        <v>24</v>
+      </c>
+      <c r="E236" s="1">
+        <v>812</v>
+      </c>
+      <c r="F236" s="1">
+        <v>812</v>
+      </c>
+      <c r="G236" s="1">
+        <v>135</v>
+      </c>
+      <c r="H236" s="1">
+        <v>117</v>
+      </c>
+      <c r="I236" s="1">
+        <v>1</v>
+      </c>
+      <c r="J236" s="1">
+        <v>11</v>
+      </c>
+      <c r="K236" s="1">
+        <v>666</v>
+      </c>
+      <c r="L236" s="1">
+        <v>18</v>
+      </c>
+      <c r="M236" s="1">
+        <v>108</v>
+      </c>
+      <c r="N236" s="1">
+        <v>0</v>
+      </c>
+      <c r="O236" s="1">
+        <v>467</v>
+      </c>
       <c r="R236" s="34"/>
     </row>
     <row r="237" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -972,28 +972,28 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D229" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q237" sqref="Q237"/>
+      <selection pane="bottomRight" activeCell="P237" sqref="P237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22.5">
+    <row r="1" spans="1:28" ht="22">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44148.746284259258</v>
+        <v>44149.685760879627</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1015,7 +1015,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="67.5">
+    <row r="2" spans="1:28" ht="65">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -14183,6 +14183,51 @@
       <c r="R236" s="34"/>
     </row>
     <row r="237" spans="1:18">
+      <c r="A237" s="12">
+        <v>44149</v>
+      </c>
+      <c r="B237" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" s="1">
+        <v>23</v>
+      </c>
+      <c r="E237" s="1">
+        <v>835</v>
+      </c>
+      <c r="F237" s="1">
+        <v>835</v>
+      </c>
+      <c r="G237" s="1">
+        <v>152</v>
+      </c>
+      <c r="H237" s="1">
+        <v>130</v>
+      </c>
+      <c r="I237" s="1">
+        <v>2</v>
+      </c>
+      <c r="J237" s="1">
+        <v>11</v>
+      </c>
+      <c r="K237" s="1">
+        <v>672</v>
+      </c>
+      <c r="L237" s="1">
+        <v>22</v>
+      </c>
+      <c r="M237" s="1">
+        <v>108</v>
+      </c>
+      <c r="N237" s="1">
+        <v>0</v>
+      </c>
+      <c r="O237" s="1">
+        <v>467</v>
+      </c>
       <c r="R237" s="34"/>
     </row>
     <row r="238" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -972,28 +972,28 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D229" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P237" sqref="P237"/>
+      <selection pane="bottomRight" activeCell="H248" sqref="H248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22">
+    <row r="1" spans="1:28" ht="22.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44149.685760879627</v>
+        <v>44150.600626273146</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1015,7 +1015,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="65">
+    <row r="2" spans="1:28" ht="67.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -14231,6 +14231,51 @@
       <c r="R237" s="34"/>
     </row>
     <row r="238" spans="1:18">
+      <c r="A238" s="12">
+        <v>44150</v>
+      </c>
+      <c r="B238" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="1">
+        <v>9</v>
+      </c>
+      <c r="E238" s="1">
+        <v>844</v>
+      </c>
+      <c r="F238" s="1">
+        <v>844</v>
+      </c>
+      <c r="G238" s="1">
+        <v>151</v>
+      </c>
+      <c r="H238" s="1">
+        <v>130</v>
+      </c>
+      <c r="I238" s="1">
+        <v>3</v>
+      </c>
+      <c r="J238" s="1">
+        <v>11</v>
+      </c>
+      <c r="K238" s="1">
+        <v>682</v>
+      </c>
+      <c r="L238" s="1">
+        <v>21</v>
+      </c>
+      <c r="M238" s="1">
+        <v>108</v>
+      </c>
+      <c r="N238" s="1">
+        <v>0</v>
+      </c>
+      <c r="O238" s="1">
+        <v>467</v>
+      </c>
       <c r="R238" s="34"/>
     </row>
     <row r="239" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -972,7 +972,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D229" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H248" sqref="H248"/>
+      <selection pane="bottomRight" activeCell="P238" sqref="P238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44150.600626273146</v>
+        <v>44151.713665277777</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14125,13 +14125,13 @@
         <v>467</v>
       </c>
       <c r="P235" s="1">
-        <v>247</v>
+        <v>315</v>
       </c>
       <c r="Q235" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="R235" s="34">
-        <v>5.9383618850920708E-2</v>
+        <v>6.0685408122634801E-2</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -14180,7 +14180,15 @@
       <c r="O236" s="1">
         <v>467</v>
       </c>
-      <c r="R236" s="34"/>
+      <c r="P236" s="1">
+        <v>276</v>
+      </c>
+      <c r="Q236" s="1">
+        <v>16</v>
+      </c>
+      <c r="R236" s="34">
+        <v>5.8125144886905726E-2</v>
+      </c>
     </row>
     <row r="237" spans="1:18">
       <c r="A237" s="12">
@@ -14228,7 +14236,15 @@
       <c r="O237" s="1">
         <v>467</v>
       </c>
-      <c r="R237" s="34"/>
+      <c r="P237" s="1">
+        <v>203</v>
+      </c>
+      <c r="Q237" s="1">
+        <v>12</v>
+      </c>
+      <c r="R237" s="34">
+        <v>5.8104293634527369E-2</v>
+      </c>
     </row>
     <row r="238" spans="1:18">
       <c r="A238" s="12">
@@ -14276,9 +14292,62 @@
       <c r="O238" s="1">
         <v>467</v>
       </c>
-      <c r="R238" s="34"/>
+      <c r="P238" s="1">
+        <v>79</v>
+      </c>
+      <c r="Q238" s="1">
+        <v>5</v>
+      </c>
+      <c r="R238" s="34">
+        <v>5.7244894855589812E-2</v>
+      </c>
     </row>
     <row r="239" spans="1:18">
+      <c r="A239" s="12">
+        <v>44151</v>
+      </c>
+      <c r="B239" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" s="1">
+        <v>14</v>
+      </c>
+      <c r="E239" s="1">
+        <v>858</v>
+      </c>
+      <c r="F239" s="1">
+        <v>858</v>
+      </c>
+      <c r="G239" s="1">
+        <v>156</v>
+      </c>
+      <c r="H239" s="1">
+        <v>140</v>
+      </c>
+      <c r="I239" s="1">
+        <v>3</v>
+      </c>
+      <c r="J239" s="1">
+        <v>11</v>
+      </c>
+      <c r="K239" s="1">
+        <v>691</v>
+      </c>
+      <c r="L239" s="1">
+        <v>16</v>
+      </c>
+      <c r="M239" s="1">
+        <v>108</v>
+      </c>
+      <c r="N239" s="1">
+        <v>0</v>
+      </c>
+      <c r="O239" s="1">
+        <v>467</v>
+      </c>
       <c r="R239" s="34"/>
     </row>
     <row r="240" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -972,7 +972,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D229" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P238" sqref="P238"/>
+      <selection pane="bottomRight" activeCell="P240" sqref="P240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44151.713665277777</v>
+        <v>44152.644886458336</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14351,6 +14351,51 @@
       <c r="R239" s="34"/>
     </row>
     <row r="240" spans="1:18">
+      <c r="A240" s="12">
+        <v>44152</v>
+      </c>
+      <c r="B240" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240" s="1">
+        <v>10</v>
+      </c>
+      <c r="E240" s="1">
+        <v>868</v>
+      </c>
+      <c r="F240" s="1">
+        <v>868</v>
+      </c>
+      <c r="G240" s="1">
+        <v>139</v>
+      </c>
+      <c r="H240" s="1">
+        <v>117</v>
+      </c>
+      <c r="I240" s="1">
+        <v>3</v>
+      </c>
+      <c r="J240" s="1">
+        <v>11</v>
+      </c>
+      <c r="K240" s="1">
+        <v>718</v>
+      </c>
+      <c r="L240" s="1">
+        <v>22</v>
+      </c>
+      <c r="M240" s="1">
+        <v>108</v>
+      </c>
+      <c r="N240" s="1">
+        <v>0</v>
+      </c>
+      <c r="O240" s="1">
+        <v>467</v>
+      </c>
       <c r="R240" s="34"/>
     </row>
     <row r="241" spans="18:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D229" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="M222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P240" sqref="P240"/>
+      <selection pane="bottomRight" activeCell="P240" sqref="P240:R240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44152.644886458336</v>
+        <v>44152.799436226851</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14237,13 +14237,13 @@
         <v>467</v>
       </c>
       <c r="P237" s="1">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q237" s="1">
         <v>12</v>
       </c>
       <c r="R237" s="34">
-        <v>5.8104293634527369E-2</v>
+        <v>5.7901294663055491E-2</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -14293,13 +14293,13 @@
         <v>467</v>
       </c>
       <c r="P238" s="1">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="Q238" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R238" s="34">
-        <v>5.7244894855589812E-2</v>
+        <v>6.1605746740916345E-2</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -14348,7 +14348,15 @@
       <c r="O239" s="1">
         <v>467</v>
       </c>
-      <c r="R239" s="34"/>
+      <c r="P239" s="1">
+        <v>252</v>
+      </c>
+      <c r="Q239" s="1">
+        <v>4</v>
+      </c>
+      <c r="R239" s="34">
+        <v>5.7867314431055458E-2</v>
+      </c>
     </row>
     <row r="240" spans="1:18">
       <c r="A240" s="12">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="M222" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P240" sqref="P240:R240"/>
+      <selection pane="bottomRight" activeCell="P247" sqref="P247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44152.799436226851</v>
+        <v>44153.727984722223</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14293,13 +14293,13 @@
         <v>467</v>
       </c>
       <c r="P238" s="1">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="Q238" s="1">
         <v>10</v>
       </c>
       <c r="R238" s="34">
-        <v>6.1605746740916345E-2</v>
+        <v>5.687341902722217E-2</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -14349,13 +14349,13 @@
         <v>467</v>
       </c>
       <c r="P239" s="1">
-        <v>252</v>
+        <v>428</v>
       </c>
       <c r="Q239" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="R239" s="34">
-        <v>5.7867314431055458E-2</v>
+        <v>5.6875423702124041E-2</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -14404,54 +14404,107 @@
       <c r="O240" s="1">
         <v>467</v>
       </c>
-      <c r="R240" s="34"/>
-    </row>
-    <row r="241" spans="18:18">
+      <c r="P240" s="1">
+        <v>352</v>
+      </c>
+      <c r="Q240" s="1">
+        <v>14</v>
+      </c>
+      <c r="R240" s="34">
+        <v>5.2425529624570387E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18">
+      <c r="A241" s="12">
+        <v>44153</v>
+      </c>
+      <c r="B241" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" s="1">
+        <v>28</v>
+      </c>
+      <c r="E241" s="1">
+        <v>896</v>
+      </c>
+      <c r="F241" s="1">
+        <v>896</v>
+      </c>
+      <c r="G241" s="1">
+        <v>154</v>
+      </c>
+      <c r="H241" s="1">
+        <v>133</v>
+      </c>
+      <c r="I241" s="1">
+        <v>3</v>
+      </c>
+      <c r="J241" s="1">
+        <v>11</v>
+      </c>
+      <c r="K241" s="1">
+        <v>731</v>
+      </c>
+      <c r="L241" s="1">
+        <v>21</v>
+      </c>
+      <c r="M241" s="1">
+        <v>108</v>
+      </c>
+      <c r="N241" s="1">
+        <v>0</v>
+      </c>
+      <c r="O241" s="1">
+        <v>467</v>
+      </c>
       <c r="R241" s="34"/>
     </row>
-    <row r="242" spans="18:18">
+    <row r="242" spans="1:18">
       <c r="R242" s="34"/>
     </row>
-    <row r="243" spans="18:18">
+    <row r="243" spans="1:18">
       <c r="R243" s="34"/>
     </row>
-    <row r="244" spans="18:18">
+    <row r="244" spans="1:18">
       <c r="R244" s="34"/>
     </row>
-    <row r="245" spans="18:18">
+    <row r="245" spans="1:18">
       <c r="R245" s="34"/>
     </row>
-    <row r="246" spans="18:18">
+    <row r="246" spans="1:18">
       <c r="R246" s="34"/>
     </row>
-    <row r="247" spans="18:18">
+    <row r="247" spans="1:18">
       <c r="R247" s="34"/>
     </row>
-    <row r="248" spans="18:18">
+    <row r="248" spans="1:18">
       <c r="R248" s="34"/>
     </row>
-    <row r="249" spans="18:18">
+    <row r="249" spans="1:18">
       <c r="R249" s="34"/>
     </row>
-    <row r="250" spans="18:18">
+    <row r="250" spans="1:18">
       <c r="R250" s="34"/>
     </row>
-    <row r="251" spans="18:18">
+    <row r="251" spans="1:18">
       <c r="R251" s="34"/>
     </row>
-    <row r="252" spans="18:18">
+    <row r="252" spans="1:18">
       <c r="R252" s="34"/>
     </row>
-    <row r="253" spans="18:18">
+    <row r="253" spans="1:18">
       <c r="R253" s="34"/>
     </row>
-    <row r="254" spans="18:18">
+    <row r="254" spans="1:18">
       <c r="R254" s="34"/>
     </row>
-    <row r="255" spans="18:18">
+    <row r="255" spans="1:18">
       <c r="R255" s="34"/>
     </row>
-    <row r="256" spans="18:18">
+    <row r="256" spans="1:18">
       <c r="R256" s="34"/>
     </row>
     <row r="257" spans="18:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D228" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D225" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P247" sqref="P247"/>
+      <selection pane="bottomRight" activeCell="R247" sqref="R247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44153.727984722223</v>
+        <v>44154.719499074075</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14405,13 +14405,13 @@
         <v>467</v>
       </c>
       <c r="P240" s="1">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="Q240" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="R240" s="34">
-        <v>5.2425529624570387E-2</v>
+        <v>5.6975903493126083E-2</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -14460,9 +14460,62 @@
       <c r="O241" s="1">
         <v>467</v>
       </c>
-      <c r="R241" s="34"/>
+      <c r="P241" s="1">
+        <v>286</v>
+      </c>
+      <c r="Q241" s="1">
+        <v>19</v>
+      </c>
+      <c r="R241" s="34">
+        <v>6.1104482688729408E-2</v>
+      </c>
     </row>
     <row r="242" spans="1:18">
+      <c r="A242" s="12">
+        <v>44154</v>
+      </c>
+      <c r="B242" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" s="1">
+        <v>33</v>
+      </c>
+      <c r="E242" s="1">
+        <v>929</v>
+      </c>
+      <c r="F242" s="1">
+        <v>929</v>
+      </c>
+      <c r="G242" s="1">
+        <v>177</v>
+      </c>
+      <c r="H242" s="1">
+        <v>146</v>
+      </c>
+      <c r="I242" s="1">
+        <v>4</v>
+      </c>
+      <c r="J242" s="1">
+        <v>11</v>
+      </c>
+      <c r="K242" s="1">
+        <v>741</v>
+      </c>
+      <c r="L242" s="1">
+        <v>31</v>
+      </c>
+      <c r="M242" s="1">
+        <v>108</v>
+      </c>
+      <c r="N242" s="1">
+        <v>0</v>
+      </c>
+      <c r="O242" s="1">
+        <v>467</v>
+      </c>
       <c r="R242" s="34"/>
     </row>
     <row r="243" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -968,11 +968,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB525"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D225" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R247" sqref="R247"/>
+      <selection pane="bottomRight" activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44154.719499074075</v>
+        <v>44155.714661111109</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14516,9 +14516,62 @@
       <c r="O242" s="1">
         <v>467</v>
       </c>
-      <c r="R242" s="34"/>
+      <c r="P242" s="1">
+        <v>381</v>
+      </c>
+      <c r="Q242" s="1">
+        <v>22</v>
+      </c>
+      <c r="R242" s="34">
+        <v>5.9376127304580993E-2</v>
+      </c>
     </row>
     <row r="243" spans="1:18">
+      <c r="A243" s="12">
+        <v>44155</v>
+      </c>
+      <c r="B243" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" s="1">
+        <v>23</v>
+      </c>
+      <c r="E243" s="1">
+        <v>952</v>
+      </c>
+      <c r="F243" s="1">
+        <v>952</v>
+      </c>
+      <c r="G243" s="1">
+        <v>183</v>
+      </c>
+      <c r="H243" s="1">
+        <v>158</v>
+      </c>
+      <c r="I243" s="1">
+        <v>4</v>
+      </c>
+      <c r="J243" s="1">
+        <v>11</v>
+      </c>
+      <c r="K243" s="1">
+        <v>758</v>
+      </c>
+      <c r="L243" s="1">
+        <v>25</v>
+      </c>
+      <c r="M243" s="1">
+        <v>108</v>
+      </c>
+      <c r="N243" s="1">
+        <v>0</v>
+      </c>
+      <c r="O243" s="1">
+        <v>467</v>
+      </c>
       <c r="R243" s="34"/>
     </row>
     <row r="244" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D228" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Q238" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A244" sqref="A244"/>
+      <selection pane="bottomRight" activeCell="R245" sqref="R245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44155.714661111109</v>
+        <v>44156.624303009259</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14575,6 +14575,51 @@
       <c r="R243" s="34"/>
     </row>
     <row r="244" spans="1:18">
+      <c r="A244" s="12">
+        <v>44156</v>
+      </c>
+      <c r="B244" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" s="1">
+        <v>23</v>
+      </c>
+      <c r="E244" s="1">
+        <v>975</v>
+      </c>
+      <c r="F244" s="1">
+        <v>975</v>
+      </c>
+      <c r="G244" s="1">
+        <v>193</v>
+      </c>
+      <c r="H244" s="1">
+        <v>165</v>
+      </c>
+      <c r="I244" s="1">
+        <v>4</v>
+      </c>
+      <c r="J244" s="1">
+        <v>11</v>
+      </c>
+      <c r="K244" s="1">
+        <v>771</v>
+      </c>
+      <c r="L244" s="1">
+        <v>28</v>
+      </c>
+      <c r="M244" s="1">
+        <v>108</v>
+      </c>
+      <c r="N244" s="1">
+        <v>0</v>
+      </c>
+      <c r="O244" s="1">
+        <v>467</v>
+      </c>
       <c r="R244" s="34"/>
     </row>
     <row r="245" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,31 +969,31 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Q238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D238" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R245" sqref="R245"/>
+      <selection pane="bottomRight" activeCell="P245" sqref="P245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22.5">
+    <row r="1" spans="1:28" ht="22">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44156.624303009259</v>
+        <v>44157.639974305559</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1015,7 +1015,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="67.5">
+    <row r="2" spans="1:28" ht="65">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -14623,6 +14623,51 @@
       <c r="R244" s="34"/>
     </row>
     <row r="245" spans="1:18">
+      <c r="A245" s="12">
+        <v>44157</v>
+      </c>
+      <c r="B245" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" s="1">
+        <v>14</v>
+      </c>
+      <c r="E245" s="1">
+        <v>989</v>
+      </c>
+      <c r="F245" s="1">
+        <v>989</v>
+      </c>
+      <c r="G245" s="1">
+        <v>200</v>
+      </c>
+      <c r="H245" s="1">
+        <v>173</v>
+      </c>
+      <c r="I245" s="1">
+        <v>4</v>
+      </c>
+      <c r="J245" s="1">
+        <v>11</v>
+      </c>
+      <c r="K245" s="1">
+        <v>778</v>
+      </c>
+      <c r="L245" s="1">
+        <v>27</v>
+      </c>
+      <c r="M245" s="1">
+        <v>108</v>
+      </c>
+      <c r="N245" s="1">
+        <v>0</v>
+      </c>
+      <c r="O245" s="1">
+        <v>467</v>
+      </c>
       <c r="R245" s="34"/>
     </row>
     <row r="246" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="M238" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P245" sqref="P245"/>
+      <selection pane="bottomRight" activeCell="P246" sqref="P246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44157.639974305559</v>
+        <v>44158.73481238426</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14671,6 +14671,51 @@
       <c r="R245" s="34"/>
     </row>
     <row r="246" spans="1:18">
+      <c r="A246" s="12">
+        <v>44158</v>
+      </c>
+      <c r="B246" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" s="1">
+        <v>21</v>
+      </c>
+      <c r="E246" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F246" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G246" s="1">
+        <v>204</v>
+      </c>
+      <c r="H246" s="1">
+        <v>172</v>
+      </c>
+      <c r="I246" s="1">
+        <v>5</v>
+      </c>
+      <c r="J246" s="1">
+        <v>11</v>
+      </c>
+      <c r="K246" s="1">
+        <v>795</v>
+      </c>
+      <c r="L246" s="1">
+        <v>32</v>
+      </c>
+      <c r="M246" s="1">
+        <v>108</v>
+      </c>
+      <c r="N246" s="1">
+        <v>0</v>
+      </c>
+      <c r="O246" s="1">
+        <v>467</v>
+      </c>
       <c r="R246" s="34"/>
     </row>
     <row r="247" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -969,31 +969,31 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="M238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="N238" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P246" sqref="P246"/>
+      <selection pane="bottomRight" activeCell="Q247" sqref="Q247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22">
+    <row r="1" spans="1:28" ht="22.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44158.73481238426</v>
+        <v>44159.770570370369</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1015,7 +1015,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="65">
+    <row r="2" spans="1:28" ht="67.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -14461,13 +14461,13 @@
         <v>467</v>
       </c>
       <c r="P241" s="1">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="Q241" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R241" s="34">
-        <v>6.1104482688729408E-2</v>
+        <v>6.2991975726664914E-2</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -14517,13 +14517,13 @@
         <v>467</v>
       </c>
       <c r="P242" s="1">
-        <v>381</v>
+        <v>462</v>
       </c>
       <c r="Q242" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R242" s="34">
-        <v>5.9376127304580993E-2</v>
+        <v>5.8580514172346228E-2</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -14572,7 +14572,15 @@
       <c r="O243" s="1">
         <v>467</v>
       </c>
-      <c r="R243" s="34"/>
+      <c r="P243" s="1">
+        <v>371</v>
+      </c>
+      <c r="Q243" s="1">
+        <v>25</v>
+      </c>
+      <c r="R243" s="34">
+        <v>5.9925432779657894E-2</v>
+      </c>
     </row>
     <row r="244" spans="1:18">
       <c r="A244" s="12">
@@ -14620,7 +14628,15 @@
       <c r="O244" s="1">
         <v>467</v>
       </c>
-      <c r="R244" s="34"/>
+      <c r="P244" s="1">
+        <v>214</v>
+      </c>
+      <c r="Q244" s="1">
+        <v>25</v>
+      </c>
+      <c r="R244" s="34">
+        <v>6.8372593095977083E-2</v>
+      </c>
     </row>
     <row r="245" spans="1:18">
       <c r="A245" s="12">
@@ -14668,7 +14684,15 @@
       <c r="O245" s="1">
         <v>467</v>
       </c>
-      <c r="R245" s="34"/>
+      <c r="P245" s="1">
+        <v>325</v>
+      </c>
+      <c r="Q245" s="1">
+        <v>8</v>
+      </c>
+      <c r="R245" s="34">
+        <v>6.3015962149284038E-2</v>
+      </c>
     </row>
     <row r="246" spans="1:18">
       <c r="A246" s="12">
@@ -14716,9 +14740,62 @@
       <c r="O246" s="1">
         <v>467</v>
       </c>
-      <c r="R246" s="34"/>
+      <c r="P246" s="1">
+        <v>109</v>
+      </c>
+      <c r="Q246" s="1">
+        <v>8</v>
+      </c>
+      <c r="R246" s="34">
+        <v>6.7492879384496732E-2</v>
+      </c>
     </row>
     <row r="247" spans="1:18">
+      <c r="A247" s="12">
+        <v>44159</v>
+      </c>
+      <c r="B247" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="1">
+        <v>16</v>
+      </c>
+      <c r="E247" s="1">
+        <v>1026</v>
+      </c>
+      <c r="F247" s="1">
+        <v>1026</v>
+      </c>
+      <c r="G247" s="1">
+        <v>202</v>
+      </c>
+      <c r="H247" s="1">
+        <v>170</v>
+      </c>
+      <c r="I247" s="1">
+        <v>4</v>
+      </c>
+      <c r="J247" s="1">
+        <v>11</v>
+      </c>
+      <c r="K247" s="1">
+        <v>813</v>
+      </c>
+      <c r="L247" s="1">
+        <v>32</v>
+      </c>
+      <c r="M247" s="1">
+        <v>108</v>
+      </c>
+      <c r="N247" s="1">
+        <v>0</v>
+      </c>
+      <c r="O247" s="1">
+        <v>467</v>
+      </c>
       <c r="R247" s="34"/>
     </row>
     <row r="248" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="M244" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q247" sqref="Q247"/>
+      <selection pane="bottomRight" activeCell="R249" sqref="R249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44159.770570370369</v>
+        <v>44160.719285185187</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14573,13 +14573,13 @@
         <v>467</v>
       </c>
       <c r="P243" s="1">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="Q243" s="1">
         <v>25</v>
       </c>
       <c r="R243" s="34">
-        <v>5.9925432779657894E-2</v>
+        <v>5.9340531993453752E-2</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -14629,13 +14629,13 @@
         <v>467</v>
       </c>
       <c r="P244" s="1">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q244" s="1">
         <v>25</v>
       </c>
       <c r="R244" s="34">
-        <v>6.8372593095977083E-2</v>
+        <v>6.7186289839211613E-2</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -14691,7 +14691,7 @@
         <v>8</v>
       </c>
       <c r="R245" s="34">
-        <v>6.3015962149284038E-2</v>
+        <v>6.1829658892518548E-2</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -14741,13 +14741,13 @@
         <v>467</v>
       </c>
       <c r="P246" s="1">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="Q246" s="1">
         <v>8</v>
       </c>
       <c r="R246" s="34">
-        <v>6.7492879384496732E-2</v>
+        <v>6.2427758863964088E-2</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -14796,9 +14796,62 @@
       <c r="O247" s="1">
         <v>467</v>
       </c>
-      <c r="R247" s="34"/>
+      <c r="P247" s="1">
+        <v>340</v>
+      </c>
+      <c r="Q247" s="1">
+        <v>11</v>
+      </c>
+      <c r="R247" s="34">
+        <v>5.6817415553086024E-2</v>
+      </c>
     </row>
     <row r="248" spans="1:18">
+      <c r="A248" s="12">
+        <v>44160</v>
+      </c>
+      <c r="B248" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" s="1">
+        <v>12</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1038</v>
+      </c>
+      <c r="F248" s="1">
+        <v>1038</v>
+      </c>
+      <c r="G248" s="1">
+        <v>194</v>
+      </c>
+      <c r="H248" s="1">
+        <v>161</v>
+      </c>
+      <c r="I248" s="1">
+        <v>6</v>
+      </c>
+      <c r="J248" s="1">
+        <v>11</v>
+      </c>
+      <c r="K248" s="1">
+        <v>833</v>
+      </c>
+      <c r="L248" s="1">
+        <v>33</v>
+      </c>
+      <c r="M248" s="1">
+        <v>108</v>
+      </c>
+      <c r="N248" s="1">
+        <v>0</v>
+      </c>
+      <c r="O248" s="1">
+        <v>467</v>
+      </c>
       <c r="R248" s="34"/>
     </row>
     <row r="249" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="M244" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R249" sqref="R249"/>
+      <selection pane="bottomRight" activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44160.719285185187</v>
+        <v>44161.712948032407</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14632,10 +14632,10 @@
         <v>222</v>
       </c>
       <c r="Q244" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R244" s="34">
-        <v>6.7186289839211613E-2</v>
+        <v>6.7829790482712246E-2</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -14691,7 +14691,7 @@
         <v>8</v>
       </c>
       <c r="R245" s="34">
-        <v>6.1829658892518548E-2</v>
+        <v>6.2473159536019188E-2</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -14747,7 +14747,7 @@
         <v>8</v>
       </c>
       <c r="R246" s="34">
-        <v>6.2427758863964088E-2</v>
+        <v>6.3071259507464741E-2</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -14797,13 +14797,13 @@
         <v>467</v>
       </c>
       <c r="P247" s="1">
-        <v>340</v>
+        <v>428</v>
       </c>
       <c r="Q247" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R247" s="34">
-        <v>5.6817415553086024E-2</v>
+        <v>5.817952139567565E-2</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14852,9 +14852,62 @@
       <c r="O248" s="1">
         <v>467</v>
       </c>
-      <c r="R248" s="34"/>
+      <c r="P248" s="1">
+        <v>232</v>
+      </c>
+      <c r="Q248" s="1">
+        <v>16</v>
+      </c>
+      <c r="R248" s="34">
+        <v>5.6653735615999117E-2</v>
+      </c>
     </row>
     <row r="249" spans="1:18">
+      <c r="A249" s="12">
+        <v>44161</v>
+      </c>
+      <c r="B249" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" s="1">
+        <v>23</v>
+      </c>
+      <c r="E249" s="1">
+        <v>1061</v>
+      </c>
+      <c r="F249" s="1">
+        <v>1061</v>
+      </c>
+      <c r="G249" s="1">
+        <v>189</v>
+      </c>
+      <c r="H249" s="1">
+        <v>144</v>
+      </c>
+      <c r="I249" s="1">
+        <v>6</v>
+      </c>
+      <c r="J249" s="1">
+        <v>11</v>
+      </c>
+      <c r="K249" s="1">
+        <v>861</v>
+      </c>
+      <c r="L249" s="1">
+        <v>45</v>
+      </c>
+      <c r="M249" s="1">
+        <v>108</v>
+      </c>
+      <c r="N249" s="1">
+        <v>0</v>
+      </c>
+      <c r="O249" s="1">
+        <v>467</v>
+      </c>
       <c r="R249" s="34"/>
     </row>
     <row r="250" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -968,11 +968,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB525"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K241" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="P244" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B249" sqref="B249"/>
+      <selection pane="bottomRight" activeCell="S251" sqref="S251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44161.712948032407</v>
+        <v>44162.711927314813</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14797,13 +14797,13 @@
         <v>467</v>
       </c>
       <c r="P247" s="1">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="Q247" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R247" s="34">
-        <v>5.817952139567565E-2</v>
+        <v>5.8130072748096166E-2</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14853,13 +14853,13 @@
         <v>467</v>
       </c>
       <c r="P248" s="1">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="Q248" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R248" s="34">
-        <v>5.6653735615999117E-2</v>
+        <v>5.9416710543865943E-2</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14908,9 +14908,62 @@
       <c r="O249" s="1">
         <v>467</v>
       </c>
-      <c r="R249" s="34"/>
+      <c r="P249" s="1">
+        <v>259</v>
+      </c>
+      <c r="Q249" s="1">
+        <v>16</v>
+      </c>
+      <c r="R249" s="34">
+        <v>6.2675999517440628E-2</v>
+      </c>
     </row>
     <row r="250" spans="1:18">
+      <c r="A250" s="12">
+        <v>44162</v>
+      </c>
+      <c r="B250" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" s="1">
+        <v>26</v>
+      </c>
+      <c r="E250" s="1">
+        <v>1087</v>
+      </c>
+      <c r="F250" s="1">
+        <v>1087</v>
+      </c>
+      <c r="G250" s="1">
+        <v>206</v>
+      </c>
+      <c r="H250" s="1">
+        <v>157</v>
+      </c>
+      <c r="I250" s="1">
+        <v>6</v>
+      </c>
+      <c r="J250" s="1">
+        <v>11</v>
+      </c>
+      <c r="K250" s="1">
+        <v>870</v>
+      </c>
+      <c r="L250" s="1">
+        <v>49</v>
+      </c>
+      <c r="M250" s="1">
+        <v>108</v>
+      </c>
+      <c r="N250" s="1">
+        <v>0</v>
+      </c>
+      <c r="O250" s="1">
+        <v>467</v>
+      </c>
       <c r="R250" s="34"/>
     </row>
     <row r="251" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P244" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D244" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S251" sqref="S251"/>
+      <selection pane="bottomRight" activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44162.711927314813</v>
+        <v>44163.655671064815</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14967,6 +14967,51 @@
       <c r="R250" s="34"/>
     </row>
     <row r="251" spans="1:18">
+      <c r="A251" s="12">
+        <v>44163</v>
+      </c>
+      <c r="B251" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="1">
+        <v>19</v>
+      </c>
+      <c r="E251" s="1">
+        <v>1106</v>
+      </c>
+      <c r="F251" s="1">
+        <v>1106</v>
+      </c>
+      <c r="G251" s="1">
+        <v>197</v>
+      </c>
+      <c r="H251" s="1">
+        <v>150</v>
+      </c>
+      <c r="I251" s="1">
+        <v>6</v>
+      </c>
+      <c r="J251" s="1">
+        <v>11</v>
+      </c>
+      <c r="K251" s="1">
+        <v>898</v>
+      </c>
+      <c r="L251" s="1">
+        <v>47</v>
+      </c>
+      <c r="M251" s="1">
+        <v>108</v>
+      </c>
+      <c r="N251" s="1">
+        <v>0</v>
+      </c>
+      <c r="O251" s="1">
+        <v>467</v>
+      </c>
       <c r="R251" s="34"/>
     </row>
     <row r="252" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -972,28 +972,28 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D244" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A252" sqref="A252"/>
+      <selection pane="bottomRight" activeCell="P252" sqref="P252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22.5">
+    <row r="1" spans="1:28" ht="22">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44163.655671064815</v>
+        <v>44164.68319895833</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1015,7 +1015,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="67.5">
+    <row r="2" spans="1:28" ht="65">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -15015,6 +15015,51 @@
       <c r="R251" s="34"/>
     </row>
     <row r="252" spans="1:18">
+      <c r="A252" s="12">
+        <v>44164</v>
+      </c>
+      <c r="B252" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" s="1">
+        <v>16</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1122</v>
+      </c>
+      <c r="F252" s="1">
+        <v>1122</v>
+      </c>
+      <c r="G252" s="1">
+        <v>198</v>
+      </c>
+      <c r="H252" s="1">
+        <v>148</v>
+      </c>
+      <c r="I252" s="1">
+        <v>6</v>
+      </c>
+      <c r="J252" s="1">
+        <v>11</v>
+      </c>
+      <c r="K252" s="1">
+        <v>913</v>
+      </c>
+      <c r="L252" s="1">
+        <v>50</v>
+      </c>
+      <c r="M252" s="1">
+        <v>108</v>
+      </c>
+      <c r="N252" s="1">
+        <v>0</v>
+      </c>
+      <c r="O252" s="1">
+        <v>467</v>
+      </c>
       <c r="R252" s="34"/>
     </row>
     <row r="253" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -969,31 +969,31 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D244" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F238" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P252" sqref="P252"/>
+      <selection pane="bottomRight" activeCell="Q257" sqref="Q257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22">
+    <row r="1" spans="1:28" ht="22.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44164.68319895833</v>
+        <v>44165.736592592591</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1015,7 +1015,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="65">
+    <row r="2" spans="1:28" ht="67.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -14853,13 +14853,13 @@
         <v>467</v>
       </c>
       <c r="P248" s="1">
-        <v>282</v>
+        <v>381</v>
       </c>
       <c r="Q248" s="1">
         <v>25</v>
       </c>
       <c r="R248" s="34">
-        <v>5.9416710543865943E-2</v>
+        <v>5.6125898491117217E-2</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14909,13 +14909,13 @@
         <v>467</v>
       </c>
       <c r="P249" s="1">
-        <v>259</v>
+        <v>364</v>
       </c>
       <c r="Q249" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="R249" s="34">
-        <v>6.2675999517440628E-2</v>
+        <v>5.8801794024155599E-2</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14964,7 +14964,15 @@
       <c r="O250" s="1">
         <v>467</v>
       </c>
-      <c r="R250" s="34"/>
+      <c r="P250" s="1">
+        <v>358</v>
+      </c>
+      <c r="Q250" s="1">
+        <v>27</v>
+      </c>
+      <c r="R250" s="34">
+        <v>6.0534344763141526E-2</v>
+      </c>
     </row>
     <row r="251" spans="1:18">
       <c r="A251" s="12">
@@ -15012,7 +15020,15 @@
       <c r="O251" s="1">
         <v>467</v>
       </c>
-      <c r="R251" s="34"/>
+      <c r="P251" s="1">
+        <v>415</v>
+      </c>
+      <c r="Q251" s="1">
+        <v>8</v>
+      </c>
+      <c r="R251" s="34">
+        <v>4.6557200665515511E-2</v>
+      </c>
     </row>
     <row r="252" spans="1:18">
       <c r="A252" s="12">
@@ -15060,9 +15076,62 @@
       <c r="O252" s="1">
         <v>467</v>
       </c>
-      <c r="R252" s="34"/>
+      <c r="P252" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q252" s="1">
+        <v>12</v>
+      </c>
+      <c r="R252" s="34">
+        <v>7.6654162527183253E-2</v>
+      </c>
     </row>
     <row r="253" spans="1:18">
+      <c r="A253" s="12">
+        <v>44165</v>
+      </c>
+      <c r="B253" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="1">
+        <v>19</v>
+      </c>
+      <c r="E253" s="1">
+        <v>1141</v>
+      </c>
+      <c r="F253" s="1">
+        <v>1141</v>
+      </c>
+      <c r="G253" s="1">
+        <v>197</v>
+      </c>
+      <c r="H253" s="1">
+        <v>145</v>
+      </c>
+      <c r="I253" s="1">
+        <v>5</v>
+      </c>
+      <c r="J253" s="1">
+        <v>12</v>
+      </c>
+      <c r="K253" s="1">
+        <v>932</v>
+      </c>
+      <c r="L253" s="1">
+        <v>52</v>
+      </c>
+      <c r="M253" s="1">
+        <v>108</v>
+      </c>
+      <c r="N253" s="1">
+        <v>0</v>
+      </c>
+      <c r="O253" s="1">
+        <v>467</v>
+      </c>
       <c r="R253" s="34"/>
     </row>
     <row r="254" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q257" sqref="Q257"/>
+      <selection pane="bottomRight" activeCell="P254" sqref="P254:R254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44165.736592592591</v>
+        <v>44166.731467361111</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -14965,13 +14965,13 @@
         <v>467</v>
       </c>
       <c r="P250" s="1">
-        <v>358</v>
+        <v>422</v>
       </c>
       <c r="Q250" s="1">
         <v>27</v>
       </c>
       <c r="R250" s="34">
-        <v>6.0534344763141526E-2</v>
+        <v>5.8900351654658754E-2</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -15021,13 +15021,13 @@
         <v>467</v>
       </c>
       <c r="P251" s="1">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="Q251" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R251" s="34">
-        <v>4.6557200665515511E-2</v>
+        <v>4.5007556304909775E-2</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -15077,13 +15077,13 @@
         <v>467</v>
       </c>
       <c r="P252" s="1">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="Q252" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R252" s="34">
-        <v>7.6654162527183253E-2</v>
+        <v>6.1150312631152337E-2</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -15132,9 +15132,62 @@
       <c r="O253" s="1">
         <v>467</v>
       </c>
-      <c r="R253" s="34"/>
+      <c r="P253" s="1">
+        <v>315</v>
+      </c>
+      <c r="Q253" s="1">
+        <v>12</v>
+      </c>
+      <c r="R253" s="34">
+        <v>5.998637884954721E-2</v>
+      </c>
     </row>
     <row r="254" spans="1:18">
+      <c r="A254" s="12">
+        <v>44166</v>
+      </c>
+      <c r="B254" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" s="1">
+        <v>16</v>
+      </c>
+      <c r="E254" s="1">
+        <v>1157</v>
+      </c>
+      <c r="F254" s="1">
+        <v>1157</v>
+      </c>
+      <c r="G254" s="1">
+        <v>190</v>
+      </c>
+      <c r="H254" s="1">
+        <v>141</v>
+      </c>
+      <c r="I254" s="1">
+        <v>6</v>
+      </c>
+      <c r="J254" s="1">
+        <v>12</v>
+      </c>
+      <c r="K254" s="1">
+        <v>955</v>
+      </c>
+      <c r="L254" s="1">
+        <v>49</v>
+      </c>
+      <c r="M254" s="1">
+        <v>108</v>
+      </c>
+      <c r="N254" s="1">
+        <v>0</v>
+      </c>
+      <c r="O254" s="1">
+        <v>467</v>
+      </c>
       <c r="R254" s="34"/>
     </row>
     <row r="255" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D248" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P254" sqref="P254:R254"/>
+      <selection pane="bottomRight" activeCell="P255" sqref="P255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44166.731467361111</v>
+        <v>44167.716989699074</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15133,13 +15133,13 @@
         <v>467</v>
       </c>
       <c r="P253" s="1">
-        <v>315</v>
+        <v>492</v>
       </c>
       <c r="Q253" s="1">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="R253" s="34">
-        <v>5.998637884954721E-2</v>
+        <v>6.2964643326069533E-2</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -15188,9 +15188,62 @@
       <c r="O254" s="1">
         <v>467</v>
       </c>
-      <c r="R254" s="34"/>
+      <c r="P254" s="1">
+        <v>335</v>
+      </c>
+      <c r="Q254" s="1">
+        <v>16</v>
+      </c>
+      <c r="R254" s="34">
+        <v>6.4496665753614346E-2</v>
+      </c>
     </row>
     <row r="255" spans="1:18">
+      <c r="A255" s="12">
+        <v>44167</v>
+      </c>
+      <c r="B255" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" s="1">
+        <v>33</v>
+      </c>
+      <c r="E255" s="1">
+        <v>1190</v>
+      </c>
+      <c r="F255" s="1">
+        <v>1190</v>
+      </c>
+      <c r="G255" s="1">
+        <v>204</v>
+      </c>
+      <c r="H255" s="1">
+        <v>160</v>
+      </c>
+      <c r="I255" s="1">
+        <v>6</v>
+      </c>
+      <c r="J255" s="1">
+        <v>13</v>
+      </c>
+      <c r="K255" s="1">
+        <v>973</v>
+      </c>
+      <c r="L255" s="1">
+        <v>44</v>
+      </c>
+      <c r="M255" s="1">
+        <v>108</v>
+      </c>
+      <c r="N255" s="1">
+        <v>0</v>
+      </c>
+      <c r="O255" s="1">
+        <v>467</v>
+      </c>
       <c r="R255" s="34"/>
     </row>
     <row r="256" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D251" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P255" sqref="P255"/>
+      <selection pane="bottomRight" activeCell="R257" sqref="R257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44167.716989699074</v>
+        <v>44168.721251273149</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15080,10 +15080,10 @@
         <v>109</v>
       </c>
       <c r="Q252" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R252" s="34">
-        <v>6.1150312631152337E-2</v>
+        <v>6.2460928620667412E-2</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -15133,13 +15133,13 @@
         <v>467</v>
       </c>
       <c r="P253" s="1">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="Q253" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R253" s="34">
-        <v>6.2964643326069533E-2</v>
+        <v>6.4358219328858199E-2</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -15189,13 +15189,13 @@
         <v>467</v>
       </c>
       <c r="P254" s="1">
-        <v>335</v>
+        <v>436</v>
       </c>
       <c r="Q254" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="R254" s="34">
-        <v>6.4496665753614346E-2</v>
+        <v>6.9552141953973495E-2</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -15244,9 +15244,62 @@
       <c r="O255" s="1">
         <v>467</v>
       </c>
-      <c r="R255" s="34"/>
+      <c r="P255" s="1">
+        <v>423</v>
+      </c>
+      <c r="Q255" s="1">
+        <v>21</v>
+      </c>
+      <c r="R255" s="34">
+        <v>6.7270512264067703E-2</v>
+      </c>
     </row>
     <row r="256" spans="1:18">
+      <c r="A256" s="12">
+        <v>44168</v>
+      </c>
+      <c r="B256" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" s="1">
+        <v>39</v>
+      </c>
+      <c r="E256" s="1">
+        <v>1229</v>
+      </c>
+      <c r="F256" s="1">
+        <v>1229</v>
+      </c>
+      <c r="G256" s="1">
+        <v>229</v>
+      </c>
+      <c r="H256" s="1">
+        <v>182</v>
+      </c>
+      <c r="I256" s="1">
+        <v>6</v>
+      </c>
+      <c r="J256" s="1">
+        <v>13</v>
+      </c>
+      <c r="K256" s="1">
+        <v>987</v>
+      </c>
+      <c r="L256" s="1">
+        <v>47</v>
+      </c>
+      <c r="M256" s="1">
+        <v>108</v>
+      </c>
+      <c r="N256" s="1">
+        <v>0</v>
+      </c>
+      <c r="O256" s="1">
+        <v>467</v>
+      </c>
       <c r="R256" s="34"/>
     </row>
     <row r="257" spans="18:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D248" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R257" sqref="R257"/>
+      <selection pane="bottomRight" activeCell="P257" sqref="P257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44168.721251273149</v>
+        <v>44169.725997222224</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15189,13 +15189,13 @@
         <v>467</v>
       </c>
       <c r="P254" s="1">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="Q254" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R254" s="34">
-        <v>6.9552141953973495E-2</v>
+        <v>6.9708942512538494E-2</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -15245,13 +15245,13 @@
         <v>467</v>
       </c>
       <c r="P255" s="1">
-        <v>423</v>
+        <v>595</v>
       </c>
       <c r="Q255" s="1">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="R255" s="34">
-        <v>6.7270512264067703E-2</v>
+        <v>6.9458763700856338E-2</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -15300,54 +15300,107 @@
       <c r="O256" s="1">
         <v>467</v>
       </c>
-      <c r="R256" s="34"/>
-    </row>
-    <row r="257" spans="18:18">
+      <c r="P256" s="1">
+        <v>462</v>
+      </c>
+      <c r="Q256" s="1">
+        <v>14</v>
+      </c>
+      <c r="R256" s="34">
+        <v>6.5546009788102433E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18">
+      <c r="A257" s="12">
+        <v>44169</v>
+      </c>
+      <c r="B257" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" s="1">
+        <v>35</v>
+      </c>
+      <c r="E257" s="1">
+        <v>1264</v>
+      </c>
+      <c r="F257" s="1">
+        <v>1264</v>
+      </c>
+      <c r="G257" s="1">
+        <v>243</v>
+      </c>
+      <c r="H257" s="1">
+        <v>187</v>
+      </c>
+      <c r="I257" s="1">
+        <v>6</v>
+      </c>
+      <c r="J257" s="1">
+        <v>13</v>
+      </c>
+      <c r="K257" s="1">
+        <v>1008</v>
+      </c>
+      <c r="L257" s="1">
+        <v>56</v>
+      </c>
+      <c r="M257" s="1">
+        <v>108</v>
+      </c>
+      <c r="N257" s="1">
+        <v>0</v>
+      </c>
+      <c r="O257" s="1">
+        <v>467</v>
+      </c>
       <c r="R257" s="34"/>
     </row>
-    <row r="258" spans="18:18">
+    <row r="258" spans="1:18">
       <c r="R258" s="34"/>
     </row>
-    <row r="259" spans="18:18">
+    <row r="259" spans="1:18">
       <c r="R259" s="34"/>
     </row>
-    <row r="260" spans="18:18">
+    <row r="260" spans="1:18">
       <c r="R260" s="34"/>
     </row>
-    <row r="261" spans="18:18">
+    <row r="261" spans="1:18">
       <c r="R261" s="34"/>
     </row>
-    <row r="262" spans="18:18">
+    <row r="262" spans="1:18">
       <c r="R262" s="34"/>
     </row>
-    <row r="263" spans="18:18">
+    <row r="263" spans="1:18">
       <c r="R263" s="34"/>
     </row>
-    <row r="264" spans="18:18">
+    <row r="264" spans="1:18">
       <c r="R264" s="34"/>
     </row>
-    <row r="265" spans="18:18">
+    <row r="265" spans="1:18">
       <c r="R265" s="34"/>
     </row>
-    <row r="266" spans="18:18">
+    <row r="266" spans="1:18">
       <c r="R266" s="34"/>
     </row>
-    <row r="267" spans="18:18">
+    <row r="267" spans="1:18">
       <c r="R267" s="34"/>
     </row>
-    <row r="268" spans="18:18">
+    <row r="268" spans="1:18">
       <c r="R268" s="34"/>
     </row>
-    <row r="269" spans="18:18">
+    <row r="269" spans="1:18">
       <c r="R269" s="34"/>
     </row>
-    <row r="270" spans="18:18">
+    <row r="270" spans="1:18">
       <c r="R270" s="34"/>
     </row>
-    <row r="271" spans="18:18">
+    <row r="271" spans="1:18">
       <c r="R271" s="34"/>
     </row>
-    <row r="272" spans="18:18">
+    <row r="272" spans="1:18">
       <c r="R272" s="34"/>
     </row>
     <row r="273" spans="18:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -972,7 +972,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P257" sqref="P257"/>
+      <selection pane="bottomRight" activeCell="P258" sqref="P258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44169.725997222224</v>
+        <v>44170.660716550927</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15359,6 +15359,51 @@
       <c r="R257" s="34"/>
     </row>
     <row r="258" spans="1:18">
+      <c r="A258" s="12">
+        <v>44170</v>
+      </c>
+      <c r="B258" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" s="1">
+        <v>27</v>
+      </c>
+      <c r="E258" s="1">
+        <v>1291</v>
+      </c>
+      <c r="F258" s="1">
+        <v>1291</v>
+      </c>
+      <c r="G258" s="1">
+        <v>254</v>
+      </c>
+      <c r="H258" s="1">
+        <v>197</v>
+      </c>
+      <c r="I258" s="1">
+        <v>7</v>
+      </c>
+      <c r="J258" s="1">
+        <v>13</v>
+      </c>
+      <c r="K258" s="1">
+        <v>1024</v>
+      </c>
+      <c r="L258" s="1">
+        <v>57</v>
+      </c>
+      <c r="M258" s="1">
+        <v>108</v>
+      </c>
+      <c r="N258" s="1">
+        <v>0</v>
+      </c>
+      <c r="O258" s="1">
+        <v>467</v>
+      </c>
       <c r="R258" s="34"/>
     </row>
     <row r="259" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D251" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P258" sqref="P258"/>
+      <selection pane="bottomRight" activeCell="O258" sqref="O258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44170.660716550927</v>
+        <v>44171.609237037039</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15407,6 +15407,51 @@
       <c r="R258" s="34"/>
     </row>
     <row r="259" spans="1:18">
+      <c r="A259" s="12">
+        <v>44171</v>
+      </c>
+      <c r="B259" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259" s="1">
+        <v>15</v>
+      </c>
+      <c r="E259" s="1">
+        <v>1306</v>
+      </c>
+      <c r="F259" s="1">
+        <v>1306</v>
+      </c>
+      <c r="G259" s="1">
+        <v>261</v>
+      </c>
+      <c r="H259" s="1">
+        <v>200</v>
+      </c>
+      <c r="I259" s="1">
+        <v>7</v>
+      </c>
+      <c r="J259" s="1">
+        <v>13</v>
+      </c>
+      <c r="K259" s="1">
+        <v>1032</v>
+      </c>
+      <c r="L259" s="1">
+        <v>61</v>
+      </c>
+      <c r="M259" s="1">
+        <v>108</v>
+      </c>
+      <c r="N259" s="1">
+        <v>0</v>
+      </c>
+      <c r="O259" s="1">
+        <v>467</v>
+      </c>
       <c r="R259" s="34"/>
     </row>
     <row r="260" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$259</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$260</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -969,10 +969,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D245" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D252" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O258" sqref="O258"/>
+      <selection pane="bottomRight" activeCell="R261" sqref="R261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44171.609237037039</v>
+        <v>44172.714458449074</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15248,10 +15248,10 @@
         <v>595</v>
       </c>
       <c r="Q255" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R255" s="34">
-        <v>6.9458763700856338E-2</v>
+        <v>6.9938955777687078E-2</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -15301,13 +15301,13 @@
         <v>467</v>
       </c>
       <c r="P256" s="1">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="Q256" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="R256" s="34">
-        <v>6.5546009788102433E-2</v>
+        <v>6.899646760892153E-2</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -15356,7 +15356,15 @@
       <c r="O257" s="1">
         <v>467</v>
       </c>
-      <c r="R257" s="34"/>
+      <c r="P257" s="1">
+        <v>347</v>
+      </c>
+      <c r="Q257" s="1">
+        <v>19</v>
+      </c>
+      <c r="R257" s="34">
+        <v>6.7678467690869715E-2</v>
+      </c>
     </row>
     <row r="258" spans="1:18">
       <c r="A258" s="12">
@@ -15404,7 +15412,15 @@
       <c r="O258" s="1">
         <v>467</v>
       </c>
-      <c r="R258" s="34"/>
+      <c r="P258" s="1">
+        <v>176</v>
+      </c>
+      <c r="Q258" s="1">
+        <v>21</v>
+      </c>
+      <c r="R258" s="34">
+        <v>8.1885700855056517E-2</v>
+      </c>
     </row>
     <row r="259" spans="1:18">
       <c r="A259" s="12">
@@ -15452,9 +15468,62 @@
       <c r="O259" s="1">
         <v>467</v>
       </c>
-      <c r="R259" s="34"/>
+      <c r="P259" s="1">
+        <v>131</v>
+      </c>
+      <c r="Q259" s="1">
+        <v>6</v>
+      </c>
+      <c r="R259" s="34">
+        <v>6.7458920268180692E-2</v>
+      </c>
     </row>
     <row r="260" spans="1:18">
+      <c r="A260" s="12">
+        <v>44172</v>
+      </c>
+      <c r="B260" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" s="1">
+        <v>24</v>
+      </c>
+      <c r="E260" s="1">
+        <v>1330</v>
+      </c>
+      <c r="F260" s="1">
+        <v>1330</v>
+      </c>
+      <c r="G260" s="1">
+        <v>269</v>
+      </c>
+      <c r="H260" s="1">
+        <v>205</v>
+      </c>
+      <c r="I260" s="1">
+        <v>7</v>
+      </c>
+      <c r="J260" s="1">
+        <v>13</v>
+      </c>
+      <c r="K260" s="1">
+        <v>1048</v>
+      </c>
+      <c r="L260" s="1">
+        <v>64</v>
+      </c>
+      <c r="M260" s="1">
+        <v>108</v>
+      </c>
+      <c r="N260" s="1">
+        <v>0</v>
+      </c>
+      <c r="O260" s="1">
+        <v>467</v>
+      </c>
       <c r="R260" s="34"/>
     </row>
     <row r="261" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$260</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$261</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="36">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -972,7 +972,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D252" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R261" sqref="R261"/>
+      <selection pane="bottomRight" activeCell="Q266" sqref="Q266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44172.714458449074</v>
+        <v>44173.725411342595</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15301,13 +15301,13 @@
         <v>467</v>
       </c>
       <c r="P256" s="1">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="Q256" s="1">
         <v>28</v>
       </c>
       <c r="R256" s="34">
-        <v>6.899646760892153E-2</v>
+        <v>6.8801993273051393E-2</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -15357,13 +15357,13 @@
         <v>467</v>
       </c>
       <c r="P257" s="1">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="Q257" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R257" s="34">
-        <v>6.7678467690869715E-2</v>
+        <v>6.6448406928515932E-2</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -15413,13 +15413,13 @@
         <v>467</v>
       </c>
       <c r="P258" s="1">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="Q258" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R258" s="34">
-        <v>8.1885700855056517E-2</v>
+        <v>7.6692341486547008E-2</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -15469,13 +15469,13 @@
         <v>467</v>
       </c>
       <c r="P259" s="1">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="Q259" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R259" s="34">
-        <v>6.7458920268180692E-2</v>
+        <v>6.2835704385781829E-2</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -15524,9 +15524,62 @@
       <c r="O260" s="1">
         <v>467</v>
       </c>
-      <c r="R260" s="34"/>
+      <c r="P260" s="1">
+        <v>403</v>
+      </c>
+      <c r="Q260" s="1">
+        <v>10</v>
+      </c>
+      <c r="R260" s="34">
+        <v>5.7877145279757292E-2</v>
+      </c>
     </row>
     <row r="261" spans="1:18">
+      <c r="A261" s="12">
+        <v>44173</v>
+      </c>
+      <c r="B261" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261" s="1">
+        <v>21</v>
+      </c>
+      <c r="E261" s="1">
+        <v>1351</v>
+      </c>
+      <c r="F261" s="1">
+        <v>1351</v>
+      </c>
+      <c r="G261" s="1">
+        <v>260</v>
+      </c>
+      <c r="H261" s="1">
+        <v>192</v>
+      </c>
+      <c r="I261" s="1">
+        <v>8</v>
+      </c>
+      <c r="J261" s="1">
+        <v>13</v>
+      </c>
+      <c r="K261" s="1">
+        <v>1078</v>
+      </c>
+      <c r="L261" s="1">
+        <v>68</v>
+      </c>
+      <c r="M261" s="1">
+        <v>108</v>
+      </c>
+      <c r="N261" s="1">
+        <v>0</v>
+      </c>
+      <c r="O261" s="1">
+        <v>467</v>
+      </c>
       <c r="R261" s="34"/>
     </row>
     <row r="262" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$261</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$262</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="37">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -442,6 +442,13 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>奈良県</t>
+    <rPh sb="0" eb="3">
+      <t>ナラケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -969,10 +976,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D252" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q266" sqref="Q266"/>
+      <selection pane="bottomRight" activeCell="Q264" sqref="Q264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -993,7 +1000,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44173.725411342595</v>
+        <v>44174.718345138892</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15413,13 +15420,13 @@
         <v>467</v>
       </c>
       <c r="P258" s="1">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Q258" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R258" s="34">
-        <v>7.6692341486547008E-2</v>
+        <v>7.7239665607823679E-2</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -15469,13 +15476,13 @@
         <v>467</v>
       </c>
       <c r="P259" s="1">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q259" s="1">
         <v>12</v>
       </c>
       <c r="R259" s="34">
-        <v>6.2835704385781829E-2</v>
+        <v>6.326689432368747E-2</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -15525,13 +15532,13 @@
         <v>467</v>
       </c>
       <c r="P260" s="1">
-        <v>403</v>
+        <v>559</v>
       </c>
       <c r="Q260" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="R260" s="34">
-        <v>5.7877145279757292E-2</v>
+        <v>6.0130219260102105E-2</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -15580,9 +15587,62 @@
       <c r="O261" s="1">
         <v>467</v>
       </c>
-      <c r="R261" s="34"/>
+      <c r="P261" s="1">
+        <v>458</v>
+      </c>
+      <c r="Q261" s="1">
+        <v>20</v>
+      </c>
+      <c r="R261" s="34">
+        <v>5.5726793966951141E-2</v>
+      </c>
     </row>
     <row r="262" spans="1:18">
+      <c r="A262" s="12">
+        <v>44174</v>
+      </c>
+      <c r="B262" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D262" s="1">
+        <v>35</v>
+      </c>
+      <c r="E262" s="1">
+        <v>1386</v>
+      </c>
+      <c r="F262" s="1">
+        <v>1386</v>
+      </c>
+      <c r="G262" s="1">
+        <v>249</v>
+      </c>
+      <c r="H262" s="1">
+        <v>187</v>
+      </c>
+      <c r="I262" s="1">
+        <v>6</v>
+      </c>
+      <c r="J262" s="1">
+        <v>13</v>
+      </c>
+      <c r="K262" s="1">
+        <v>1124</v>
+      </c>
+      <c r="L262" s="1">
+        <v>62</v>
+      </c>
+      <c r="M262" s="1">
+        <v>108</v>
+      </c>
+      <c r="N262" s="1">
+        <v>0</v>
+      </c>
+      <c r="O262" s="1">
+        <v>467</v>
+      </c>
       <c r="R262" s="34"/>
     </row>
     <row r="263" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,9 +16,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$262</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$263</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="37">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -463,7 +463,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -979,7 +979,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q264" sqref="Q264"/>
+      <selection pane="bottomRight" activeCell="K267" sqref="K267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44174.718345138892</v>
+        <v>44175.645716203704</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15646,6 +15646,51 @@
       <c r="R262" s="34"/>
     </row>
     <row r="263" spans="1:18">
+      <c r="A263" s="12">
+        <v>44175</v>
+      </c>
+      <c r="B263" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" s="1">
+        <v>24</v>
+      </c>
+      <c r="E263" s="1">
+        <v>1410</v>
+      </c>
+      <c r="F263" s="1">
+        <v>1410</v>
+      </c>
+      <c r="G263" s="1">
+        <v>255</v>
+      </c>
+      <c r="H263" s="1">
+        <v>186</v>
+      </c>
+      <c r="I263" s="1">
+        <v>6</v>
+      </c>
+      <c r="J263" s="1">
+        <v>13</v>
+      </c>
+      <c r="K263" s="1">
+        <v>1142</v>
+      </c>
+      <c r="L263" s="1">
+        <v>69</v>
+      </c>
+      <c r="M263" s="1">
+        <v>108</v>
+      </c>
+      <c r="N263" s="1">
+        <v>0</v>
+      </c>
+      <c r="O263" s="1">
+        <v>467</v>
+      </c>
       <c r="R263" s="34"/>
     </row>
     <row r="264" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -976,10 +976,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D255" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="I249" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K267" sqref="K267"/>
+      <selection pane="bottomRight" activeCell="S261" sqref="S261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44175.645716203704</v>
+        <v>44175.711805324077</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15532,13 +15532,13 @@
         <v>467</v>
       </c>
       <c r="P260" s="1">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="Q260" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R260" s="34">
-        <v>6.0130219260102105E-2</v>
+        <v>6.0428517593685123E-2</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -15588,13 +15588,13 @@
         <v>467</v>
       </c>
       <c r="P261" s="1">
-        <v>458</v>
+        <v>521</v>
       </c>
       <c r="Q261" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R261" s="34">
-        <v>5.5726793966951141E-2</v>
+        <v>5.8012728247049998E-2</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -15643,7 +15643,15 @@
       <c r="O262" s="1">
         <v>467</v>
       </c>
-      <c r="R262" s="34"/>
+      <c r="P262" s="1">
+        <v>410</v>
+      </c>
+      <c r="Q262" s="1">
+        <v>12</v>
+      </c>
+      <c r="R262" s="34">
+        <v>5.2590071379424889E-2</v>
+      </c>
     </row>
     <row r="263" spans="1:18">
       <c r="A263" s="12">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$263</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$264</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="37">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -976,10 +976,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I249" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S261" sqref="S261"/>
+      <selection pane="bottomRight" activeCell="P264" sqref="P264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44175.711805324077</v>
+        <v>44176.711681250003</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15588,13 +15588,13 @@
         <v>467</v>
       </c>
       <c r="P261" s="1">
-        <v>521</v>
+        <v>574</v>
       </c>
       <c r="Q261" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R261" s="34">
-        <v>5.8012728247049998E-2</v>
+        <v>5.7750950393265346E-2</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -15644,13 +15644,13 @@
         <v>467</v>
       </c>
       <c r="P262" s="1">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="Q262" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="R262" s="34">
-        <v>5.2590071379424889E-2</v>
+        <v>5.3716588110340475E-2</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -15699,9 +15699,62 @@
       <c r="O263" s="1">
         <v>467</v>
       </c>
-      <c r="R263" s="34"/>
+      <c r="P263" s="1">
+        <v>561</v>
+      </c>
+      <c r="Q263" s="1">
+        <v>12</v>
+      </c>
+      <c r="R263" s="34">
+        <v>4.966756013486804E-2</v>
+      </c>
     </row>
     <row r="264" spans="1:18">
+      <c r="A264" s="12">
+        <v>44176</v>
+      </c>
+      <c r="B264" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264" s="1">
+        <v>23</v>
+      </c>
+      <c r="E264" s="1">
+        <v>1433</v>
+      </c>
+      <c r="F264" s="1">
+        <v>1433</v>
+      </c>
+      <c r="G264" s="1">
+        <v>237</v>
+      </c>
+      <c r="H264" s="1">
+        <v>172</v>
+      </c>
+      <c r="I264" s="1">
+        <v>6</v>
+      </c>
+      <c r="J264" s="1">
+        <v>13</v>
+      </c>
+      <c r="K264" s="1">
+        <v>1183</v>
+      </c>
+      <c r="L264" s="1">
+        <v>65</v>
+      </c>
+      <c r="M264" s="1">
+        <v>108</v>
+      </c>
+      <c r="N264" s="1">
+        <v>0</v>
+      </c>
+      <c r="O264" s="1">
+        <v>467</v>
+      </c>
       <c r="R264" s="34"/>
     </row>
     <row r="265" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,9 +16,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$264</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$265</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="37">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -463,7 +463,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -976,10 +976,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P264" sqref="P264"/>
+      <selection pane="bottomRight" activeCell="O265" sqref="O265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44176.711681250003</v>
+        <v>44177.661818865738</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15558,7 +15558,7 @@
         <v>1351</v>
       </c>
       <c r="F261" s="1">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G261" s="1">
         <v>260</v>
@@ -15614,7 +15614,7 @@
         <v>1386</v>
       </c>
       <c r="F262" s="1">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="G262" s="1">
         <v>249</v>
@@ -15670,7 +15670,7 @@
         <v>1410</v>
       </c>
       <c r="F263" s="1">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="G263" s="1">
         <v>255</v>
@@ -15726,7 +15726,7 @@
         <v>1433</v>
       </c>
       <c r="F264" s="1">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="G264" s="1">
         <v>237</v>
@@ -15758,6 +15758,51 @@
       <c r="R264" s="34"/>
     </row>
     <row r="265" spans="1:18">
+      <c r="A265" s="12">
+        <v>44177</v>
+      </c>
+      <c r="B265" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" s="1">
+        <v>32</v>
+      </c>
+      <c r="E265" s="1">
+        <v>1465</v>
+      </c>
+      <c r="F265" s="1">
+        <v>1462</v>
+      </c>
+      <c r="G265" s="1">
+        <v>240</v>
+      </c>
+      <c r="H265" s="1">
+        <v>171</v>
+      </c>
+      <c r="I265" s="1">
+        <v>6</v>
+      </c>
+      <c r="J265" s="1">
+        <v>14</v>
+      </c>
+      <c r="K265" s="1">
+        <v>1211</v>
+      </c>
+      <c r="L265" s="1">
+        <v>69</v>
+      </c>
+      <c r="M265" s="1">
+        <v>108</v>
+      </c>
+      <c r="N265" s="1">
+        <v>0</v>
+      </c>
+      <c r="O265" s="1">
+        <v>467</v>
+      </c>
       <c r="R265" s="34"/>
     </row>
     <row r="266" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,9 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$265</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$266</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="38">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -459,11 +460,18 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>奈良県</t>
+    <rPh sb="0" eb="3">
+      <t>ナラケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -975,11 +983,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB525"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D255" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D257" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O265" sqref="O265"/>
+      <selection pane="bottomRight" activeCell="L266" sqref="L266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1000,7 +1008,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44177.661818865738</v>
+        <v>44178.734037499999</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15806,6 +15814,51 @@
       <c r="R265" s="34"/>
     </row>
     <row r="266" spans="1:18">
+      <c r="A266" s="12">
+        <v>44178</v>
+      </c>
+      <c r="B266" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D266" s="1">
+        <v>28</v>
+      </c>
+      <c r="E266" s="1">
+        <v>1493</v>
+      </c>
+      <c r="F266" s="1">
+        <v>1490</v>
+      </c>
+      <c r="G266" s="1">
+        <v>259</v>
+      </c>
+      <c r="H266" s="1">
+        <v>184</v>
+      </c>
+      <c r="I266" s="1">
+        <v>7</v>
+      </c>
+      <c r="J266" s="1">
+        <v>15</v>
+      </c>
+      <c r="K266" s="1">
+        <v>1219</v>
+      </c>
+      <c r="L266" s="1">
+        <v>75</v>
+      </c>
+      <c r="M266" s="1">
+        <v>108</v>
+      </c>
+      <c r="N266" s="1">
+        <v>0</v>
+      </c>
+      <c r="O266" s="1">
+        <v>467</v>
+      </c>
       <c r="R266" s="34"/>
     </row>
     <row r="267" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$266</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$267</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="39">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -443,6 +443,13 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>奈良県</t>
+    <rPh sb="0" eb="3">
+      <t>ナラケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -984,10 +991,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D257" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K260" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L266" sqref="L266"/>
+      <selection pane="bottomRight" activeCell="R269" sqref="R269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1008,7 +1015,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44178.734037499999</v>
+        <v>44179.716391666669</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15599,10 +15606,10 @@
         <v>574</v>
       </c>
       <c r="Q261" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R261" s="34">
-        <v>5.7750950393265346E-2</v>
+        <v>5.7999830433086152E-2</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -15658,7 +15665,7 @@
         <v>20</v>
       </c>
       <c r="R262" s="34">
-        <v>5.3716588110340475E-2</v>
+        <v>5.3965468150161282E-2</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -15708,13 +15715,13 @@
         <v>467</v>
       </c>
       <c r="P263" s="1">
-        <v>561</v>
+        <v>616</v>
       </c>
       <c r="Q263" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R263" s="34">
-        <v>4.966756013486804E-2</v>
+        <v>5.2658446067955236E-2</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -15763,7 +15770,15 @@
       <c r="O264" s="1">
         <v>467</v>
       </c>
-      <c r="R264" s="34"/>
+      <c r="P264" s="1">
+        <v>529</v>
+      </c>
+      <c r="Q264" s="1">
+        <v>32</v>
+      </c>
+      <c r="R264" s="34">
+        <v>5.451352537387847E-2</v>
+      </c>
     </row>
     <row r="265" spans="1:18">
       <c r="A265" s="12">
@@ -15811,7 +15826,15 @@
       <c r="O265" s="1">
         <v>467</v>
       </c>
-      <c r="R265" s="34"/>
+      <c r="P265" s="1">
+        <v>184</v>
+      </c>
+      <c r="Q265" s="1">
+        <v>18</v>
+      </c>
+      <c r="R265" s="34">
+        <v>5.485920059280612E-2</v>
+      </c>
     </row>
     <row r="266" spans="1:18">
       <c r="A266" s="12">
@@ -15859,9 +15882,62 @@
       <c r="O266" s="1">
         <v>467</v>
       </c>
-      <c r="R266" s="34"/>
+      <c r="P266" s="1">
+        <v>262</v>
+      </c>
+      <c r="Q266" s="1">
+        <v>10</v>
+      </c>
+      <c r="R266" s="34">
+        <v>5.3314678749172249E-2</v>
+      </c>
     </row>
     <row r="267" spans="1:18">
+      <c r="A267" s="12">
+        <v>44179</v>
+      </c>
+      <c r="B267" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D267" s="1">
+        <v>19</v>
+      </c>
+      <c r="E267" s="1">
+        <v>1512</v>
+      </c>
+      <c r="F267" s="1">
+        <v>1509</v>
+      </c>
+      <c r="G267" s="1">
+        <v>259</v>
+      </c>
+      <c r="H267" s="1">
+        <v>193</v>
+      </c>
+      <c r="I267" s="1">
+        <v>7</v>
+      </c>
+      <c r="J267" s="1">
+        <v>15</v>
+      </c>
+      <c r="K267" s="1">
+        <v>1238</v>
+      </c>
+      <c r="L267" s="1">
+        <v>66</v>
+      </c>
+      <c r="M267" s="1">
+        <v>108</v>
+      </c>
+      <c r="N267" s="1">
+        <v>0</v>
+      </c>
+      <c r="O267" s="1">
+        <v>467</v>
+      </c>
       <c r="R267" s="34"/>
     </row>
     <row r="268" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$267</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$269</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="39">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -991,10 +991,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K262" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R269" sqref="R269"/>
+      <selection pane="bottomRight" activeCell="S267" sqref="S267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44179.716391666669</v>
+        <v>44181.735906481481</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15438,10 +15438,10 @@
         <v>283</v>
       </c>
       <c r="Q258" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R258" s="34">
-        <v>7.7239665607823679E-2</v>
+        <v>7.7744461165622752E-2</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -15497,7 +15497,7 @@
         <v>12</v>
       </c>
       <c r="R259" s="34">
-        <v>6.326689432368747E-2</v>
+        <v>6.3771689881486557E-2</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -15553,7 +15553,7 @@
         <v>23</v>
       </c>
       <c r="R260" s="34">
-        <v>6.0428517593685123E-2</v>
+        <v>6.093331315148421E-2</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -15609,7 +15609,7 @@
         <v>33</v>
       </c>
       <c r="R261" s="34">
-        <v>5.7999830433086152E-2</v>
+        <v>5.850462599088524E-2</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -15659,13 +15659,13 @@
         <v>467</v>
       </c>
       <c r="P262" s="1">
-        <v>513</v>
+        <v>554</v>
       </c>
       <c r="Q262" s="1">
         <v>20</v>
       </c>
       <c r="R262" s="34">
-        <v>5.3965468150161282E-2</v>
+        <v>5.405808203034073E-2</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -15715,13 +15715,13 @@
         <v>467</v>
       </c>
       <c r="P263" s="1">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="Q263" s="1">
         <v>25</v>
       </c>
       <c r="R263" s="34">
-        <v>5.2658446067955236E-2</v>
+        <v>5.2464750138015347E-2</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -15771,13 +15771,13 @@
         <v>467</v>
       </c>
       <c r="P264" s="1">
-        <v>529</v>
+        <v>813</v>
       </c>
       <c r="Q264" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R264" s="34">
-        <v>5.451352537387847E-2</v>
+        <v>5.1652532989715602E-2</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -15827,13 +15827,13 @@
         <v>467</v>
       </c>
       <c r="P265" s="1">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="Q265" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R265" s="34">
-        <v>5.485920059280612E-2</v>
+        <v>4.7246880003189488E-2</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -15883,13 +15883,13 @@
         <v>467</v>
       </c>
       <c r="P266" s="1">
-        <v>262</v>
+        <v>324</v>
       </c>
       <c r="Q266" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R266" s="34">
-        <v>5.3314678749172249E-2</v>
+        <v>4.5540800746089828E-2</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -15938,12 +15938,118 @@
       <c r="O267" s="1">
         <v>467</v>
       </c>
-      <c r="R267" s="34"/>
+      <c r="P267" s="1">
+        <v>489</v>
+      </c>
+      <c r="Q267" s="1">
+        <v>24</v>
+      </c>
+      <c r="R267" s="34">
+        <v>4.688716963000894E-2</v>
+      </c>
     </row>
     <row r="268" spans="1:18">
-      <c r="R268" s="34"/>
+      <c r="A268" s="12">
+        <v>44180</v>
+      </c>
+      <c r="B268" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" s="1">
+        <v>18</v>
+      </c>
+      <c r="E268" s="1">
+        <v>1530</v>
+      </c>
+      <c r="F268" s="1">
+        <v>1526</v>
+      </c>
+      <c r="G268" s="1">
+        <v>256</v>
+      </c>
+      <c r="H268" s="1">
+        <v>189</v>
+      </c>
+      <c r="I268" s="1">
+        <v>6</v>
+      </c>
+      <c r="J268" s="1">
+        <v>15</v>
+      </c>
+      <c r="K268" s="1">
+        <v>1259</v>
+      </c>
+      <c r="L268" s="1">
+        <v>67</v>
+      </c>
+      <c r="M268" s="1">
+        <v>108</v>
+      </c>
+      <c r="N268" s="1">
+        <v>0</v>
+      </c>
+      <c r="O268" s="1">
+        <v>467</v>
+      </c>
+      <c r="P268" s="1">
+        <v>428</v>
+      </c>
+      <c r="Q268" s="1">
+        <v>12</v>
+      </c>
+      <c r="R268" s="34">
+        <v>4.2679468769860916E-2</v>
+      </c>
     </row>
     <row r="269" spans="1:18">
+      <c r="A269" s="12">
+        <v>44181</v>
+      </c>
+      <c r="B269" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269" s="1">
+        <v>24</v>
+      </c>
+      <c r="E269" s="1">
+        <v>1554</v>
+      </c>
+      <c r="F269" s="1">
+        <v>1550</v>
+      </c>
+      <c r="G269" s="1">
+        <v>229</v>
+      </c>
+      <c r="H269" s="1">
+        <v>161</v>
+      </c>
+      <c r="I269" s="1">
+        <v>9</v>
+      </c>
+      <c r="J269" s="1">
+        <v>15</v>
+      </c>
+      <c r="K269" s="1">
+        <v>1310</v>
+      </c>
+      <c r="L269" s="1">
+        <v>68</v>
+      </c>
+      <c r="M269" s="1">
+        <v>108</v>
+      </c>
+      <c r="N269" s="1">
+        <v>0</v>
+      </c>
+      <c r="O269" s="1">
+        <v>467</v>
+      </c>
       <c r="R269" s="34"/>
     </row>
     <row r="270" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$269</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$270</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="39">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -991,10 +991,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K262" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="I262" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S267" sqref="S267"/>
+      <selection pane="bottomRight" activeCell="T269" sqref="T269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44181.735906481481</v>
+        <v>44182.713133101854</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15942,10 +15942,10 @@
         <v>489</v>
       </c>
       <c r="Q267" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R267" s="34">
-        <v>4.688716963000894E-2</v>
+        <v>4.7179311026444827E-2</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15995,13 +15995,13 @@
         <v>467</v>
       </c>
       <c r="P268" s="1">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="Q268" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="R268" s="34">
-        <v>4.2679468769860916E-2</v>
+        <v>4.551648805296956E-2</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -16050,9 +16050,62 @@
       <c r="O269" s="1">
         <v>467</v>
       </c>
-      <c r="R269" s="34"/>
+      <c r="P269" s="1">
+        <v>341</v>
+      </c>
+      <c r="Q269" s="1">
+        <v>11</v>
+      </c>
+      <c r="R269" s="34">
+        <v>4.4967485407775003E-2</v>
+      </c>
     </row>
     <row r="270" spans="1:18">
+      <c r="A270" s="12">
+        <v>44182</v>
+      </c>
+      <c r="B270" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270" s="1">
+        <v>24</v>
+      </c>
+      <c r="E270" s="1">
+        <v>1578</v>
+      </c>
+      <c r="F270" s="1">
+        <v>1570</v>
+      </c>
+      <c r="G270" s="1">
+        <v>227</v>
+      </c>
+      <c r="H270" s="1">
+        <v>161</v>
+      </c>
+      <c r="I270" s="1">
+        <v>10</v>
+      </c>
+      <c r="J270" s="1">
+        <v>15</v>
+      </c>
+      <c r="K270" s="1">
+        <v>1335</v>
+      </c>
+      <c r="L270" s="1">
+        <v>66</v>
+      </c>
+      <c r="M270" s="1">
+        <v>108</v>
+      </c>
+      <c r="N270" s="1">
+        <v>0</v>
+      </c>
+      <c r="O270" s="1">
+        <v>467</v>
+      </c>
       <c r="R270" s="34"/>
     </row>
     <row r="271" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$270</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$272</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="39">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -990,11 +990,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB525"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I262" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D268" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T269" sqref="T269"/>
+      <selection pane="bottomRight" activeCell="J275" sqref="J275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44182.713133101854</v>
+        <v>44184.722245833334</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -15796,7 +15796,7 @@
       <c r="E265" s="1">
         <v>1465</v>
       </c>
-      <c r="F265" s="1">
+      <c r="F265" s="18">
         <v>1462</v>
       </c>
       <c r="G265" s="1">
@@ -15852,7 +15852,7 @@
       <c r="E266" s="1">
         <v>1493</v>
       </c>
-      <c r="F266" s="1">
+      <c r="F266" s="18">
         <v>1490</v>
       </c>
       <c r="G266" s="1">
@@ -15908,7 +15908,7 @@
       <c r="E267" s="1">
         <v>1512</v>
       </c>
-      <c r="F267" s="1">
+      <c r="F267" s="18">
         <v>1509</v>
       </c>
       <c r="G267" s="1">
@@ -15964,7 +15964,7 @@
       <c r="E268" s="1">
         <v>1530</v>
       </c>
-      <c r="F268" s="1">
+      <c r="F268" s="18">
         <v>1526</v>
       </c>
       <c r="G268" s="1">
@@ -15995,13 +15995,13 @@
         <v>467</v>
       </c>
       <c r="P268" s="1">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="Q268" s="1">
         <v>21</v>
       </c>
       <c r="R268" s="34">
-        <v>4.551648805296956E-2</v>
+        <v>4.5390252581737234E-2</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -16020,7 +16020,7 @@
       <c r="E269" s="1">
         <v>1554</v>
       </c>
-      <c r="F269" s="1">
+      <c r="F269" s="18">
         <v>1550</v>
       </c>
       <c r="G269" s="1">
@@ -16051,13 +16051,13 @@
         <v>467</v>
       </c>
       <c r="P269" s="1">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="Q269" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="R269" s="34">
-        <v>4.4967485407775003E-2</v>
+        <v>4.7710326119401847E-2</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -16071,13 +16071,13 @@
         <v>2</v>
       </c>
       <c r="D270" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E270" s="1">
-        <v>1578</v>
-      </c>
-      <c r="F270" s="1">
-        <v>1570</v>
+        <v>1577</v>
+      </c>
+      <c r="F270" s="18">
+        <v>1573</v>
       </c>
       <c r="G270" s="1">
         <v>227</v>
@@ -16106,12 +16106,110 @@
       <c r="O270" s="1">
         <v>467</v>
       </c>
-      <c r="R270" s="34"/>
+      <c r="P270" s="1">
+        <v>467</v>
+      </c>
+      <c r="Q270" s="1">
+        <v>15</v>
+      </c>
+      <c r="R270" s="34">
+        <v>4.6787421467018246E-2</v>
+      </c>
     </row>
     <row r="271" spans="1:18">
+      <c r="A271" s="12">
+        <v>44183</v>
+      </c>
+      <c r="B271" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271" s="1">
+        <v>23</v>
+      </c>
+      <c r="E271" s="1">
+        <v>1600</v>
+      </c>
+      <c r="F271" s="1">
+        <v>1596</v>
+      </c>
+      <c r="G271" s="1">
+        <v>222</v>
+      </c>
+      <c r="H271" s="1">
+        <v>162</v>
+      </c>
+      <c r="I271" s="1">
+        <v>9</v>
+      </c>
+      <c r="J271" s="1">
+        <v>15</v>
+      </c>
+      <c r="K271" s="1">
+        <v>1363</v>
+      </c>
+      <c r="L271" s="1">
+        <v>60</v>
+      </c>
+      <c r="M271" s="1">
+        <v>108</v>
+      </c>
+      <c r="N271" s="1">
+        <v>0</v>
+      </c>
+      <c r="O271" s="1">
+        <v>467</v>
+      </c>
       <c r="R271" s="34"/>
     </row>
     <row r="272" spans="1:18">
+      <c r="A272" s="12">
+        <v>44184</v>
+      </c>
+      <c r="B272" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272" s="1">
+        <v>28</v>
+      </c>
+      <c r="E272" s="1">
+        <v>1628</v>
+      </c>
+      <c r="F272" s="1">
+        <v>1624</v>
+      </c>
+      <c r="G272" s="1">
+        <v>232</v>
+      </c>
+      <c r="H272" s="1">
+        <v>10</v>
+      </c>
+      <c r="I272" s="1">
+        <v>9</v>
+      </c>
+      <c r="J272" s="1">
+        <v>16</v>
+      </c>
+      <c r="K272" s="1">
+        <v>1380</v>
+      </c>
+      <c r="L272" s="1">
+        <v>62</v>
+      </c>
+      <c r="M272" s="1">
+        <v>108</v>
+      </c>
+      <c r="N272" s="1">
+        <v>0</v>
+      </c>
+      <c r="O272" s="1">
+        <v>467</v>
+      </c>
       <c r="R272" s="34"/>
     </row>
     <row r="273" spans="18:18">
@@ -16877,13 +16975,14 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ＭＳ ゴシック,標準"&amp;9&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
+  <rowBreaks count="3" manualBreakCount="3">
     <brk id="109" max="20" man="1"/>
     <brk id="167" max="20" man="1"/>
+    <brk id="219" max="20" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$272</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$273</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="39">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -645,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -771,6 +771,9 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -991,10 +994,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E263" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J275" sqref="J275"/>
+      <selection pane="bottomRight" activeCell="R272" sqref="R272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1015,7 +1018,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44184.722245833334</v>
+        <v>44185.708206365744</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -9462,8 +9465,8 @@
       <c r="E152" s="1">
         <v>472</v>
       </c>
-      <c r="F152" s="1">
-        <v>472</v>
+      <c r="F152" s="38">
+        <v>471</v>
       </c>
       <c r="G152" s="1">
         <v>136</v>
@@ -9518,8 +9521,8 @@
       <c r="E153" s="1">
         <v>482</v>
       </c>
-      <c r="F153" s="1">
-        <v>482</v>
+      <c r="F153" s="38">
+        <v>479</v>
       </c>
       <c r="G153" s="1">
         <v>137</v>
@@ -9574,8 +9577,8 @@
       <c r="E154" s="1">
         <v>490</v>
       </c>
-      <c r="F154" s="1">
-        <v>490</v>
+      <c r="F154" s="38">
+        <v>487</v>
       </c>
       <c r="G154" s="1">
         <v>144</v>
@@ -9630,8 +9633,8 @@
       <c r="E155" s="1">
         <v>492</v>
       </c>
-      <c r="F155" s="1">
-        <v>492</v>
+      <c r="F155" s="38">
+        <v>489</v>
       </c>
       <c r="G155" s="1">
         <v>130</v>
@@ -9686,8 +9689,8 @@
       <c r="E156" s="1">
         <v>498</v>
       </c>
-      <c r="F156" s="1">
-        <v>498</v>
+      <c r="F156" s="38">
+        <v>495</v>
       </c>
       <c r="G156" s="1">
         <v>117</v>
@@ -9742,8 +9745,8 @@
       <c r="E157" s="1">
         <v>502</v>
       </c>
-      <c r="F157" s="1">
-        <v>502</v>
+      <c r="F157" s="38">
+        <v>499</v>
       </c>
       <c r="G157" s="1">
         <v>108</v>
@@ -9798,8 +9801,8 @@
       <c r="E158" s="1">
         <v>506</v>
       </c>
-      <c r="F158" s="1">
-        <v>506</v>
+      <c r="F158" s="38">
+        <v>503</v>
       </c>
       <c r="G158" s="1">
         <v>98</v>
@@ -9854,8 +9857,8 @@
       <c r="E159" s="1">
         <v>508</v>
       </c>
-      <c r="F159" s="1">
-        <v>508</v>
+      <c r="F159" s="38">
+        <v>505</v>
       </c>
       <c r="G159" s="1">
         <v>71</v>
@@ -9910,8 +9913,8 @@
       <c r="E160" s="1">
         <v>510</v>
       </c>
-      <c r="F160" s="1">
-        <v>510</v>
+      <c r="F160" s="38">
+        <v>507</v>
       </c>
       <c r="G160" s="1">
         <v>63</v>
@@ -9966,8 +9969,8 @@
       <c r="E161" s="1">
         <v>515</v>
       </c>
-      <c r="F161" s="1">
-        <v>515</v>
+      <c r="F161" s="38">
+        <v>512</v>
       </c>
       <c r="G161" s="1">
         <v>61</v>
@@ -10022,8 +10025,8 @@
       <c r="E162" s="1">
         <v>518</v>
       </c>
-      <c r="F162" s="1">
-        <v>518</v>
+      <c r="F162" s="38">
+        <v>515</v>
       </c>
       <c r="G162" s="1">
         <v>57</v>
@@ -10078,8 +10081,8 @@
       <c r="E163" s="1">
         <v>523</v>
       </c>
-      <c r="F163" s="1">
-        <v>523</v>
+      <c r="F163" s="38">
+        <v>520</v>
       </c>
       <c r="G163" s="1">
         <v>44</v>
@@ -10137,8 +10140,8 @@
       <c r="E164" s="1">
         <v>524</v>
       </c>
-      <c r="F164" s="1">
-        <v>524</v>
+      <c r="F164" s="38">
+        <v>521</v>
       </c>
       <c r="G164" s="1">
         <v>39</v>
@@ -10193,8 +10196,8 @@
       <c r="E165" s="1">
         <v>526</v>
       </c>
-      <c r="F165" s="1">
-        <v>526</v>
+      <c r="F165" s="38">
+        <v>523</v>
       </c>
       <c r="G165" s="1">
         <v>38</v>
@@ -10249,8 +10252,8 @@
       <c r="E166" s="1">
         <v>531</v>
       </c>
-      <c r="F166" s="1">
-        <v>531</v>
+      <c r="F166" s="38">
+        <v>528</v>
       </c>
       <c r="G166" s="1">
         <v>41</v>
@@ -10305,8 +10308,8 @@
       <c r="E167" s="1">
         <v>534</v>
       </c>
-      <c r="F167" s="1">
-        <v>534</v>
+      <c r="F167" s="38">
+        <v>531</v>
       </c>
       <c r="G167" s="1">
         <v>43</v>
@@ -10361,8 +10364,8 @@
       <c r="E168" s="1">
         <v>538</v>
       </c>
-      <c r="F168" s="1">
-        <v>538</v>
+      <c r="F168" s="38">
+        <v>535</v>
       </c>
       <c r="G168" s="1">
         <v>43</v>
@@ -10417,8 +10420,8 @@
       <c r="E169" s="1">
         <v>538</v>
       </c>
-      <c r="F169" s="1">
-        <v>538</v>
+      <c r="F169" s="38">
+        <v>535</v>
       </c>
       <c r="G169" s="1">
         <v>41</v>
@@ -10473,8 +10476,8 @@
       <c r="E170" s="1">
         <v>539</v>
       </c>
-      <c r="F170" s="1">
-        <v>539</v>
+      <c r="F170" s="38">
+        <v>536</v>
       </c>
       <c r="G170" s="1">
         <v>36</v>
@@ -10529,8 +10532,8 @@
       <c r="E171" s="1">
         <v>540</v>
       </c>
-      <c r="F171" s="1">
-        <v>540</v>
+      <c r="F171" s="38">
+        <v>537</v>
       </c>
       <c r="G171" s="1">
         <v>35</v>
@@ -10585,8 +10588,8 @@
       <c r="E172" s="1">
         <v>542</v>
       </c>
-      <c r="F172" s="1">
-        <v>542</v>
+      <c r="F172" s="38">
+        <v>539</v>
       </c>
       <c r="G172" s="1">
         <v>29</v>
@@ -10641,8 +10644,8 @@
       <c r="E173" s="1">
         <v>544</v>
       </c>
-      <c r="F173" s="1">
-        <v>544</v>
+      <c r="F173" s="38">
+        <v>541</v>
       </c>
       <c r="G173" s="1">
         <v>29</v>
@@ -10697,8 +10700,8 @@
       <c r="E174" s="1">
         <v>545</v>
       </c>
-      <c r="F174" s="1">
-        <v>545</v>
+      <c r="F174" s="38">
+        <v>542</v>
       </c>
       <c r="G174" s="1">
         <v>28</v>
@@ -10753,8 +10756,8 @@
       <c r="E175" s="1">
         <v>545</v>
       </c>
-      <c r="F175" s="1">
-        <v>545</v>
+      <c r="F175" s="38">
+        <v>542</v>
       </c>
       <c r="G175" s="1">
         <v>28</v>
@@ -10809,8 +10812,8 @@
       <c r="E176" s="1">
         <v>546</v>
       </c>
-      <c r="F176" s="1">
-        <v>546</v>
+      <c r="F176" s="38">
+        <v>543</v>
       </c>
       <c r="G176" s="1">
         <v>24</v>
@@ -10865,8 +10868,8 @@
       <c r="E177" s="1">
         <v>550</v>
       </c>
-      <c r="F177" s="1">
-        <v>550</v>
+      <c r="F177" s="38">
+        <v>547</v>
       </c>
       <c r="G177" s="1">
         <v>21</v>
@@ -10921,8 +10924,8 @@
       <c r="E178" s="1">
         <v>550</v>
       </c>
-      <c r="F178" s="1">
-        <v>550</v>
+      <c r="F178" s="38">
+        <v>547</v>
       </c>
       <c r="G178" s="1">
         <v>19</v>
@@ -10977,8 +10980,8 @@
       <c r="E179" s="1">
         <v>551</v>
       </c>
-      <c r="F179" s="1">
-        <v>551</v>
+      <c r="F179" s="38">
+        <v>548</v>
       </c>
       <c r="G179" s="1">
         <v>19</v>
@@ -11033,8 +11036,8 @@
       <c r="E180" s="1">
         <v>551</v>
       </c>
-      <c r="F180" s="1">
-        <v>551</v>
+      <c r="F180" s="38">
+        <v>548</v>
       </c>
       <c r="G180" s="1">
         <v>15</v>
@@ -11089,8 +11092,8 @@
       <c r="E181" s="1">
         <v>552</v>
       </c>
-      <c r="F181" s="1">
-        <v>552</v>
+      <c r="F181" s="38">
+        <v>549</v>
       </c>
       <c r="G181" s="1">
         <v>16</v>
@@ -11145,8 +11148,8 @@
       <c r="E182" s="1">
         <v>554</v>
       </c>
-      <c r="F182" s="1">
-        <v>554</v>
+      <c r="F182" s="38">
+        <v>551</v>
       </c>
       <c r="G182" s="1">
         <v>16</v>
@@ -11201,8 +11204,8 @@
       <c r="E183" s="1">
         <v>555</v>
       </c>
-      <c r="F183" s="1">
-        <v>555</v>
+      <c r="F183" s="38">
+        <v>552</v>
       </c>
       <c r="G183" s="1">
         <v>17</v>
@@ -11257,8 +11260,8 @@
       <c r="E184" s="1">
         <v>556</v>
       </c>
-      <c r="F184" s="1">
-        <v>556</v>
+      <c r="F184" s="38">
+        <v>553</v>
       </c>
       <c r="G184" s="1">
         <v>18</v>
@@ -11313,8 +11316,8 @@
       <c r="E185" s="1">
         <v>558</v>
       </c>
-      <c r="F185" s="1">
-        <v>558</v>
+      <c r="F185" s="38">
+        <v>555</v>
       </c>
       <c r="G185" s="1">
         <v>18</v>
@@ -11369,8 +11372,8 @@
       <c r="E186" s="1">
         <v>558</v>
       </c>
-      <c r="F186" s="1">
-        <v>558</v>
+      <c r="F186" s="38">
+        <v>555</v>
       </c>
       <c r="G186" s="1">
         <v>13</v>
@@ -11425,8 +11428,8 @@
       <c r="E187" s="1">
         <v>560</v>
       </c>
-      <c r="F187" s="1">
-        <v>560</v>
+      <c r="F187" s="38">
+        <v>557</v>
       </c>
       <c r="G187" s="1">
         <v>13</v>
@@ -11481,8 +11484,8 @@
       <c r="E188" s="1">
         <v>562</v>
       </c>
-      <c r="F188" s="1">
-        <v>562</v>
+      <c r="F188" s="38">
+        <v>559</v>
       </c>
       <c r="G188" s="1">
         <v>15</v>
@@ -11537,8 +11540,8 @@
       <c r="E189" s="1">
         <v>562</v>
       </c>
-      <c r="F189" s="1">
-        <v>562</v>
+      <c r="F189" s="38">
+        <v>559</v>
       </c>
       <c r="G189" s="1">
         <v>14</v>
@@ -11593,8 +11596,8 @@
       <c r="E190" s="1">
         <v>567</v>
       </c>
-      <c r="F190" s="1">
-        <v>567</v>
+      <c r="F190" s="38">
+        <v>564</v>
       </c>
       <c r="G190" s="1">
         <v>17</v>
@@ -11649,8 +11652,8 @@
       <c r="E191" s="1">
         <v>568</v>
       </c>
-      <c r="F191" s="1">
-        <v>568</v>
+      <c r="F191" s="38">
+        <v>565</v>
       </c>
       <c r="G191" s="1">
         <v>18</v>
@@ -11705,8 +11708,8 @@
       <c r="E192" s="1">
         <v>569</v>
       </c>
-      <c r="F192" s="1">
-        <v>569</v>
+      <c r="F192" s="38">
+        <v>566</v>
       </c>
       <c r="G192" s="1">
         <v>15</v>
@@ -11761,8 +11764,8 @@
       <c r="E193" s="1">
         <v>574</v>
       </c>
-      <c r="F193" s="1">
-        <v>574</v>
+      <c r="F193" s="38">
+        <v>571</v>
       </c>
       <c r="G193" s="18">
         <v>17</v>
@@ -11817,8 +11820,8 @@
       <c r="E194" s="1">
         <v>575</v>
       </c>
-      <c r="F194" s="1">
-        <v>575</v>
+      <c r="F194" s="38">
+        <v>572</v>
       </c>
       <c r="G194" s="18">
         <v>17</v>
@@ -11873,8 +11876,8 @@
       <c r="E195" s="1">
         <v>580</v>
       </c>
-      <c r="F195" s="1">
-        <v>580</v>
+      <c r="F195" s="38">
+        <v>577</v>
       </c>
       <c r="G195" s="1">
         <v>22</v>
@@ -11929,8 +11932,8 @@
       <c r="E196" s="1">
         <v>581</v>
       </c>
-      <c r="F196" s="1">
-        <v>581</v>
+      <c r="F196" s="38">
+        <v>578</v>
       </c>
       <c r="G196" s="1">
         <v>22</v>
@@ -11985,8 +11988,8 @@
       <c r="E197" s="1">
         <v>581</v>
       </c>
-      <c r="F197" s="1">
-        <v>581</v>
+      <c r="F197" s="38">
+        <v>578</v>
       </c>
       <c r="G197" s="1">
         <v>22</v>
@@ -12044,8 +12047,8 @@
       <c r="E198" s="1">
         <v>581</v>
       </c>
-      <c r="F198" s="1">
-        <v>581</v>
+      <c r="F198" s="38">
+        <v>578</v>
       </c>
       <c r="G198" s="1">
         <v>19</v>
@@ -12100,8 +12103,8 @@
       <c r="E199" s="1">
         <v>583</v>
       </c>
-      <c r="F199" s="1">
-        <v>583</v>
+      <c r="F199" s="38">
+        <v>580</v>
       </c>
       <c r="G199" s="1">
         <v>18</v>
@@ -12156,8 +12159,8 @@
       <c r="E200" s="1">
         <v>587</v>
       </c>
-      <c r="F200" s="1">
-        <v>587</v>
+      <c r="F200" s="38">
+        <v>584</v>
       </c>
       <c r="G200" s="1">
         <v>20</v>
@@ -12212,8 +12215,8 @@
       <c r="E201" s="1">
         <v>595</v>
       </c>
-      <c r="F201" s="1">
-        <v>595</v>
+      <c r="F201" s="38">
+        <v>592</v>
       </c>
       <c r="G201" s="1">
         <v>27</v>
@@ -12268,8 +12271,8 @@
       <c r="E202" s="1">
         <v>595</v>
       </c>
-      <c r="F202" s="1">
-        <v>595</v>
+      <c r="F202" s="38">
+        <v>592</v>
       </c>
       <c r="G202" s="1">
         <v>26</v>
@@ -12324,8 +12327,8 @@
       <c r="E203" s="1">
         <v>599</v>
       </c>
-      <c r="F203" s="1">
-        <v>599</v>
+      <c r="F203" s="38">
+        <v>596</v>
       </c>
       <c r="G203" s="1">
         <v>27</v>
@@ -12380,8 +12383,8 @@
       <c r="E204" s="1">
         <v>600</v>
       </c>
-      <c r="F204" s="1">
-        <v>600</v>
+      <c r="F204" s="38">
+        <v>597</v>
       </c>
       <c r="G204" s="1">
         <v>26</v>
@@ -12436,8 +12439,8 @@
       <c r="E205" s="1">
         <v>603</v>
       </c>
-      <c r="F205" s="1">
-        <v>603</v>
+      <c r="F205" s="38">
+        <v>600</v>
       </c>
       <c r="G205" s="1">
         <v>26</v>
@@ -12492,8 +12495,8 @@
       <c r="E206" s="1">
         <v>605</v>
       </c>
-      <c r="F206" s="1">
-        <v>605</v>
+      <c r="F206" s="38">
+        <v>602</v>
       </c>
       <c r="G206" s="18">
         <v>27</v>
@@ -12548,8 +12551,8 @@
       <c r="E207" s="1">
         <v>607</v>
       </c>
-      <c r="F207" s="1">
-        <v>607</v>
+      <c r="F207" s="38">
+        <v>604</v>
       </c>
       <c r="G207" s="1">
         <v>27</v>
@@ -12604,8 +12607,8 @@
       <c r="E208" s="1">
         <v>610</v>
       </c>
-      <c r="F208" s="1">
-        <v>610</v>
+      <c r="F208" s="38">
+        <v>607</v>
       </c>
       <c r="G208" s="1">
         <v>29</v>
@@ -12660,8 +12663,8 @@
       <c r="E209" s="1">
         <v>613</v>
       </c>
-      <c r="F209" s="1">
-        <v>613</v>
+      <c r="F209" s="38">
+        <v>610</v>
       </c>
       <c r="G209" s="1">
         <v>30</v>
@@ -12716,8 +12719,8 @@
       <c r="E210" s="1">
         <v>613</v>
       </c>
-      <c r="F210" s="1">
-        <v>613</v>
+      <c r="F210" s="38">
+        <v>610</v>
       </c>
       <c r="G210" s="1">
         <v>28</v>
@@ -12772,8 +12775,8 @@
       <c r="E211" s="1">
         <v>613</v>
       </c>
-      <c r="F211" s="1">
-        <v>613</v>
+      <c r="F211" s="38">
+        <v>610</v>
       </c>
       <c r="G211" s="1">
         <v>23</v>
@@ -12828,8 +12831,8 @@
       <c r="E212" s="1">
         <v>615</v>
       </c>
-      <c r="F212" s="1">
-        <v>615</v>
+      <c r="F212" s="38">
+        <v>612</v>
       </c>
       <c r="G212" s="1">
         <v>20</v>
@@ -12884,8 +12887,8 @@
       <c r="E213" s="1">
         <v>618</v>
       </c>
-      <c r="F213" s="1">
-        <v>618</v>
+      <c r="F213" s="38">
+        <v>615</v>
       </c>
       <c r="G213" s="1">
         <v>21</v>
@@ -12940,8 +12943,8 @@
       <c r="E214" s="1">
         <v>621</v>
       </c>
-      <c r="F214" s="1">
-        <v>621</v>
+      <c r="F214" s="38">
+        <v>618</v>
       </c>
       <c r="G214" s="1">
         <v>23</v>
@@ -12996,8 +12999,8 @@
       <c r="E215" s="1">
         <v>624</v>
       </c>
-      <c r="F215" s="1">
-        <v>624</v>
+      <c r="F215" s="38">
+        <v>621</v>
       </c>
       <c r="G215" s="1">
         <v>26</v>
@@ -13052,8 +13055,8 @@
       <c r="E216" s="1">
         <v>625</v>
       </c>
-      <c r="F216" s="1">
-        <v>625</v>
+      <c r="F216" s="38">
+        <v>622</v>
       </c>
       <c r="G216" s="1">
         <v>24</v>
@@ -13108,8 +13111,8 @@
       <c r="E217" s="1">
         <v>625</v>
       </c>
-      <c r="F217" s="1">
-        <v>625</v>
+      <c r="F217" s="38">
+        <v>622</v>
       </c>
       <c r="G217" s="1">
         <v>23</v>
@@ -13164,8 +13167,8 @@
       <c r="E218" s="1">
         <v>626</v>
       </c>
-      <c r="F218" s="1">
-        <v>626</v>
+      <c r="F218" s="38">
+        <v>623</v>
       </c>
       <c r="G218" s="1">
         <v>19</v>
@@ -13220,8 +13223,8 @@
       <c r="E219" s="1">
         <v>626</v>
       </c>
-      <c r="F219" s="1">
-        <v>626</v>
+      <c r="F219" s="38">
+        <v>623</v>
       </c>
       <c r="G219" s="1">
         <v>15</v>
@@ -13276,8 +13279,8 @@
       <c r="E220" s="1">
         <v>631</v>
       </c>
-      <c r="F220" s="1">
-        <v>631</v>
+      <c r="F220" s="38">
+        <v>628</v>
       </c>
       <c r="G220" s="1">
         <v>18</v>
@@ -13332,8 +13335,8 @@
       <c r="E221" s="1">
         <v>635</v>
       </c>
-      <c r="F221" s="1">
-        <v>635</v>
+      <c r="F221" s="38">
+        <v>632</v>
       </c>
       <c r="G221" s="1">
         <v>19</v>
@@ -13388,8 +13391,8 @@
       <c r="E222" s="1">
         <v>639</v>
       </c>
-      <c r="F222" s="1">
-        <v>639</v>
+      <c r="F222" s="38">
+        <v>636</v>
       </c>
       <c r="G222" s="1">
         <v>22</v>
@@ -13444,8 +13447,8 @@
       <c r="E223" s="1">
         <v>648</v>
       </c>
-      <c r="F223" s="1">
-        <v>648</v>
+      <c r="F223" s="38">
+        <v>645</v>
       </c>
       <c r="G223" s="1">
         <v>29</v>
@@ -13500,8 +13503,8 @@
       <c r="E224" s="1">
         <v>659</v>
       </c>
-      <c r="F224" s="1">
-        <v>659</v>
+      <c r="F224" s="38">
+        <v>656</v>
       </c>
       <c r="G224" s="1">
         <v>40</v>
@@ -13556,8 +13559,8 @@
       <c r="E225" s="1">
         <v>664</v>
       </c>
-      <c r="F225" s="1">
-        <v>664</v>
+      <c r="F225" s="38">
+        <v>661</v>
       </c>
       <c r="G225" s="1">
         <v>43</v>
@@ -13612,8 +13615,8 @@
       <c r="E226" s="1">
         <v>675</v>
       </c>
-      <c r="F226" s="1">
-        <v>675</v>
+      <c r="F226" s="38">
+        <v>672</v>
       </c>
       <c r="G226" s="1">
         <v>51</v>
@@ -13668,8 +13671,8 @@
       <c r="E227" s="1">
         <v>679</v>
       </c>
-      <c r="F227" s="1">
-        <v>679</v>
+      <c r="F227" s="38">
+        <v>676</v>
       </c>
       <c r="G227" s="1">
         <v>54</v>
@@ -13724,8 +13727,8 @@
       <c r="E228" s="1">
         <v>694</v>
       </c>
-      <c r="F228" s="1">
-        <v>694</v>
+      <c r="F228" s="38">
+        <v>691</v>
       </c>
       <c r="G228" s="1">
         <v>66</v>
@@ -13780,8 +13783,8 @@
       <c r="E229" s="1">
         <v>713</v>
       </c>
-      <c r="F229" s="1">
-        <v>713</v>
+      <c r="F229" s="38">
+        <v>710</v>
       </c>
       <c r="G229" s="1">
         <v>81</v>
@@ -13836,8 +13839,8 @@
       <c r="E230" s="1">
         <v>726</v>
       </c>
-      <c r="F230" s="1">
-        <v>726</v>
+      <c r="F230" s="38">
+        <v>723</v>
       </c>
       <c r="G230" s="1">
         <v>93</v>
@@ -13892,8 +13895,8 @@
       <c r="E231" s="1">
         <v>737</v>
       </c>
-      <c r="F231" s="1">
-        <v>737</v>
+      <c r="F231" s="38">
+        <v>734</v>
       </c>
       <c r="G231" s="1">
         <v>98</v>
@@ -13948,8 +13951,8 @@
       <c r="E232" s="1">
         <v>745</v>
       </c>
-      <c r="F232" s="1">
-        <v>745</v>
+      <c r="F232" s="38">
+        <v>742</v>
       </c>
       <c r="G232" s="1">
         <v>98</v>
@@ -14004,8 +14007,8 @@
       <c r="E233" s="1">
         <v>754</v>
       </c>
-      <c r="F233" s="1">
-        <v>754</v>
+      <c r="F233" s="38">
+        <v>751</v>
       </c>
       <c r="G233" s="1">
         <v>103</v>
@@ -14060,8 +14063,8 @@
       <c r="E234" s="1">
         <v>771</v>
       </c>
-      <c r="F234" s="1">
-        <v>771</v>
+      <c r="F234" s="38">
+        <v>768</v>
       </c>
       <c r="G234" s="1">
         <v>108</v>
@@ -14116,8 +14119,8 @@
       <c r="E235" s="1">
         <v>788</v>
       </c>
-      <c r="F235" s="1">
-        <v>778</v>
+      <c r="F235" s="38">
+        <v>785</v>
       </c>
       <c r="G235" s="1">
         <v>117</v>
@@ -14172,8 +14175,8 @@
       <c r="E236" s="1">
         <v>812</v>
       </c>
-      <c r="F236" s="1">
-        <v>812</v>
+      <c r="F236" s="38">
+        <v>809</v>
       </c>
       <c r="G236" s="1">
         <v>135</v>
@@ -14228,8 +14231,8 @@
       <c r="E237" s="1">
         <v>835</v>
       </c>
-      <c r="F237" s="1">
-        <v>835</v>
+      <c r="F237" s="38">
+        <v>832</v>
       </c>
       <c r="G237" s="1">
         <v>152</v>
@@ -14284,8 +14287,8 @@
       <c r="E238" s="1">
         <v>844</v>
       </c>
-      <c r="F238" s="1">
-        <v>844</v>
+      <c r="F238" s="38">
+        <v>841</v>
       </c>
       <c r="G238" s="1">
         <v>151</v>
@@ -14340,8 +14343,8 @@
       <c r="E239" s="1">
         <v>858</v>
       </c>
-      <c r="F239" s="1">
-        <v>858</v>
+      <c r="F239" s="38">
+        <v>855</v>
       </c>
       <c r="G239" s="1">
         <v>156</v>
@@ -14396,8 +14399,8 @@
       <c r="E240" s="1">
         <v>868</v>
       </c>
-      <c r="F240" s="1">
-        <v>868</v>
+      <c r="F240" s="38">
+        <v>865</v>
       </c>
       <c r="G240" s="1">
         <v>139</v>
@@ -14452,8 +14455,8 @@
       <c r="E241" s="1">
         <v>896</v>
       </c>
-      <c r="F241" s="1">
-        <v>896</v>
+      <c r="F241" s="38">
+        <v>893</v>
       </c>
       <c r="G241" s="1">
         <v>154</v>
@@ -14508,8 +14511,8 @@
       <c r="E242" s="1">
         <v>929</v>
       </c>
-      <c r="F242" s="1">
-        <v>929</v>
+      <c r="F242" s="38">
+        <v>926</v>
       </c>
       <c r="G242" s="1">
         <v>177</v>
@@ -14564,8 +14567,8 @@
       <c r="E243" s="1">
         <v>952</v>
       </c>
-      <c r="F243" s="1">
-        <v>952</v>
+      <c r="F243" s="38">
+        <v>948</v>
       </c>
       <c r="G243" s="1">
         <v>183</v>
@@ -14620,8 +14623,8 @@
       <c r="E244" s="1">
         <v>975</v>
       </c>
-      <c r="F244" s="1">
-        <v>975</v>
+      <c r="F244" s="38">
+        <v>971</v>
       </c>
       <c r="G244" s="1">
         <v>193</v>
@@ -14676,8 +14679,8 @@
       <c r="E245" s="1">
         <v>989</v>
       </c>
-      <c r="F245" s="1">
-        <v>989</v>
+      <c r="F245" s="38">
+        <v>985</v>
       </c>
       <c r="G245" s="1">
         <v>200</v>
@@ -14732,8 +14735,8 @@
       <c r="E246" s="1">
         <v>1010</v>
       </c>
-      <c r="F246" s="1">
-        <v>1010</v>
+      <c r="F246" s="38">
+        <v>1006</v>
       </c>
       <c r="G246" s="1">
         <v>204</v>
@@ -14788,8 +14791,8 @@
       <c r="E247" s="1">
         <v>1026</v>
       </c>
-      <c r="F247" s="1">
-        <v>1026</v>
+      <c r="F247" s="38">
+        <v>1021</v>
       </c>
       <c r="G247" s="1">
         <v>202</v>
@@ -14844,8 +14847,8 @@
       <c r="E248" s="1">
         <v>1038</v>
       </c>
-      <c r="F248" s="1">
-        <v>1038</v>
+      <c r="F248" s="38">
+        <v>1033</v>
       </c>
       <c r="G248" s="1">
         <v>194</v>
@@ -14900,8 +14903,8 @@
       <c r="E249" s="1">
         <v>1061</v>
       </c>
-      <c r="F249" s="1">
-        <v>1061</v>
+      <c r="F249" s="38">
+        <v>1055</v>
       </c>
       <c r="G249" s="1">
         <v>189</v>
@@ -14956,8 +14959,8 @@
       <c r="E250" s="1">
         <v>1087</v>
       </c>
-      <c r="F250" s="1">
-        <v>1087</v>
+      <c r="F250" s="38">
+        <v>1080</v>
       </c>
       <c r="G250" s="1">
         <v>206</v>
@@ -15012,8 +15015,8 @@
       <c r="E251" s="1">
         <v>1106</v>
       </c>
-      <c r="F251" s="1">
-        <v>1106</v>
+      <c r="F251" s="38">
+        <v>1099</v>
       </c>
       <c r="G251" s="1">
         <v>197</v>
@@ -15068,8 +15071,8 @@
       <c r="E252" s="1">
         <v>1122</v>
       </c>
-      <c r="F252" s="1">
-        <v>1122</v>
+      <c r="F252" s="38">
+        <v>1115</v>
       </c>
       <c r="G252" s="1">
         <v>198</v>
@@ -15124,8 +15127,8 @@
       <c r="E253" s="1">
         <v>1141</v>
       </c>
-      <c r="F253" s="1">
-        <v>1141</v>
+      <c r="F253" s="38">
+        <v>1134</v>
       </c>
       <c r="G253" s="1">
         <v>197</v>
@@ -15180,8 +15183,8 @@
       <c r="E254" s="1">
         <v>1157</v>
       </c>
-      <c r="F254" s="1">
-        <v>1157</v>
+      <c r="F254" s="38">
+        <v>1150</v>
       </c>
       <c r="G254" s="1">
         <v>190</v>
@@ -15236,8 +15239,8 @@
       <c r="E255" s="1">
         <v>1190</v>
       </c>
-      <c r="F255" s="1">
-        <v>1190</v>
+      <c r="F255" s="38">
+        <v>1183</v>
       </c>
       <c r="G255" s="1">
         <v>204</v>
@@ -15292,8 +15295,8 @@
       <c r="E256" s="1">
         <v>1229</v>
       </c>
-      <c r="F256" s="1">
-        <v>1229</v>
+      <c r="F256" s="38">
+        <v>1222</v>
       </c>
       <c r="G256" s="1">
         <v>229</v>
@@ -15348,8 +15351,8 @@
       <c r="E257" s="1">
         <v>1264</v>
       </c>
-      <c r="F257" s="1">
-        <v>1264</v>
+      <c r="F257" s="38">
+        <v>1255</v>
       </c>
       <c r="G257" s="1">
         <v>243</v>
@@ -15404,8 +15407,8 @@
       <c r="E258" s="1">
         <v>1291</v>
       </c>
-      <c r="F258" s="1">
-        <v>1291</v>
+      <c r="F258" s="38">
+        <v>1280</v>
       </c>
       <c r="G258" s="1">
         <v>254</v>
@@ -15460,8 +15463,8 @@
       <c r="E259" s="1">
         <v>1306</v>
       </c>
-      <c r="F259" s="1">
-        <v>1306</v>
+      <c r="F259" s="38">
+        <v>1295</v>
       </c>
       <c r="G259" s="1">
         <v>261</v>
@@ -15516,8 +15519,8 @@
       <c r="E260" s="1">
         <v>1330</v>
       </c>
-      <c r="F260" s="1">
-        <v>1330</v>
+      <c r="F260" s="38">
+        <v>1319</v>
       </c>
       <c r="G260" s="1">
         <v>269</v>
@@ -15572,8 +15575,8 @@
       <c r="E261" s="1">
         <v>1351</v>
       </c>
-      <c r="F261" s="1">
-        <v>1350</v>
+      <c r="F261" s="38">
+        <v>1339</v>
       </c>
       <c r="G261" s="1">
         <v>260</v>
@@ -15628,8 +15631,8 @@
       <c r="E262" s="1">
         <v>1386</v>
       </c>
-      <c r="F262" s="1">
-        <v>1384</v>
+      <c r="F262" s="38">
+        <v>1373</v>
       </c>
       <c r="G262" s="1">
         <v>249</v>
@@ -15684,8 +15687,8 @@
       <c r="E263" s="1">
         <v>1410</v>
       </c>
-      <c r="F263" s="1">
-        <v>1408</v>
+      <c r="F263" s="38">
+        <v>1397</v>
       </c>
       <c r="G263" s="1">
         <v>255</v>
@@ -15740,8 +15743,8 @@
       <c r="E264" s="1">
         <v>1433</v>
       </c>
-      <c r="F264" s="1">
-        <v>1431</v>
+      <c r="F264" s="38">
+        <v>1420</v>
       </c>
       <c r="G264" s="1">
         <v>237</v>
@@ -15796,8 +15799,8 @@
       <c r="E265" s="1">
         <v>1465</v>
       </c>
-      <c r="F265" s="18">
-        <v>1462</v>
+      <c r="F265" s="42">
+        <v>1452</v>
       </c>
       <c r="G265" s="1">
         <v>240</v>
@@ -15852,8 +15855,8 @@
       <c r="E266" s="1">
         <v>1493</v>
       </c>
-      <c r="F266" s="18">
-        <v>1490</v>
+      <c r="F266" s="42">
+        <v>1480</v>
       </c>
       <c r="G266" s="1">
         <v>259</v>
@@ -15908,8 +15911,8 @@
       <c r="E267" s="1">
         <v>1512</v>
       </c>
-      <c r="F267" s="18">
-        <v>1509</v>
+      <c r="F267" s="42">
+        <v>1499</v>
       </c>
       <c r="G267" s="1">
         <v>259</v>
@@ -15964,8 +15967,8 @@
       <c r="E268" s="1">
         <v>1530</v>
       </c>
-      <c r="F268" s="18">
-        <v>1526</v>
+      <c r="F268" s="42">
+        <v>1516</v>
       </c>
       <c r="G268" s="1">
         <v>256</v>
@@ -16020,8 +16023,8 @@
       <c r="E269" s="1">
         <v>1554</v>
       </c>
-      <c r="F269" s="18">
-        <v>1550</v>
+      <c r="F269" s="42">
+        <v>1540</v>
       </c>
       <c r="G269" s="1">
         <v>229</v>
@@ -16076,8 +16079,8 @@
       <c r="E270" s="1">
         <v>1577</v>
       </c>
-      <c r="F270" s="18">
-        <v>1573</v>
+      <c r="F270" s="42">
+        <v>1563</v>
       </c>
       <c r="G270" s="1">
         <v>227</v>
@@ -16132,8 +16135,8 @@
       <c r="E271" s="1">
         <v>1600</v>
       </c>
-      <c r="F271" s="1">
-        <v>1596</v>
+      <c r="F271" s="38">
+        <v>1586</v>
       </c>
       <c r="G271" s="1">
         <v>222</v>
@@ -16180,14 +16183,14 @@
       <c r="E272" s="1">
         <v>1628</v>
       </c>
-      <c r="F272" s="1">
-        <v>1624</v>
+      <c r="F272" s="38">
+        <v>1614</v>
       </c>
       <c r="G272" s="1">
         <v>232</v>
       </c>
       <c r="H272" s="1">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="I272" s="1">
         <v>9</v>
@@ -16212,52 +16215,97 @@
       </c>
       <c r="R272" s="34"/>
     </row>
-    <row r="273" spans="18:18">
+    <row r="273" spans="1:18">
+      <c r="A273" s="12">
+        <v>44185</v>
+      </c>
+      <c r="B273" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273" s="1">
+        <v>26</v>
+      </c>
+      <c r="E273" s="1">
+        <v>1654</v>
+      </c>
+      <c r="F273" s="38">
+        <v>1639</v>
+      </c>
+      <c r="G273" s="1">
+        <v>244</v>
+      </c>
+      <c r="H273" s="1">
+        <v>180</v>
+      </c>
+      <c r="I273" s="1">
+        <v>9</v>
+      </c>
+      <c r="J273" s="1">
+        <v>20</v>
+      </c>
+      <c r="K273" s="1">
+        <v>1390</v>
+      </c>
+      <c r="L273" s="1">
+        <v>64</v>
+      </c>
+      <c r="M273" s="1">
+        <v>108</v>
+      </c>
+      <c r="N273" s="1">
+        <v>0</v>
+      </c>
+      <c r="O273" s="1">
+        <v>467</v>
+      </c>
       <c r="R273" s="34"/>
     </row>
-    <row r="274" spans="18:18">
+    <row r="274" spans="1:18">
       <c r="R274" s="34"/>
     </row>
-    <row r="275" spans="18:18">
+    <row r="275" spans="1:18">
       <c r="R275" s="34"/>
     </row>
-    <row r="276" spans="18:18">
+    <row r="276" spans="1:18">
       <c r="R276" s="34"/>
     </row>
-    <row r="277" spans="18:18">
+    <row r="277" spans="1:18">
       <c r="R277" s="34"/>
     </row>
-    <row r="278" spans="18:18">
+    <row r="278" spans="1:18">
       <c r="R278" s="34"/>
     </row>
-    <row r="279" spans="18:18">
+    <row r="279" spans="1:18">
       <c r="R279" s="34"/>
     </row>
-    <row r="280" spans="18:18">
+    <row r="280" spans="1:18">
       <c r="R280" s="34"/>
     </row>
-    <row r="281" spans="18:18">
+    <row r="281" spans="1:18">
       <c r="R281" s="34"/>
     </row>
-    <row r="282" spans="18:18">
+    <row r="282" spans="1:18">
       <c r="R282" s="34"/>
     </row>
-    <row r="283" spans="18:18">
+    <row r="283" spans="1:18">
       <c r="R283" s="34"/>
     </row>
-    <row r="284" spans="18:18">
+    <row r="284" spans="1:18">
       <c r="R284" s="34"/>
     </row>
-    <row r="285" spans="18:18">
+    <row r="285" spans="1:18">
       <c r="R285" s="34"/>
     </row>
-    <row r="286" spans="18:18">
+    <row r="286" spans="1:18">
       <c r="R286" s="34"/>
     </row>
-    <row r="287" spans="18:18">
+    <row r="287" spans="1:18">
       <c r="R287" s="34"/>
     </row>
-    <row r="288" spans="18:18">
+    <row r="288" spans="1:18">
       <c r="R288" s="34"/>
     </row>
     <row r="289" spans="18:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$273</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$274</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="39">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -994,10 +994,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E263" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F262" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R272" sqref="R272"/>
+      <selection pane="bottomRight" activeCell="Q272" sqref="Q272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44185.708206365744</v>
+        <v>44186.762365162038</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -16054,13 +16054,13 @@
         <v>467</v>
       </c>
       <c r="P269" s="1">
-        <v>363</v>
+        <v>492</v>
       </c>
       <c r="Q269" s="1">
         <v>19</v>
       </c>
       <c r="R269" s="34">
-        <v>4.7710326119401847E-2</v>
+        <v>4.574979588836163E-2</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -16110,13 +16110,13 @@
         <v>467</v>
       </c>
       <c r="P270" s="1">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="Q270" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R270" s="34">
-        <v>4.6787421467018246E-2</v>
+        <v>4.7221165910308706E-2</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -16165,7 +16165,15 @@
       <c r="O271" s="1">
         <v>467</v>
       </c>
-      <c r="R271" s="34"/>
+      <c r="P271" s="1">
+        <v>494</v>
+      </c>
+      <c r="Q271" s="1">
+        <v>30</v>
+      </c>
+      <c r="R271" s="34">
+        <v>4.9922355443892882E-2</v>
+      </c>
     </row>
     <row r="272" spans="1:18">
       <c r="A272" s="12">
@@ -16213,7 +16221,15 @@
       <c r="O272" s="1">
         <v>467</v>
       </c>
-      <c r="R272" s="34"/>
+      <c r="P272" s="1">
+        <v>451</v>
+      </c>
+      <c r="Q272" s="1">
+        <v>30</v>
+      </c>
+      <c r="R272" s="34">
+        <v>4.9696425241566138E-2</v>
+      </c>
     </row>
     <row r="273" spans="1:18">
       <c r="A273" s="12">
@@ -16261,9 +16277,62 @@
       <c r="O273" s="1">
         <v>467</v>
       </c>
-      <c r="R273" s="34"/>
+      <c r="P273" s="1">
+        <v>299</v>
+      </c>
+      <c r="Q273" s="1">
+        <v>15</v>
+      </c>
+      <c r="R273" s="34">
+        <v>5.1572166247741927E-2</v>
+      </c>
     </row>
     <row r="274" spans="1:18">
+      <c r="A274" s="12">
+        <v>44186</v>
+      </c>
+      <c r="B274" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274" s="1">
+        <v>32</v>
+      </c>
+      <c r="E274" s="1">
+        <v>1686</v>
+      </c>
+      <c r="F274" s="1">
+        <v>1671</v>
+      </c>
+      <c r="G274" s="1">
+        <v>267</v>
+      </c>
+      <c r="H274" s="1">
+        <v>201</v>
+      </c>
+      <c r="I274" s="1">
+        <v>10</v>
+      </c>
+      <c r="J274" s="1">
+        <v>20</v>
+      </c>
+      <c r="K274" s="1">
+        <v>1399</v>
+      </c>
+      <c r="L274" s="1">
+        <v>64</v>
+      </c>
+      <c r="M274" s="1">
+        <v>108</v>
+      </c>
+      <c r="N274" s="1">
+        <v>0</v>
+      </c>
+      <c r="O274" s="1">
+        <v>467</v>
+      </c>
       <c r="R274" s="34"/>
     </row>
     <row r="275" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$274</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$275</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="40">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -474,11 +474,18 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>奈良県</t>
+    <rPh sb="0" eb="3">
+      <t>ナラケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -994,10 +1001,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F262" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q272" sqref="Q272"/>
+      <selection pane="bottomRight" activeCell="P163" sqref="P163:R274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1018,7 +1025,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44186.762365162038</v>
+        <v>44187.832008680554</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -16166,13 +16173,13 @@
         <v>467</v>
       </c>
       <c r="P271" s="1">
-        <v>494</v>
+        <v>615</v>
       </c>
       <c r="Q271" s="1">
         <v>30</v>
       </c>
       <c r="R271" s="34">
-        <v>4.9922355443892882E-2</v>
+        <v>4.8215461567551E-2</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -16222,13 +16229,13 @@
         <v>467</v>
       </c>
       <c r="P272" s="1">
-        <v>451</v>
+        <v>537</v>
       </c>
       <c r="Q272" s="1">
         <v>30</v>
       </c>
       <c r="R272" s="34">
-        <v>4.9696425241566138E-2</v>
+        <v>4.6467684905375339E-2</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -16278,13 +16285,13 @@
         <v>467</v>
       </c>
       <c r="P273" s="1">
-        <v>299</v>
+        <v>384</v>
       </c>
       <c r="Q273" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="R273" s="34">
-        <v>5.1572166247741927E-2</v>
+        <v>4.8245131995322432E-2</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -16333,9 +16340,62 @@
       <c r="O274" s="1">
         <v>467</v>
       </c>
-      <c r="R274" s="34"/>
+      <c r="P274" s="1">
+        <v>504</v>
+      </c>
+      <c r="Q274" s="1">
+        <v>22</v>
+      </c>
+      <c r="R274" s="34">
+        <v>4.7177424748824644E-2</v>
+      </c>
     </row>
     <row r="275" spans="1:18">
+      <c r="A275" s="12">
+        <v>44187</v>
+      </c>
+      <c r="B275" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D275" s="1">
+        <v>26</v>
+      </c>
+      <c r="E275" s="1">
+        <v>1712</v>
+      </c>
+      <c r="F275" s="1">
+        <v>1697</v>
+      </c>
+      <c r="G275" s="1">
+        <v>254</v>
+      </c>
+      <c r="H275" s="1">
+        <v>192</v>
+      </c>
+      <c r="I275" s="1">
+        <v>10</v>
+      </c>
+      <c r="J275" s="1">
+        <v>20</v>
+      </c>
+      <c r="K275" s="1">
+        <v>1438</v>
+      </c>
+      <c r="L275" s="1">
+        <v>62</v>
+      </c>
+      <c r="M275" s="1">
+        <v>108</v>
+      </c>
+      <c r="N275" s="1">
+        <v>0</v>
+      </c>
+      <c r="O275" s="1">
+        <v>467</v>
+      </c>
       <c r="R275" s="34"/>
     </row>
     <row r="276" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$275</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$276</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="40">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -1001,10 +1001,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D268" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P163" sqref="P163:R274"/>
+      <selection pane="bottomRight" activeCell="F277" sqref="F277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44187.832008680554</v>
+        <v>44188.718854282408</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -16341,13 +16341,13 @@
         <v>467</v>
       </c>
       <c r="P274" s="1">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="Q274" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="R274" s="34">
-        <v>4.7177424748824644E-2</v>
+        <v>4.9462900342570913E-2</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -16396,9 +16396,62 @@
       <c r="O275" s="1">
         <v>467</v>
       </c>
-      <c r="R275" s="34"/>
+      <c r="P275" s="1">
+        <v>537</v>
+      </c>
+      <c r="Q275" s="1">
+        <v>24</v>
+      </c>
+      <c r="R275" s="34">
+        <v>4.9423594248930128E-2</v>
+      </c>
     </row>
     <row r="276" spans="1:18">
+      <c r="A276" s="12">
+        <v>44188</v>
+      </c>
+      <c r="B276" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" s="1">
+        <v>37</v>
+      </c>
+      <c r="E276" s="1">
+        <v>1749</v>
+      </c>
+      <c r="F276" s="1">
+        <v>1734</v>
+      </c>
+      <c r="G276" s="1">
+        <v>279</v>
+      </c>
+      <c r="H276" s="1">
+        <v>212</v>
+      </c>
+      <c r="I276" s="1">
+        <v>11</v>
+      </c>
+      <c r="J276" s="1">
+        <v>20</v>
+      </c>
+      <c r="K276" s="1">
+        <v>1450</v>
+      </c>
+      <c r="L276" s="1">
+        <v>67</v>
+      </c>
+      <c r="M276" s="1">
+        <v>108</v>
+      </c>
+      <c r="N276" s="1">
+        <v>0</v>
+      </c>
+      <c r="O276" s="1">
+        <v>467</v>
+      </c>
       <c r="R276" s="34"/>
     </row>
     <row r="277" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$276</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$277</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="40">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -1001,10 +1001,10 @@
   <dimension ref="A1:AB525"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G268" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F277" sqref="F277"/>
+      <selection pane="bottomRight" activeCell="R277" sqref="R277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44188.718854282408</v>
+        <v>44189.747299189818</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -16117,13 +16117,13 @@
         <v>467</v>
       </c>
       <c r="P270" s="1">
-        <v>491</v>
+        <v>736</v>
       </c>
       <c r="Q270" s="1">
         <v>24</v>
       </c>
       <c r="R270" s="34">
-        <v>4.7221165910308706E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -16173,13 +16173,13 @@
         <v>467</v>
       </c>
       <c r="P271" s="1">
-        <v>615</v>
+        <v>760</v>
       </c>
       <c r="Q271" s="1">
         <v>30</v>
       </c>
       <c r="R271" s="34">
-        <v>4.8215461567551E-2</v>
+        <v>4.4600000000000001E-2</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -16229,13 +16229,13 @@
         <v>467</v>
       </c>
       <c r="P272" s="1">
-        <v>537</v>
+        <v>574</v>
       </c>
       <c r="Q272" s="1">
         <v>30</v>
       </c>
       <c r="R272" s="34">
-        <v>4.6467684905375339E-2</v>
+        <v>4.2299999999999997E-2</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -16285,13 +16285,13 @@
         <v>467</v>
       </c>
       <c r="P273" s="1">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="Q273" s="1">
         <v>19</v>
       </c>
       <c r="R273" s="34">
-        <v>4.8245131995322432E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -16341,13 +16341,13 @@
         <v>467</v>
       </c>
       <c r="P274" s="1">
-        <v>570</v>
+        <v>759</v>
       </c>
       <c r="Q274" s="1">
         <v>34</v>
       </c>
       <c r="R274" s="34">
-        <v>4.9462900342570913E-2</v>
+        <v>4.2799999999999998E-2</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -16397,13 +16397,13 @@
         <v>467</v>
       </c>
       <c r="P275" s="1">
-        <v>537</v>
+        <v>686</v>
       </c>
       <c r="Q275" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="R275" s="34">
-        <v>4.9423594248930128E-2</v>
+        <v>4.4699999999999997E-2</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -16452,9 +16452,62 @@
       <c r="O276" s="1">
         <v>467</v>
       </c>
-      <c r="R276" s="34"/>
+      <c r="P276" s="1">
+        <v>462</v>
+      </c>
+      <c r="Q276" s="1">
+        <v>17</v>
+      </c>
+      <c r="R276" s="34">
+        <v>4.4499999999999998E-2</v>
+      </c>
     </row>
     <row r="277" spans="1:18">
+      <c r="A277" s="12">
+        <v>44189</v>
+      </c>
+      <c r="B277" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277" s="1">
+        <v>33</v>
+      </c>
+      <c r="E277" s="1">
+        <v>1782</v>
+      </c>
+      <c r="F277" s="1">
+        <v>1782</v>
+      </c>
+      <c r="G277" s="1">
+        <v>295</v>
+      </c>
+      <c r="H277" s="1">
+        <v>222</v>
+      </c>
+      <c r="I277" s="1">
+        <v>11</v>
+      </c>
+      <c r="J277" s="1">
+        <v>20</v>
+      </c>
+      <c r="K277" s="1">
+        <v>1467</v>
+      </c>
+      <c r="L277" s="1">
+        <v>73</v>
+      </c>
+      <c r="M277" s="1">
+        <v>108</v>
+      </c>
+      <c r="N277" s="1">
+        <v>0</v>
+      </c>
+      <c r="O277" s="1">
+        <v>467</v>
+      </c>
       <c r="R277" s="34"/>
     </row>
     <row r="278" spans="1:18">
@@ -17205,7 +17258,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ＭＳ ゴシック,標準"&amp;9&amp;P/&amp;N</oddFooter>
   </headerFooter>

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$277</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$280</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="40">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -998,13 +998,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB525"/>
+  <dimension ref="A1:AB526"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D277" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R277" sqref="R277"/>
+      <selection pane="bottomRight" activeCell="F281" sqref="F281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44189.747299189818</v>
+        <v>44192.676909606482</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -16123,7 +16123,7 @@
         <v>24</v>
       </c>
       <c r="R270" s="34">
-        <v>4.4900000000000002E-2</v>
+        <v>4.4896717136732156E-2</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -16179,7 +16179,7 @@
         <v>30</v>
       </c>
       <c r="R271" s="34">
-        <v>4.4600000000000001E-2</v>
+        <v>4.4561469423352769E-2</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -16235,7 +16235,7 @@
         <v>30</v>
       </c>
       <c r="R272" s="34">
-        <v>4.2299999999999997E-2</v>
+        <v>4.2299247986128517E-2</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -16291,7 +16291,7 @@
         <v>19</v>
       </c>
       <c r="R273" s="34">
-        <v>4.3700000000000003E-2</v>
+        <v>4.3710182730396598E-2</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -16341,13 +16341,13 @@
         <v>467</v>
       </c>
       <c r="P274" s="1">
-        <v>759</v>
+        <v>702</v>
       </c>
       <c r="Q274" s="1">
         <v>34</v>
       </c>
       <c r="R274" s="34">
-        <v>4.2799999999999998E-2</v>
+        <v>4.3325654738506643E-2</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -16397,13 +16397,13 @@
         <v>467</v>
       </c>
       <c r="P275" s="1">
-        <v>686</v>
+        <v>713</v>
       </c>
       <c r="Q275" s="1">
         <v>40</v>
       </c>
       <c r="R275" s="34">
-        <v>4.4699999999999997E-2</v>
+        <v>4.4916097835867759E-2</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -16453,13 +16453,13 @@
         <v>467</v>
       </c>
       <c r="P276" s="1">
-        <v>462</v>
+        <v>591</v>
       </c>
       <c r="Q276" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="R276" s="34">
-        <v>4.4499999999999998E-2</v>
+        <v>4.6650888570287062E-2</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -16479,7 +16479,7 @@
         <v>1782</v>
       </c>
       <c r="F277" s="1">
-        <v>1782</v>
+        <v>1767</v>
       </c>
       <c r="G277" s="1">
         <v>295</v>
@@ -16508,15 +16508,158 @@
       <c r="O277" s="1">
         <v>467</v>
       </c>
-      <c r="R277" s="34"/>
+      <c r="P277" s="1">
+        <v>503</v>
+      </c>
+      <c r="Q277" s="1">
+        <v>17</v>
+      </c>
+      <c r="R277" s="34">
+        <v>4.6820677291376671E-2</v>
+      </c>
     </row>
     <row r="278" spans="1:18">
+      <c r="A278" s="12">
+        <v>44190</v>
+      </c>
+      <c r="B278" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" s="1">
+        <v>30</v>
+      </c>
+      <c r="E278" s="1">
+        <v>1812</v>
+      </c>
+      <c r="F278" s="1">
+        <v>1797</v>
+      </c>
+      <c r="G278" s="1">
+        <v>304</v>
+      </c>
+      <c r="H278" s="1">
+        <v>225</v>
+      </c>
+      <c r="I278" s="1">
+        <v>10</v>
+      </c>
+      <c r="J278" s="1">
+        <v>21</v>
+      </c>
+      <c r="K278" s="1">
+        <v>1487</v>
+      </c>
+      <c r="L278" s="1">
+        <v>79</v>
+      </c>
+      <c r="M278" s="1">
+        <v>108</v>
+      </c>
+      <c r="N278" s="1">
+        <v>0</v>
+      </c>
+      <c r="O278" s="1">
+        <v>467</v>
+      </c>
       <c r="R278" s="34"/>
     </row>
     <row r="279" spans="1:18">
+      <c r="A279" s="12">
+        <v>44191</v>
+      </c>
+      <c r="B279" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" s="1">
+        <v>31</v>
+      </c>
+      <c r="E279" s="1">
+        <v>1843</v>
+      </c>
+      <c r="F279" s="1">
+        <v>1828</v>
+      </c>
+      <c r="G279" s="1">
+        <v>315</v>
+      </c>
+      <c r="H279" s="1">
+        <v>233</v>
+      </c>
+      <c r="I279" s="1">
+        <v>11</v>
+      </c>
+      <c r="J279" s="1">
+        <v>21</v>
+      </c>
+      <c r="K279" s="1">
+        <v>1507</v>
+      </c>
+      <c r="L279" s="1">
+        <v>82</v>
+      </c>
+      <c r="M279" s="1">
+        <v>108</v>
+      </c>
+      <c r="N279" s="1">
+        <v>0</v>
+      </c>
+      <c r="O279" s="1">
+        <v>467</v>
+      </c>
       <c r="R279" s="34"/>
     </row>
     <row r="280" spans="1:18">
+      <c r="A280" s="12">
+        <v>44192</v>
+      </c>
+      <c r="B280" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280" s="1">
+        <v>39</v>
+      </c>
+      <c r="E280" s="1">
+        <v>1882</v>
+      </c>
+      <c r="F280" s="18">
+        <v>1867</v>
+      </c>
+      <c r="G280" s="1">
+        <v>345</v>
+      </c>
+      <c r="H280" s="1">
+        <v>254</v>
+      </c>
+      <c r="I280" s="1">
+        <v>10</v>
+      </c>
+      <c r="J280" s="1">
+        <v>22</v>
+      </c>
+      <c r="K280" s="1">
+        <v>1515</v>
+      </c>
+      <c r="L280" s="1">
+        <v>91</v>
+      </c>
+      <c r="M280" s="1">
+        <v>108</v>
+      </c>
+      <c r="N280" s="1">
+        <v>0</v>
+      </c>
+      <c r="O280" s="1">
+        <v>467</v>
+      </c>
       <c r="R280" s="34"/>
     </row>
     <row r="281" spans="1:18">
@@ -16769,7 +16912,7 @@
       <c r="R363" s="34"/>
     </row>
     <row r="364" spans="18:18">
-      <c r="R364" s="37"/>
+      <c r="R364" s="34"/>
     </row>
     <row r="365" spans="18:18">
       <c r="R365" s="37"/>
@@ -17253,6 +17396,9 @@
     </row>
     <row r="525" spans="18:18">
       <c r="R525" s="37"/>
+    </row>
+    <row r="526" spans="18:18">
+      <c r="R526" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$280</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$301</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="40">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -1001,10 +1001,10 @@
   <dimension ref="A1:AB526"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D277" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D276" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F281" sqref="F281"/>
+      <selection pane="bottomRight" activeCell="I285" sqref="I285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44192.676909606482</v>
+        <v>44193.734109375</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -16509,13 +16509,13 @@
         <v>467</v>
       </c>
       <c r="P277" s="1">
-        <v>503</v>
+        <v>589</v>
       </c>
       <c r="Q277" s="1">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="R277" s="34">
-        <v>4.6820677291376671E-2</v>
+        <v>5.2179260692739052E-2</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -16564,7 +16564,15 @@
       <c r="O278" s="1">
         <v>467</v>
       </c>
-      <c r="R278" s="34"/>
+      <c r="P278" s="1">
+        <v>594</v>
+      </c>
+      <c r="Q278" s="1">
+        <v>28</v>
+      </c>
+      <c r="R278" s="34">
+        <v>5.3274169682384895E-2</v>
+      </c>
     </row>
     <row r="279" spans="1:18">
       <c r="A279" s="12">
@@ -16612,7 +16620,15 @@
       <c r="O279" s="1">
         <v>467</v>
       </c>
-      <c r="R279" s="34"/>
+      <c r="P279" s="1">
+        <v>490</v>
+      </c>
+      <c r="Q279" s="1">
+        <v>27</v>
+      </c>
+      <c r="R279" s="34">
+        <v>5.3679488604378774E-2</v>
+      </c>
     </row>
     <row r="280" spans="1:18">
       <c r="A280" s="12">
@@ -16660,9 +16676,62 @@
       <c r="O280" s="1">
         <v>467</v>
       </c>
-      <c r="R280" s="34"/>
+      <c r="P280" s="1">
+        <v>170</v>
+      </c>
+      <c r="Q280" s="1">
+        <v>18</v>
+      </c>
+      <c r="R280" s="34">
+        <v>6.2103598989273472E-2</v>
+      </c>
     </row>
     <row r="281" spans="1:18">
+      <c r="A281" s="12">
+        <v>44193</v>
+      </c>
+      <c r="B281" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D281" s="1">
+        <v>30</v>
+      </c>
+      <c r="E281" s="1">
+        <v>1912</v>
+      </c>
+      <c r="F281" s="1">
+        <v>1897</v>
+      </c>
+      <c r="G281" s="1">
+        <v>335</v>
+      </c>
+      <c r="H281" s="1">
+        <v>242</v>
+      </c>
+      <c r="I281" s="1">
+        <v>11</v>
+      </c>
+      <c r="J281" s="1">
+        <v>22</v>
+      </c>
+      <c r="K281" s="1">
+        <v>1555</v>
+      </c>
+      <c r="L281" s="1">
+        <v>93</v>
+      </c>
+      <c r="M281" s="1">
+        <v>108</v>
+      </c>
+      <c r="N281" s="1">
+        <v>0</v>
+      </c>
+      <c r="O281" s="1">
+        <v>467</v>
+      </c>
       <c r="R281" s="34"/>
     </row>
     <row r="282" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="40">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -652,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -778,9 +778,6 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1001,10 +998,10 @@
   <dimension ref="A1:AB526"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D276" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I285" sqref="I285"/>
+      <selection pane="bottomRight" activeCell="F286" sqref="F286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1025,7 +1022,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44193.734109375</v>
+        <v>44194.69594849537</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -9472,7 +9469,7 @@
       <c r="E152" s="1">
         <v>472</v>
       </c>
-      <c r="F152" s="38">
+      <c r="F152" s="1">
         <v>471</v>
       </c>
       <c r="G152" s="1">
@@ -9528,7 +9525,7 @@
       <c r="E153" s="1">
         <v>482</v>
       </c>
-      <c r="F153" s="38">
+      <c r="F153" s="1">
         <v>479</v>
       </c>
       <c r="G153" s="1">
@@ -9584,7 +9581,7 @@
       <c r="E154" s="1">
         <v>490</v>
       </c>
-      <c r="F154" s="38">
+      <c r="F154" s="1">
         <v>487</v>
       </c>
       <c r="G154" s="1">
@@ -9640,7 +9637,7 @@
       <c r="E155" s="1">
         <v>492</v>
       </c>
-      <c r="F155" s="38">
+      <c r="F155" s="1">
         <v>489</v>
       </c>
       <c r="G155" s="1">
@@ -9696,7 +9693,7 @@
       <c r="E156" s="1">
         <v>498</v>
       </c>
-      <c r="F156" s="38">
+      <c r="F156" s="1">
         <v>495</v>
       </c>
       <c r="G156" s="1">
@@ -9752,7 +9749,7 @@
       <c r="E157" s="1">
         <v>502</v>
       </c>
-      <c r="F157" s="38">
+      <c r="F157" s="1">
         <v>499</v>
       </c>
       <c r="G157" s="1">
@@ -9808,7 +9805,7 @@
       <c r="E158" s="1">
         <v>506</v>
       </c>
-      <c r="F158" s="38">
+      <c r="F158" s="1">
         <v>503</v>
       </c>
       <c r="G158" s="1">
@@ -9864,7 +9861,7 @@
       <c r="E159" s="1">
         <v>508</v>
       </c>
-      <c r="F159" s="38">
+      <c r="F159" s="1">
         <v>505</v>
       </c>
       <c r="G159" s="1">
@@ -9920,7 +9917,7 @@
       <c r="E160" s="1">
         <v>510</v>
       </c>
-      <c r="F160" s="38">
+      <c r="F160" s="1">
         <v>507</v>
       </c>
       <c r="G160" s="1">
@@ -9976,7 +9973,7 @@
       <c r="E161" s="1">
         <v>515</v>
       </c>
-      <c r="F161" s="38">
+      <c r="F161" s="1">
         <v>512</v>
       </c>
       <c r="G161" s="1">
@@ -10032,7 +10029,7 @@
       <c r="E162" s="1">
         <v>518</v>
       </c>
-      <c r="F162" s="38">
+      <c r="F162" s="1">
         <v>515</v>
       </c>
       <c r="G162" s="1">
@@ -10088,7 +10085,7 @@
       <c r="E163" s="1">
         <v>523</v>
       </c>
-      <c r="F163" s="38">
+      <c r="F163" s="1">
         <v>520</v>
       </c>
       <c r="G163" s="1">
@@ -10147,7 +10144,7 @@
       <c r="E164" s="1">
         <v>524</v>
       </c>
-      <c r="F164" s="38">
+      <c r="F164" s="1">
         <v>521</v>
       </c>
       <c r="G164" s="1">
@@ -10203,7 +10200,7 @@
       <c r="E165" s="1">
         <v>526</v>
       </c>
-      <c r="F165" s="38">
+      <c r="F165" s="1">
         <v>523</v>
       </c>
       <c r="G165" s="1">
@@ -10259,7 +10256,7 @@
       <c r="E166" s="1">
         <v>531</v>
       </c>
-      <c r="F166" s="38">
+      <c r="F166" s="1">
         <v>528</v>
       </c>
       <c r="G166" s="1">
@@ -10315,7 +10312,7 @@
       <c r="E167" s="1">
         <v>534</v>
       </c>
-      <c r="F167" s="38">
+      <c r="F167" s="1">
         <v>531</v>
       </c>
       <c r="G167" s="1">
@@ -10371,7 +10368,7 @@
       <c r="E168" s="1">
         <v>538</v>
       </c>
-      <c r="F168" s="38">
+      <c r="F168" s="1">
         <v>535</v>
       </c>
       <c r="G168" s="1">
@@ -10427,7 +10424,7 @@
       <c r="E169" s="1">
         <v>538</v>
       </c>
-      <c r="F169" s="38">
+      <c r="F169" s="1">
         <v>535</v>
       </c>
       <c r="G169" s="1">
@@ -10483,7 +10480,7 @@
       <c r="E170" s="1">
         <v>539</v>
       </c>
-      <c r="F170" s="38">
+      <c r="F170" s="1">
         <v>536</v>
       </c>
       <c r="G170" s="1">
@@ -10539,7 +10536,7 @@
       <c r="E171" s="1">
         <v>540</v>
       </c>
-      <c r="F171" s="38">
+      <c r="F171" s="1">
         <v>537</v>
       </c>
       <c r="G171" s="1">
@@ -10595,7 +10592,7 @@
       <c r="E172" s="1">
         <v>542</v>
       </c>
-      <c r="F172" s="38">
+      <c r="F172" s="1">
         <v>539</v>
       </c>
       <c r="G172" s="1">
@@ -10651,7 +10648,7 @@
       <c r="E173" s="1">
         <v>544</v>
       </c>
-      <c r="F173" s="38">
+      <c r="F173" s="1">
         <v>541</v>
       </c>
       <c r="G173" s="1">
@@ -10707,7 +10704,7 @@
       <c r="E174" s="1">
         <v>545</v>
       </c>
-      <c r="F174" s="38">
+      <c r="F174" s="1">
         <v>542</v>
       </c>
       <c r="G174" s="1">
@@ -10763,7 +10760,7 @@
       <c r="E175" s="1">
         <v>545</v>
       </c>
-      <c r="F175" s="38">
+      <c r="F175" s="1">
         <v>542</v>
       </c>
       <c r="G175" s="1">
@@ -10819,7 +10816,7 @@
       <c r="E176" s="1">
         <v>546</v>
       </c>
-      <c r="F176" s="38">
+      <c r="F176" s="1">
         <v>543</v>
       </c>
       <c r="G176" s="1">
@@ -10875,7 +10872,7 @@
       <c r="E177" s="1">
         <v>550</v>
       </c>
-      <c r="F177" s="38">
+      <c r="F177" s="1">
         <v>547</v>
       </c>
       <c r="G177" s="1">
@@ -10931,7 +10928,7 @@
       <c r="E178" s="1">
         <v>550</v>
       </c>
-      <c r="F178" s="38">
+      <c r="F178" s="1">
         <v>547</v>
       </c>
       <c r="G178" s="1">
@@ -10987,7 +10984,7 @@
       <c r="E179" s="1">
         <v>551</v>
       </c>
-      <c r="F179" s="38">
+      <c r="F179" s="1">
         <v>548</v>
       </c>
       <c r="G179" s="1">
@@ -11043,7 +11040,7 @@
       <c r="E180" s="1">
         <v>551</v>
       </c>
-      <c r="F180" s="38">
+      <c r="F180" s="1">
         <v>548</v>
       </c>
       <c r="G180" s="1">
@@ -11099,7 +11096,7 @@
       <c r="E181" s="1">
         <v>552</v>
       </c>
-      <c r="F181" s="38">
+      <c r="F181" s="1">
         <v>549</v>
       </c>
       <c r="G181" s="1">
@@ -11155,7 +11152,7 @@
       <c r="E182" s="1">
         <v>554</v>
       </c>
-      <c r="F182" s="38">
+      <c r="F182" s="1">
         <v>551</v>
       </c>
       <c r="G182" s="1">
@@ -11211,7 +11208,7 @@
       <c r="E183" s="1">
         <v>555</v>
       </c>
-      <c r="F183" s="38">
+      <c r="F183" s="1">
         <v>552</v>
       </c>
       <c r="G183" s="1">
@@ -11267,7 +11264,7 @@
       <c r="E184" s="1">
         <v>556</v>
       </c>
-      <c r="F184" s="38">
+      <c r="F184" s="1">
         <v>553</v>
       </c>
       <c r="G184" s="1">
@@ -11323,7 +11320,7 @@
       <c r="E185" s="1">
         <v>558</v>
       </c>
-      <c r="F185" s="38">
+      <c r="F185" s="1">
         <v>555</v>
       </c>
       <c r="G185" s="1">
@@ -11379,7 +11376,7 @@
       <c r="E186" s="1">
         <v>558</v>
       </c>
-      <c r="F186" s="38">
+      <c r="F186" s="1">
         <v>555</v>
       </c>
       <c r="G186" s="1">
@@ -11435,7 +11432,7 @@
       <c r="E187" s="1">
         <v>560</v>
       </c>
-      <c r="F187" s="38">
+      <c r="F187" s="1">
         <v>557</v>
       </c>
       <c r="G187" s="1">
@@ -11491,7 +11488,7 @@
       <c r="E188" s="1">
         <v>562</v>
       </c>
-      <c r="F188" s="38">
+      <c r="F188" s="1">
         <v>559</v>
       </c>
       <c r="G188" s="1">
@@ -11547,7 +11544,7 @@
       <c r="E189" s="1">
         <v>562</v>
       </c>
-      <c r="F189" s="38">
+      <c r="F189" s="1">
         <v>559</v>
       </c>
       <c r="G189" s="1">
@@ -11603,7 +11600,7 @@
       <c r="E190" s="1">
         <v>567</v>
       </c>
-      <c r="F190" s="38">
+      <c r="F190" s="1">
         <v>564</v>
       </c>
       <c r="G190" s="1">
@@ -11659,7 +11656,7 @@
       <c r="E191" s="1">
         <v>568</v>
       </c>
-      <c r="F191" s="38">
+      <c r="F191" s="1">
         <v>565</v>
       </c>
       <c r="G191" s="1">
@@ -11715,7 +11712,7 @@
       <c r="E192" s="1">
         <v>569</v>
       </c>
-      <c r="F192" s="38">
+      <c r="F192" s="1">
         <v>566</v>
       </c>
       <c r="G192" s="1">
@@ -11771,7 +11768,7 @@
       <c r="E193" s="1">
         <v>574</v>
       </c>
-      <c r="F193" s="38">
+      <c r="F193" s="1">
         <v>571</v>
       </c>
       <c r="G193" s="18">
@@ -11827,7 +11824,7 @@
       <c r="E194" s="1">
         <v>575</v>
       </c>
-      <c r="F194" s="38">
+      <c r="F194" s="1">
         <v>572</v>
       </c>
       <c r="G194" s="18">
@@ -11883,7 +11880,7 @@
       <c r="E195" s="1">
         <v>580</v>
       </c>
-      <c r="F195" s="38">
+      <c r="F195" s="1">
         <v>577</v>
       </c>
       <c r="G195" s="1">
@@ -11939,7 +11936,7 @@
       <c r="E196" s="1">
         <v>581</v>
       </c>
-      <c r="F196" s="38">
+      <c r="F196" s="1">
         <v>578</v>
       </c>
       <c r="G196" s="1">
@@ -11995,7 +11992,7 @@
       <c r="E197" s="1">
         <v>581</v>
       </c>
-      <c r="F197" s="38">
+      <c r="F197" s="1">
         <v>578</v>
       </c>
       <c r="G197" s="1">
@@ -12054,7 +12051,7 @@
       <c r="E198" s="1">
         <v>581</v>
       </c>
-      <c r="F198" s="38">
+      <c r="F198" s="1">
         <v>578</v>
       </c>
       <c r="G198" s="1">
@@ -12110,7 +12107,7 @@
       <c r="E199" s="1">
         <v>583</v>
       </c>
-      <c r="F199" s="38">
+      <c r="F199" s="1">
         <v>580</v>
       </c>
       <c r="G199" s="1">
@@ -12166,7 +12163,7 @@
       <c r="E200" s="1">
         <v>587</v>
       </c>
-      <c r="F200" s="38">
+      <c r="F200" s="1">
         <v>584</v>
       </c>
       <c r="G200" s="1">
@@ -12222,7 +12219,7 @@
       <c r="E201" s="1">
         <v>595</v>
       </c>
-      <c r="F201" s="38">
+      <c r="F201" s="1">
         <v>592</v>
       </c>
       <c r="G201" s="1">
@@ -12278,7 +12275,7 @@
       <c r="E202" s="1">
         <v>595</v>
       </c>
-      <c r="F202" s="38">
+      <c r="F202" s="1">
         <v>592</v>
       </c>
       <c r="G202" s="1">
@@ -12334,7 +12331,7 @@
       <c r="E203" s="1">
         <v>599</v>
       </c>
-      <c r="F203" s="38">
+      <c r="F203" s="1">
         <v>596</v>
       </c>
       <c r="G203" s="1">
@@ -12390,7 +12387,7 @@
       <c r="E204" s="1">
         <v>600</v>
       </c>
-      <c r="F204" s="38">
+      <c r="F204" s="1">
         <v>597</v>
       </c>
       <c r="G204" s="1">
@@ -12446,7 +12443,7 @@
       <c r="E205" s="1">
         <v>603</v>
       </c>
-      <c r="F205" s="38">
+      <c r="F205" s="1">
         <v>600</v>
       </c>
       <c r="G205" s="1">
@@ -12502,7 +12499,7 @@
       <c r="E206" s="1">
         <v>605</v>
       </c>
-      <c r="F206" s="38">
+      <c r="F206" s="1">
         <v>602</v>
       </c>
       <c r="G206" s="18">
@@ -12558,7 +12555,7 @@
       <c r="E207" s="1">
         <v>607</v>
       </c>
-      <c r="F207" s="38">
+      <c r="F207" s="1">
         <v>604</v>
       </c>
       <c r="G207" s="1">
@@ -12614,7 +12611,7 @@
       <c r="E208" s="1">
         <v>610</v>
       </c>
-      <c r="F208" s="38">
+      <c r="F208" s="1">
         <v>607</v>
       </c>
       <c r="G208" s="1">
@@ -12670,7 +12667,7 @@
       <c r="E209" s="1">
         <v>613</v>
       </c>
-      <c r="F209" s="38">
+      <c r="F209" s="1">
         <v>610</v>
       </c>
       <c r="G209" s="1">
@@ -12726,7 +12723,7 @@
       <c r="E210" s="1">
         <v>613</v>
       </c>
-      <c r="F210" s="38">
+      <c r="F210" s="1">
         <v>610</v>
       </c>
       <c r="G210" s="1">
@@ -12782,7 +12779,7 @@
       <c r="E211" s="1">
         <v>613</v>
       </c>
-      <c r="F211" s="38">
+      <c r="F211" s="1">
         <v>610</v>
       </c>
       <c r="G211" s="1">
@@ -12838,7 +12835,7 @@
       <c r="E212" s="1">
         <v>615</v>
       </c>
-      <c r="F212" s="38">
+      <c r="F212" s="1">
         <v>612</v>
       </c>
       <c r="G212" s="1">
@@ -12894,7 +12891,7 @@
       <c r="E213" s="1">
         <v>618</v>
       </c>
-      <c r="F213" s="38">
+      <c r="F213" s="1">
         <v>615</v>
       </c>
       <c r="G213" s="1">
@@ -12950,7 +12947,7 @@
       <c r="E214" s="1">
         <v>621</v>
       </c>
-      <c r="F214" s="38">
+      <c r="F214" s="1">
         <v>618</v>
       </c>
       <c r="G214" s="1">
@@ -13006,7 +13003,7 @@
       <c r="E215" s="1">
         <v>624</v>
       </c>
-      <c r="F215" s="38">
+      <c r="F215" s="1">
         <v>621</v>
       </c>
       <c r="G215" s="1">
@@ -13062,7 +13059,7 @@
       <c r="E216" s="1">
         <v>625</v>
       </c>
-      <c r="F216" s="38">
+      <c r="F216" s="1">
         <v>622</v>
       </c>
       <c r="G216" s="1">
@@ -13118,7 +13115,7 @@
       <c r="E217" s="1">
         <v>625</v>
       </c>
-      <c r="F217" s="38">
+      <c r="F217" s="1">
         <v>622</v>
       </c>
       <c r="G217" s="1">
@@ -13174,7 +13171,7 @@
       <c r="E218" s="1">
         <v>626</v>
       </c>
-      <c r="F218" s="38">
+      <c r="F218" s="1">
         <v>623</v>
       </c>
       <c r="G218" s="1">
@@ -13230,7 +13227,7 @@
       <c r="E219" s="1">
         <v>626</v>
       </c>
-      <c r="F219" s="38">
+      <c r="F219" s="1">
         <v>623</v>
       </c>
       <c r="G219" s="1">
@@ -13286,7 +13283,7 @@
       <c r="E220" s="1">
         <v>631</v>
       </c>
-      <c r="F220" s="38">
+      <c r="F220" s="1">
         <v>628</v>
       </c>
       <c r="G220" s="1">
@@ -13342,7 +13339,7 @@
       <c r="E221" s="1">
         <v>635</v>
       </c>
-      <c r="F221" s="38">
+      <c r="F221" s="1">
         <v>632</v>
       </c>
       <c r="G221" s="1">
@@ -13398,7 +13395,7 @@
       <c r="E222" s="1">
         <v>639</v>
       </c>
-      <c r="F222" s="38">
+      <c r="F222" s="1">
         <v>636</v>
       </c>
       <c r="G222" s="1">
@@ -13454,7 +13451,7 @@
       <c r="E223" s="1">
         <v>648</v>
       </c>
-      <c r="F223" s="38">
+      <c r="F223" s="1">
         <v>645</v>
       </c>
       <c r="G223" s="1">
@@ -13510,7 +13507,7 @@
       <c r="E224" s="1">
         <v>659</v>
       </c>
-      <c r="F224" s="38">
+      <c r="F224" s="1">
         <v>656</v>
       </c>
       <c r="G224" s="1">
@@ -13566,7 +13563,7 @@
       <c r="E225" s="1">
         <v>664</v>
       </c>
-      <c r="F225" s="38">
+      <c r="F225" s="1">
         <v>661</v>
       </c>
       <c r="G225" s="1">
@@ -13622,7 +13619,7 @@
       <c r="E226" s="1">
         <v>675</v>
       </c>
-      <c r="F226" s="38">
+      <c r="F226" s="1">
         <v>672</v>
       </c>
       <c r="G226" s="1">
@@ -13678,7 +13675,7 @@
       <c r="E227" s="1">
         <v>679</v>
       </c>
-      <c r="F227" s="38">
+      <c r="F227" s="1">
         <v>676</v>
       </c>
       <c r="G227" s="1">
@@ -13734,7 +13731,7 @@
       <c r="E228" s="1">
         <v>694</v>
       </c>
-      <c r="F228" s="38">
+      <c r="F228" s="1">
         <v>691</v>
       </c>
       <c r="G228" s="1">
@@ -13790,7 +13787,7 @@
       <c r="E229" s="1">
         <v>713</v>
       </c>
-      <c r="F229" s="38">
+      <c r="F229" s="1">
         <v>710</v>
       </c>
       <c r="G229" s="1">
@@ -13846,7 +13843,7 @@
       <c r="E230" s="1">
         <v>726</v>
       </c>
-      <c r="F230" s="38">
+      <c r="F230" s="1">
         <v>723</v>
       </c>
       <c r="G230" s="1">
@@ -13902,7 +13899,7 @@
       <c r="E231" s="1">
         <v>737</v>
       </c>
-      <c r="F231" s="38">
+      <c r="F231" s="1">
         <v>734</v>
       </c>
       <c r="G231" s="1">
@@ -13958,7 +13955,7 @@
       <c r="E232" s="1">
         <v>745</v>
       </c>
-      <c r="F232" s="38">
+      <c r="F232" s="1">
         <v>742</v>
       </c>
       <c r="G232" s="1">
@@ -14014,7 +14011,7 @@
       <c r="E233" s="1">
         <v>754</v>
       </c>
-      <c r="F233" s="38">
+      <c r="F233" s="1">
         <v>751</v>
       </c>
       <c r="G233" s="1">
@@ -14070,7 +14067,7 @@
       <c r="E234" s="1">
         <v>771</v>
       </c>
-      <c r="F234" s="38">
+      <c r="F234" s="1">
         <v>768</v>
       </c>
       <c r="G234" s="1">
@@ -14126,7 +14123,7 @@
       <c r="E235" s="1">
         <v>788</v>
       </c>
-      <c r="F235" s="38">
+      <c r="F235" s="1">
         <v>785</v>
       </c>
       <c r="G235" s="1">
@@ -14182,7 +14179,7 @@
       <c r="E236" s="1">
         <v>812</v>
       </c>
-      <c r="F236" s="38">
+      <c r="F236" s="1">
         <v>809</v>
       </c>
       <c r="G236" s="1">
@@ -14238,7 +14235,7 @@
       <c r="E237" s="1">
         <v>835</v>
       </c>
-      <c r="F237" s="38">
+      <c r="F237" s="1">
         <v>832</v>
       </c>
       <c r="G237" s="1">
@@ -14294,7 +14291,7 @@
       <c r="E238" s="1">
         <v>844</v>
       </c>
-      <c r="F238" s="38">
+      <c r="F238" s="1">
         <v>841</v>
       </c>
       <c r="G238" s="1">
@@ -14350,7 +14347,7 @@
       <c r="E239" s="1">
         <v>858</v>
       </c>
-      <c r="F239" s="38">
+      <c r="F239" s="1">
         <v>855</v>
       </c>
       <c r="G239" s="1">
@@ -14406,7 +14403,7 @@
       <c r="E240" s="1">
         <v>868</v>
       </c>
-      <c r="F240" s="38">
+      <c r="F240" s="1">
         <v>865</v>
       </c>
       <c r="G240" s="1">
@@ -14462,7 +14459,7 @@
       <c r="E241" s="1">
         <v>896</v>
       </c>
-      <c r="F241" s="38">
+      <c r="F241" s="1">
         <v>893</v>
       </c>
       <c r="G241" s="1">
@@ -14518,7 +14515,7 @@
       <c r="E242" s="1">
         <v>929</v>
       </c>
-      <c r="F242" s="38">
+      <c r="F242" s="1">
         <v>926</v>
       </c>
       <c r="G242" s="1">
@@ -14574,7 +14571,7 @@
       <c r="E243" s="1">
         <v>952</v>
       </c>
-      <c r="F243" s="38">
+      <c r="F243" s="1">
         <v>948</v>
       </c>
       <c r="G243" s="1">
@@ -14630,7 +14627,7 @@
       <c r="E244" s="1">
         <v>975</v>
       </c>
-      <c r="F244" s="38">
+      <c r="F244" s="1">
         <v>971</v>
       </c>
       <c r="G244" s="1">
@@ -14686,7 +14683,7 @@
       <c r="E245" s="1">
         <v>989</v>
       </c>
-      <c r="F245" s="38">
+      <c r="F245" s="1">
         <v>985</v>
       </c>
       <c r="G245" s="1">
@@ -14742,7 +14739,7 @@
       <c r="E246" s="1">
         <v>1010</v>
       </c>
-      <c r="F246" s="38">
+      <c r="F246" s="1">
         <v>1006</v>
       </c>
       <c r="G246" s="1">
@@ -14798,7 +14795,7 @@
       <c r="E247" s="1">
         <v>1026</v>
       </c>
-      <c r="F247" s="38">
+      <c r="F247" s="1">
         <v>1021</v>
       </c>
       <c r="G247" s="1">
@@ -14854,7 +14851,7 @@
       <c r="E248" s="1">
         <v>1038</v>
       </c>
-      <c r="F248" s="38">
+      <c r="F248" s="1">
         <v>1033</v>
       </c>
       <c r="G248" s="1">
@@ -14910,7 +14907,7 @@
       <c r="E249" s="1">
         <v>1061</v>
       </c>
-      <c r="F249" s="38">
+      <c r="F249" s="1">
         <v>1055</v>
       </c>
       <c r="G249" s="1">
@@ -14966,7 +14963,7 @@
       <c r="E250" s="1">
         <v>1087</v>
       </c>
-      <c r="F250" s="38">
+      <c r="F250" s="1">
         <v>1080</v>
       </c>
       <c r="G250" s="1">
@@ -15022,7 +15019,7 @@
       <c r="E251" s="1">
         <v>1106</v>
       </c>
-      <c r="F251" s="38">
+      <c r="F251" s="1">
         <v>1099</v>
       </c>
       <c r="G251" s="1">
@@ -15078,7 +15075,7 @@
       <c r="E252" s="1">
         <v>1122</v>
       </c>
-      <c r="F252" s="38">
+      <c r="F252" s="1">
         <v>1115</v>
       </c>
       <c r="G252" s="1">
@@ -15134,7 +15131,7 @@
       <c r="E253" s="1">
         <v>1141</v>
       </c>
-      <c r="F253" s="38">
+      <c r="F253" s="1">
         <v>1134</v>
       </c>
       <c r="G253" s="1">
@@ -15190,7 +15187,7 @@
       <c r="E254" s="1">
         <v>1157</v>
       </c>
-      <c r="F254" s="38">
+      <c r="F254" s="1">
         <v>1150</v>
       </c>
       <c r="G254" s="1">
@@ -15246,7 +15243,7 @@
       <c r="E255" s="1">
         <v>1190</v>
       </c>
-      <c r="F255" s="38">
+      <c r="F255" s="1">
         <v>1183</v>
       </c>
       <c r="G255" s="1">
@@ -15302,7 +15299,7 @@
       <c r="E256" s="1">
         <v>1229</v>
       </c>
-      <c r="F256" s="38">
+      <c r="F256" s="1">
         <v>1222</v>
       </c>
       <c r="G256" s="1">
@@ -15358,7 +15355,7 @@
       <c r="E257" s="1">
         <v>1264</v>
       </c>
-      <c r="F257" s="38">
+      <c r="F257" s="1">
         <v>1255</v>
       </c>
       <c r="G257" s="1">
@@ -15414,7 +15411,7 @@
       <c r="E258" s="1">
         <v>1291</v>
       </c>
-      <c r="F258" s="38">
+      <c r="F258" s="1">
         <v>1280</v>
       </c>
       <c r="G258" s="1">
@@ -15470,7 +15467,7 @@
       <c r="E259" s="1">
         <v>1306</v>
       </c>
-      <c r="F259" s="38">
+      <c r="F259" s="1">
         <v>1295</v>
       </c>
       <c r="G259" s="1">
@@ -15526,7 +15523,7 @@
       <c r="E260" s="1">
         <v>1330</v>
       </c>
-      <c r="F260" s="38">
+      <c r="F260" s="1">
         <v>1319</v>
       </c>
       <c r="G260" s="1">
@@ -15582,7 +15579,7 @@
       <c r="E261" s="1">
         <v>1351</v>
       </c>
-      <c r="F261" s="38">
+      <c r="F261" s="1">
         <v>1339</v>
       </c>
       <c r="G261" s="1">
@@ -15638,7 +15635,7 @@
       <c r="E262" s="1">
         <v>1386</v>
       </c>
-      <c r="F262" s="38">
+      <c r="F262" s="1">
         <v>1373</v>
       </c>
       <c r="G262" s="1">
@@ -15694,7 +15691,7 @@
       <c r="E263" s="1">
         <v>1410</v>
       </c>
-      <c r="F263" s="38">
+      <c r="F263" s="1">
         <v>1397</v>
       </c>
       <c r="G263" s="1">
@@ -15750,7 +15747,7 @@
       <c r="E264" s="1">
         <v>1433</v>
       </c>
-      <c r="F264" s="38">
+      <c r="F264" s="1">
         <v>1420</v>
       </c>
       <c r="G264" s="1">
@@ -15806,7 +15803,7 @@
       <c r="E265" s="1">
         <v>1465</v>
       </c>
-      <c r="F265" s="42">
+      <c r="F265" s="18">
         <v>1452</v>
       </c>
       <c r="G265" s="1">
@@ -15862,7 +15859,7 @@
       <c r="E266" s="1">
         <v>1493</v>
       </c>
-      <c r="F266" s="42">
+      <c r="F266" s="18">
         <v>1480</v>
       </c>
       <c r="G266" s="1">
@@ -15918,7 +15915,7 @@
       <c r="E267" s="1">
         <v>1512</v>
       </c>
-      <c r="F267" s="42">
+      <c r="F267" s="18">
         <v>1499</v>
       </c>
       <c r="G267" s="1">
@@ -15974,7 +15971,7 @@
       <c r="E268" s="1">
         <v>1530</v>
       </c>
-      <c r="F268" s="42">
+      <c r="F268" s="18">
         <v>1516</v>
       </c>
       <c r="G268" s="1">
@@ -16030,7 +16027,7 @@
       <c r="E269" s="1">
         <v>1554</v>
       </c>
-      <c r="F269" s="42">
+      <c r="F269" s="18">
         <v>1540</v>
       </c>
       <c r="G269" s="1">
@@ -16086,7 +16083,7 @@
       <c r="E270" s="1">
         <v>1577</v>
       </c>
-      <c r="F270" s="42">
+      <c r="F270" s="18">
         <v>1563</v>
       </c>
       <c r="G270" s="1">
@@ -16142,7 +16139,7 @@
       <c r="E271" s="1">
         <v>1600</v>
       </c>
-      <c r="F271" s="38">
+      <c r="F271" s="1">
         <v>1586</v>
       </c>
       <c r="G271" s="1">
@@ -16198,7 +16195,7 @@
       <c r="E272" s="1">
         <v>1628</v>
       </c>
-      <c r="F272" s="38">
+      <c r="F272" s="1">
         <v>1614</v>
       </c>
       <c r="G272" s="1">
@@ -16254,7 +16251,7 @@
       <c r="E273" s="1">
         <v>1654</v>
       </c>
-      <c r="F273" s="38">
+      <c r="F273" s="1">
         <v>1639</v>
       </c>
       <c r="G273" s="1">
@@ -16535,7 +16532,7 @@
         <v>1812</v>
       </c>
       <c r="F278" s="1">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G278" s="1">
         <v>304</v>
@@ -16591,7 +16588,7 @@
         <v>1843</v>
       </c>
       <c r="F279" s="1">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G279" s="1">
         <v>315</v>
@@ -16647,7 +16644,7 @@
         <v>1882</v>
       </c>
       <c r="F280" s="18">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="G280" s="1">
         <v>345</v>
@@ -16703,7 +16700,7 @@
         <v>1912</v>
       </c>
       <c r="F281" s="1">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="G281" s="1">
         <v>335</v>
@@ -16735,6 +16732,51 @@
       <c r="R281" s="34"/>
     </row>
     <row r="282" spans="1:18">
+      <c r="A282" s="12">
+        <v>44194</v>
+      </c>
+      <c r="B282" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D282" s="1">
+        <v>24</v>
+      </c>
+      <c r="E282" s="1">
+        <v>1936</v>
+      </c>
+      <c r="F282" s="1">
+        <v>1920</v>
+      </c>
+      <c r="G282" s="1">
+        <v>336</v>
+      </c>
+      <c r="H282" s="1">
+        <v>249</v>
+      </c>
+      <c r="I282" s="1">
+        <v>15</v>
+      </c>
+      <c r="J282" s="1">
+        <v>22</v>
+      </c>
+      <c r="K282" s="1">
+        <v>1578</v>
+      </c>
+      <c r="L282" s="1">
+        <v>87</v>
+      </c>
+      <c r="M282" s="1">
+        <v>250</v>
+      </c>
+      <c r="N282" s="1">
+        <v>0</v>
+      </c>
+      <c r="O282" s="1">
+        <v>467</v>
+      </c>
       <c r="R282" s="34"/>
     </row>
     <row r="283" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$301</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="40">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -998,31 +998,31 @@
   <dimension ref="A1:AB526"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="I279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F286" sqref="F286"/>
+      <selection pane="bottomRight" activeCell="T283" sqref="T283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22.5">
+    <row r="1" spans="1:28" ht="22">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44194.69594849537</v>
+        <v>44195.760401157408</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1044,7 +1044,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="67.5">
+    <row r="2" spans="1:28" ht="65">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -16780,6 +16780,51 @@
       <c r="R282" s="34"/>
     </row>
     <row r="283" spans="1:18">
+      <c r="A283" s="12">
+        <v>44195</v>
+      </c>
+      <c r="B283" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D283" s="1">
+        <v>30</v>
+      </c>
+      <c r="E283" s="1">
+        <v>1966</v>
+      </c>
+      <c r="F283" s="1">
+        <v>1950</v>
+      </c>
+      <c r="G283" s="1">
+        <v>340</v>
+      </c>
+      <c r="H283" s="1">
+        <v>248</v>
+      </c>
+      <c r="I283" s="1">
+        <v>14</v>
+      </c>
+      <c r="J283" s="1">
+        <v>24</v>
+      </c>
+      <c r="K283" s="1">
+        <v>1602</v>
+      </c>
+      <c r="L283" s="1">
+        <v>92</v>
+      </c>
+      <c r="M283" s="1">
+        <v>250</v>
+      </c>
+      <c r="N283" s="1">
+        <v>0</v>
+      </c>
+      <c r="O283" s="1">
+        <v>370</v>
+      </c>
       <c r="R283" s="34"/>
     </row>
     <row r="284" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="40">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -998,10 +998,10 @@
   <dimension ref="A1:AB526"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T283" sqref="T283"/>
+      <selection pane="bottomRight" activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44195.760401157408</v>
+        <v>44196.73642523148</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -16828,6 +16828,51 @@
       <c r="R283" s="34"/>
     </row>
     <row r="284" spans="1:18">
+      <c r="A284" s="12">
+        <v>44196</v>
+      </c>
+      <c r="B284" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D284" s="1">
+        <v>39</v>
+      </c>
+      <c r="E284" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F284" s="1">
+        <v>1989</v>
+      </c>
+      <c r="G284" s="1">
+        <v>361</v>
+      </c>
+      <c r="H284" s="1">
+        <v>254</v>
+      </c>
+      <c r="I284" s="1">
+        <v>13</v>
+      </c>
+      <c r="J284" s="1">
+        <v>24</v>
+      </c>
+      <c r="K284" s="1">
+        <v>1620</v>
+      </c>
+      <c r="L284" s="1">
+        <v>107</v>
+      </c>
+      <c r="M284" s="1">
+        <v>250</v>
+      </c>
+      <c r="N284" s="1">
+        <v>0</v>
+      </c>
+      <c r="O284" s="1">
+        <v>370</v>
+      </c>
       <c r="R284" s="34"/>
     </row>
     <row r="285" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="40">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -998,10 +998,10 @@
   <dimension ref="A1:AB526"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A285" sqref="A285"/>
+      <selection pane="bottomRight" activeCell="G287" sqref="G287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44196.73642523148</v>
+        <v>44198.696715972219</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -16876,9 +16876,99 @@
       <c r="R284" s="34"/>
     </row>
     <row r="285" spans="1:18">
+      <c r="A285" s="12">
+        <v>44197</v>
+      </c>
+      <c r="B285" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D285" s="1">
+        <v>36</v>
+      </c>
+      <c r="E285" s="1">
+        <v>2041</v>
+      </c>
+      <c r="F285" s="1">
+        <v>2025</v>
+      </c>
+      <c r="G285" s="1">
+        <v>371</v>
+      </c>
+      <c r="H285" s="1">
+        <v>268</v>
+      </c>
+      <c r="I285" s="1">
+        <v>12</v>
+      </c>
+      <c r="J285" s="1">
+        <v>24</v>
+      </c>
+      <c r="K285" s="1">
+        <v>1646</v>
+      </c>
+      <c r="L285" s="1">
+        <v>103</v>
+      </c>
+      <c r="M285" s="1">
+        <v>250</v>
+      </c>
+      <c r="N285" s="1">
+        <v>0</v>
+      </c>
+      <c r="O285" s="1">
+        <v>370</v>
+      </c>
       <c r="R285" s="34"/>
     </row>
     <row r="286" spans="1:18">
+      <c r="A286" s="12">
+        <v>44198</v>
+      </c>
+      <c r="B286" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286" s="1">
+        <v>36</v>
+      </c>
+      <c r="E286" s="1">
+        <v>2077</v>
+      </c>
+      <c r="F286" s="1">
+        <v>2061</v>
+      </c>
+      <c r="G286" s="1">
+        <v>379</v>
+      </c>
+      <c r="H286" s="1">
+        <v>272</v>
+      </c>
+      <c r="I286" s="1">
+        <v>12</v>
+      </c>
+      <c r="J286" s="1">
+        <v>24</v>
+      </c>
+      <c r="K286" s="1">
+        <v>1674</v>
+      </c>
+      <c r="L286" s="1">
+        <v>107</v>
+      </c>
+      <c r="M286" s="1">
+        <v>250</v>
+      </c>
+      <c r="N286" s="1">
+        <v>0</v>
+      </c>
+      <c r="O286" s="1">
+        <v>370</v>
+      </c>
       <c r="R286" s="34"/>
     </row>
     <row r="287" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$301</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="40">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -652,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -778,6 +778,9 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -998,31 +1001,31 @@
   <dimension ref="A1:AB526"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="O283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G287" sqref="G287"/>
+      <selection pane="bottomRight" activeCell="T293" sqref="T293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.58203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.58203125" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22">
+    <row r="1" spans="1:28" ht="22.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44198.696715972219</v>
+        <v>44202.714104398146</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1044,7 +1047,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="65">
+    <row r="2" spans="1:28" ht="67.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -16506,13 +16509,13 @@
         <v>467</v>
       </c>
       <c r="P277" s="1">
-        <v>589</v>
+        <v>698</v>
       </c>
       <c r="Q277" s="1">
         <v>42</v>
       </c>
       <c r="R277" s="34">
-        <v>5.2179260692739052E-2</v>
+        <v>5.0588492015801304E-2</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -16562,13 +16565,13 @@
         <v>467</v>
       </c>
       <c r="P278" s="1">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="Q278" s="1">
         <v>28</v>
       </c>
       <c r="R278" s="34">
-        <v>5.3274169682384895E-2</v>
+        <v>5.1199394271440414E-2</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -16618,13 +16621,13 @@
         <v>467</v>
       </c>
       <c r="P279" s="1">
-        <v>490</v>
+        <v>779</v>
       </c>
       <c r="Q279" s="1">
         <v>27</v>
       </c>
       <c r="R279" s="34">
-        <v>5.3679488604378774E-2</v>
+        <v>4.8684395974303844E-2</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -16674,13 +16677,13 @@
         <v>467</v>
       </c>
       <c r="P280" s="1">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="Q280" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="R280" s="34">
-        <v>6.2103598989273472E-2</v>
+        <v>5.4334765283821015E-2</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -16699,8 +16702,8 @@
       <c r="E281" s="1">
         <v>1912</v>
       </c>
-      <c r="F281" s="1">
-        <v>1896</v>
+      <c r="F281" s="42">
+        <v>1895</v>
       </c>
       <c r="G281" s="1">
         <v>335</v>
@@ -16729,7 +16732,15 @@
       <c r="O281" s="1">
         <v>467</v>
       </c>
-      <c r="R281" s="34"/>
+      <c r="P281" s="1">
+        <v>775</v>
+      </c>
+      <c r="Q281" s="1">
+        <v>41</v>
+      </c>
+      <c r="R281" s="34">
+        <v>5.4973362051450043E-2</v>
+      </c>
     </row>
     <row r="282" spans="1:18">
       <c r="A282" s="12">
@@ -16747,8 +16758,8 @@
       <c r="E282" s="1">
         <v>1936</v>
       </c>
-      <c r="F282" s="1">
-        <v>1920</v>
+      <c r="F282" s="42">
+        <v>1919</v>
       </c>
       <c r="G282" s="1">
         <v>336</v>
@@ -16777,7 +16788,15 @@
       <c r="O282" s="1">
         <v>467</v>
       </c>
-      <c r="R282" s="34"/>
+      <c r="P282" s="1">
+        <v>539</v>
+      </c>
+      <c r="Q282" s="1">
+        <v>28</v>
+      </c>
+      <c r="R282" s="34">
+        <v>5.4380086363003052E-2</v>
+      </c>
     </row>
     <row r="283" spans="1:18">
       <c r="A283" s="12">
@@ -16795,8 +16814,8 @@
       <c r="E283" s="1">
         <v>1966</v>
       </c>
-      <c r="F283" s="1">
-        <v>1950</v>
+      <c r="F283" s="42">
+        <v>1948</v>
       </c>
       <c r="G283" s="1">
         <v>340</v>
@@ -16825,7 +16844,15 @@
       <c r="O283" s="1">
         <v>370</v>
       </c>
-      <c r="R283" s="34"/>
+      <c r="P283" s="1">
+        <v>504</v>
+      </c>
+      <c r="Q283" s="1">
+        <v>37</v>
+      </c>
+      <c r="R283" s="34">
+        <v>5.7615983090560388E-2</v>
+      </c>
     </row>
     <row r="284" spans="1:18">
       <c r="A284" s="12">
@@ -16844,7 +16871,7 @@
         <v>2005</v>
       </c>
       <c r="F284" s="1">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="G284" s="1">
         <v>361</v>
@@ -16873,7 +16900,15 @@
       <c r="O284" s="1">
         <v>370</v>
       </c>
-      <c r="R284" s="34"/>
+      <c r="P284" s="1">
+        <v>528</v>
+      </c>
+      <c r="Q284" s="1">
+        <v>39</v>
+      </c>
+      <c r="R284" s="34">
+        <v>5.9571942603826512E-2</v>
+      </c>
     </row>
     <row r="285" spans="1:18">
       <c r="A285" s="12">
@@ -16892,7 +16927,7 @@
         <v>2041</v>
       </c>
       <c r="F285" s="1">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="G285" s="1">
         <v>371</v>
@@ -16921,7 +16956,15 @@
       <c r="O285" s="1">
         <v>370</v>
       </c>
-      <c r="R285" s="34"/>
+      <c r="P285" s="1">
+        <v>290</v>
+      </c>
+      <c r="Q285" s="1">
+        <v>37</v>
+      </c>
+      <c r="R285" s="34">
+        <v>7.1548543589048191E-2</v>
+      </c>
     </row>
     <row r="286" spans="1:18">
       <c r="A286" s="12">
@@ -16940,7 +16983,7 @@
         <v>2077</v>
       </c>
       <c r="F286" s="1">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="G286" s="1">
         <v>379</v>
@@ -16969,60 +17012,272 @@
       <c r="O286" s="1">
         <v>370</v>
       </c>
-      <c r="R286" s="34"/>
+      <c r="P286" s="1">
+        <v>318</v>
+      </c>
+      <c r="Q286" s="1">
+        <v>21</v>
+      </c>
+      <c r="R286" s="34">
+        <v>7.6480339254004409E-2</v>
+      </c>
     </row>
     <row r="287" spans="1:18">
-      <c r="R287" s="34"/>
+      <c r="A287" s="12">
+        <v>44199</v>
+      </c>
+      <c r="B287" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D287" s="1">
+        <v>31</v>
+      </c>
+      <c r="E287" s="1">
+        <v>2108</v>
+      </c>
+      <c r="F287" s="1">
+        <v>2090</v>
+      </c>
+      <c r="G287" s="1">
+        <v>387</v>
+      </c>
+      <c r="H287" s="1">
+        <v>277</v>
+      </c>
+      <c r="I287" s="1">
+        <v>11</v>
+      </c>
+      <c r="J287" s="1">
+        <v>25</v>
+      </c>
+      <c r="K287" s="1">
+        <v>1696</v>
+      </c>
+      <c r="L287" s="1">
+        <v>110</v>
+      </c>
+      <c r="M287" s="1">
+        <v>250</v>
+      </c>
+      <c r="N287" s="1">
+        <v>0</v>
+      </c>
+      <c r="O287" s="1">
+        <v>370</v>
+      </c>
+      <c r="P287" s="1">
+        <v>302</v>
+      </c>
+      <c r="Q287" s="1">
+        <v>22</v>
+      </c>
+      <c r="R287" s="34">
+        <v>7.4534841640528912E-2</v>
+      </c>
     </row>
     <row r="288" spans="1:18">
-      <c r="R288" s="34"/>
-    </row>
-    <row r="289" spans="18:18">
-      <c r="R289" s="34"/>
-    </row>
-    <row r="290" spans="18:18">
+      <c r="A288" s="12">
+        <v>44200</v>
+      </c>
+      <c r="B288" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D288" s="1">
+        <v>22</v>
+      </c>
+      <c r="E288" s="1">
+        <v>2130</v>
+      </c>
+      <c r="F288" s="1">
+        <v>2112</v>
+      </c>
+      <c r="G288" s="1">
+        <v>345</v>
+      </c>
+      <c r="H288" s="1">
+        <v>231</v>
+      </c>
+      <c r="I288" s="1">
+        <v>11</v>
+      </c>
+      <c r="J288" s="1">
+        <v>25</v>
+      </c>
+      <c r="K288" s="1">
+        <v>1760</v>
+      </c>
+      <c r="L288" s="1">
+        <v>114</v>
+      </c>
+      <c r="M288" s="1">
+        <v>250</v>
+      </c>
+      <c r="N288" s="1">
+        <v>0</v>
+      </c>
+      <c r="O288" s="1">
+        <v>370</v>
+      </c>
+      <c r="P288" s="1">
+        <v>690</v>
+      </c>
+      <c r="Q288" s="1">
+        <v>23</v>
+      </c>
+      <c r="R288" s="34">
+        <v>7.1739142715797719E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18">
+      <c r="A289" s="12">
+        <v>44201</v>
+      </c>
+      <c r="B289" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289" s="1">
+        <v>30</v>
+      </c>
+      <c r="E289" s="1">
+        <v>2160</v>
+      </c>
+      <c r="F289" s="1">
+        <v>2142</v>
+      </c>
+      <c r="G289" s="1">
+        <v>357</v>
+      </c>
+      <c r="H289" s="1">
+        <v>234</v>
+      </c>
+      <c r="I289" s="1">
+        <v>10</v>
+      </c>
+      <c r="J289" s="1">
+        <v>26</v>
+      </c>
+      <c r="K289" s="1">
+        <v>1777</v>
+      </c>
+      <c r="L289" s="1">
+        <v>123</v>
+      </c>
+      <c r="M289" s="1">
+        <v>250</v>
+      </c>
+      <c r="N289" s="1">
+        <v>0</v>
+      </c>
+      <c r="O289" s="1">
+        <v>370</v>
+      </c>
+      <c r="P289" s="1">
+        <v>503</v>
+      </c>
+      <c r="Q289" s="1">
+        <v>13</v>
+      </c>
+      <c r="R289" s="34">
+        <v>6.8010125354289588E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18">
+      <c r="A290" s="12">
+        <v>44202</v>
+      </c>
+      <c r="B290" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D290" s="1">
+        <v>24</v>
+      </c>
+      <c r="E290" s="1">
+        <v>2184</v>
+      </c>
+      <c r="F290" s="1">
+        <v>2166</v>
+      </c>
+      <c r="G290" s="1">
+        <v>351</v>
+      </c>
+      <c r="H290" s="1">
+        <v>234</v>
+      </c>
+      <c r="I290" s="1">
+        <v>10</v>
+      </c>
+      <c r="J290" s="1">
+        <v>26</v>
+      </c>
+      <c r="K290" s="1">
+        <v>1807</v>
+      </c>
+      <c r="L290" s="1">
+        <v>117</v>
+      </c>
+      <c r="M290" s="1">
+        <v>250</v>
+      </c>
+      <c r="N290" s="1">
+        <v>0</v>
+      </c>
+      <c r="O290" s="1">
+        <v>370</v>
+      </c>
       <c r="R290" s="34"/>
     </row>
-    <row r="291" spans="18:18">
+    <row r="291" spans="1:18">
       <c r="R291" s="34"/>
     </row>
-    <row r="292" spans="18:18">
+    <row r="292" spans="1:18">
       <c r="R292" s="34"/>
     </row>
-    <row r="293" spans="18:18">
+    <row r="293" spans="1:18">
       <c r="R293" s="34"/>
     </row>
-    <row r="294" spans="18:18">
+    <row r="294" spans="1:18">
       <c r="R294" s="34"/>
     </row>
-    <row r="295" spans="18:18">
+    <row r="295" spans="1:18">
       <c r="R295" s="34"/>
     </row>
-    <row r="296" spans="18:18">
+    <row r="296" spans="1:18">
       <c r="R296" s="34"/>
     </row>
-    <row r="297" spans="18:18">
+    <row r="297" spans="1:18">
       <c r="R297" s="34"/>
     </row>
-    <row r="298" spans="18:18">
+    <row r="298" spans="1:18">
       <c r="R298" s="34"/>
     </row>
-    <row r="299" spans="18:18">
+    <row r="299" spans="1:18">
       <c r="R299" s="34"/>
     </row>
-    <row r="300" spans="18:18">
+    <row r="300" spans="1:18">
       <c r="R300" s="34"/>
     </row>
-    <row r="301" spans="18:18">
+    <row r="301" spans="1:18">
       <c r="R301" s="34"/>
     </row>
-    <row r="302" spans="18:18">
+    <row r="302" spans="1:18">
       <c r="R302" s="34"/>
     </row>
-    <row r="303" spans="18:18">
+    <row r="303" spans="1:18">
       <c r="R303" s="34"/>
     </row>
-    <row r="304" spans="18:18">
+    <row r="304" spans="1:18">
       <c r="R304" s="34"/>
     </row>
     <row r="305" spans="18:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$301</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="40">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -1001,10 +1001,10 @@
   <dimension ref="A1:AB526"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O283" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J282" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T293" sqref="T293"/>
+      <selection pane="bottomRight" activeCell="P291" sqref="P291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44202.714104398146</v>
+        <v>44203.767995254631</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -17019,7 +17019,7 @@
         <v>21</v>
       </c>
       <c r="R286" s="34">
-        <v>7.6480339254004409E-2</v>
+        <v>7.6031102955711499E-2</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -17075,7 +17075,7 @@
         <v>22</v>
       </c>
       <c r="R287" s="34">
-        <v>7.4534841640528912E-2</v>
+        <v>7.4085605342236002E-2</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -17131,7 +17131,7 @@
         <v>23</v>
       </c>
       <c r="R288" s="34">
-        <v>7.1739142715797719E-2</v>
+        <v>7.1289906417504809E-2</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -17181,13 +17181,13 @@
         <v>370</v>
       </c>
       <c r="P289" s="1">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="Q289" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="R289" s="34">
-        <v>6.8010125354289588E-2</v>
+        <v>7.0898633116364587E-2</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -17236,9 +17236,62 @@
       <c r="O290" s="1">
         <v>370</v>
       </c>
-      <c r="R290" s="34"/>
+      <c r="P290" s="1">
+        <v>434</v>
+      </c>
+      <c r="Q290" s="1">
+        <v>11</v>
+      </c>
+      <c r="R290" s="34">
+        <v>6.4031907931667034E-2</v>
+      </c>
     </row>
     <row r="291" spans="1:18">
+      <c r="A291" s="12">
+        <v>44203</v>
+      </c>
+      <c r="B291" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D291" s="1">
+        <v>27</v>
+      </c>
+      <c r="E291" s="1">
+        <v>2211</v>
+      </c>
+      <c r="F291" s="1">
+        <v>2193</v>
+      </c>
+      <c r="G291" s="1">
+        <v>344</v>
+      </c>
+      <c r="H291" s="1">
+        <v>219</v>
+      </c>
+      <c r="I291" s="1">
+        <v>10</v>
+      </c>
+      <c r="J291" s="1">
+        <v>26</v>
+      </c>
+      <c r="K291" s="1">
+        <v>1841</v>
+      </c>
+      <c r="L291" s="1">
+        <v>125</v>
+      </c>
+      <c r="M291" s="1">
+        <v>250</v>
+      </c>
+      <c r="N291" s="1">
+        <v>0</v>
+      </c>
+      <c r="O291" s="1">
+        <v>370</v>
+      </c>
       <c r="R291" s="34"/>
     </row>
     <row r="292" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$301</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="40">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -1001,10 +1001,10 @@
   <dimension ref="A1:AB526"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J282" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P291" sqref="P291"/>
+      <selection pane="bottomRight" activeCell="A293" sqref="A293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44203.767995254631</v>
+        <v>44205.709601620372</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -17237,13 +17237,13 @@
         <v>370</v>
       </c>
       <c r="P290" s="1">
-        <v>434</v>
+        <v>576</v>
       </c>
       <c r="Q290" s="1">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="R290" s="34">
-        <v>6.4031907931667034E-2</v>
+        <v>6.7851580962169561E-2</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -17292,12 +17292,110 @@
       <c r="O291" s="1">
         <v>370</v>
       </c>
-      <c r="R291" s="34"/>
+      <c r="P291" s="1">
+        <v>491</v>
+      </c>
+      <c r="Q291" s="1">
+        <v>36</v>
+      </c>
+      <c r="R291" s="34">
+        <v>6.7773883710337893E-2</v>
+      </c>
     </row>
     <row r="292" spans="1:18">
+      <c r="A292" s="12">
+        <v>44204</v>
+      </c>
+      <c r="B292" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D292" s="1">
+        <v>55</v>
+      </c>
+      <c r="E292" s="1">
+        <v>2266</v>
+      </c>
+      <c r="F292" s="1">
+        <v>2248</v>
+      </c>
+      <c r="G292" s="1">
+        <v>371</v>
+      </c>
+      <c r="H292" s="1">
+        <v>246</v>
+      </c>
+      <c r="I292" s="1">
+        <v>10</v>
+      </c>
+      <c r="J292" s="1">
+        <v>26</v>
+      </c>
+      <c r="K292" s="1">
+        <v>1869</v>
+      </c>
+      <c r="L292" s="1">
+        <v>125</v>
+      </c>
+      <c r="M292" s="1">
+        <v>250</v>
+      </c>
+      <c r="N292" s="1">
+        <v>0</v>
+      </c>
+      <c r="O292" s="1">
+        <v>370</v>
+      </c>
       <c r="R292" s="34"/>
     </row>
     <row r="293" spans="1:18">
+      <c r="A293" s="12">
+        <v>44205</v>
+      </c>
+      <c r="B293" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D293" s="1">
+        <v>45</v>
+      </c>
+      <c r="E293" s="1">
+        <v>2311</v>
+      </c>
+      <c r="F293" s="1">
+        <v>2293</v>
+      </c>
+      <c r="G293" s="1">
+        <v>380</v>
+      </c>
+      <c r="H293" s="1">
+        <v>240</v>
+      </c>
+      <c r="I293" s="1">
+        <v>11</v>
+      </c>
+      <c r="J293" s="1">
+        <v>26</v>
+      </c>
+      <c r="K293" s="1">
+        <v>1905</v>
+      </c>
+      <c r="L293" s="1">
+        <v>140</v>
+      </c>
+      <c r="M293" s="1">
+        <v>250</v>
+      </c>
+      <c r="N293" s="1">
+        <v>0</v>
+      </c>
+      <c r="O293" s="1">
+        <v>370</v>
+      </c>
       <c r="R293" s="34"/>
     </row>
     <row r="294" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="40">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -1001,10 +1001,10 @@
   <dimension ref="A1:AB526"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D283" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A293" sqref="A293"/>
+      <selection pane="bottomRight" activeCell="F295" sqref="F295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44205.709601620372</v>
+        <v>44206.729720717594</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -17399,6 +17399,51 @@
       <c r="R293" s="34"/>
     </row>
     <row r="294" spans="1:18">
+      <c r="A294" s="12">
+        <v>44206</v>
+      </c>
+      <c r="B294" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D294" s="1">
+        <v>46</v>
+      </c>
+      <c r="E294" s="1">
+        <v>2357</v>
+      </c>
+      <c r="F294" s="1">
+        <v>2339</v>
+      </c>
+      <c r="G294" s="1">
+        <v>398</v>
+      </c>
+      <c r="H294" s="1">
+        <v>254</v>
+      </c>
+      <c r="I294" s="1">
+        <v>11</v>
+      </c>
+      <c r="J294" s="1">
+        <v>26</v>
+      </c>
+      <c r="K294" s="1">
+        <v>1933</v>
+      </c>
+      <c r="L294" s="1">
+        <v>144</v>
+      </c>
+      <c r="M294" s="1">
+        <v>250</v>
+      </c>
+      <c r="N294" s="1">
+        <v>0</v>
+      </c>
+      <c r="O294" s="1">
+        <v>370</v>
+      </c>
       <c r="R294" s="34"/>
     </row>
     <row r="295" spans="1:18">

--- a/work/29_nara2.xlsx
+++ b/work/29_nara2.xlsx
@@ -15,11 +15,11 @@
     <sheet name="奈良県_02新型コロナウイルス感染者_患者集計表" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AB$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$U$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">奈良県_02新型コロナウイルス感染者_患者集計表!$A$2:$AD$296</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$A$1:$W$301</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">奈良県_02新型コロナウイルス感染者_患者集計表!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="43">
   <si>
     <t>全国地方公共団体コード</t>
   </si>
@@ -481,11 +481,83 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>1/12から入院者数と宿泊療養者数は入院・療養中にまとめられます。また、入院・入所準備中を追加しました。</t>
+    <rPh sb="6" eb="9">
+      <t>ニュウインシャ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>リョウヨウシャ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウイン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>リョウヨウチュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウイン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウショ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ジュンビチュウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入院・入所準備中数</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入院・療養中数</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リョウヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
@@ -574,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -603,19 +675,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -716,9 +775,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -728,16 +784,10 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,22 +796,16 @@
     <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,11 +820,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -998,34 +1048,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB526"/>
+  <dimension ref="A1:AD526"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F283" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="G291" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F295" sqref="F295"/>
+      <selection pane="bottomRight" activeCell="V300" sqref="V300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="16.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="8"/>
+    <col min="3" max="22" width="7.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="27.625" style="13" customWidth="1"/>
+    <col min="24" max="24" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22.5">
+    <row r="1" spans="1:30" ht="22.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>44206.729720717594</v>
+        <v>44212.708248726849</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1045,9 +1095,11 @@
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="7"/>
-    </row>
-    <row r="2" spans="1:28" ht="67.5">
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" spans="1:30" ht="67.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1103,20 +1155,26 @@
         <v>25</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
+      <c r="X2" s="10"/>
       <c r="Y2" s="11"/>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" s="12">
         <v>43858</v>
       </c>
@@ -1136,14 +1194,14 @@
       <c r="O3" s="1">
         <v>24</v>
       </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="16"/>
+      <c r="Y3" s="14"/>
       <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
+      <c r="AA3" s="16"/>
       <c r="AB3" s="15"/>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="12">
         <v>43896</v>
       </c>
@@ -1163,14 +1221,14 @@
       <c r="O4" s="1">
         <v>24</v>
       </c>
-      <c r="W4" s="14"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="16"/>
+      <c r="Y4" s="14"/>
       <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
+      <c r="AA4" s="16"/>
       <c r="AB4" s="15"/>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="12">
         <v>43899</v>
       </c>
@@ -1190,14 +1248,14 @@
       <c r="O5" s="1">
         <v>24</v>
       </c>
-      <c r="W5" s="14"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="16"/>
+      <c r="Y5" s="14"/>
       <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
+      <c r="AA5" s="16"/>
       <c r="AB5" s="15"/>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="12">
         <v>43900</v>
       </c>
@@ -1217,14 +1275,14 @@
       <c r="O6" s="1">
         <v>24</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="16"/>
+      <c r="Y6" s="14"/>
       <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
+      <c r="AA6" s="16"/>
       <c r="AB6" s="15"/>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="12">
         <v>43901</v>
       </c>
@@ -1255,20 +1313,20 @@
       <c r="O7" s="1">
         <v>24</v>
       </c>
-      <c r="S7" s="1">
+      <c r="U7" s="1">
         <v>3</v>
       </c>
-      <c r="T7" s="1">
-        <v>2</v>
-      </c>
-      <c r="W7" s="14"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="16"/>
+      <c r="V7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="14"/>
       <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
+      <c r="AA7" s="16"/>
       <c r="AB7" s="15"/>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -1299,23 +1357,23 @@
       <c r="O8" s="1">
         <v>64</v>
       </c>
-      <c r="S8" s="1">
+      <c r="U8" s="1">
         <v>3</v>
       </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="19" t="s">
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="16"/>
+      <c r="Y8" s="14"/>
       <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
+      <c r="AA8" s="16"/>
       <c r="AB8" s="15"/>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="12">
         <v>43918</v>
       </c>
@@ -1346,20 +1404,20 @@
       <c r="O9" s="1">
         <v>64</v>
       </c>
-      <c r="S9" s="1">
+      <c r="U9" s="1">
         <v>3</v>
       </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="16"/>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14"/>
       <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
+      <c r="AA9" s="16"/>
       <c r="AB9" s="15"/>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -1399,20 +1457,22 @@
       <c r="R10" s="21">
         <v>3.718695098005443E-2</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="1">
         <v>7</v>
       </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="14"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="16"/>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14"/>
       <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
+      <c r="AA10" s="16"/>
       <c r="AB10" s="15"/>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -1452,20 +1512,22 @@
       <c r="R11" s="21">
         <v>5.432980812291157E-2</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="1">
         <v>10</v>
       </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="14"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="16"/>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14"/>
       <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
+      <c r="AA11" s="16"/>
       <c r="AB11" s="15"/>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -1505,20 +1567,22 @@
       <c r="R12" s="21">
         <v>7.9174528619805978E-2</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="1">
         <v>12</v>
       </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="14"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="16"/>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14"/>
       <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
+      <c r="AA12" s="16"/>
       <c r="AB12" s="15"/>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -1558,20 +1622,22 @@
       <c r="R13" s="21">
         <v>6.8185517630794987E-2</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="1">
         <v>13</v>
       </c>
-      <c r="T13" s="1">
-        <v>2</v>
-      </c>
-      <c r="W13" s="14"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="16"/>
+      <c r="V13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="14"/>
       <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
+      <c r="AA13" s="16"/>
       <c r="AB13" s="15"/>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -1611,20 +1677,22 @@
       <c r="R14" s="21">
         <v>7.9174528619805978E-2</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="1">
         <v>14</v>
       </c>
-      <c r="T14" s="1">
-        <v>2</v>
-      </c>
-      <c r="W14" s="14"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="16"/>
+      <c r="V14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="14"/>
       <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
+      <c r="AA14" s="16"/>
       <c r="AB14" s="15"/>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -1664,20 +1732,22 @@
       <c r="R15" s="21">
         <v>8.4276569436132501E-2</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="1">
         <v>15</v>
       </c>
-      <c r="T15" s="1">
-        <v>2</v>
-      </c>
-      <c r="W15" s="14"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="16"/>
+      <c r="V15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="14"/>
       <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
+      <c r="AA15" s="16"/>
       <c r="AB15" s="15"/>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -1717,20 +1787,22 @@
       <c r="R16" s="21">
         <v>8.4585784031061387E-2</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="1">
         <v>17</v>
       </c>
-      <c r="T16" s="1">
-        <v>2</v>
-      </c>
-      <c r="W16" s="14"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="16"/>
+      <c r="V16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="14"/>
       <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
+      <c r="AA16" s="16"/>
       <c r="AB16" s="15"/>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -1770,20 +1842,22 @@
       <c r="R17" s="21">
         <v>7.5085432166177496E-2</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="1">
         <v>19</v>
       </c>
-      <c r="T17" s="1">
-        <v>2</v>
-      </c>
-      <c r="W17" s="14"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="16"/>
+      <c r="V17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="14"/>
       <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
+      <c r="AA17" s="16"/>
       <c r="AB17" s="15"/>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -1823,20 +1897,22 @@
       <c r="R18" s="21">
         <v>7.0640987721733065E-2</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="1">
         <v>21</v>
       </c>
-      <c r="T18" s="1">
+      <c r="V18" s="1">
         <v>3</v>
       </c>
-      <c r="W18" s="14"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="16"/>
+      <c r="Y18" s="14"/>
       <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
+      <c r="AA18" s="16"/>
       <c r="AB18" s="15"/>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -1876,20 +1952,22 @@
       <c r="R19" s="21">
         <v>5.9401709401709399E-2</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="1">
         <v>24</v>
       </c>
-      <c r="T19" s="1">
+      <c r="V19" s="1">
         <v>3</v>
       </c>
-      <c r="W19" s="14"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="16"/>
+      <c r="Y19" s="14"/>
       <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
+      <c r="AA19" s="16"/>
       <c r="AB19" s="15"/>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -1929,20 +2007,22 @@
       <c r="R20" s="21">
         <v>7.164660736089308E-2</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="1">
         <v>26</v>
       </c>
-      <c r="T20" s="1">
+      <c r="V20" s="1">
         <v>3</v>
       </c>
-      <c r="W20" s="14"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="16"/>
+      <c r="Y20" s="14"/>
       <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
+      <c r="AA20" s="16"/>
       <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -1982,20 +2062,22 @@
       <c r="R21" s="21">
         <v>6.6152101866387578E-2</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="1">
         <v>28</v>
       </c>
-      <c r="T21" s="1">
+      <c r="V21" s="1">
         <v>3</v>
       </c>
-      <c r="W21" s="14"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="16"/>
+      <c r="Y21" s="14"/>
       <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
+      <c r="AA21" s="16"/>
       <c r="AB21" s="15"/>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -2035,20 +2117,22 @@
       <c r="R22" s="21">
         <v>7.2954822954822945E-2</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="1">
         <v>29</v>
       </c>
-      <c r="T22" s="1">
+      <c r="V22" s="1">
         <v>3</v>
       </c>
-      <c r="W22" s="14"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="16"/>
+      <c r="Y22" s="14"/>
       <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
+      <c r="AA22" s="16"/>
       <c r="AB22" s="15"/>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -2088,20 +2172,22 @@
       <c r="R23" s="21">
         <v>8.2385868100153803E-2</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="1">
         <v>32</v>
       </c>
-      <c r="T23" s="1">
+      <c r="V23" s="1">
         <v>3</v>
       </c>
-      <c r="W23" s="14"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="16"/>
+      <c r="Y23" s="14"/>
       <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
+      <c r="AA23" s="16"/>
       <c r="AB23" s="15"/>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -2141,20 +2227,22 @@
       <c r="R24" s="21">
         <v>9.0614966191003052E-2</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="1">
         <v>37</v>
       </c>
-      <c r="T24" s="1">
+      <c r="V24" s="1">
         <v>3</v>
       </c>
-      <c r="W24" s="14"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="16"/>
+      <c r="Y24" s="14"/>
       <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
+      <c r="AA24" s="16"/>
       <c r="AB24" s="15"/>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -2194,20 +2282,22 @@
       <c r="R25" s="21">
         <v>8.0220700958028149E-2</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="1">
         <v>37</v>
       </c>
-      <c r="T25" s="1">
+      <c r="V25" s="1">
         <v>3</v>
       </c>
-      <c r="W25" s="16"/>
-      <c r="X25" s="15"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
+      <c r="AA25" s="16"/>
       <c r="AB25" s="15"/>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -2247,23 +2337,25 @@
       <c r="R26" s="21">
         <v>7.3011847267298119E-2</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="1">
         <v>38</v>
       </c>
-      <c r="T26" s="1">
+      <c r="V26" s="1">
         <v>4</v>
       </c>
-      <c r="U26" s="17" t="s">
+      <c r="W26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="W26" s="16"/>
-      <c r="X26" s="15"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
+      <c r="AA26" s="16"/>
       <c r="AB26" s="15"/>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -2303,20 +2395,22 @@
       <c r="R27" s="21">
         <v>6.671933026049541E-2</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="1">
         <v>38</v>
       </c>
-      <c r="T27" s="1">
+      <c r="V27" s="1">
         <v>5</v>
       </c>
-      <c r="W27" s="16"/>
-      <c r="X27" s="15"/>
       <c r="Y27" s="16"/>
       <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
+      <c r="AA27" s="16"/>
       <c r="AB27" s="15"/>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -2356,20 +2450,22 @@
       <c r="R28" s="21">
         <v>6.5085828626993775E-2</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="1">
         <v>40</v>
       </c>
-      <c r="T28" s="1">
+      <c r="V28" s="1">
         <v>5</v>
       </c>
-      <c r="W28" s="16"/>
-      <c r="X28" s="15"/>
       <c r="Y28" s="16"/>
       <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
+      <c r="AA28" s="16"/>
       <c r="AB28" s="15"/>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -2409,20 +2505,22 @@
       <c r="R29" s="21">
         <v>6.7290414164912646E-2</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="1">
         <v>39</v>
       </c>
-      <c r="T29" s="1">
+      <c r="V29" s="1">
         <v>3</v>
       </c>
-      <c r="W29" s="16"/>
-      <c r="X29" s="15"/>
       <c r="Y29" s="16"/>
       <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
+      <c r="AA29" s="16"/>
       <c r="AB29" s="15"/>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -2462,23 +2560,25 @@
       <c r="R30" s="21">
         <v>5.7701166203571651E-2</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="1">
         <v>42</v>
       </c>
-      <c r="T30" s="1">
+      <c r="V30" s="1">
         <v>6</v>
       </c>
-      <c r="U30" s="13" t="s">
+      <c r="W30" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="W30" s="16"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
+      <c r="Y30" s="16"/>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -2518,20 +2618,22 @@
       <c r="R31" s="21">
         <v>4.237357654218115E-2</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="1">
         <v>44</v>
       </c>
-      <c r="T31" s="1">
+      <c r="V31" s="1">
         <v>6</v>
       </c>
-      <c r="W31" s="16"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
+      <c r="Y31" s="16"/>
       <c r="Z31" s="15"/>
       <c r="AA31" s="15"/>
       <c r="AB31" s="15"/>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -2571,20 +2673,22 @@
       <c r="R32" s="21">
         <v>4.0069429076743365E-2</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="1">
         <v>43</v>
       </c>
-      <c r="T32" s="1">
+      <c r="V32" s="1">
         <v>6</v>
       </c>
-      <c r="W32" s="16"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
+      <c r="Y32" s="16"/>
       <c r="Z32" s="15"/>
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -2624,20 +2728,22 @@
       <c r="R33" s="21">
         <v>3.3672840590602639E-2</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="1">
         <v>40</v>
       </c>
-      <c r="T33" s="1">
+      <c r="V33" s="1">
         <v>6</v>
       </c>
-      <c r="W33" s="16"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
+      <c r="Y33" s="16"/>
       <c r="Z33" s="15"/>
       <c r="AA33" s="15"/>
       <c r="AB33" s="15"/>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -2677,14 +2783,16 @@
       <c r="R34" s="21">
         <v>3.2116064033826087E-2</v>
       </c>
-      <c r="W34" s="16"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="Y34" s="16"/>
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -2724,14 +2832,16 @@
       <c r="R35" s="21">
         <v>2.8255060172822224E-2</v>
       </c>
-      <c r="W35" s="16"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="Y35" s="16"/>
       <c r="Z35" s="15"/>
       <c r="AA35" s="15"/>
       <c r="AB35" s="15"/>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" s="12">
         <v>43948</v>
       </c>
@@ -2786,14 +2896,16 @@
       <c r="R36" s="21">
         <v>1.8113966698395413E-2</v>
       </c>
-      <c r="W36" s="16"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="Y36" s="16"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
       <c r="AB36" s="15"/>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" s="12">
         <v>43949</v>
       </c>
@@ -2848,14 +2960,16 @@
       <c r="R37" s="21">
         <v>1.6395556800354403E-2</v>
       </c>
-      <c r="W37" s="16"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="Y37" s="16"/>
       <c r="Z37" s="15"/>
       <c r="AA37" s="15"/>
       <c r="AB37" s="15"/>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" s="12">
         <v>43950</v>
       </c>
@@ -2910,14 +3024,16 @@
       <c r="R38" s="21">
         <v>1.7371599391303824E-2</v>
       </c>
-      <c r="W38" s="16"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="Y38" s="16"/>
       <c r="Z38" s="15"/>
       <c r="AA38" s="15"/>
       <c r="AB38" s="15"/>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" s="12">
         <v>43951</v>
       </c>
@@ -2972,14 +3088,16 @@
       <c r="R39" s="21">
         <v>2.1573280063572731E-2</v>
       </c>
-      <c r="W39" s="16"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="Y39" s="16"/>
       <c r="Z39" s="15"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" s="12">
         <v>43952</v>
       </c>
@@ -3034,14 +3152,16 @@
       <c r="R40" s="21">
         <v>2.1573280063572731E-2</v>
       </c>
-      <c r="W40" s="16"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="Y40" s="16"/>
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" s="12">
         <v>43953</v>
       </c>
@@ -3096,14 +3216,16 @@
       <c r="R41" s="21">
         <v>1.8713773978260191E-2</v>
       </c>
-      <c r="W41" s="16"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="Y41" s="16"/>
       <c r="Z41" s="15"/>
       <c r="AA41" s="15"/>
       <c r="AB41" s="15"/>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" s="12">
         <v>43954</v>
       </c>
@@ -3158,14 +3280,16 @@
       <c r="R42" s="21">
         <v>1.8713773978260191E-2</v>
       </c>
-      <c r="W42" s="16"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="Y42" s="16"/>
       <c r="Z42" s="15"/>
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" s="12">
         <v>43955</v>
       </c>
@@ -3220,14 +3344,16 @@
       <c r="R43" s="21">
         <v>1.4745520010006228E-2</v>
       </c>
-      <c r="W43" s="16"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="Y43" s="16"/>
       <c r="Z43" s="15"/>
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" s="12">
         <v>43956</v>
       </c>
@@ -3282,15 +3408,17 @@
       <c r="R44" s="21">
         <v>1.3066164882375239E-2</v>
       </c>
-      <c r="U44" s="17"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="W44" s="17"/>
+      <c r="Y44" s="16"/>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" s="12">
         <v>43957</v>
       </c>
@@ -3345,15 +3473,17 @@
       <c r="R45" s="21">
         <v>8.9845322293140139E-3</v>
       </c>
-      <c r="U45" s="17"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="W45" s="17"/>
+      <c r="Y45" s="16"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
       <c r="AB45" s="15"/>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15"/>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" s="12">
         <v>43958</v>
       </c>
@@ -3408,15 +3538,17 @@
       <c r="R46" s="21">
         <v>7.6399944141879632E-3</v>
       </c>
-      <c r="U46" s="17"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="W46" s="17"/>
+      <c r="Y46" s="16"/>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
       <c r="AB46" s="15"/>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" s="12">
         <v>43959</v>
       </c>
@@ -3471,15 +3603,17 @@
       <c r="R47" s="21">
         <v>7.6399944141879632E-3</v>
       </c>
-      <c r="U47" s="17"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="W47" s="17"/>
+      <c r="Y47" s="16"/>
       <c r="Z47" s="15"/>
       <c r="AA47" s="15"/>
       <c r="AB47" s="15"/>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" s="12">
         <v>43960</v>
       </c>
@@ -3534,15 +3668,17 @@
       <c r="R48" s="21">
         <v>8.7493987493987482E-3</v>
       </c>
-      <c r="U48" s="17"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="W48" s="17"/>
+      <c r="Y48" s="16"/>
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" s="12">
         <v>43961</v>
       </c>
@@ -3597,15 +3733,17 @@
       <c r="R49" s="21">
         <v>8.7493987493987482E-3</v>
       </c>
-      <c r="U49" s="17"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="W49" s="17"/>
+      <c r="Y49" s="16"/>
       <c r="Z49" s="15"/>
       <c r="AA49" s="15"/>
       <c r="AB49" s="15"/>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" s="12">
         <v>43962</v>
       </c>
@@ -3660,15 +3798,17 @@
       <c r="R50" s="21">
         <v>8.7493987493987482E-3</v>
       </c>
-      <c r="U50" s="17"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="15"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="W50" s="17"/>
+      <c r="Y50" s="16"/>
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" s="12">
         <v>43963</v>
       </c>
@@ -3723,14 +3863,16 @@
       <c r="R51" s="21">
         <v>5.5026455026455029E-3</v>
       </c>
-      <c r="W51" s="16"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="Y51" s="16"/>
       <c r="Z51" s="15"/>
       <c r="AA51" s="15"/>
       <c r="AB51" s="15"/>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="15"/>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" s="12">
         <v>43964</v>
       </c>
@@ -3785,14 +3927,16 @@
       <c r="R52" s="21">
         <v>5.5026455026455029E-3</v>
       </c>
-      <c r="W52" s="16"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="Y52" s="16"/>
       <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
-    </row>
-    <row r="53" spans="1:28">
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" s="12">
         <v>43965</v>
       </c>
@@ -3847,14 +3991,16 @@
       <c r="R53" s="21">
         <v>2.6455026455026454E-3</v>
       </c>
-      <c r="W53" s="16"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="Y53" s="16"/>
       <c r="Z53" s="15"/>
       <c r="AA53" s="15"/>
       <c r="AB53" s="15"/>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15"/>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" s="12">
         <v>43966</v>
       </c>
@@ -3909,14 +4055,16 @@
       <c r="R54" s="21">
         <v>2.6455026455026454E-3</v>
       </c>
-      <c r="W54" s="16"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="Y54" s="16"/>
       <c r="Z54" s="15"/>
       <c r="AA54" s="15"/>
       <c r="AB54" s="15"/>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" s="12">
         <v>43967</v>
       </c>
@@ -3971,14 +4119,16 @@
       <c r="R55" s="21">
         <v>0</v>
       </c>
-      <c r="W55" s="16"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="Y55" s="16"/>
       <c r="Z55" s="15"/>
       <c r="AA55" s="15"/>
       <c r="AB55" s="15"/>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" s="12">
         <v>43968</v>
       </c>
@@ -4033,14 +4183,16 @@
       <c r="R56" s="21">
         <v>0</v>
       </c>
-      <c r="W56" s="16"/>
-      <c r="X56" s="15"/>
-      <c r="Y56" s="15"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="Y56" s="16"/>
       <c r="Z56" s="15"/>
       <c r="AA56" s="15"/>
       <c r="AB56" s="15"/>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" s="12">
         <v>43969</v>
       </c>
@@ -4095,14 +4247,16 @@
       <c r="R57" s="21">
         <v>0</v>
       </c>
-      <c r="W57" s="16"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="15"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="Y57" s="16"/>
       <c r="Z57" s="15"/>
       <c r="AA57" s="15"/>
       <c r="AB57" s="15"/>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="15"/>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" s="12">
         <v>43970</v>
       </c>
@@ -4157,14 +4311,16 @@
       <c r="R58" s="21">
         <v>0</v>
       </c>
-      <c r="W58" s="16"/>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="15"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="Y58" s="16"/>
       <c r="Z58" s="15"/>
       <c r="AA58" s="15"/>
       <c r="AB58" s="15"/>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="15"/>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" s="12">
         <v>43971</v>
       </c>
@@ -4219,14 +4375,16 @@
       <c r="R59" s="21">
         <v>0</v>
       </c>
-      <c r="W59" s="16"/>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="15"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="Y59" s="16"/>
       <c r="Z59" s="15"/>
       <c r="AA59" s="15"/>
       <c r="AB59" s="15"/>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="AC59" s="15"/>
+      <c r="AD59" s="15"/>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" s="12">
         <v>43972</v>
       </c>
@@ -4281,14 +4439,16 @@
       <c r="R60" s="21">
         <v>0</v>
       </c>
-      <c r="W60" s="16"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="Y60" s="16"/>
       <c r="Z60" s="15"/>
       <c r="AA60" s="15"/>
       <c r="AB60" s="15"/>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="AC60" s="15"/>
+      <c r="AD60" s="15"/>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" s="12">
         <v>43973</v>
       </c>
@@ -4343,14 +4503,16 @@
       <c r="R61" s="21">
         <v>0</v>
       </c>
-      <c r="W61" s="16"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="15"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="Y61" s="16"/>
       <c r="Z61" s="15"/>
       <c r="AA61" s="15"/>
       <c r="AB61" s="15"/>
-    </row>
-    <row r="62" spans="1:28">
+      <c r="AC61" s="15"/>
+      <c r="AD61" s="15"/>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" s="12">
         <v>43974</v>
       </c>
@@ -4405,14 +4567,16 @@
       <c r="R62" s="21">
         <v>0</v>
       </c>
-      <c r="W62" s="16"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="15"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="Y62" s="16"/>
       <c r="Z62" s="15"/>
       <c r="AA62" s="15"/>
       <c r="AB62" s="15"/>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="15"/>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" s="12">
         <v>43975</v>
       </c>
@@ -4467,14 +4631,16 @@
       <c r="R63" s="21">
         <v>0</v>
       </c>
-      <c r="W63" s="16"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="15"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="Y63" s="16"/>
       <c r="Z63" s="15"/>
       <c r="AA63" s="15"/>
       <c r="AB63" s="15"/>
-    </row>
-    <row r="64" spans="1:28">
+      <c r="AC63" s="15"/>
+      <c r="AD63" s="15"/>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" s="12">
         <v>43976</v>
       </c>
@@ -4529,14 +4695,16 @@
       <c r="R64" s="21">
         <v>0</v>
       </c>
-      <c r="W64" s="16"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="15"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="Y64" s="16"/>
       <c r="Z64" s="15"/>
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
-    </row>
-    <row r="65" spans="1:28">
+      <c r="AC64" s="15"/>
+      <c r="AD64" s="15"/>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" s="12">
         <v>43977</v>
       </c>
@@ -4591,14 +4759,16 @@
       <c r="R65" s="21">
         <v>3.3222591362126247E-3</v>
       </c>
-      <c r="W65" s="16"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="Y65" s="16"/>
       <c r="Z65" s="15"/>
       <c r="AA65" s="15"/>
       <c r="AB65" s="15"/>
-    </row>
-    <row r="66" spans="1:28">
+      <c r="AC65" s="15"/>
+      <c r="AD65" s="15"/>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" s="12">
         <v>43978</v>
       </c>
@@ -4653,14 +4823,16 @@
       <c r="R66" s="21">
         <v>3.3222591362126247E-3</v>
       </c>
-      <c r="W66" s="16"/>
-      <c r="X66" s="15"/>
-      <c r="Y66" s="15"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="Y66" s="16"/>
       <c r="Z66" s="15"/>
       <c r="AA66" s="15"/>
       <c r="AB66" s="15"/>
-    </row>
-    <row r="67" spans="1:28">
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="15"/>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" s="12">
         <v>43979</v>
       </c>
@@ -4715,14 +4887,16 @@
       <c r="R67" s="21">
         <v>3.3222591362126247E-3</v>
       </c>
-      <c r="W67" s="16"/>
-      <c r="X67" s="15"/>
-      <c r="Y67" s="15"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="Y67" s="16"/>
       <c r="Z67" s="15"/>
       <c r="AA67" s="15"/>
       <c r="AB67" s="15"/>
-    </row>
-    <row r="68" spans="1:28">
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" s="12">
         <v>43980</v>
       </c>
@@ -4777,14 +4951,16 @@
       <c r="R68" s="21">
         <v>3.3222591362126247E-3</v>
       </c>
-      <c r="W68" s="16"/>
-      <c r="X68" s="15"/>
-      <c r="Y68" s="15"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="Y68" s="16"/>
       <c r="Z68" s="15"/>
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
-    </row>
-    <row r="69" spans="1:28">
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" s="12">
         <v>43981</v>
       </c>
@@ -4839,14 +5015,16 @@
       <c r="R69" s="21">
         <v>3.3222591362126247E-3</v>
       </c>
-      <c r="W69" s="16"/>
-      <c r="X69" s="15"/>
-      <c r="Y69" s="15"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="Y69" s="16"/>
       <c r="Z69" s="15"/>
       <c r="AA69" s="15"/>
       <c r="AB69" s="15"/>
-    </row>
-    <row r="70" spans="1:28">
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" s="12">
         <v>43982</v>
       </c>
@@ -4901,14 +5079,16 @@
       <c r="R70" s="21">
         <v>3.3222591362126247E-3</v>
       </c>
-      <c r="W70" s="16"/>
-      <c r="X70" s="15"/>
-      <c r="Y70" s="15"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+      <c r="Y70" s="16"/>
       <c r="Z70" s="15"/>
       <c r="AA70" s="15"/>
       <c r="AB70" s="15"/>
-    </row>
-    <row r="71" spans="1:28">
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" s="12">
         <v>43983</v>
       </c>
@@ -4960,17 +5140,19 @@
       <c r="Q71" s="20">
         <v>0</v>
       </c>
-      <c r="R71" s="22">
+      <c r="R71" s="21">
         <v>3.3222591362126247E-3</v>
       </c>
-      <c r="W71" s="16"/>
-      <c r="X71" s="15"/>
-      <c r="Y71" s="15"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="Y71" s="16"/>
       <c r="Z71" s="15"/>
       <c r="AA71" s="15"/>
       <c r="AB71" s="15"/>
-    </row>
-    <row r="72" spans="1:28">
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" s="12">
         <v>43984</v>
       </c>
@@ -5022,17 +5204,19 @@
       <c r="Q72" s="20">
         <v>0</v>
       </c>
-      <c r="R72" s="22">
-        <v>0</v>
-      </c>
-      <c r="W72" s="16"/>
-      <c r="X72" s="15"/>
-      <c r="Y72" s="15"/>
+      <c r="R72" s="21">
+        <v>0</v>
+      </c>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="Y72" s="16"/>
       <c r="Z72" s="15"/>
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
-    </row>
-    <row r="73" spans="1:28">
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" s="12">
         <v>43985</v>
       </c>
@@ -5084,11 +5268,13 @@
       <c r="Q73" s="20">
         <v>0</v>
       </c>
-      <c r="R73" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28">
+      <c r="R73" s="21">
+        <v>0</v>
+      </c>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" s="12">
         <v>43986</v>
       </c>
@@ -5140,11 +5326,13 @@
       <c r="Q74" s="20">
         <v>0</v>
       </c>
-      <c r="R74" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28">
+      <c r="R74" s="21">
+        <v>0</v>
+      </c>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" s="12">
         <v>43987</v>
       </c>
@@ -5196,11 +5384,13 @@
       <c r="Q75" s="20">
         <v>0</v>
       </c>
-      <c r="R75" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28">
+      <c r="R75" s="21">
+        <v>0</v>
+      </c>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" s="12">
         <v>43988</v>
       </c>
@@ -5252,11 +5442,13 @@
       <c r="Q76" s="20">
         <v>0</v>
       </c>
-      <c r="R76" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28">
+      <c r="R76" s="21">
+        <v>0</v>
+      </c>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" s="12">
         <v>43989</v>
       </c>
@@ -5308,11 +5500,13 @@
       <c r="Q77" s="20">
         <v>0</v>
       </c>
-      <c r="R77" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28">
+      <c r="R77" s="21">
+        <v>0</v>
+      </c>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" s="12">
         <v>43990</v>
       </c>
@@ -5364,11 +5558,13 @@
       <c r="Q78" s="20">
         <v>0</v>
       </c>
-      <c r="R78" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28">
+      <c r="R78" s="21">
+        <v>0</v>
+      </c>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" s="12">
         <v>43991</v>
       </c>
@@ -5420,11 +5616,13 @@
       <c r="Q79" s="20">
         <v>0</v>
       </c>
-      <c r="R79" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28">
+      <c r="R79" s="21">
+        <v>0</v>
+      </c>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" s="12">
         <v>43992</v>
       </c>
@@ -5476,11 +5674,13 @@
       <c r="Q80" s="20">
         <v>0</v>
       </c>
-      <c r="R80" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="R80" s="21">
+        <v>0</v>
+      </c>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="12">
         <v>43993</v>
       </c>
@@ -5532,11 +5732,13 @@
       <c r="Q81" s="20">
         <v>0</v>
       </c>
-      <c r="R81" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="R81" s="21">
+        <v>0</v>
+      </c>
+      <c r="S81" s="21"/>
+      <c r="T81" s="21"/>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="12">
         <v>43994</v>
       </c>
@@ -5588,11 +5790,13 @@
       <c r="Q82" s="20">
         <v>0</v>
       </c>
-      <c r="R82" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="R82" s="21">
+        <v>0</v>
+      </c>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="12">
         <v>43995</v>
       </c>
@@ -5644,11 +5848,13 @@
       <c r="Q83" s="20">
         <v>0</v>
       </c>
-      <c r="R83" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="R83" s="21">
+        <v>0</v>
+      </c>
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="12">
         <v>43996</v>
       </c>
@@ -5700,11 +5906,13 @@
       <c r="Q84" s="20">
         <v>0</v>
       </c>
-      <c r="R84" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="R84" s="21">
+        <v>0</v>
+      </c>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="12">
         <v>43997</v>
       </c>
@@ -5756,11 +5964,13 @@
       <c r="Q85" s="20">
         <v>0</v>
       </c>
-      <c r="R85" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="R85" s="21">
+        <v>0</v>
+      </c>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="12">
         <v>43998</v>
       </c>
@@ -5812,11 +6022,13 @@
       <c r="Q86" s="20">
         <v>0</v>
       </c>
-      <c r="R86" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="R86" s="21">
+        <v>0</v>
+      </c>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="12">
         <v>43999</v>
       </c>
@@ -5868,11 +6080,13 @@
       <c r="Q87" s="20">
         <v>0</v>
       </c>
-      <c r="R87" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="R87" s="21">
+        <v>0</v>
+      </c>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="12">
         <v>44000</v>
       </c>
@@ -5924,11 +6138,13 @@
       <c r="Q88" s="20">
         <v>0</v>
       </c>
-      <c r="R88" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="R88" s="21">
+        <v>0</v>
+      </c>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="12">
         <v>44001</v>
       </c>
@@ -5980,11 +6196,13 @@
       <c r="Q89" s="20">
         <v>0</v>
       </c>
-      <c r="R89" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="R89" s="21">
+        <v>0</v>
+      </c>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" s="12">
         <v>44002</v>
       </c>
@@ -6036,11 +6254,13 @@
       <c r="Q90" s="20">
         <v>0</v>
       </c>
-      <c r="R90" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="R90" s="21">
+        <v>0</v>
+      </c>
+      <c r="S90" s="21"/>
+      <c r="T90" s="21"/>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="12">
         <v>44003</v>
       </c>
@@ -6092,11 +6312,13 @@
       <c r="Q91" s="20">
         <v>0</v>
       </c>
-      <c r="R91" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="R91" s="21">
+        <v>0</v>
+      </c>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="12">
         <v>44004</v>
       </c>
@@ -6148,11 +6370,13 @@
       <c r="Q92" s="20">
         <v>0</v>
       </c>
-      <c r="R92" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="R92" s="21">
+        <v>0</v>
+      </c>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="12">
         <v>44005</v>
       </c>
@@ -6204,11 +6428,13 @@
       <c r="Q93" s="20">
         <v>0</v>
       </c>
-      <c r="R93" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="R93" s="21">
+        <v>0</v>
+      </c>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="12">
         <v>44006</v>
       </c>
@@ -6260,11 +6486,13 @@
       <c r="Q94" s="20">
         <v>0</v>
       </c>
-      <c r="R94" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="R94" s="21">
+        <v>0</v>
+      </c>
+      <c r="S94" s="21"/>
+      <c r="T94" s="21"/>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="12">
         <v>44007</v>
       </c>
@@ -6316,11 +6544,13 @@
       <c r="Q95" s="20">
         <v>0</v>
       </c>
-      <c r="R95" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="R95" s="21">
+        <v>0</v>
+      </c>
+      <c r="S95" s="21"/>
+      <c r="T95" s="21"/>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="12">
         <v>44008</v>
       </c>
@@ -6372,11 +6602,13 @@
       <c r="Q96" s="20">
         <v>0</v>
       </c>
-      <c r="R96" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="R96" s="21">
+        <v>0</v>
+      </c>
+      <c r="S96" s="21"/>
+      <c r="T96" s="21"/>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="12">
         <v>44009</v>
       </c>
@@ -6428,11 +6660,13 @@
       <c r="Q97" s="20">
         <v>0</v>
       </c>
-      <c r="R97" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="R97" s="21">
+        <v>0</v>
+      </c>
+      <c r="S97" s="21"/>
+      <c r="T97" s="21"/>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="12">
         <v>44010</v>
       </c>
@@ -6484,11 +6718,13 @@
       <c r="Q98" s="20">
         <v>0</v>
       </c>
-      <c r="R98" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="R98" s="21">
+        <v>0</v>
+      </c>
+      <c r="S98" s="21"/>
+      <c r="T98" s="21"/>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" s="12">
         <v>44011</v>
       </c>
@@ -6540,11 +6776,13 @@
       <c r="Q99" s="20">
         <v>0</v>
       </c>
-      <c r="R99" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="R99" s="21">
+        <v>0</v>
+      </c>
+      <c r="S99" s="21"/>
+      <c r="T99" s="21"/>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" s="12">
         <v>44012</v>
       </c>
@@ -6596,11 +6834,13 @@
       <c r="Q100" s="20">
         <v>0</v>
       </c>
-      <c r="R100" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="R100" s="21">
+        <v>0</v>
+      </c>
+      <c r="S100" s="21"/>
+      <c r="T100" s="21"/>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="12">
         <v>44013</v>
       </c>
@@ -6646,17 +6886,19 @@
       <c r="O101" s="1">
         <v>318</v>
       </c>
-      <c r="P101" s="23">
+      <c r="P101" s="22">
         <v>53</v>
       </c>
-      <c r="Q101" s="23">
-        <v>0</v>
-      </c>
-      <c r="R101" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="Q101" s="22">
+        <v>0</v>
+      </c>
+      <c r="R101" s="23">
+        <v>0</v>
+      </c>
+      <c r="S101" s="23"/>
+      <c r="T101" s="23"/>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" s="12">
         <v>44014</v>
       </c>
@@ -6702,17 +6944,19 @@
       <c r="O102" s="1">
         <v>318</v>
       </c>
-      <c r="P102" s="23">
+      <c r="P102" s="22">
         <v>42</v>
       </c>
-      <c r="Q102" s="23">
-        <v>0</v>
-      </c>
-      <c r="R102" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="Q102" s="22">
+        <v>0</v>
+      </c>
+      <c r="R102" s="23">
+        <v>0</v>
+      </c>
+      <c r="S102" s="23"/>
+      <c r="T102" s="23"/>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" s="12">
         <v>44015</v>
       </c>
@@ -6758,17 +7002,19 @@
       <c r="O103" s="1">
         <v>318</v>
       </c>
-      <c r="P103" s="23">
+      <c r="P103" s="22">
         <v>71</v>
       </c>
-      <c r="Q103" s="23">
+      <c r="Q103" s="22">
         <v>1</v>
       </c>
-      <c r="R103" s="24">
+      <c r="R103" s="23">
         <v>2.012072434607646E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="S103" s="23"/>
+      <c r="T103" s="23"/>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="12">
         <v>44016</v>
       </c>
@@ -6814,17 +7060,19 @@
       <c r="O104" s="1">
         <v>434</v>
       </c>
-      <c r="P104" s="23">
+      <c r="P104" s="22">
         <v>44</v>
       </c>
-      <c r="Q104" s="23">
-        <v>2</v>
-      </c>
-      <c r="R104" s="24">
+      <c r="Q104" s="22">
+        <v>2</v>
+      </c>
+      <c r="R104" s="23">
         <v>6.4935064935064939E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="S104" s="23"/>
+      <c r="T104" s="23"/>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="12">
         <v>44017</v>
       </c>
@@ -6870,17 +7118,19 @@
       <c r="O105" s="1">
         <v>434</v>
       </c>
-      <c r="P105" s="23">
+      <c r="P105" s="22">
         <v>40</v>
       </c>
-      <c r="Q105" s="23">
+      <c r="Q105" s="22">
         <v>1</v>
       </c>
-      <c r="R105" s="24">
+      <c r="R105" s="23">
         <v>5.5835010060362178E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="S105" s="23"/>
+      <c r="T105" s="23"/>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="12">
         <v>44018</v>
       </c>
@@ -6926,17 +7176,19 @@
       <c r="O106" s="1">
         <v>434</v>
       </c>
-      <c r="P106" s="23">
+      <c r="P106" s="22">
         <v>52</v>
       </c>
-      <c r="Q106" s="23">
+      <c r="Q106" s="22">
         <v>1</v>
       </c>
-      <c r="R106" s="24">
+      <c r="R106" s="23">
         <v>1.1252831675366889E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="S106" s="23"/>
+      <c r="T106" s="23"/>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" s="12">
         <v>44019</v>
       </c>
@@ -6982,17 +7234,19 @@
       <c r="O107" s="1">
         <v>434</v>
       </c>
-      <c r="P107" s="23">
+      <c r="P107" s="22">
         <v>81</v>
       </c>
-      <c r="Q107" s="23">
-        <v>2</v>
-      </c>
-      <c r="R107" s="24">
+      <c r="Q107" s="22">
+        <v>2</v>
+      </c>
+      <c r="R107" s="23">
         <v>1.5604344360212906E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="S107" s="23"/>
+      <c r="T107" s="23"/>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" s="12">
         <v>44020</v>
       </c>
@@ -7038,17 +7292,19 @@
       <c r="O108" s="1">
         <v>434</v>
       </c>
-      <c r="P108" s="23">
+      <c r="P108" s="22">
         <v>135</v>
       </c>
-      <c r="Q108" s="23">
+      <c r="Q108" s="22">
         <v>3</v>
       </c>
-      <c r="R108" s="24">
+      <c r="R108" s="23">
         <v>1.7998863421398635E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="S108" s="23"/>
+      <c r="T108" s="23"/>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" s="12">
         <v>44021</v>
       </c>
@@ -7094,17 +7350,19 @@
       <c r="O109" s="1">
         <v>434</v>
       </c>
-      <c r="P109" s="23">
+      <c r="P109" s="22">
         <v>76</v>
       </c>
-      <c r="Q109" s="23">
-        <v>2</v>
-      </c>
-      <c r="R109" s="24">
+      <c r="Q109" s="22">
+        <v>2</v>
+      </c>
+      <c r="R109" s="23">
         <v>2.2110995603706253E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109" s="23"/>
+      <c r="T109" s="23"/>
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" s="12">
         <v>44022</v>
       </c>
@@ -7150,17 +7408,19 @@
       <c r="O110" s="1">
         <v>434</v>
       </c>
-      <c r="P110" s="23">
+      <c r="P110" s="22">
         <v>187</v>
       </c>
-      <c r="Q110" s="23">
+      <c r="Q110" s="22">
         <v>10</v>
       </c>
-      <c r="R110" s="24">
+      <c r="R110" s="23">
         <v>2.9165619686194112E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="S110" s="23"/>
+      <c r="T110" s="23"/>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" s="12">
         <v>44023</v>
       </c>
@@ -7206,17 +7466,19 @@
       <c r="O111" s="1">
         <v>434</v>
       </c>
-      <c r="P111" s="23">
+      <c r="P111" s="22">
         <v>601</v>
       </c>
-      <c r="Q111" s="23">
+      <c r="Q111" s="22">
         <v>1</v>
       </c>
-      <c r="R111" s="24">
+      <c r="R111" s="23">
         <v>2.3511225416675396E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="S111" s="23"/>
+      <c r="T111" s="23"/>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" s="12">
         <v>44024</v>
       </c>
@@ -7262,17 +7524,19 @@
       <c r="O112" s="1">
         <v>434</v>
       </c>
-      <c r="P112" s="23">
+      <c r="P112" s="22">
         <v>549</v>
       </c>
-      <c r="Q112" s="23">
+      <c r="Q112" s="22">
         <v>7</v>
       </c>
-      <c r="R112" s="24">
+      <c r="R112" s="23">
         <v>2.6240932879092887E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="S112" s="23"/>
+      <c r="T112" s="23"/>
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" s="12">
         <v>44025</v>
       </c>
@@ -7318,17 +7582,19 @@
       <c r="O113" s="1">
         <v>434</v>
       </c>
-      <c r="P113" s="25">
+      <c r="P113" s="24">
         <v>331</v>
       </c>
-      <c r="Q113" s="25">
+      <c r="Q113" s="24">
         <v>4</v>
       </c>
-      <c r="R113" s="26">
+      <c r="R113" s="23">
         <v>2.2812080062296351E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="S113" s="23"/>
+      <c r="T113" s="23"/>
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" s="12">
         <v>44026</v>
       </c>
@@ -7374,17 +7640,19 @@
       <c r="O114" s="1">
         <v>434</v>
       </c>
-      <c r="P114" s="23">
+      <c r="P114" s="22">
         <v>523</v>
       </c>
-      <c r="Q114" s="23">
+      <c r="Q114" s="22">
         <v>4</v>
       </c>
-      <c r="R114" s="24">
+      <c r="R114" s="23">
         <v>2.1252548284300232E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="S114" s="23"/>
+      <c r="T114" s="23"/>
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" s="12">
         <v>44027</v>
       </c>
@@ -7430,17 +7698,19 @@
       <c r="O115" s="1">
         <v>434</v>
       </c>
-      <c r="P115" s="23">
+      <c r="P115" s="22">
         <v>423</v>
       </c>
-      <c r="Q115" s="23">
+      <c r="Q115" s="22">
         <v>8</v>
       </c>
-      <c r="R115" s="24">
+      <c r="R115" s="23">
         <v>2.106077401497821E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="S115" s="23"/>
+      <c r="T115" s="23"/>
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" s="12">
         <v>44028</v>
       </c>
@@ -7486,17 +7756,19 @@
       <c r="O116" s="1">
         <v>434</v>
       </c>
-      <c r="P116" s="23">
+      <c r="P116" s="22">
         <v>184</v>
       </c>
-      <c r="Q116" s="23">
+      <c r="Q116" s="22">
         <v>5</v>
       </c>
-      <c r="R116" s="24">
+      <c r="R116" s="23">
         <v>2.0158966133097346E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="S116" s="23"/>
+      <c r="T116" s="23"/>
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" s="12">
         <v>44029</v>
       </c>
@@ -7542,17 +7814,19 @@
       <c r="O117" s="1">
         <v>434</v>
       </c>
-      <c r="P117" s="23">
+      <c r="P117" s="22">
         <v>212</v>
       </c>
-      <c r="Q117" s="23">
+      <c r="Q117" s="22">
         <v>8</v>
       </c>
-      <c r="R117" s="24">
+      <c r="R117" s="23">
         <v>2.0610205574564309E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="S117" s="23"/>
+      <c r="T117" s="23"/>
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" s="12">
         <v>44030</v>
       </c>
@@ -7598,17 +7872,19 @@
       <c r="O118" s="1">
         <v>434</v>
       </c>
-      <c r="P118" s="23">
+      <c r="P118" s="22">
         <v>147</v>
       </c>
-      <c r="Q118" s="23">
-        <v>2</v>
-      </c>
-      <c r="R118" s="24">
+      <c r="Q118" s="22">
+        <v>2</v>
+      </c>
+      <c r="R118" s="23">
         <v>1.3405572765259771E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="S118" s="23"/>
+      <c r="T118" s="23"/>
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" s="12">
         <v>44031</v>
       </c>
@@ -7654,17 +7930,19 @@
       <c r="O119" s="1">
         <v>434</v>
       </c>
-      <c r="P119" s="25">
+      <c r="P119" s="24">
         <v>87</v>
       </c>
-      <c r="Q119" s="25">
+      <c r="Q119" s="24">
         <v>3</v>
       </c>
-      <c r="R119" s="26">
+      <c r="R119" s="23">
         <v>2.1541183049489394E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119" s="23"/>
+      <c r="T119" s="23"/>
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" s="12">
         <v>44032</v>
       </c>
@@ -7710,17 +7988,19 @@
       <c r="O120" s="1">
         <v>434</v>
       </c>
-      <c r="P120" s="23">
+      <c r="P120" s="22">
         <v>117</v>
       </c>
-      <c r="Q120" s="23">
+      <c r="Q120" s="22">
         <v>7</v>
       </c>
-      <c r="R120" s="24">
+      <c r="R120" s="23">
         <v>2.5284224194037214E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="S120" s="23"/>
+      <c r="T120" s="23"/>
+    </row>
+    <row r="121" spans="1:20">
       <c r="A121" s="12">
         <v>44033</v>
       </c>
@@ -7766,17 +8046,19 @@
       <c r="O121" s="1">
         <v>434</v>
       </c>
-      <c r="P121" s="23">
+      <c r="P121" s="22">
         <v>143</v>
       </c>
-      <c r="Q121" s="23">
+      <c r="Q121" s="22">
         <v>7</v>
       </c>
-      <c r="R121" s="24">
+      <c r="R121" s="23">
         <v>2.6929960707989167E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="S121" s="23"/>
+      <c r="T121" s="23"/>
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" s="12">
         <v>44034</v>
       </c>
@@ -7822,17 +8104,19 @@
       <c r="O122" s="1">
         <v>434</v>
       </c>
-      <c r="P122" s="23">
+      <c r="P122" s="22">
         <v>205</v>
       </c>
-      <c r="Q122" s="23">
+      <c r="Q122" s="22">
         <v>15</v>
       </c>
-      <c r="R122" s="24">
+      <c r="R122" s="23">
         <v>3.7844326283549543E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="S122" s="23"/>
+      <c r="T122" s="23"/>
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" s="12">
         <v>44035</v>
       </c>
@@ -7878,17 +8162,19 @@
       <c r="O123" s="1">
         <v>434</v>
       </c>
-      <c r="P123" s="23">
+      <c r="P123" s="22">
         <v>99</v>
       </c>
-      <c r="Q123" s="23">
+      <c r="Q123" s="22">
         <v>8</v>
       </c>
-      <c r="R123" s="24">
+      <c r="R123" s="23">
         <v>4.3226593212261723E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="S123" s="23"/>
+      <c r="T123" s="23"/>
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" s="12">
         <v>44036</v>
       </c>
@@ -7934,17 +8220,19 @@
       <c r="O124" s="1">
         <v>434</v>
       </c>
-      <c r="P124" s="23">
+      <c r="P124" s="22">
         <v>200</v>
       </c>
-      <c r="Q124" s="23">
+      <c r="Q124" s="22">
         <v>7</v>
       </c>
-      <c r="R124" s="24">
+      <c r="R124" s="23">
         <v>4.3253555763084282E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="S124" s="23"/>
+      <c r="T124" s="23"/>
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" s="12">
         <v>44037</v>
       </c>
@@ -7990,17 +8278,19 @@
       <c r="O125" s="1">
         <v>434</v>
       </c>
-      <c r="P125" s="23">
+      <c r="P125" s="22">
         <v>162</v>
       </c>
-      <c r="Q125" s="23">
+      <c r="Q125" s="22">
         <v>4</v>
       </c>
-      <c r="R125" s="24">
+      <c r="R125" s="23">
         <v>4.7934068588251208E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="S125" s="23"/>
+      <c r="T125" s="23"/>
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" s="12">
         <v>44038</v>
       </c>
@@ -8046,17 +8336,19 @@
       <c r="O126" s="1">
         <v>434</v>
       </c>
-      <c r="P126" s="23">
+      <c r="P126" s="22">
         <v>93</v>
       </c>
-      <c r="Q126" s="23">
+      <c r="Q126" s="22">
         <v>4</v>
       </c>
-      <c r="R126" s="24">
+      <c r="R126" s="23">
         <v>5.3607490372052632E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="S126" s="23"/>
+      <c r="T126" s="23"/>
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" s="12">
         <v>44039</v>
       </c>
@@ -8102,17 +8394,19 @@
       <c r="O127" s="1">
         <v>434</v>
       </c>
-      <c r="P127" s="25">
+      <c r="P127" s="24">
         <v>141</v>
       </c>
-      <c r="Q127" s="25">
+      <c r="Q127" s="24">
         <v>7</v>
       </c>
-      <c r="R127" s="26">
+      <c r="R127" s="23">
         <v>5.3156524198731424E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="S127" s="23"/>
+      <c r="T127" s="23"/>
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" s="12">
         <v>44040</v>
       </c>
@@ -8158,17 +8452,19 @@
       <c r="O128" s="1">
         <v>434</v>
       </c>
-      <c r="P128" s="23">
+      <c r="P128" s="22">
         <v>77</v>
       </c>
-      <c r="Q128" s="23">
+      <c r="Q128" s="22">
         <v>4</v>
       </c>
-      <c r="R128" s="24">
+      <c r="R128" s="23">
         <v>5.108286058962317E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="S128" s="23"/>
+      <c r="T128" s="23"/>
+    </row>
+    <row r="129" spans="1:20">
       <c r="A129" s="12">
         <v>44041</v>
       </c>
@@ -8214,17 +8510,19 @@
       <c r="O129" s="1">
         <v>434</v>
       </c>
-      <c r="P129" s="23">
+      <c r="P129" s="22">
         <v>189</v>
       </c>
-      <c r="Q129" s="23">
+      <c r="Q129" s="22">
         <v>8</v>
       </c>
-      <c r="R129" s="24">
+      <c r="R129" s="23">
         <v>4.9807765089603662E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="S129" s="23"/>
+      <c r="T129" s="23"/>
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" s="12">
         <v>44042</v>
       </c>
@@ -8270,17 +8568,19 @@
       <c r="O130" s="1">
         <v>434</v>
       </c>
-      <c r="P130" s="23">
+      <c r="P130" s="22">
         <v>164</v>
       </c>
-      <c r="Q130" s="23">
+      <c r="Q130" s="22">
         <v>10</v>
       </c>
-      <c r="R130" s="24">
+      <c r="R130" s="23">
         <v>4.9439891899430821E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="S130" s="23"/>
+      <c r="T130" s="23"/>
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" s="12">
         <v>44043</v>
       </c>
@@ -8326,17 +8626,19 @@
       <c r="O131" s="1">
         <v>467</v>
       </c>
-      <c r="P131" s="23">
+      <c r="P131" s="22">
         <v>203</v>
       </c>
-      <c r="Q131" s="23">
+      <c r="Q131" s="22">
         <v>23</v>
       </c>
-      <c r="R131" s="24">
+      <c r="R131" s="23">
         <v>5.1417726810102447E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="S131" s="23"/>
+      <c r="T131" s="23"/>
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" s="12">
         <v>44044</v>
       </c>
@@ -8382,17 +8684,19 @@
       <c r="O132" s="1">
         <v>467</v>
       </c>
-      <c r="P132" s="23">
+      <c r="P132" s="22">
         <v>163</v>
       </c>
-      <c r="Q132" s="23">
+      <c r="Q132" s="22">
         <v>4</v>
       </c>
-      <c r="R132" s="24">
+      <c r="R132" s="23">
         <v>4.2448440302370105E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="S132" s="23"/>
+      <c r="T132" s="23"/>
+    </row>
+    <row r="133" spans="1:20">
       <c r="A133" s="12">
         <v>44045</v>
       </c>
@@ -8438,17 +8742,19 @@
       <c r="O133" s="1">
         <v>467</v>
       </c>
-      <c r="P133" s="23">
+      <c r="P133" s="22">
         <v>191</v>
       </c>
-      <c r="Q133" s="23">
+      <c r="Q133" s="22">
         <v>7</v>
       </c>
-      <c r="R133" s="24">
+      <c r="R133" s="23">
         <v>5.6836793437401299E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="S133" s="23"/>
+      <c r="T133" s="23"/>
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" s="12">
         <v>44046</v>
       </c>
@@ -8494,17 +8800,19 @@
       <c r="O134" s="1">
         <v>467</v>
       </c>
-      <c r="P134" s="23">
+      <c r="P134" s="22">
         <v>149</v>
       </c>
-      <c r="Q134" s="23">
+      <c r="Q134" s="22">
         <v>3</v>
       </c>
-      <c r="R134" s="24">
+      <c r="R134" s="23">
         <v>5.1838813171783467E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="S134" s="23"/>
+      <c r="T134" s="23"/>
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" s="12">
         <v>44047</v>
       </c>
@@ -8550,17 +8858,19 @@
       <c r="O135" s="1">
         <v>467</v>
       </c>
-      <c r="P135" s="23">
+      <c r="P135" s="22">
         <v>152</v>
       </c>
-      <c r="Q135" s="23">
+      <c r="Q135" s="22">
         <v>13</v>
       </c>
-      <c r="R135" s="24">
+      <c r="R135" s="23">
         <v>5.9323943484686052E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="S135" s="23"/>
+      <c r="T135" s="23"/>
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" s="12">
         <v>44048</v>
       </c>
@@ -8606,17 +8916,19 @@
       <c r="O136" s="1">
         <v>467</v>
       </c>
-      <c r="P136" s="23">
+      <c r="P136" s="22">
         <v>258</v>
       </c>
-      <c r="Q136" s="23">
+      <c r="Q136" s="22">
         <v>9</v>
       </c>
-      <c r="R136" s="24">
+      <c r="R136" s="23">
         <v>4.7544455110489811E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="S136" s="23"/>
+      <c r="T136" s="23"/>
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" s="12">
         <v>44049</v>
       </c>
@@ -8662,17 +8974,19 @@
       <c r="O137" s="1">
         <v>467</v>
       </c>
-      <c r="P137" s="23">
+      <c r="P137" s="22">
         <v>231</v>
       </c>
-      <c r="Q137" s="23">
+      <c r="Q137" s="22">
         <v>11</v>
       </c>
-      <c r="R137" s="24">
+      <c r="R137" s="23">
         <v>5.5534969417667869E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="S137" s="23"/>
+      <c r="T137" s="23"/>
+    </row>
+    <row r="138" spans="1:20">
       <c r="A138" s="12">
         <v>44050</v>
       </c>
@@ -8718,17 +9032,19 @@
       <c r="O138" s="1">
         <v>467</v>
       </c>
-      <c r="P138" s="23">
+      <c r="P138" s="22">
         <v>183</v>
       </c>
-      <c r="Q138" s="23">
+      <c r="Q138" s="22">
         <v>16</v>
       </c>
-      <c r="R138" s="24">
+      <c r="R138" s="23">
         <v>5.7495077638261935E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="S138" s="23"/>
+      <c r="T138" s="23"/>
+    </row>
+    <row r="139" spans="1:20">
       <c r="A139" s="12">
         <v>44051</v>
       </c>
@@ -8774,17 +9090,19 @@
       <c r="O139" s="1">
         <v>467</v>
       </c>
-      <c r="P139" s="23">
+      <c r="P139" s="22">
         <v>166</v>
       </c>
-      <c r="Q139" s="23">
+      <c r="Q139" s="22">
         <v>6</v>
       </c>
-      <c r="R139" s="24">
+      <c r="R139" s="23">
         <v>4.0785283257175099E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="S139" s="23"/>
+      <c r="T139" s="23"/>
+    </row>
+    <row r="140" spans="1:20">
       <c r="A140" s="12">
         <v>44052</v>
       </c>
@@ -8830,17 +9148,19 @@
       <c r="O140" s="1">
         <v>467</v>
       </c>
-      <c r="P140" s="23">
+      <c r="P140" s="22">
         <v>114</v>
       </c>
-      <c r="Q140" s="23">
+      <c r="Q140" s="22">
         <v>8</v>
       </c>
-      <c r="R140" s="24">
+      <c r="R140" s="23">
         <v>5.4631379967417348E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="S140" s="23"/>
+      <c r="T140" s="23"/>
+    </row>
+    <row r="141" spans="1:20">
       <c r="A141" s="12">
         <v>44053</v>
       </c>
@@ -8886,17 +9206,19 @@
       <c r="O141" s="1">
         <v>467</v>
       </c>
-      <c r="P141" s="27">
+      <c r="P141" s="25">
         <v>139</v>
       </c>
-      <c r="Q141" s="27">
+      <c r="Q141" s="25">
         <v>3</v>
       </c>
-      <c r="R141" s="28">
+      <c r="R141" s="21">
         <v>4.7617474091706712E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="S141" s="21"/>
+      <c r="T141" s="21"/>
+    </row>
+    <row r="142" spans="1:20">
       <c r="A142" s="12">
         <v>44054</v>
       </c>
@@ -8942,17 +9264,19 @@
       <c r="O142" s="1">
         <v>467</v>
       </c>
-      <c r="P142" s="29">
+      <c r="P142" s="26">
         <v>134</v>
       </c>
-      <c r="Q142" s="29">
+      <c r="Q142" s="26">
         <v>4</v>
       </c>
-      <c r="R142" s="30">
+      <c r="R142" s="27">
         <v>5.5947363072317971E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="S142" s="27"/>
+      <c r="T142" s="27"/>
+    </row>
+    <row r="143" spans="1:20">
       <c r="A143" s="12">
         <v>44055</v>
       </c>
@@ -8998,17 +9322,19 @@
       <c r="O143" s="1">
         <v>467</v>
       </c>
-      <c r="P143" s="29">
+      <c r="P143" s="26">
         <v>188</v>
       </c>
-      <c r="Q143" s="29">
+      <c r="Q143" s="26">
         <v>12</v>
       </c>
-      <c r="R143" s="30">
+      <c r="R143" s="27">
         <v>5.1666714356441087E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="S143" s="27"/>
+      <c r="T143" s="27"/>
+    </row>
+    <row r="144" spans="1:20">
       <c r="A144" s="12">
         <v>44056</v>
       </c>
@@ -9054,17 +9380,19 @@
       <c r="O144" s="1">
         <v>467</v>
       </c>
-      <c r="P144" s="29">
+      <c r="P144" s="26">
         <v>148</v>
       </c>
-      <c r="Q144" s="29">
+      <c r="Q144" s="26">
         <v>4</v>
       </c>
-      <c r="R144" s="30">
+      <c r="R144" s="27">
         <v>4.5690180803785174E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="S144" s="27"/>
+      <c r="T144" s="27"/>
+    </row>
+    <row r="145" spans="1:20">
       <c r="A145" s="12">
         <v>44057</v>
       </c>
@@ -9110,17 +9438,19 @@
       <c r="O145" s="1">
         <v>467</v>
       </c>
-      <c r="P145" s="29">
+      <c r="P145" s="26">
         <v>247</v>
       </c>
-      <c r="Q145" s="29">
+      <c r="Q145" s="26">
         <v>11</v>
       </c>
-      <c r="R145" s="30">
+      <c r="R145" s="27">
         <v>5.0507055881418531E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="S145" s="27"/>
+      <c r="T145" s="27"/>
+    </row>
+    <row r="146" spans="1:20">
       <c r="A146" s="12">
         <v>44058</v>
       </c>
@@ -9166,17 +9496,19 @@
       <c r="O146" s="1">
         <v>467</v>
       </c>
-      <c r="P146" s="29">
+      <c r="P146" s="26">
         <v>246</v>
       </c>
-      <c r="Q146" s="29">
+      <c r="Q146" s="26">
         <v>20</v>
       </c>
-      <c r="R146" s="30">
+      <c r="R146" s="27">
         <v>4.7130160608650037E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="S146" s="27"/>
+      <c r="T146" s="27"/>
+    </row>
+    <row r="147" spans="1:20">
       <c r="A147" s="12">
         <v>44059</v>
       </c>
@@ -9222,17 +9554,19 @@
       <c r="O147" s="1">
         <v>467</v>
       </c>
-      <c r="P147" s="29">
+      <c r="P147" s="26">
         <v>124</v>
       </c>
-      <c r="Q147" s="29">
+      <c r="Q147" s="26">
         <v>13</v>
       </c>
-      <c r="R147" s="30">
+      <c r="R147" s="27">
         <v>5.1691265081721727E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="S147" s="27"/>
+      <c r="T147" s="27"/>
+    </row>
+    <row r="148" spans="1:20">
       <c r="A148" s="12">
         <v>44060</v>
       </c>
@@ -9278,17 +9612,19 @@
       <c r="O148" s="1">
         <v>467</v>
       </c>
-      <c r="P148" s="29">
+      <c r="P148" s="26">
         <v>131</v>
       </c>
-      <c r="Q148" s="29">
+      <c r="Q148" s="26">
         <v>9</v>
       </c>
-      <c r="R148" s="30">
+      <c r="R148" s="27">
         <v>4.8118258626086777E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="S148" s="27"/>
+      <c r="T148" s="27"/>
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" s="12">
         <v>44061</v>
       </c>
@@ -9334,17 +9670,19 @@
       <c r="O149" s="1">
         <v>467</v>
       </c>
-      <c r="P149" s="31">
+      <c r="P149" s="28">
         <v>146</v>
       </c>
-      <c r="Q149" s="31">
+      <c r="Q149" s="28">
         <v>36</v>
       </c>
-      <c r="R149" s="32">
+      <c r="R149" s="27">
         <v>7.3528694681717854E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="S149" s="27"/>
+      <c r="T149" s="27"/>
+    </row>
+    <row r="150" spans="1:20">
       <c r="A150" s="12">
         <v>44062</v>
       </c>
@@ -9390,17 +9728,19 @@
       <c r="O150" s="1">
         <v>467</v>
       </c>
-      <c r="P150" s="31">
+      <c r="P150" s="28">
         <v>169</v>
       </c>
-      <c r="Q150" s="31">
+      <c r="Q150" s="28">
         <v>3</v>
       </c>
-      <c r="R150" s="32">
+      <c r="R150" s="27">
         <v>5.2733282208668873E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="S150" s="27"/>
+      <c r="T150" s="27"/>
+    </row>
+    <row r="151" spans="1:20">
       <c r="A151" s="12">
         <v>44063</v>
       </c>
@@ -9446,17 +9786,19 @@
       <c r="O151" s="1">
         <v>467</v>
       </c>
-      <c r="P151" s="31">
+      <c r="P151" s="28">
         <v>278</v>
       </c>
-      <c r="Q151" s="31">
+      <c r="Q151" s="28">
         <v>9</v>
       </c>
-      <c r="R151" s="32">
+      <c r="R151" s="27">
         <v>6.0372448671120703E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="S151" s="27"/>
+      <c r="T151" s="27"/>
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" s="12">
         <v>44064</v>
       </c>
@@ -9502,17 +9844,19 @@
       <c r="O152" s="1">
         <v>467</v>
       </c>
-      <c r="P152" s="31">
+      <c r="P152" s="28">
         <v>196</v>
       </c>
-      <c r="Q152" s="31">
+      <c r="Q152" s="28">
         <v>11</v>
       </c>
-      <c r="R152" s="32">
+      <c r="R152" s="27">
         <v>8.9871577741389028E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="S152" s="27"/>
+      <c r="T152" s="27"/>
+    </row>
+    <row r="153" spans="1:20">
       <c r="A153" s="12">
         <v>44065</v>
       </c>
@@ -9558,17 +9902,19 @@
       <c r="O153" s="1">
         <v>467</v>
       </c>
-      <c r="P153" s="31">
+      <c r="P153" s="28">
         <v>84</v>
       </c>
-      <c r="Q153" s="31">
+      <c r="Q153" s="28">
         <v>4</v>
       </c>
-      <c r="R153" s="32">
+      <c r="R153" s="27">
         <v>8.733172787029897E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="S153" s="27"/>
+      <c r="T153" s="27"/>
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" s="12">
         <v>44066</v>
       </c>
@@ -9614,17 +9960,19 @@
       <c r="O154" s="1">
         <v>467</v>
       </c>
-      <c r="P154" s="31">
+      <c r="P154" s="28">
         <v>96</v>
       </c>
-      <c r="Q154" s="31">
+      <c r="Q154" s="28">
         <v>1</v>
       </c>
-      <c r="R154" s="32">
+      <c r="R154" s="27">
         <v>8.027991455766724E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="S154" s="27"/>
+      <c r="T154" s="27"/>
+    </row>
+    <row r="155" spans="1:20">
       <c r="A155" s="12">
         <v>44067</v>
       </c>
@@ -9670,17 +10018,19 @@
       <c r="O155" s="1">
         <v>467</v>
       </c>
-      <c r="P155" s="31">
+      <c r="P155" s="28">
         <v>158</v>
       </c>
-      <c r="Q155" s="31">
+      <c r="Q155" s="28">
         <v>5</v>
       </c>
-      <c r="R155" s="32">
+      <c r="R155" s="27">
         <v>7.9715705832674136E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="S155" s="27"/>
+      <c r="T155" s="27"/>
+    </row>
+    <row r="156" spans="1:20">
       <c r="A156" s="12">
         <v>44068</v>
       </c>
@@ -9726,17 +10076,19 @@
       <c r="O156" s="1">
         <v>467</v>
       </c>
-      <c r="P156" s="31">
+      <c r="P156" s="28">
         <v>81</v>
       </c>
-      <c r="Q156" s="31">
+      <c r="Q156" s="28">
         <v>5</v>
       </c>
-      <c r="R156" s="32">
+      <c r="R156" s="27">
         <v>7.5839014887403203E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="S156" s="27"/>
+      <c r="T156" s="27"/>
+    </row>
+    <row r="157" spans="1:20">
       <c r="A157" s="12">
         <v>44069</v>
       </c>
@@ -9782,17 +10134,19 @@
       <c r="O157" s="1">
         <v>467</v>
       </c>
-      <c r="P157" s="31">
+      <c r="P157" s="28">
         <v>173</v>
       </c>
-      <c r="Q157" s="31">
+      <c r="Q157" s="28">
         <v>4</v>
       </c>
-      <c r="R157" s="32">
+      <c r="R157" s="27">
         <v>6.1997210431951687E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="S157" s="27"/>
+      <c r="T157" s="27"/>
+    </row>
+    <row r="158" spans="1:20">
       <c r="A158" s="12">
         <v>44070</v>
       </c>
@@ -9838,17 +10192,19 @@
       <c r="O158" s="1">
         <v>467</v>
       </c>
-      <c r="P158" s="31">
+      <c r="P158" s="28">
         <v>113</v>
       </c>
-      <c r="Q158" s="31">
+      <c r="Q158" s="28">
         <v>1</v>
       </c>
-      <c r="R158" s="32">
+      <c r="R158" s="27">
         <v>2.9254124345292638E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:18">
+      <c r="S158" s="27"/>
+      <c r="T158" s="27"/>
+    </row>
+    <row r="159" spans="1:20">
       <c r="A159" s="12">
         <v>44071</v>
       </c>
@@ -9894,17 +10250,19 @@
       <c r="O159" s="1">
         <v>467</v>
       </c>
-      <c r="P159" s="31">
+      <c r="P159" s="28">
         <v>167</v>
       </c>
-      <c r="Q159" s="31">
+      <c r="Q159" s="28">
         <v>1</v>
       </c>
-      <c r="R159" s="32">
+      <c r="R159" s="27">
         <v>3.5127750374115418E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:18">
+      <c r="S159" s="27"/>
+      <c r="T159" s="27"/>
+    </row>
+    <row r="160" spans="1:20">
       <c r="A160" s="12">
         <v>44072</v>
       </c>
@@ -9950,17 +10308,19 @@
       <c r="O160" s="1">
         <v>467</v>
       </c>
-      <c r="P160" s="31">
+      <c r="P160" s="28">
         <v>167</v>
       </c>
-      <c r="Q160" s="31">
+      <c r="Q160" s="28">
         <v>6</v>
       </c>
-      <c r="R160" s="32">
+      <c r="R160" s="27">
         <v>3.8083094134728504E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:21">
+      <c r="S160" s="27"/>
+      <c r="T160" s="27"/>
+    </row>
+    <row r="161" spans="1:23">
       <c r="A161" s="12">
         <v>44073</v>
       </c>
@@ -10006,17 +10366,19 @@
       <c r="O161" s="1">
         <v>467</v>
       </c>
-      <c r="P161" s="31">
+      <c r="P161" s="28">
         <v>107</v>
       </c>
-      <c r="Q161" s="31">
-        <v>2</v>
-      </c>
-      <c r="R161" s="32">
+      <c r="Q161" s="28">
+        <v>2</v>
+      </c>
+      <c r="R161" s="27">
         <v>2.8867458936871919E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:21">
+      <c r="S161" s="27"/>
+      <c r="T161" s="27"/>
+    </row>
+    <row r="162" spans="1:23">
       <c r="A162" s="12">
         <v>44074</v>
       </c>
@@ -10062,17 +10424,19 @@
       <c r="O162" s="1">
         <v>467</v>
       </c>
-      <c r="P162" s="29">
+      <c r="P162" s="26">
         <v>130</v>
       </c>
-      <c r="Q162" s="29">
+      <c r="Q162" s="26">
         <v>4</v>
       </c>
-      <c r="R162" s="30">
+      <c r="R162" s="27">
         <v>2.4645547267905094E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:21">
+      <c r="S162" s="27"/>
+      <c r="T162" s="27"/>
+    </row>
+    <row r="163" spans="1:23">
       <c r="A163" s="12">
         <v>44075</v>
       </c>
@@ -10118,20 +10482,22 @@
       <c r="O163" s="1">
         <v>467</v>
       </c>
-      <c r="P163" s="33">
+      <c r="P163" s="29">
         <v>211</v>
       </c>
-      <c r="Q163" s="23">
-        <v>2</v>
-      </c>
-      <c r="R163" s="34">
+      <c r="Q163" s="22">
+        <v>2</v>
+      </c>
+      <c r="R163" s="37">
         <v>1.8896643350411496E-2</v>
       </c>
-      <c r="U163" s="13" t="s">
+      <c r="S163" s="37"/>
+      <c r="T163" s="37"/>
+      <c r="W163" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:23">
       <c r="A164" s="12">
         <v>44076</v>
       </c>
@@ -10177,17 +10543,19 @@
       <c r="O164" s="1">
         <v>467</v>
       </c>
-      <c r="P164" s="33">
+      <c r="P164" s="29">
         <v>267</v>
       </c>
-      <c r="Q164" s="23">
-        <v>2</v>
-      </c>
-      <c r="R164" s="34">
+      <c r="Q164" s="22">
+        <v>2</v>
+      </c>
+      <c r="R164" s="37">
         <v>1.6518229725575512E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:21">
+      <c r="S164" s="37"/>
+      <c r="T164" s="37"/>
+    </row>
+    <row r="165" spans="1:23">
       <c r="A165" s="12">
         <v>44077</v>
       </c>
@@ -10233,17 +10601,19 @@
       <c r="O165" s="1">
         <v>467</v>
       </c>
-      <c r="P165" s="35">
+      <c r="P165" s="30">
         <v>186</v>
       </c>
-      <c r="Q165" s="25">
-        <v>2</v>
-      </c>
-      <c r="R165" s="34">
+      <c r="Q165" s="24">
+        <v>2</v>
+      </c>
+      <c r="R165" s="37">
         <v>1.6934679491322522E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:21">
+      <c r="S165" s="37"/>
+      <c r="T165" s="37"/>
+    </row>
+    <row r="166" spans="1:23">
       <c r="A166" s="12">
         <v>44078</v>
       </c>
@@ -10289,17 +10659,19 @@
       <c r="O166" s="1">
         <v>467</v>
       </c>
-      <c r="P166" s="33">
+      <c r="P166" s="29">
         <v>206</v>
       </c>
-      <c r="Q166" s="23">
+      <c r="Q166" s="22">
         <v>3</v>
       </c>
-      <c r="R166" s="34">
+      <c r="R166" s="37">
         <v>1.840844004474983E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:21">
+      <c r="S166" s="37"/>
+      <c r="T166" s="37"/>
+    </row>
+    <row r="167" spans="1:23">
       <c r="A167" s="12">
         <v>44079</v>
       </c>
@@ -10345,17 +10717,19 @@
       <c r="O167" s="1">
         <v>467</v>
       </c>
-      <c r="P167" s="33">
+      <c r="P167" s="29">
         <v>79</v>
       </c>
-      <c r="Q167" s="23">
+      <c r="Q167" s="22">
         <v>4</v>
       </c>
-      <c r="R167" s="34">
+      <c r="R167" s="37">
         <v>2.3128064834579031E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:21">
+      <c r="S167" s="37"/>
+      <c r="T167" s="37"/>
+    </row>
+    <row r="168" spans="1:23">
       <c r="A168" s="12">
         <v>44080</v>
       </c>
@@ -10401,17 +10775,19 @@
       <c r="O168" s="1">
         <v>467</v>
       </c>
-      <c r="P168" s="33">
+      <c r="P168" s="29">
         <v>25</v>
       </c>
-      <c r="Q168" s="23">
-        <v>0</v>
-      </c>
-      <c r="R168" s="34">
+      <c r="Q168" s="22">
+        <v>0</v>
+      </c>
+      <c r="R168" s="37">
         <v>2.0457837865286647E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:21">
+      <c r="S168" s="37"/>
+      <c r="T168" s="37"/>
+    </row>
+    <row r="169" spans="1:23">
       <c r="A169" s="12">
         <v>44081</v>
       </c>
@@ -10457,17 +10833,19 @@
       <c r="O169" s="1">
         <v>467</v>
       </c>
-      <c r="P169" s="33">
+      <c r="P169" s="29">
         <v>163</v>
       </c>
-      <c r="Q169" s="23">
+      <c r="Q169" s="22">
         <v>1</v>
       </c>
-      <c r="R169" s="34">
+      <c r="R169" s="37">
         <v>1.7128331550705703E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:21">
+      <c r="S169" s="37"/>
+      <c r="T169" s="37"/>
+    </row>
+    <row r="170" spans="1:23">
       <c r="A170" s="12">
         <v>44082</v>
       </c>
@@ -10513,17 +10891,19 @@
       <c r="O170" s="1">
         <v>467</v>
       </c>
-      <c r="P170" s="33">
+      <c r="P170" s="29">
         <v>121</v>
       </c>
-      <c r="Q170" s="33">
+      <c r="Q170" s="29">
         <v>1</v>
       </c>
-      <c r="R170" s="34">
+      <c r="R170" s="37">
         <v>1.7405616377679973E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:21">
+      <c r="S170" s="37"/>
+      <c r="T170" s="37"/>
+    </row>
+    <row r="171" spans="1:23">
       <c r="A171" s="12">
         <v>44083</v>
       </c>
@@ -10569,17 +10949,19 @@
       <c r="O171" s="1">
         <v>467</v>
       </c>
-      <c r="P171" s="36">
+      <c r="P171" s="31">
         <v>130</v>
       </c>
-      <c r="Q171" s="36">
-        <v>2</v>
-      </c>
-      <c r="R171" s="34">
+      <c r="Q171" s="31">
+        <v>2</v>
+      </c>
+      <c r="R171" s="37">
         <v>1.8678776874141441E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:21">
+      <c r="S171" s="37"/>
+      <c r="T171" s="37"/>
+    </row>
+    <row r="172" spans="1:23">
       <c r="A172" s="12">
         <v>44084</v>
       </c>
@@ -10625,17 +11007,19 @@
       <c r="O172" s="1">
         <v>467</v>
       </c>
-      <c r="P172" s="36">
+      <c r="P172" s="31">
         <v>104</v>
       </c>
-      <c r="Q172" s="36">
+      <c r="Q172" s="31">
         <v>1</v>
       </c>
-      <c r="R172" s="34">
+      <c r="R172" s="37">
         <v>1.8371730978860249E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:21">
+      <c r="S172" s="37"/>
+      <c r="T172" s="37"/>
+    </row>
+    <row r="173" spans="1:23">
       <c r="A173" s="12">
         <v>44085</v>
       </c>
@@ -10681,17 +11065,19 @@
       <c r="O173" s="1">
         <v>467</v>
       </c>
-      <c r="P173" s="36">
+      <c r="P173" s="31">
         <v>158</v>
       </c>
-      <c r="Q173" s="36">
+      <c r="Q173" s="31">
         <v>1</v>
       </c>
-      <c r="R173" s="34">
+      <c r="R173" s="37">
         <v>1.694669756428363E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:21">
+      <c r="S173" s="37"/>
+      <c r="T173" s="37"/>
+    </row>
+    <row r="174" spans="1:23">
       <c r="A174" s="12">
         <v>44086</v>
       </c>
@@ -10737,17 +11123,19 @@
       <c r="O174" s="1">
         <v>467</v>
       </c>
-      <c r="P174" s="36">
+      <c r="P174" s="31">
         <v>62</v>
       </c>
-      <c r="Q174" s="36">
-        <v>0</v>
-      </c>
-      <c r="R174" s="34">
+      <c r="Q174" s="31">
+        <v>0</v>
+      </c>
+      <c r="R174" s="37">
         <v>7.09448081551516E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:21">
+      <c r="S174" s="37"/>
+      <c r="T174" s="37"/>
+    </row>
+    <row r="175" spans="1:23">
       <c r="A175" s="12">
         <v>44087</v>
       </c>
@@ -10793,17 +11181,19 @@
       <c r="O175" s="1">
         <v>467</v>
       </c>
-      <c r="P175" s="36">
+      <c r="P175" s="31">
         <v>29</v>
       </c>
-      <c r="Q175" s="36">
+      <c r="Q175" s="31">
         <v>1</v>
       </c>
-      <c r="R175" s="34">
+      <c r="R175" s="37">
         <v>1.2020589189899396E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:21">
+      <c r="S175" s="37"/>
+      <c r="T175" s="37"/>
+    </row>
+    <row r="176" spans="1:23">
       <c r="A176" s="12">
         <v>44088</v>
       </c>
@@ -10849,17 +11239,19 @@
       <c r="O176" s="1">
         <v>467</v>
       </c>
-      <c r="P176" s="36">
+      <c r="P176" s="31">
         <v>195</v>
       </c>
-      <c r="Q176" s="36">
+      <c r="Q176" s="31">
         <v>4</v>
       </c>
-      <c r="R176" s="34">
+      <c r="R176" s="37">
         <v>1.388489403927887E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="S176" s="37"/>
+      <c r="T176" s="37"/>
+    </row>
+    <row r="177" spans="1:20">
       <c r="A177" s="12">
         <v>44089</v>
       </c>
@@ -10905,17 +11297,19 @@
       <c r="O177" s="1">
         <v>467</v>
       </c>
-      <c r="P177" s="36">
+      <c r="P177" s="31">
         <v>147</v>
       </c>
-      <c r="Q177" s="36">
+      <c r="Q177" s="31">
         <v>1</v>
       </c>
-      <c r="R177" s="34">
+      <c r="R177" s="37">
         <v>1.3303916306570882E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="S177" s="37"/>
+      <c r="T177" s="37"/>
+    </row>
+    <row r="178" spans="1:20">
       <c r="A178" s="12">
         <v>44090</v>
       </c>
@@ -10961,17 +11355,19 @@
       <c r="O178" s="1">
         <v>467</v>
       </c>
-      <c r="P178" s="36">
+      <c r="P178" s="31">
         <v>137</v>
       </c>
-      <c r="Q178" s="36">
+      <c r="Q178" s="31">
         <v>1</v>
       </c>
-      <c r="R178" s="34">
+      <c r="R178" s="37">
         <v>1.214886697633907E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="S178" s="37"/>
+      <c r="T178" s="37"/>
+    </row>
+    <row r="179" spans="1:20">
       <c r="A179" s="12">
         <v>44091</v>
       </c>
@@ -11023,11 +11419,13 @@
       <c r="Q179" s="1">
         <v>0</v>
       </c>
-      <c r="R179" s="34">
+      <c r="R179" s="37">
         <v>1.0775240602712696E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="S179" s="37"/>
+      <c r="T179" s="37"/>
+    </row>
+    <row r="180" spans="1:20">
       <c r="A180" s="12">
         <v>44092</v>
       </c>
@@ -11079,11 +11477,13 @@
       <c r="Q180" s="1">
         <v>1</v>
       </c>
-      <c r="R180" s="34">
+      <c r="R180" s="37">
         <v>1.0775240602712694E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="S180" s="37"/>
+      <c r="T180" s="37"/>
+    </row>
+    <row r="181" spans="1:20">
       <c r="A181" s="12">
         <v>44093</v>
       </c>
@@ -11135,11 +11535,13 @@
       <c r="Q181" s="1">
         <v>2</v>
       </c>
-      <c r="R181" s="34">
+      <c r="R181" s="37">
         <v>1.5039632926806512E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="S181" s="37"/>
+      <c r="T181" s="37"/>
+    </row>
+    <row r="182" spans="1:20">
       <c r="A182" s="12">
         <v>44094</v>
       </c>
@@ -11191,11 +11593,13 @@
       <c r="Q182" s="1">
         <v>1</v>
       </c>
-      <c r="R182" s="34">
+      <c r="R182" s="37">
         <v>1.2044026482924209E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:18">
+      <c r="S182" s="37"/>
+      <c r="T182" s="37"/>
+    </row>
+    <row r="183" spans="1:20">
       <c r="A183" s="12">
         <v>44095</v>
       </c>
@@ -11247,11 +11651,13 @@
       <c r="Q183" s="1">
         <v>1</v>
       </c>
-      <c r="R183" s="34">
+      <c r="R183" s="37">
         <v>1.0718759989118389E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:18">
+      <c r="S183" s="37"/>
+      <c r="T183" s="37"/>
+    </row>
+    <row r="184" spans="1:20">
       <c r="A184" s="12">
         <v>44096</v>
       </c>
@@ -11303,11 +11709,13 @@
       <c r="Q184" s="1">
         <v>2</v>
       </c>
-      <c r="R184" s="34">
+      <c r="R184" s="37">
         <v>1.3948623363039385E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="S184" s="37"/>
+      <c r="T184" s="37"/>
+    </row>
+    <row r="185" spans="1:20">
       <c r="A185" s="12">
         <v>44097</v>
       </c>
@@ -11359,11 +11767,13 @@
       <c r="Q185" s="1">
         <v>0</v>
       </c>
-      <c r="R185" s="34">
+      <c r="R185" s="37">
         <v>1.2905870495468999E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="S185" s="37"/>
+      <c r="T185" s="37"/>
+    </row>
+    <row r="186" spans="1:20">
       <c r="A186" s="12">
         <v>44098</v>
       </c>
@@ -11415,11 +11825,13 @@
       <c r="Q186" s="1">
         <v>1</v>
       </c>
-      <c r="R186" s="34">
+      <c r="R186" s="37">
         <v>1.3827529481644115E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:18">
+      <c r="S186" s="37"/>
+      <c r="T186" s="37"/>
+    </row>
+    <row r="187" spans="1:20">
       <c r="A187" s="12">
         <v>44099</v>
       </c>
@@ -11471,11 +11883,13 @@
       <c r="Q187" s="1">
         <v>3</v>
       </c>
-      <c r="R187" s="34">
+      <c r="R187" s="37">
         <v>1.4964186676167493E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:18">
+      <c r="S187" s="37"/>
+      <c r="T187" s="37"/>
+    </row>
+    <row r="188" spans="1:20">
       <c r="A188" s="12">
         <v>44100</v>
       </c>
@@ -11527,11 +11941,13 @@
       <c r="Q188" s="1">
         <v>0</v>
       </c>
-      <c r="R188" s="34">
+      <c r="R188" s="37">
         <v>1.0699794352073676E-2</v>
       </c>
-    </row>
-    <row r="189" spans="1:18">
+      <c r="S188" s="37"/>
+      <c r="T188" s="37"/>
+    </row>
+    <row r="189" spans="1:20">
       <c r="A189" s="12">
         <v>44101</v>
       </c>
@@ -11583,11 +11999,13 @@
       <c r="Q189" s="1">
         <v>5</v>
       </c>
-      <c r="R189" s="34">
+      <c r="R189" s="37">
         <v>1.47716933819559E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:18">
+      <c r="S189" s="37"/>
+      <c r="T189" s="37"/>
+    </row>
+    <row r="190" spans="1:20">
       <c r="A190" s="12">
         <v>44102</v>
       </c>
@@ -11639,11 +12057,13 @@
       <c r="Q190" s="1">
         <v>1</v>
       </c>
-      <c r="R190" s="34">
+      <c r="R190" s="37">
         <v>1.3960207739009583E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:18">
+      <c r="S190" s="37"/>
+      <c r="T190" s="37"/>
+    </row>
+    <row r="191" spans="1:20">
       <c r="A191" s="12">
         <v>44103</v>
       </c>
@@ -11695,11 +12115,13 @@
       <c r="Q191" s="1">
         <v>2</v>
       </c>
-      <c r="R191" s="34">
+      <c r="R191" s="37">
         <v>1.1956329264542874E-2</v>
       </c>
-    </row>
-    <row r="192" spans="1:18">
+      <c r="S191" s="37"/>
+      <c r="T191" s="37"/>
+    </row>
+    <row r="192" spans="1:20">
       <c r="A192" s="12">
         <v>44104</v>
       </c>
@@ -11751,11 +12173,13 @@
       <c r="Q192" s="1">
         <v>4</v>
       </c>
-      <c r="R192" s="34">
+      <c r="R192" s="37">
         <v>1.6127340734824417E-2</v>
       </c>
-    </row>
-    <row r="193" spans="1:21">
+      <c r="S192" s="37"/>
+      <c r="T192" s="37"/>
+    </row>
+    <row r="193" spans="1:23">
       <c r="A193" s="12">
         <v>44105</v>
       </c>
@@ -11807,11 +12231,13 @@
       <c r="Q193" s="1">
         <v>2</v>
       </c>
-      <c r="R193" s="34">
+      <c r="R193" s="37">
         <v>1.7276075123390501E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:21">
+      <c r="S193" s="37"/>
+      <c r="T193" s="37"/>
+    </row>
+    <row r="194" spans="1:23">
       <c r="A194" s="12">
         <v>44106</v>
       </c>
@@ -11863,11 +12289,13 @@
       <c r="Q194" s="1">
         <v>5</v>
       </c>
-      <c r="R194" s="34">
+      <c r="R194" s="37">
         <v>1.9117246374499637E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:21">
+      <c r="S194" s="37"/>
+      <c r="T194" s="37"/>
+    </row>
+    <row r="195" spans="1:23">
       <c r="A195" s="12">
         <v>44107</v>
       </c>
@@ -11919,11 +12347,13 @@
       <c r="Q195" s="1">
         <v>0</v>
       </c>
-      <c r="R195" s="34">
+      <c r="R195" s="37">
         <v>1.9117246374499641E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:21">
+      <c r="S195" s="37"/>
+      <c r="T195" s="37"/>
+    </row>
+    <row r="196" spans="1:23">
       <c r="A196" s="12">
         <v>44108</v>
       </c>
@@ -11975,11 +12405,13 @@
       <c r="Q196" s="1">
         <v>0</v>
       </c>
-      <c r="R196" s="34">
+      <c r="R196" s="37">
         <v>1.3114845414115487E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:21" s="40" customFormat="1">
+      <c r="S196" s="37"/>
+      <c r="T196" s="37"/>
+    </row>
+    <row r="197" spans="1:23" s="35" customFormat="1">
       <c r="A197" s="12">
         <v>44109</v>
       </c>
@@ -12031,14 +12463,16 @@
       <c r="Q197" s="1">
         <v>0</v>
       </c>
-      <c r="R197" s="41">
+      <c r="R197" s="38">
         <v>1.2321194620464692E-2</v>
       </c>
       <c r="S197" s="38"/>
       <c r="T197" s="38"/>
-      <c r="U197" s="39"/>
-    </row>
-    <row r="198" spans="1:21">
+      <c r="U197" s="33"/>
+      <c r="V197" s="33"/>
+      <c r="W197" s="34"/>
+    </row>
+    <row r="198" spans="1:23">
       <c r="A198" s="12">
         <v>44110</v>
       </c>
@@ -12090,11 +12524,13 @@
       <c r="Q198" s="1">
         <v>2</v>
       </c>
-      <c r="R198" s="34">
+      <c r="R198" s="37">
         <v>1.2053894353164426E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:21">
+      <c r="S198" s="37"/>
+      <c r="T198" s="37"/>
+    </row>
+    <row r="199" spans="1:23">
       <c r="A199" s="12">
         <v>44111</v>
       </c>
@@ -12146,11 +12582,13 @@
       <c r="Q199" s="1">
         <v>5</v>
       </c>
-      <c r="R199" s="34">
+      <c r="R199" s="37">
         <v>1.208456355515179E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:21">
+      <c r="S199" s="37"/>
+      <c r="T199" s="37"/>
+    </row>
+    <row r="200" spans="1:23">
       <c r="A200" s="12">
         <v>44112</v>
       </c>
@@ -12202,11 +12640,13 @@
       <c r="Q200" s="1">
         <v>4</v>
       </c>
-      <c r="R200" s="34">
+      <c r="R200" s="37">
         <v>1.4154956929892991E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:21">
+      <c r="S200" s="37"/>
+      <c r="T200" s="37"/>
+    </row>
+    <row r="201" spans="1:23">
       <c r="A201" s="12">
         <v>44113</v>
       </c>
@@ -12258,11 +12698,13 @@
       <c r="Q201" s="1">
         <v>5</v>
       </c>
-      <c r="R201" s="34">
+      <c r="R201" s="37">
         <v>1.3096233045082149E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:21">
+      <c r="S201" s="37"/>
+      <c r="T201" s="37"/>
+    </row>
+    <row r="202" spans="1:23">
       <c r="A202" s="12">
         <v>44114</v>
       </c>
@@ -12314,11 +12756,13 @@
       <c r="Q202" s="1">
         <v>2</v>
       </c>
-      <c r="R202" s="34">
+      <c r="R202" s="37">
         <v>1.5381947330796437E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:21">
+      <c r="S202" s="37"/>
+      <c r="T202" s="37"/>
+    </row>
+    <row r="203" spans="1:23">
       <c r="A203" s="12">
         <v>44115</v>
       </c>
@@ -12370,11 +12814,13 @@
       <c r="Q203" s="1">
         <v>1</v>
       </c>
-      <c r="R203" s="34">
+      <c r="R203" s="37">
         <v>2.0143852092701198E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:21">
+      <c r="S203" s="37"/>
+      <c r="T203" s="37"/>
+    </row>
+    <row r="204" spans="1:23">
       <c r="A204" s="12">
         <v>44116</v>
       </c>
@@ -12426,11 +12872,13 @@
       <c r="Q204" s="1">
         <v>3</v>
       </c>
-      <c r="R204" s="34">
+      <c r="R204" s="37">
         <v>2.1858137806986911E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:21">
+      <c r="S204" s="37"/>
+      <c r="T204" s="37"/>
+    </row>
+    <row r="205" spans="1:23">
       <c r="A205" s="12">
         <v>44117</v>
       </c>
@@ -12482,11 +12930,13 @@
       <c r="Q205" s="1">
         <v>2</v>
       </c>
-      <c r="R205" s="34">
+      <c r="R205" s="37">
         <v>2.151493746378657E-2</v>
       </c>
-    </row>
-    <row r="206" spans="1:21">
+      <c r="S205" s="37"/>
+      <c r="T205" s="37"/>
+    </row>
+    <row r="206" spans="1:23">
       <c r="A206" s="12">
         <v>44118</v>
       </c>
@@ -12538,11 +12988,13 @@
       <c r="Q206" s="1">
         <v>2</v>
       </c>
-      <c r="R206" s="34">
+      <c r="R206" s="37">
         <v>1.942965890791978E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:21">
+      <c r="S206" s="37"/>
+      <c r="T206" s="37"/>
+    </row>
+    <row r="207" spans="1:23">
       <c r="A207" s="12">
         <v>44119</v>
       </c>
@@ -12594,11 +13046,13 @@
       <c r="Q207" s="1">
         <v>3</v>
       </c>
-      <c r="R207" s="34">
+      <c r="R207" s="37">
         <v>1.8844303993006954E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:21">
+      <c r="S207" s="37"/>
+      <c r="T207" s="37"/>
+    </row>
+    <row r="208" spans="1:23">
       <c r="A208" s="12">
         <v>44120</v>
       </c>
@@ -12650,11 +13104,13 @@
       <c r="Q208" s="1">
         <v>3</v>
       </c>
-      <c r="R208" s="34">
+      <c r="R208" s="37">
         <v>1.9280694571722722E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:18">
+      <c r="S208" s="37"/>
+      <c r="T208" s="37"/>
+    </row>
+    <row r="209" spans="1:20">
       <c r="A209" s="12">
         <v>44121</v>
       </c>
@@ -12706,11 +13162,13 @@
       <c r="Q209" s="1">
         <v>0</v>
       </c>
-      <c r="R209" s="34">
+      <c r="R209" s="37">
         <v>1.6994980286008439E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:18">
+      <c r="S209" s="37"/>
+      <c r="T209" s="37"/>
+    </row>
+    <row r="210" spans="1:20">
       <c r="A210" s="12">
         <v>44122</v>
       </c>
@@ -12762,11 +13220,13 @@
       <c r="Q210" s="1">
         <v>0</v>
       </c>
-      <c r="R210" s="34">
+      <c r="R210" s="37">
         <v>1.2233075524103678E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:18">
+      <c r="S210" s="37"/>
+      <c r="T210" s="37"/>
+    </row>
+    <row r="211" spans="1:20">
       <c r="A211" s="12">
         <v>44123</v>
       </c>
@@ -12818,11 +13278,13 @@
       <c r="Q211" s="1">
         <v>2</v>
       </c>
-      <c r="R211" s="34">
+      <c r="R211" s="37">
         <v>1.2151442871042454E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:18">
+      <c r="S211" s="37"/>
+      <c r="T211" s="37"/>
+    </row>
+    <row r="212" spans="1:20">
       <c r="A212" s="12">
         <v>44124</v>
       </c>
@@ -12874,11 +13336,13 @@
       <c r="Q212" s="1">
         <v>2</v>
       </c>
-      <c r="R212" s="34">
+      <c r="R212" s="37">
         <v>1.2295743015342598E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:18">
+      <c r="S212" s="37"/>
+      <c r="T212" s="37"/>
+    </row>
+    <row r="213" spans="1:20">
       <c r="A213" s="12">
         <v>44125</v>
       </c>
@@ -12930,11 +13394,13 @@
       <c r="Q213" s="1">
         <v>3</v>
       </c>
-      <c r="R213" s="34">
+      <c r="R213" s="37">
         <v>1.388835330360506E-2</v>
       </c>
-    </row>
-    <row r="214" spans="1:18">
+      <c r="S213" s="37"/>
+      <c r="T213" s="37"/>
+    </row>
+    <row r="214" spans="1:20">
       <c r="A214" s="12">
         <v>44126</v>
       </c>
@@ -12986,11 +13452,13 @@
       <c r="Q214" s="1">
         <v>3</v>
       </c>
-      <c r="R214" s="34">
+      <c r="R214" s="37">
         <v>1.3351663217734646E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:18">
+      <c r="S214" s="37"/>
+      <c r="T214" s="37"/>
+    </row>
+    <row r="215" spans="1:20">
       <c r="A215" s="12">
         <v>44127</v>
       </c>
@@ -13042,11 +13510,13 @@
       <c r="Q215" s="1">
         <v>1</v>
       </c>
-      <c r="R215" s="34">
+      <c r="R215" s="37">
         <v>1.1214102685046995E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:18">
+      <c r="S215" s="37"/>
+      <c r="T215" s="37"/>
+    </row>
+    <row r="216" spans="1:20">
       <c r="A216" s="12">
         <v>44128</v>
       </c>
@@ -13098,11 +13568,13 @@
       <c r="Q216" s="1">
         <v>0</v>
       </c>
-      <c r="R216" s="34">
+      <c r="R216" s="37">
         <v>1.1214102685046995E-2</v>
       </c>
-    </row>
-    <row r="217" spans="1:18">
+      <c r="S216" s="37"/>
+      <c r="T216" s="37"/>
+    </row>
+    <row r="217" spans="1:20">
       <c r="A217" s="12">
         <v>44129</v>
       </c>
@@ -13154,11 +13626,13 @@
       <c r="Q217" s="1">
         <v>1</v>
       </c>
-      <c r="R217" s="34">
+      <c r="R217" s="37">
         <v>1.3635410191100263E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:18">
+      <c r="S217" s="37"/>
+      <c r="T217" s="37"/>
+    </row>
+    <row r="218" spans="1:20">
       <c r="A218" s="12">
         <v>44130</v>
       </c>
@@ -13210,11 +13684,13 @@
       <c r="Q218" s="1">
         <v>1</v>
       </c>
-      <c r="R218" s="34">
+      <c r="R218" s="37">
         <v>1.2858189123032318E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:18">
+      <c r="S218" s="37"/>
+      <c r="T218" s="37"/>
+    </row>
+    <row r="219" spans="1:20">
       <c r="A219" s="12">
         <v>44131</v>
       </c>
@@ -13266,11 +13742,13 @@
       <c r="Q219" s="1">
         <v>4</v>
       </c>
-      <c r="R219" s="34">
+      <c r="R219" s="37">
         <v>1.512259138743458E-2</v>
       </c>
-    </row>
-    <row r="220" spans="1:18">
+      <c r="S219" s="37"/>
+      <c r="T219" s="37"/>
+    </row>
+    <row r="220" spans="1:20">
       <c r="A220" s="12">
         <v>44132</v>
       </c>
@@ -13322,11 +13800,13 @@
       <c r="Q220" s="1">
         <v>4</v>
       </c>
-      <c r="R220" s="34">
+      <c r="R220" s="37">
         <v>1.6702051682491208E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:18">
+      <c r="S220" s="37"/>
+      <c r="T220" s="37"/>
+    </row>
+    <row r="221" spans="1:20">
       <c r="A221" s="12">
         <v>44133</v>
       </c>
@@ -13378,11 +13858,13 @@
       <c r="Q221" s="1">
         <v>4</v>
       </c>
-      <c r="R221" s="34">
+      <c r="R221" s="37">
         <v>1.8527781974608054E-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:18">
+      <c r="S221" s="37"/>
+      <c r="T221" s="37"/>
+    </row>
+    <row r="222" spans="1:20">
       <c r="A222" s="12">
         <v>44134</v>
       </c>
@@ -13434,11 +13916,13 @@
       <c r="Q222" s="1">
         <v>12</v>
       </c>
-      <c r="R222" s="34">
+      <c r="R222" s="37">
         <v>3.1602842507295704E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:18">
+      <c r="S222" s="37"/>
+      <c r="T222" s="37"/>
+    </row>
+    <row r="223" spans="1:20">
       <c r="A223" s="12">
         <v>44135</v>
       </c>
@@ -13490,11 +13974,13 @@
       <c r="Q223" s="1">
         <v>8</v>
       </c>
-      <c r="R223" s="34">
+      <c r="R223" s="37">
         <v>3.9324850229303432E-2</v>
       </c>
-    </row>
-    <row r="224" spans="1:18">
+      <c r="S223" s="37"/>
+      <c r="T223" s="37"/>
+    </row>
+    <row r="224" spans="1:20">
       <c r="A224" s="12">
         <v>44136</v>
       </c>
@@ -13546,11 +14032,13 @@
       <c r="Q224" s="1">
         <v>5</v>
       </c>
-      <c r="R224" s="34">
+      <c r="R224" s="37">
         <v>4.2005583539576688E-2</v>
       </c>
-    </row>
-    <row r="225" spans="1:18">
+      <c r="S224" s="37"/>
+      <c r="T224" s="37"/>
+    </row>
+    <row r="225" spans="1:20">
       <c r="A225" s="12">
         <v>44137</v>
       </c>
@@ -13602,11 +14090,13 @@
       <c r="Q225" s="1">
         <v>14</v>
       </c>
-      <c r="R225" s="34">
+      <c r="R225" s="37">
         <v>5.2139162535431126E-2</v>
       </c>
-    </row>
-    <row r="226" spans="1:18">
+      <c r="S225" s="37"/>
+      <c r="T225" s="37"/>
+    </row>
+    <row r="226" spans="1:20">
       <c r="A226" s="12">
         <v>44138</v>
       </c>
@@ -13658,11 +14148,13 @@
       <c r="Q226" s="1">
         <v>3</v>
       </c>
-      <c r="R226" s="34">
+      <c r="R226" s="37">
         <v>5.3185175346149825E-2</v>
       </c>
-    </row>
-    <row r="227" spans="1:18">
+      <c r="S226" s="37"/>
+      <c r="T226" s="37"/>
+    </row>
+    <row r="227" spans="1:20">
       <c r="A227" s="12">
         <v>44139</v>
       </c>
@@ -13714,11 +14206,13 @@
       <c r="Q227" s="1">
         <v>14</v>
       </c>
-      <c r="R227" s="34">
+      <c r="R227" s="37">
         <v>5.8637898553864934E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:18">
+      <c r="S227" s="37"/>
+      <c r="T227" s="37"/>
+    </row>
+    <row r="228" spans="1:20">
       <c r="A228" s="12">
         <v>44140</v>
       </c>
@@ -13770,11 +14264,13 @@
       <c r="Q228" s="1">
         <v>17</v>
       </c>
-      <c r="R228" s="34">
+      <c r="R228" s="37">
         <v>6.3708219365116267E-2</v>
       </c>
-    </row>
-    <row r="229" spans="1:18">
+      <c r="S228" s="37"/>
+      <c r="T228" s="37"/>
+    </row>
+    <row r="229" spans="1:20">
       <c r="A229" s="12">
         <v>44141</v>
       </c>
@@ -13826,11 +14322,13 @@
       <c r="Q229" s="1">
         <v>17</v>
       </c>
-      <c r="R229" s="34">
+      <c r="R229" s="37">
         <v>6.0264341814095859E-2</v>
       </c>
-    </row>
-    <row r="230" spans="1:18">
+      <c r="S229" s="37"/>
+      <c r="T229" s="37"/>
+    </row>
+    <row r="230" spans="1:20">
       <c r="A230" s="12">
         <v>44142</v>
       </c>
@@ -13882,11 +14380,13 @@
       <c r="Q230" s="1">
         <v>8</v>
       </c>
-      <c r="R230" s="34">
+      <c r="R230" s="37">
         <v>6.1007942557696593E-2</v>
       </c>
-    </row>
-    <row r="231" spans="1:18">
+      <c r="S230" s="37"/>
+      <c r="T230" s="37"/>
+    </row>
+    <row r="231" spans="1:20">
       <c r="A231" s="12">
         <v>44143</v>
       </c>
@@ -13938,11 +14438,13 @@
       <c r="Q231" s="1">
         <v>7</v>
       </c>
-      <c r="R231" s="34">
+      <c r="R231" s="37">
         <v>6.580689184037998E-2</v>
       </c>
-    </row>
-    <row r="232" spans="1:18">
+      <c r="S231" s="37"/>
+      <c r="T231" s="37"/>
+    </row>
+    <row r="232" spans="1:20">
       <c r="A232" s="12">
         <v>44144</v>
       </c>
@@ -13994,11 +14496,13 @@
       <c r="Q232" s="1">
         <v>14</v>
       </c>
-      <c r="R232" s="34">
+      <c r="R232" s="37">
         <v>6.0823886857374998E-2</v>
       </c>
-    </row>
-    <row r="233" spans="1:18">
+      <c r="S232" s="37"/>
+      <c r="T232" s="37"/>
+    </row>
+    <row r="233" spans="1:20">
       <c r="A233" s="12">
         <v>44145</v>
       </c>
@@ -14050,11 +14554,13 @@
       <c r="Q233" s="1">
         <v>20</v>
       </c>
-      <c r="R233" s="34">
+      <c r="R233" s="37">
         <v>6.591358231002413E-2</v>
       </c>
-    </row>
-    <row r="234" spans="1:18">
+      <c r="S233" s="37"/>
+      <c r="T233" s="37"/>
+    </row>
+    <row r="234" spans="1:20">
       <c r="A234" s="12">
         <v>44146</v>
       </c>
@@ -14106,11 +14612,13 @@
       <c r="Q234" s="1">
         <v>14</v>
       </c>
-      <c r="R234" s="34">
+      <c r="R234" s="37">
         <v>6.0580325439154904E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:18">
+      <c r="S234" s="37"/>
+      <c r="T234" s="37"/>
+    </row>
+    <row r="235" spans="1:20">
       <c r="A235" s="12">
         <v>44147</v>
       </c>
@@ -14162,11 +14670,13 @@
       <c r="Q235" s="1">
         <v>22</v>
       </c>
-      <c r="R235" s="34">
+      <c r="R235" s="37">
         <v>6.0685408122634801E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:18">
+      <c r="S235" s="37"/>
+      <c r="T235" s="37"/>
+    </row>
+    <row r="236" spans="1:20">
       <c r="A236" s="12">
         <v>44148</v>
       </c>
@@ -14218,11 +14728,13 @@
       <c r="Q236" s="1">
         <v>16</v>
       </c>
-      <c r="R236" s="34">
+      <c r="R236" s="37">
         <v>5.8125144886905726E-2</v>
       </c>
-    </row>
-    <row r="237" spans="1:18">
+      <c r="S236" s="37"/>
+      <c r="T236" s="37"/>
+    </row>
+    <row r="237" spans="1:20">
       <c r="A237" s="12">
         <v>44149</v>
       </c>
@@ -14274,11 +14786,13 @@
       <c r="Q237" s="1">
         <v>12</v>
       </c>
-      <c r="R237" s="34">
+      <c r="R237" s="37">
         <v>5.7901294663055491E-2</v>
       </c>
-    </row>
-    <row r="238" spans="1:18">
+      <c r="S237" s="37"/>
+      <c r="T237" s="37"/>
+    </row>
+    <row r="238" spans="1:20">
       <c r="A238" s="12">
         <v>44150</v>
       </c>
@@ -14330,11 +14844,13 @@
       <c r="Q238" s="1">
         <v>10</v>
       </c>
-      <c r="R238" s="34">
+      <c r="R238" s="37">
         <v>5.687341902722217E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:18">
+      <c r="S238" s="37"/>
+      <c r="T238" s="37"/>
+    </row>
+    <row r="239" spans="1:20">
       <c r="A239" s="12">
         <v>44151</v>
       </c>
@@ -14386,11 +14902,13 @@
       <c r="Q239" s="1">
         <v>18</v>
       </c>
-      <c r="R239" s="34">
+      <c r="R239" s="37">
         <v>5.6875423702124041E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:18">
+      <c r="S239" s="37"/>
+      <c r="T239" s="37"/>
+    </row>
+    <row r="240" spans="1:20">
       <c r="A240" s="12">
         <v>44152</v>
       </c>
@@ -14442,11 +14960,13 @@
       <c r="Q240" s="1">
         <v>26</v>
       </c>
-      <c r="R240" s="34">
+      <c r="R240" s="37">
         <v>5.6975903493126083E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:18">
+      <c r="S240" s="37"/>
+      <c r="T240" s="37"/>
+    </row>
+    <row r="241" spans="1:20">
       <c r="A241" s="12">
         <v>44153</v>
       </c>
@@ -14498,11 +15018,13 @@
       <c r="Q241" s="1">
         <v>27</v>
       </c>
-      <c r="R241" s="34">
+      <c r="R241" s="37">
         <v>6.2991975726664914E-2</v>
       </c>
-    </row>
-    <row r="242" spans="1:18">
+      <c r="S241" s="37"/>
+      <c r="T241" s="37"/>
+    </row>
+    <row r="242" spans="1:20">
       <c r="A242" s="12">
         <v>44154</v>
       </c>
@@ -14554,11 +15076,13 @@
       <c r="Q242" s="1">
         <v>18</v>
       </c>
-      <c r="R242" s="34">
+      <c r="R242" s="37">
         <v>5.8580514172346228E-2</v>
       </c>
-    </row>
-    <row r="243" spans="1:18">
+      <c r="S242" s="37"/>
+      <c r="T242" s="37"/>
+    </row>
+    <row r="243" spans="1:20">
       <c r="A243" s="12">
         <v>44155</v>
       </c>
@@ -14610,11 +15134,13 @@
       <c r="Q243" s="1">
         <v>25</v>
       </c>
-      <c r="R243" s="34">
+      <c r="R243" s="37">
         <v>5.9340531993453752E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:18">
+      <c r="S243" s="37"/>
+      <c r="T243" s="37"/>
+    </row>
+    <row r="244" spans="1:20">
       <c r="A244" s="12">
         <v>44156</v>
       </c>
@@ -14666,11 +15192,13 @@
       <c r="Q244" s="1">
         <v>26</v>
       </c>
-      <c r="R244" s="34">
+      <c r="R244" s="37">
         <v>6.7829790482712246E-2</v>
       </c>
-    </row>
-    <row r="245" spans="1:18">
+      <c r="S244" s="37"/>
+      <c r="T244" s="37"/>
+    </row>
+    <row r="245" spans="1:20">
       <c r="A245" s="12">
         <v>44157</v>
       </c>
@@ -14722,11 +15250,13 @@
       <c r="Q245" s="1">
         <v>8</v>
       </c>
-      <c r="R245" s="34">
+      <c r="R245" s="37">
         <v>6.2473159536019188E-2</v>
       </c>
-    </row>
-    <row r="246" spans="1:18">
+      <c r="S245" s="37"/>
+      <c r="T245" s="37"/>
+    </row>
+    <row r="246" spans="1:20">
       <c r="A246" s="12">
         <v>44158</v>
       </c>
@@ -14778,11 +15308,13 @@
       <c r="Q246" s="1">
         <v>8</v>
       </c>
-      <c r="R246" s="34">
+      <c r="R246" s="37">
         <v>6.3071259507464741E-2</v>
       </c>
-    </row>
-    <row r="247" spans="1:18">
+      <c r="S246" s="37"/>
+      <c r="T246" s="37"/>
+    </row>
+    <row r="247" spans="1:20">
       <c r="A247" s="12">
         <v>44159</v>
       </c>
@@ -14834,11 +15366,13 @@
       <c r="Q247" s="1">
         <v>17</v>
       </c>
-      <c r="R247" s="34">
+      <c r="R247" s="37">
         <v>5.8130072748096166E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:18">
+      <c r="S247" s="37"/>
+      <c r="T247" s="37"/>
+    </row>
+    <row r="248" spans="1:20">
       <c r="A248" s="12">
         <v>44160</v>
       </c>
@@ -14890,11 +15424,13 @@
       <c r="Q248" s="1">
         <v>25</v>
       </c>
-      <c r="R248" s="34">
+      <c r="R248" s="37">
         <v>5.6125898491117217E-2</v>
       </c>
-    </row>
-    <row r="249" spans="1:18">
+      <c r="S248" s="37"/>
+      <c r="T248" s="37"/>
+    </row>
+    <row r="249" spans="1:20">
       <c r="A249" s="12">
         <v>44161</v>
       </c>
@@ -14946,11 +15482,13 @@
       <c r="Q249" s="1">
         <v>21</v>
       </c>
-      <c r="R249" s="34">
+      <c r="R249" s="37">
         <v>5.8801794024155599E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:18">
+      <c r="S249" s="37"/>
+      <c r="T249" s="37"/>
+    </row>
+    <row r="250" spans="1:20">
       <c r="A250" s="12">
         <v>44162</v>
       </c>
@@ -15002,11 +15540,13 @@
       <c r="Q250" s="1">
         <v>27</v>
       </c>
-      <c r="R250" s="34">
+      <c r="R250" s="37">
         <v>5.8900351654658754E-2</v>
       </c>
-    </row>
-    <row r="251" spans="1:18">
+      <c r="S250" s="37"/>
+      <c r="T250" s="37"/>
+    </row>
+    <row r="251" spans="1:20">
       <c r="A251" s="12">
         <v>44163</v>
       </c>
@@ -15058,11 +15598,13 @@
       <c r="Q251" s="1">
         <v>9</v>
       </c>
-      <c r="R251" s="34">
+      <c r="R251" s="37">
         <v>4.5007556304909775E-2</v>
       </c>
-    </row>
-    <row r="252" spans="1:18">
+      <c r="S251" s="37"/>
+      <c r="T251" s="37"/>
+    </row>
+    <row r="252" spans="1:20">
       <c r="A252" s="12">
         <v>44164</v>
       </c>
@@ -15114,11 +15656,13 @@
       <c r="Q252" s="1">
         <v>16</v>
       </c>
-      <c r="R252" s="34">
+      <c r="R252" s="37">
         <v>6.2460928620667412E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:18">
+      <c r="S252" s="37"/>
+      <c r="T252" s="37"/>
+    </row>
+    <row r="253" spans="1:20">
       <c r="A253" s="12">
         <v>44165</v>
       </c>
@@ -15170,11 +15714,13 @@
       <c r="Q253" s="1">
         <v>30</v>
       </c>
-      <c r="R253" s="34">
+      <c r="R253" s="37">
         <v>6.4358219328858199E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:18">
+      <c r="S253" s="37"/>
+      <c r="T253" s="37"/>
+    </row>
+    <row r="254" spans="1:20">
       <c r="A254" s="12">
         <v>44166</v>
       </c>
@@ -15226,11 +15772,13 @@
       <c r="Q254" s="1">
         <v>33</v>
       </c>
-      <c r="R254" s="34">
+      <c r="R254" s="37">
         <v>6.9708942512538494E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:18">
+      <c r="S254" s="37"/>
+      <c r="T254" s="37"/>
+    </row>
+    <row r="255" spans="1:20">
       <c r="A255" s="12">
         <v>44167</v>
       </c>
@@ -15282,11 +15830,13 @@
       <c r="Q255" s="1">
         <v>40</v>
       </c>
-      <c r="R255" s="34">
+      <c r="R255" s="37">
         <v>6.9938955777687078E-2</v>
       </c>
-    </row>
-    <row r="256" spans="1:18">
+      <c r="S255" s="37"/>
+      <c r="T255" s="37"/>
+    </row>
+    <row r="256" spans="1:20">
       <c r="A256" s="12">
         <v>44168</v>
       </c>
@@ -15338,11 +15888,13 @@
       <c r="Q256" s="1">
         <v>28</v>
       </c>
-      <c r="R256" s="34">
+      <c r="R256" s="37">
         <v>6.8801993273051393E-2</v>
       </c>
-    </row>
-    <row r="257" spans="1:18">
+      <c r="S256" s="37"/>
+      <c r="T256" s="37"/>
+    </row>
+    <row r="257" spans="1:20">
       <c r="A257" s="12">
         <v>44169</v>
       </c>
@@ -15394,11 +15946,13 @@
       <c r="Q257" s="1">
         <v>20</v>
       </c>
-      <c r="R257" s="34">
+      <c r="R257" s="37">
         <v>6.6448406928515932E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:18">
+      <c r="S257" s="37"/>
+      <c r="T257" s="37"/>
+    </row>
+    <row r="258" spans="1:20">
       <c r="A258" s="12">
         <v>44170</v>
       </c>
@@ -15450,11 +16004,13 @@
       <c r="Q258" s="1">
         <v>28</v>
       </c>
-      <c r="R258" s="34">
+      <c r="R258" s="37">
         <v>7.7744461165622752E-2</v>
       </c>
-    </row>
-    <row r="259" spans="1:18">
+      <c r="S258" s="37"/>
+      <c r="T258" s="37"/>
+    </row>
+    <row r="259" spans="1:20">
       <c r="A259" s="12">
         <v>44171</v>
       </c>
@@ -15506,11 +16062,13 @@
       <c r="Q259" s="1">
         <v>12</v>
       </c>
-      <c r="R259" s="34">
+      <c r="R259" s="37">
         <v>6.3771689881486557E-2</v>
       </c>
-    </row>
-    <row r="260" spans="1:18">
+      <c r="S259" s="37"/>
+      <c r="T259" s="37"/>
+    </row>
+    <row r="260" spans="1:20">
       <c r="A260" s="12">
         <v>44172</v>
       </c>
@@ -15562,11 +16120,13 @@
       <c r="Q260" s="1">
         <v>23</v>
       </c>
-      <c r="R260" s="34">
+      <c r="R260" s="37">
         <v>6.093331315148421E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:18">
+      <c r="S260" s="37"/>
+      <c r="T260" s="37"/>
+    </row>
+    <row r="261" spans="1:20">
       <c r="A261" s="12">
         <v>44173</v>
       </c>
@@ -15618,11 +16178,13 @@
       <c r="Q261" s="1">
         <v>33</v>
       </c>
-      <c r="R261" s="34">
+      <c r="R261" s="37">
         <v>5.850462599088524E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:18">
+      <c r="S261" s="37"/>
+      <c r="T261" s="37"/>
+    </row>
+    <row r="262" spans="1:20">
       <c r="A262" s="12">
         <v>44174</v>
       </c>
@@ -15674,11 +16236,13 @@
       <c r="Q262" s="1">
         <v>20</v>
       </c>
-      <c r="R262" s="34">
+      <c r="R262" s="37">
         <v>5.405808203034073E-2</v>
       </c>
-    </row>
-    <row r="263" spans="1:18">
+      <c r="S262" s="37"/>
+      <c r="T262" s="37"/>
+    </row>
+    <row r="263" spans="1:20">
       <c r="A263" s="12">
         <v>44175</v>
       </c>
@@ -15730,11 +16294,13 @@
       <c r="Q263" s="1">
         <v>25</v>
       </c>
-      <c r="R263" s="34">
+      <c r="R263" s="37">
         <v>5.2464750138015347E-2</v>
       </c>
-    </row>
-    <row r="264" spans="1:18">
+      <c r="S263" s="37"/>
+      <c r="T263" s="37"/>
+    </row>
+    <row r="264" spans="1:20">
       <c r="A264" s="12">
         <v>44176</v>
       </c>
@@ -15786,11 +16352,13 @@
       <c r="Q264" s="1">
         <v>34</v>
       </c>
-      <c r="R264" s="34">
+      <c r="R264" s="37">
         <v>5.1652532989715602E-2</v>
       </c>
-    </row>
-    <row r="265" spans="1:18">
+      <c r="S264" s="37"/>
+      <c r="T264" s="37"/>
+    </row>
+    <row r="265" spans="1:20">
       <c r="A265" s="12">
         <v>44177</v>
       </c>
@@ -15842,11 +16410,13 @@
       <c r="Q265" s="1">
         <v>19</v>
       </c>
-      <c r="R265" s="34">
+      <c r="R265" s="37">
         <v>4.7246880003189488E-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:18">
+      <c r="S265" s="37"/>
+      <c r="T265" s="37"/>
+    </row>
+    <row r="266" spans="1:20">
       <c r="A266" s="12">
         <v>44178</v>
       </c>
@@ -15898,11 +16468,13 @@
       <c r="Q266" s="1">
         <v>12</v>
       </c>
-      <c r="R266" s="34">
+      <c r="R266" s="37">
         <v>4.5540800746089828E-2</v>
       </c>
-    </row>
-    <row r="267" spans="1:18">
+      <c r="S266" s="37"/>
+      <c r="T266" s="37"/>
+    </row>
+    <row r="267" spans="1:20">
       <c r="A267" s="12">
         <v>44179</v>
       </c>
@@ -15954,11 +16526,13 @@
       <c r="Q267" s="1">
         <v>25</v>
       </c>
-      <c r="R267" s="34">
+      <c r="R267" s="37">
         <v>4.7179311026444827E-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:18">
+      <c r="S267" s="37"/>
+      <c r="T267" s="37"/>
+    </row>
+    <row r="268" spans="1:20">
       <c r="A268" s="12">
         <v>44180</v>
       </c>
@@ -16010,11 +16584,13 @@
       <c r="Q268" s="1">
         <v>21</v>
       </c>
-      <c r="R268" s="34">
+      <c r="R268" s="37">
         <v>4.5390252581737234E-2</v>
       </c>
-    </row>
-    <row r="269" spans="1:18">
+      <c r="S268" s="37"/>
+      <c r="T268" s="37"/>
+    </row>
+    <row r="269" spans="1:20">
       <c r="A269" s="12">
         <v>44181</v>
       </c>
@@ -16066,11 +16642,13 @@
       <c r="Q269" s="1">
         <v>19</v>
       </c>
-      <c r="R269" s="34">
+      <c r="R269" s="37">
         <v>4.574979588836163E-2</v>
       </c>
-    </row>
-    <row r="270" spans="1:18">
+      <c r="S269" s="37"/>
+      <c r="T269" s="37"/>
+    </row>
+    <row r="270" spans="1:20">
       <c r="A270" s="12">
         <v>44182</v>
       </c>
@@ -16122,11 +16700,13 @@
       <c r="Q270" s="1">
         <v>24</v>
       </c>
-      <c r="R270" s="34">
+      <c r="R270" s="37">
         <v>4.4896717136732156E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:18">
+      <c r="S270" s="37"/>
+      <c r="T270" s="37"/>
+    </row>
+    <row r="271" spans="1:20">
       <c r="A271" s="12">
         <v>44183</v>
       </c>
@@ -16178,11 +16758,13 @@
       <c r="Q271" s="1">
         <v>30</v>
       </c>
-      <c r="R271" s="34">
+      <c r="R271" s="37">
         <v>4.4561469423352769E-2</v>
       </c>
-    </row>
-    <row r="272" spans="1:18">
+      <c r="S271" s="37"/>
+      <c r="T271" s="37"/>
+    </row>
+    <row r="272" spans="1:20">
       <c r="A272" s="12">
         <v>44184</v>
       </c>
@@ -16234,11 +16816,13 @@
       <c r="Q272" s="1">
         <v>30</v>
       </c>
-      <c r="R272" s="34">
+      <c r="R272" s="37">
         <v>4.2299247986128517E-2</v>
       </c>
-    </row>
-    <row r="273" spans="1:18">
+      <c r="S272" s="37"/>
+      <c r="T272" s="37"/>
+    </row>
+    <row r="273" spans="1:20">
       <c r="A273" s="12">
         <v>44185</v>
       </c>
@@ -16290,11 +16874,13 @@
       <c r="Q273" s="1">
         <v>19</v>
       </c>
-      <c r="R273" s="34">
+      <c r="R273" s="37">
         <v>4.3710182730396598E-2</v>
       </c>
-    </row>
-    <row r="274" spans="1:18">
+      <c r="S273" s="37"/>
+      <c r="T273" s="37"/>
+    </row>
+    <row r="274" spans="1:20">
       <c r="A274" s="12">
         <v>44186</v>
       </c>
@@ -16346,11 +16932,13 @@
       <c r="Q274" s="1">
         <v>34</v>
       </c>
-      <c r="R274" s="34">
+      <c r="R274" s="37">
         <v>4.3325654738506643E-2</v>
       </c>
-    </row>
-    <row r="275" spans="1:18">
+      <c r="S274" s="37"/>
+      <c r="T274" s="37"/>
+    </row>
+    <row r="275" spans="1:20">
       <c r="A275" s="12">
         <v>44187</v>
       </c>
@@ -16402,11 +16990,13 @@
       <c r="Q275" s="1">
         <v>40</v>
       </c>
-      <c r="R275" s="34">
+      <c r="R275" s="37">
         <v>4.4916097835867759E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:18">
+      <c r="S275" s="37"/>
+      <c r="T275" s="37"/>
+    </row>
+    <row r="276" spans="1:20">
       <c r="A276" s="12">
         <v>44188</v>
       </c>
@@ -16458,11 +17048,13 @@
       <c r="Q276" s="1">
         <v>30</v>
       </c>
-      <c r="R276" s="34">
+      <c r="R276" s="37">
         <v>4.6650888570287062E-2</v>
       </c>
-    </row>
-    <row r="277" spans="1:18">
+      <c r="S276" s="37"/>
+      <c r="T276" s="37"/>
+    </row>
+    <row r="277" spans="1:20">
       <c r="A277" s="12">
         <v>44189</v>
       </c>
@@ -16514,11 +17106,13 @@
       <c r="Q277" s="1">
         <v>42</v>
       </c>
-      <c r="R277" s="34">
+      <c r="R277" s="37">
         <v>5.0588492015801304E-2</v>
       </c>
-    </row>
-    <row r="278" spans="1:18">
+      <c r="S277" s="37"/>
+      <c r="T277" s="37"/>
+    </row>
+    <row r="278" spans="1:20">
       <c r="A278" s="12">
         <v>44190</v>
       </c>
@@ -16570,11 +17164,13 @@
       <c r="Q278" s="1">
         <v>28</v>
       </c>
-      <c r="R278" s="34">
+      <c r="R278" s="37">
         <v>5.1199394271440414E-2</v>
       </c>
-    </row>
-    <row r="279" spans="1:18">
+      <c r="S278" s="37"/>
+      <c r="T278" s="37"/>
+    </row>
+    <row r="279" spans="1:20">
       <c r="A279" s="12">
         <v>44191</v>
       </c>
@@ -16626,11 +17222,13 @@
       <c r="Q279" s="1">
         <v>27</v>
       </c>
-      <c r="R279" s="34">
+      <c r="R279" s="37">
         <v>4.8684395974303844E-2</v>
       </c>
-    </row>
-    <row r="280" spans="1:18">
+      <c r="S279" s="37"/>
+      <c r="T279" s="37"/>
+    </row>
+    <row r="280" spans="1:20">
       <c r="A280" s="12">
         <v>44192</v>
       </c>
@@ -16682,11 +17280,13 @@
       <c r="Q280" s="1">
         <v>23</v>
       </c>
-      <c r="R280" s="34">
+      <c r="R280" s="37">
         <v>5.4334765283821015E-2</v>
       </c>
-    </row>
-    <row r="281" spans="1:18">
+      <c r="S280" s="37"/>
+      <c r="T280" s="37"/>
+    </row>
+    <row r="281" spans="1:20">
       <c r="A281" s="12">
         <v>44193</v>
       </c>
@@ -16702,7 +17302,7 @@
       <c r="E281" s="1">
         <v>1912</v>
       </c>
-      <c r="F281" s="42">
+      <c r="F281" s="36">
         <v>1895</v>
       </c>
       <c r="G281" s="1">
@@ -16738,11 +17338,13 @@
       <c r="Q281" s="1">
         <v>41</v>
       </c>
-      <c r="R281" s="34">
+      <c r="R281" s="37">
         <v>5.4973362051450043E-2</v>
       </c>
-    </row>
-    <row r="282" spans="1:18">
+      <c r="S281" s="37"/>
+      <c r="T281" s="37"/>
+    </row>
+    <row r="282" spans="1:20">
       <c r="A282" s="12">
         <v>44194</v>
       </c>
@@ -16758,7 +17360,7 @@
       <c r="E282" s="1">
         <v>1936</v>
       </c>
-      <c r="F282" s="42">
+      <c r="F282" s="36">
         <v>1919</v>
       </c>
       <c r="G282" s="1">
@@ -16794,11 +17396,13 @@
       <c r="Q282" s="1">
         <v>28</v>
       </c>
-      <c r="R282" s="34">
+      <c r="R282" s="37">
         <v>5.4380086363003052E-2</v>
       </c>
-    </row>
-    <row r="283" spans="1:18">
+      <c r="S282" s="37"/>
+      <c r="T282" s="37"/>
+    </row>
+    <row r="283" spans="1:20">
       <c r="A283" s="12">
         <v>44195</v>
       </c>
@@ -16814,7 +17418,7 @@
       <c r="E283" s="1">
         <v>1966</v>
       </c>
-      <c r="F283" s="42">
+      <c r="F283" s="36">
         <v>1948</v>
       </c>
       <c r="G283" s="1">
@@ -16850,11 +17454,13 @@
       <c r="Q283" s="1">
         <v>37</v>
       </c>
-      <c r="R283" s="34">
+      <c r="R283" s="37">
         <v>5.7615983090560388E-2</v>
       </c>
-    </row>
-    <row r="284" spans="1:18">
+      <c r="S283" s="37"/>
+      <c r="T283" s="37"/>
+    </row>
+    <row r="284" spans="1:20">
       <c r="A284" s="12">
         <v>44196</v>
       </c>
@@ -16906,11 +17512,13 @@
       <c r="Q284" s="1">
         <v>39</v>
       </c>
-      <c r="R284" s="34">
+      <c r="R284" s="37">
         <v>5.9571942603826512E-2</v>
       </c>
-    </row>
-    <row r="285" spans="1:18">
+      <c r="S284" s="37"/>
+      <c r="T284" s="37"/>
+    </row>
+    <row r="285" spans="1:20">
       <c r="A285" s="12">
         <v>44197</v>
       </c>
@@ -16962,11 +17570,13 @@
       <c r="Q285" s="1">
         <v>37</v>
       </c>
-      <c r="R285" s="34">
+      <c r="R285" s="37">
         <v>7.1548543589048191E-2</v>
       </c>
-    </row>
-    <row r="286" spans="1:18">
+      <c r="S285" s="37"/>
+      <c r="T285" s="37"/>
+    </row>
+    <row r="286" spans="1:20">
       <c r="A286" s="12">
         <v>44198</v>
       </c>
@@ -17018,11 +17628,13 @@
       <c r="Q286" s="1">
         <v>21</v>
       </c>
-      <c r="R286" s="34">
+      <c r="R286" s="37">
         <v>7.6031102955711499E-2</v>
       </c>
-    </row>
-    <row r="287" spans="1:18">
+      <c r="S286" s="37"/>
+      <c r="T286" s="37"/>
+    </row>
+    <row r="287" spans="1:20">
       <c r="A287" s="12">
         <v>44199</v>
       </c>
@@ -17074,11 +17686,13 @@
       <c r="Q287" s="1">
         <v>22</v>
       </c>
-      <c r="R287" s="34">
+      <c r="R287" s="37">
         <v>7.4085605342236002E-2</v>
       </c>
-    </row>
-    <row r="288" spans="1:18">
+      <c r="S287" s="37"/>
+      <c r="T287" s="37"/>
+    </row>
+    <row r="288" spans="1:20">
       <c r="A288" s="12">
         <v>44200</v>
       </c>
@@ -17130,11 +17744,13 @@
       <c r="Q288" s="1">
         <v>23</v>
       </c>
-      <c r="R288" s="34">
+      <c r="R288" s="37">
         <v>7.1289906417504809E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:18">
+      <c r="S288" s="37"/>
+      <c r="T288" s="37"/>
+    </row>
+    <row r="289" spans="1:23">
       <c r="A289" s="12">
         <v>44201</v>
       </c>
@@ -17186,11 +17802,13 @@
       <c r="Q289" s="1">
         <v>28</v>
       </c>
-      <c r="R289" s="34">
+      <c r="R289" s="37">
         <v>7.0898633116364587E-2</v>
       </c>
-    </row>
-    <row r="290" spans="1:18">
+      <c r="S289" s="37"/>
+      <c r="T289" s="37"/>
+    </row>
+    <row r="290" spans="1:23">
       <c r="A290" s="12">
         <v>44202</v>
       </c>
@@ -17242,11 +17860,13 @@
       <c r="Q290" s="1">
         <v>30</v>
       </c>
-      <c r="R290" s="34">
+      <c r="R290" s="37">
         <v>6.7851580962169561E-2</v>
       </c>
-    </row>
-    <row r="291" spans="1:18">
+      <c r="S290" s="37"/>
+      <c r="T290" s="37"/>
+    </row>
+    <row r="291" spans="1:23">
       <c r="A291" s="12">
         <v>44203</v>
       </c>
@@ -17293,16 +17913,18 @@
         <v>370</v>
       </c>
       <c r="P291" s="1">
-        <v>491</v>
+        <v>624</v>
       </c>
       <c r="Q291" s="1">
-        <v>36</v>
-      </c>
-      <c r="R291" s="34">
-        <v>6.7773883710337893E-2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:18">
+        <v>65</v>
+      </c>
+      <c r="R291" s="37">
+        <v>7.2180585291173896E-2</v>
+      </c>
+      <c r="S291" s="37"/>
+      <c r="T291" s="37"/>
+    </row>
+    <row r="292" spans="1:23">
       <c r="A292" s="12">
         <v>44204</v>
       </c>
@@ -17348,9 +17970,19 @@
       <c r="O292" s="1">
         <v>370</v>
       </c>
-      <c r="R292" s="34"/>
-    </row>
-    <row r="293" spans="1:18">
+      <c r="P292" s="1">
+        <v>909</v>
+      </c>
+      <c r="Q292" s="1">
+        <v>44</v>
+      </c>
+      <c r="R292" s="37">
+        <v>6.0868961517959126E-2</v>
+      </c>
+      <c r="S292" s="37"/>
+      <c r="T292" s="37"/>
+    </row>
+    <row r="293" spans="1:23">
       <c r="A293" s="12">
         <v>44205</v>
       </c>
@@ -17396,9 +18028,19 @@
       <c r="O293" s="1">
         <v>370</v>
       </c>
-      <c r="R293" s="34"/>
-    </row>
-    <row r="294" spans="1:18">
+      <c r="P293" s="1">
+        <v>495</v>
+      </c>
+      <c r="Q293" s="1">
+        <v>40</v>
+      </c>
+      <c r="R293" s="37">
+        <v>6.2979010797819729E-2</v>
+      </c>
+      <c r="S293" s="37"/>
+      <c r="T293" s="37"/>
+    </row>
+    <row r="294" spans="1:23">
       <c r="A294" s="12">
         <v>44206</v>
       </c>
@@ -17444,703 +18086,1472 @@
       <c r="O294" s="1">
         <v>370</v>
       </c>
-      <c r="R294" s="34"/>
-    </row>
-    <row r="295" spans="1:18">
-      <c r="R295" s="34"/>
-    </row>
-    <row r="296" spans="1:18">
-      <c r="R296" s="34"/>
-    </row>
-    <row r="297" spans="1:18">
-      <c r="R297" s="34"/>
-    </row>
-    <row r="298" spans="1:18">
-      <c r="R298" s="34"/>
-    </row>
-    <row r="299" spans="1:18">
-      <c r="R299" s="34"/>
-    </row>
-    <row r="300" spans="1:18">
-      <c r="R300" s="34"/>
-    </row>
-    <row r="301" spans="1:18">
-      <c r="R301" s="34"/>
-    </row>
-    <row r="302" spans="1:18">
-      <c r="R302" s="34"/>
-    </row>
-    <row r="303" spans="1:18">
-      <c r="R303" s="34"/>
-    </row>
-    <row r="304" spans="1:18">
-      <c r="R304" s="34"/>
-    </row>
-    <row r="305" spans="18:18">
-      <c r="R305" s="34"/>
-    </row>
-    <row r="306" spans="18:18">
-      <c r="R306" s="34"/>
-    </row>
-    <row r="307" spans="18:18">
-      <c r="R307" s="34"/>
-    </row>
-    <row r="308" spans="18:18">
-      <c r="R308" s="34"/>
-    </row>
-    <row r="309" spans="18:18">
-      <c r="R309" s="34"/>
-    </row>
-    <row r="310" spans="18:18">
-      <c r="R310" s="34"/>
-    </row>
-    <row r="311" spans="18:18">
-      <c r="R311" s="34"/>
-    </row>
-    <row r="312" spans="18:18">
-      <c r="R312" s="34"/>
-    </row>
-    <row r="313" spans="18:18">
-      <c r="R313" s="34"/>
-    </row>
-    <row r="314" spans="18:18">
-      <c r="R314" s="34"/>
-    </row>
-    <row r="315" spans="18:18">
-      <c r="R315" s="34"/>
-    </row>
-    <row r="316" spans="18:18">
-      <c r="R316" s="34"/>
-    </row>
-    <row r="317" spans="18:18">
-      <c r="R317" s="34"/>
-    </row>
-    <row r="318" spans="18:18">
-      <c r="R318" s="34"/>
-    </row>
-    <row r="319" spans="18:18">
-      <c r="R319" s="34"/>
-    </row>
-    <row r="320" spans="18:18">
-      <c r="R320" s="34"/>
-    </row>
-    <row r="321" spans="18:18">
-      <c r="R321" s="34"/>
-    </row>
-    <row r="322" spans="18:18">
-      <c r="R322" s="34"/>
-    </row>
-    <row r="323" spans="18:18">
-      <c r="R323" s="34"/>
-    </row>
-    <row r="324" spans="18:18">
-      <c r="R324" s="34"/>
-    </row>
-    <row r="325" spans="18:18">
-      <c r="R325" s="34"/>
-    </row>
-    <row r="326" spans="18:18">
-      <c r="R326" s="34"/>
-    </row>
-    <row r="327" spans="18:18">
-      <c r="R327" s="34"/>
-    </row>
-    <row r="328" spans="18:18">
-      <c r="R328" s="34"/>
-    </row>
-    <row r="329" spans="18:18">
-      <c r="R329" s="34"/>
-    </row>
-    <row r="330" spans="18:18">
-      <c r="R330" s="34"/>
-    </row>
-    <row r="331" spans="18:18">
-      <c r="R331" s="34"/>
-    </row>
-    <row r="332" spans="18:18">
-      <c r="R332" s="34"/>
-    </row>
-    <row r="333" spans="18:18">
-      <c r="R333" s="34"/>
-    </row>
-    <row r="334" spans="18:18">
-      <c r="R334" s="34"/>
-    </row>
-    <row r="335" spans="18:18">
-      <c r="R335" s="34"/>
-    </row>
-    <row r="336" spans="18:18">
-      <c r="R336" s="34"/>
-    </row>
-    <row r="337" spans="18:18">
-      <c r="R337" s="34"/>
-    </row>
-    <row r="338" spans="18:18">
-      <c r="R338" s="34"/>
-    </row>
-    <row r="339" spans="18:18">
-      <c r="R339" s="34"/>
-    </row>
-    <row r="340" spans="18:18">
-      <c r="R340" s="34"/>
-    </row>
-    <row r="341" spans="18:18">
-      <c r="R341" s="34"/>
-    </row>
-    <row r="342" spans="18:18">
-      <c r="R342" s="34"/>
-    </row>
-    <row r="343" spans="18:18">
-      <c r="R343" s="34"/>
-    </row>
-    <row r="344" spans="18:18">
-      <c r="R344" s="34"/>
-    </row>
-    <row r="345" spans="18:18">
-      <c r="R345" s="34"/>
-    </row>
-    <row r="346" spans="18:18">
-      <c r="R346" s="34"/>
-    </row>
-    <row r="347" spans="18:18">
-      <c r="R347" s="34"/>
-    </row>
-    <row r="348" spans="18:18">
-      <c r="R348" s="34"/>
-    </row>
-    <row r="349" spans="18:18">
-      <c r="R349" s="34"/>
-    </row>
-    <row r="350" spans="18:18">
-      <c r="R350" s="34"/>
-    </row>
-    <row r="351" spans="18:18">
-      <c r="R351" s="34"/>
-    </row>
-    <row r="352" spans="18:18">
-      <c r="R352" s="34"/>
-    </row>
-    <row r="353" spans="18:18">
-      <c r="R353" s="34"/>
-    </row>
-    <row r="354" spans="18:18">
-      <c r="R354" s="34"/>
-    </row>
-    <row r="355" spans="18:18">
-      <c r="R355" s="34"/>
-    </row>
-    <row r="356" spans="18:18">
-      <c r="R356" s="34"/>
-    </row>
-    <row r="357" spans="18:18">
-      <c r="R357" s="34"/>
-    </row>
-    <row r="358" spans="18:18">
-      <c r="R358" s="34"/>
-    </row>
-    <row r="359" spans="18:18">
-      <c r="R359" s="34"/>
-    </row>
-    <row r="360" spans="18:18">
-      <c r="R360" s="34"/>
-    </row>
-    <row r="361" spans="18:18">
-      <c r="R361" s="34"/>
-    </row>
-    <row r="362" spans="18:18">
-      <c r="R362" s="34"/>
-    </row>
-    <row r="363" spans="18:18">
-      <c r="R363" s="34"/>
-    </row>
-    <row r="364" spans="18:18">
-      <c r="R364" s="34"/>
-    </row>
-    <row r="365" spans="18:18">
-      <c r="R365" s="37"/>
-    </row>
-    <row r="366" spans="18:18">
-      <c r="R366" s="37"/>
-    </row>
-    <row r="367" spans="18:18">
-      <c r="R367" s="37"/>
-    </row>
-    <row r="368" spans="18:18">
-      <c r="R368" s="37"/>
-    </row>
-    <row r="369" spans="18:18">
-      <c r="R369" s="37"/>
-    </row>
-    <row r="370" spans="18:18">
-      <c r="R370" s="37"/>
-    </row>
-    <row r="371" spans="18:18">
-      <c r="R371" s="37"/>
-    </row>
-    <row r="372" spans="18:18">
-      <c r="R372" s="37"/>
-    </row>
-    <row r="373" spans="18:18">
-      <c r="R373" s="37"/>
-    </row>
-    <row r="374" spans="18:18">
-      <c r="R374" s="37"/>
-    </row>
-    <row r="375" spans="18:18">
-      <c r="R375" s="37"/>
-    </row>
-    <row r="376" spans="18:18">
-      <c r="R376" s="37"/>
-    </row>
-    <row r="377" spans="18:18">
-      <c r="R377" s="37"/>
-    </row>
-    <row r="378" spans="18:18">
-      <c r="R378" s="37"/>
-    </row>
-    <row r="379" spans="18:18">
-      <c r="R379" s="37"/>
-    </row>
-    <row r="380" spans="18:18">
-      <c r="R380" s="37"/>
-    </row>
-    <row r="381" spans="18:18">
-      <c r="R381" s="37"/>
-    </row>
-    <row r="382" spans="18:18">
-      <c r="R382" s="37"/>
-    </row>
-    <row r="383" spans="18:18">
-      <c r="R383" s="37"/>
-    </row>
-    <row r="384" spans="18:18">
-      <c r="R384" s="37"/>
-    </row>
-    <row r="385" spans="18:18">
-      <c r="R385" s="37"/>
-    </row>
-    <row r="386" spans="18:18">
-      <c r="R386" s="37"/>
-    </row>
-    <row r="387" spans="18:18">
-      <c r="R387" s="37"/>
-    </row>
-    <row r="388" spans="18:18">
-      <c r="R388" s="37"/>
-    </row>
-    <row r="389" spans="18:18">
-      <c r="R389" s="37"/>
-    </row>
-    <row r="390" spans="18:18">
-      <c r="R390" s="37"/>
-    </row>
-    <row r="391" spans="18:18">
-      <c r="R391" s="37"/>
-    </row>
-    <row r="392" spans="18:18">
-      <c r="R392" s="37"/>
-    </row>
-    <row r="393" spans="18:18">
-      <c r="R393" s="37"/>
-    </row>
-    <row r="394" spans="18:18">
-      <c r="R394" s="37"/>
-    </row>
-    <row r="395" spans="18:18">
-      <c r="R395" s="37"/>
-    </row>
-    <row r="396" spans="18:18">
-      <c r="R396" s="37"/>
-    </row>
-    <row r="397" spans="18:18">
-      <c r="R397" s="37"/>
-    </row>
-    <row r="398" spans="18:18">
-      <c r="R398" s="37"/>
-    </row>
-    <row r="399" spans="18:18">
-      <c r="R399" s="37"/>
-    </row>
-    <row r="400" spans="18:18">
-      <c r="R400" s="37"/>
-    </row>
-    <row r="401" spans="18:18">
-      <c r="R401" s="37"/>
-    </row>
-    <row r="402" spans="18:18">
-      <c r="R402" s="37"/>
-    </row>
-    <row r="403" spans="18:18">
-      <c r="R403" s="37"/>
-    </row>
-    <row r="404" spans="18:18">
-      <c r="R404" s="37"/>
-    </row>
-    <row r="405" spans="18:18">
-      <c r="R405" s="37"/>
-    </row>
-    <row r="406" spans="18:18">
-      <c r="R406" s="37"/>
-    </row>
-    <row r="407" spans="18:18">
-      <c r="R407" s="37"/>
-    </row>
-    <row r="408" spans="18:18">
-      <c r="R408" s="37"/>
-    </row>
-    <row r="409" spans="18:18">
-      <c r="R409" s="37"/>
-    </row>
-    <row r="410" spans="18:18">
-      <c r="R410" s="37"/>
-    </row>
-    <row r="411" spans="18:18">
-      <c r="R411" s="37"/>
-    </row>
-    <row r="412" spans="18:18">
-      <c r="R412" s="37"/>
-    </row>
-    <row r="413" spans="18:18">
-      <c r="R413" s="37"/>
-    </row>
-    <row r="414" spans="18:18">
-      <c r="R414" s="37"/>
-    </row>
-    <row r="415" spans="18:18">
-      <c r="R415" s="37"/>
-    </row>
-    <row r="416" spans="18:18">
-      <c r="R416" s="37"/>
-    </row>
-    <row r="417" spans="18:18">
-      <c r="R417" s="37"/>
-    </row>
-    <row r="418" spans="18:18">
-      <c r="R418" s="37"/>
-    </row>
-    <row r="419" spans="18:18">
-      <c r="R419" s="37"/>
-    </row>
-    <row r="420" spans="18:18">
-      <c r="R420" s="37"/>
-    </row>
-    <row r="421" spans="18:18">
-      <c r="R421" s="37"/>
-    </row>
-    <row r="422" spans="18:18">
-      <c r="R422" s="37"/>
-    </row>
-    <row r="423" spans="18:18">
-      <c r="R423" s="37"/>
-    </row>
-    <row r="424" spans="18:18">
-      <c r="R424" s="37"/>
-    </row>
-    <row r="425" spans="18:18">
-      <c r="R425" s="37"/>
-    </row>
-    <row r="426" spans="18:18">
-      <c r="R426" s="37"/>
-    </row>
-    <row r="427" spans="18:18">
-      <c r="R427" s="37"/>
-    </row>
-    <row r="428" spans="18:18">
-      <c r="R428" s="37"/>
-    </row>
-    <row r="429" spans="18:18">
-      <c r="R429" s="37"/>
-    </row>
-    <row r="430" spans="18:18">
-      <c r="R430" s="37"/>
-    </row>
-    <row r="431" spans="18:18">
-      <c r="R431" s="37"/>
-    </row>
-    <row r="432" spans="18:18">
-      <c r="R432" s="37"/>
-    </row>
-    <row r="433" spans="18:18">
-      <c r="R433" s="37"/>
-    </row>
-    <row r="434" spans="18:18">
-      <c r="R434" s="37"/>
-    </row>
-    <row r="435" spans="18:18">
-      <c r="R435" s="37"/>
-    </row>
-    <row r="436" spans="18:18">
-      <c r="R436" s="37"/>
-    </row>
-    <row r="437" spans="18:18">
-      <c r="R437" s="37"/>
-    </row>
-    <row r="438" spans="18:18">
-      <c r="R438" s="37"/>
-    </row>
-    <row r="439" spans="18:18">
-      <c r="R439" s="37"/>
-    </row>
-    <row r="440" spans="18:18">
-      <c r="R440" s="37"/>
-    </row>
-    <row r="441" spans="18:18">
-      <c r="R441" s="37"/>
-    </row>
-    <row r="442" spans="18:18">
-      <c r="R442" s="37"/>
-    </row>
-    <row r="443" spans="18:18">
-      <c r="R443" s="37"/>
-    </row>
-    <row r="444" spans="18:18">
-      <c r="R444" s="37"/>
-    </row>
-    <row r="445" spans="18:18">
-      <c r="R445" s="37"/>
-    </row>
-    <row r="446" spans="18:18">
-      <c r="R446" s="37"/>
-    </row>
-    <row r="447" spans="18:18">
-      <c r="R447" s="37"/>
-    </row>
-    <row r="448" spans="18:18">
-      <c r="R448" s="37"/>
-    </row>
-    <row r="449" spans="18:18">
-      <c r="R449" s="37"/>
-    </row>
-    <row r="450" spans="18:18">
-      <c r="R450" s="37"/>
-    </row>
-    <row r="451" spans="18:18">
-      <c r="R451" s="37"/>
-    </row>
-    <row r="452" spans="18:18">
-      <c r="R452" s="37"/>
-    </row>
-    <row r="453" spans="18:18">
-      <c r="R453" s="37"/>
-    </row>
-    <row r="454" spans="18:18">
-      <c r="R454" s="37"/>
-    </row>
-    <row r="455" spans="18:18">
-      <c r="R455" s="37"/>
-    </row>
-    <row r="456" spans="18:18">
-      <c r="R456" s="37"/>
-    </row>
-    <row r="457" spans="18:18">
-      <c r="R457" s="37"/>
-    </row>
-    <row r="458" spans="18:18">
-      <c r="R458" s="37"/>
-    </row>
-    <row r="459" spans="18:18">
-      <c r="R459" s="37"/>
-    </row>
-    <row r="460" spans="18:18">
-      <c r="R460" s="37"/>
-    </row>
-    <row r="461" spans="18:18">
-      <c r="R461" s="37"/>
-    </row>
-    <row r="462" spans="18:18">
-      <c r="R462" s="37"/>
-    </row>
-    <row r="463" spans="18:18">
-      <c r="R463" s="37"/>
-    </row>
-    <row r="464" spans="18:18">
-      <c r="R464" s="37"/>
-    </row>
-    <row r="465" spans="18:18">
-      <c r="R465" s="37"/>
-    </row>
-    <row r="466" spans="18:18">
-      <c r="R466" s="37"/>
-    </row>
-    <row r="467" spans="18:18">
-      <c r="R467" s="37"/>
-    </row>
-    <row r="468" spans="18:18">
-      <c r="R468" s="37"/>
-    </row>
-    <row r="469" spans="18:18">
-      <c r="R469" s="37"/>
-    </row>
-    <row r="470" spans="18:18">
-      <c r="R470" s="37"/>
-    </row>
-    <row r="471" spans="18:18">
-      <c r="R471" s="37"/>
-    </row>
-    <row r="472" spans="18:18">
-      <c r="R472" s="37"/>
-    </row>
-    <row r="473" spans="18:18">
-      <c r="R473" s="37"/>
-    </row>
-    <row r="474" spans="18:18">
-      <c r="R474" s="37"/>
-    </row>
-    <row r="475" spans="18:18">
-      <c r="R475" s="37"/>
-    </row>
-    <row r="476" spans="18:18">
-      <c r="R476" s="37"/>
-    </row>
-    <row r="477" spans="18:18">
-      <c r="R477" s="37"/>
-    </row>
-    <row r="478" spans="18:18">
-      <c r="R478" s="37"/>
-    </row>
-    <row r="479" spans="18:18">
-      <c r="R479" s="37"/>
-    </row>
-    <row r="480" spans="18:18">
-      <c r="R480" s="37"/>
-    </row>
-    <row r="481" spans="18:18">
-      <c r="R481" s="37"/>
-    </row>
-    <row r="482" spans="18:18">
-      <c r="R482" s="37"/>
-    </row>
-    <row r="483" spans="18:18">
-      <c r="R483" s="37"/>
-    </row>
-    <row r="484" spans="18:18">
-      <c r="R484" s="37"/>
-    </row>
-    <row r="485" spans="18:18">
-      <c r="R485" s="37"/>
-    </row>
-    <row r="486" spans="18:18">
-      <c r="R486" s="37"/>
-    </row>
-    <row r="487" spans="18:18">
-      <c r="R487" s="37"/>
-    </row>
-    <row r="488" spans="18:18">
-      <c r="R488" s="37"/>
-    </row>
-    <row r="489" spans="18:18">
-      <c r="R489" s="37"/>
-    </row>
-    <row r="490" spans="18:18">
-      <c r="R490" s="37"/>
-    </row>
-    <row r="491" spans="18:18">
-      <c r="R491" s="37"/>
-    </row>
-    <row r="492" spans="18:18">
-      <c r="R492" s="37"/>
-    </row>
-    <row r="493" spans="18:18">
-      <c r="R493" s="37"/>
-    </row>
-    <row r="494" spans="18:18">
-      <c r="R494" s="37"/>
-    </row>
-    <row r="495" spans="18:18">
-      <c r="R495" s="37"/>
-    </row>
-    <row r="496" spans="18:18">
-      <c r="R496" s="37"/>
-    </row>
-    <row r="497" spans="18:18">
-      <c r="R497" s="37"/>
-    </row>
-    <row r="498" spans="18:18">
-      <c r="R498" s="37"/>
-    </row>
-    <row r="499" spans="18:18">
-      <c r="R499" s="37"/>
-    </row>
-    <row r="500" spans="18:18">
-      <c r="R500" s="37"/>
-    </row>
-    <row r="501" spans="18:18">
-      <c r="R501" s="37"/>
-    </row>
-    <row r="502" spans="18:18">
-      <c r="R502" s="37"/>
-    </row>
-    <row r="503" spans="18:18">
-      <c r="R503" s="37"/>
-    </row>
-    <row r="504" spans="18:18">
-      <c r="R504" s="37"/>
-    </row>
-    <row r="505" spans="18:18">
-      <c r="R505" s="37"/>
-    </row>
-    <row r="506" spans="18:18">
-      <c r="R506" s="37"/>
-    </row>
-    <row r="507" spans="18:18">
-      <c r="R507" s="37"/>
-    </row>
-    <row r="508" spans="18:18">
-      <c r="R508" s="37"/>
-    </row>
-    <row r="509" spans="18:18">
-      <c r="R509" s="37"/>
-    </row>
-    <row r="510" spans="18:18">
-      <c r="R510" s="37"/>
-    </row>
-    <row r="511" spans="18:18">
-      <c r="R511" s="37"/>
-    </row>
-    <row r="512" spans="18:18">
-      <c r="R512" s="37"/>
-    </row>
-    <row r="513" spans="18:18">
-      <c r="R513" s="37"/>
-    </row>
-    <row r="514" spans="18:18">
-      <c r="R514" s="37"/>
-    </row>
-    <row r="515" spans="18:18">
-      <c r="R515" s="37"/>
-    </row>
-    <row r="516" spans="18:18">
-      <c r="R516" s="37"/>
-    </row>
-    <row r="517" spans="18:18">
-      <c r="R517" s="37"/>
-    </row>
-    <row r="518" spans="18:18">
-      <c r="R518" s="37"/>
-    </row>
-    <row r="519" spans="18:18">
-      <c r="R519" s="37"/>
-    </row>
-    <row r="520" spans="18:18">
-      <c r="R520" s="37"/>
-    </row>
-    <row r="521" spans="18:18">
-      <c r="R521" s="37"/>
-    </row>
-    <row r="522" spans="18:18">
-      <c r="R522" s="37"/>
-    </row>
-    <row r="523" spans="18:18">
-      <c r="R523" s="37"/>
-    </row>
-    <row r="524" spans="18:18">
-      <c r="R524" s="37"/>
-    </row>
-    <row r="525" spans="18:18">
-      <c r="R525" s="37"/>
-    </row>
-    <row r="526" spans="18:18">
-      <c r="R526" s="37"/>
+      <c r="P294" s="1">
+        <v>358</v>
+      </c>
+      <c r="Q294" s="1">
+        <v>21</v>
+      </c>
+      <c r="R294" s="37">
+        <v>6.095208733466112E-2</v>
+      </c>
+      <c r="S294" s="37"/>
+      <c r="T294" s="37"/>
+    </row>
+    <row r="295" spans="1:23">
+      <c r="A295" s="12">
+        <v>44207</v>
+      </c>
+      <c r="B295" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D295" s="1">
+        <v>31</v>
+      </c>
+      <c r="E295" s="1">
+        <v>2388</v>
+      </c>
+      <c r="F295" s="1">
+        <v>2370</v>
+      </c>
+      <c r="G295" s="1">
+        <v>401</v>
+      </c>
+      <c r="H295" s="1">
+        <v>246</v>
+      </c>
+      <c r="I295" s="1">
+        <v>9</v>
+      </c>
+      <c r="J295" s="1">
+        <v>28</v>
+      </c>
+      <c r="K295" s="1">
+        <v>1959</v>
+      </c>
+      <c r="L295" s="1">
+        <v>155</v>
+      </c>
+      <c r="M295" s="1">
+        <v>250</v>
+      </c>
+      <c r="N295" s="1">
+        <v>0</v>
+      </c>
+      <c r="O295" s="1">
+        <v>370</v>
+      </c>
+      <c r="P295" s="1">
+        <v>440</v>
+      </c>
+      <c r="Q295" s="1">
+        <v>14</v>
+      </c>
+      <c r="R295" s="37">
+        <v>6.0735637118210901E-2</v>
+      </c>
+      <c r="S295" s="37"/>
+      <c r="T295" s="37"/>
+    </row>
+    <row r="296" spans="1:23">
+      <c r="A296" s="12">
+        <v>44208</v>
+      </c>
+      <c r="B296" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D296" s="1">
+        <v>28</v>
+      </c>
+      <c r="E296" s="1">
+        <v>2416</v>
+      </c>
+      <c r="F296" s="1">
+        <v>2398</v>
+      </c>
+      <c r="G296" s="1">
+        <v>385</v>
+      </c>
+      <c r="I296" s="1">
+        <v>9</v>
+      </c>
+      <c r="J296" s="1">
+        <v>30</v>
+      </c>
+      <c r="K296" s="1">
+        <v>2001</v>
+      </c>
+      <c r="M296" s="1">
+        <v>250</v>
+      </c>
+      <c r="N296" s="1">
+        <v>0</v>
+      </c>
+      <c r="O296" s="1">
+        <v>370</v>
+      </c>
+      <c r="P296" s="1">
+        <v>1137</v>
+      </c>
+      <c r="Q296" s="1">
+        <v>39</v>
+      </c>
+      <c r="R296" s="37">
+        <v>5.8605873220590611E-2</v>
+      </c>
+      <c r="S296" s="39">
+        <v>352</v>
+      </c>
+      <c r="T296" s="39">
+        <v>33</v>
+      </c>
+      <c r="W296" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="297" spans="1:23">
+      <c r="A297" s="12">
+        <v>44209</v>
+      </c>
+      <c r="B297" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D297" s="1">
+        <v>35</v>
+      </c>
+      <c r="E297" s="1">
+        <v>2451</v>
+      </c>
+      <c r="F297" s="1">
+        <v>2433</v>
+      </c>
+      <c r="G297" s="1">
+        <v>378</v>
+      </c>
+      <c r="I297" s="1">
+        <v>9</v>
+      </c>
+      <c r="J297" s="1">
+        <v>31</v>
+      </c>
+      <c r="K297" s="1">
+        <v>2042</v>
+      </c>
+      <c r="M297" s="1">
+        <v>250</v>
+      </c>
+      <c r="N297" s="1">
+        <v>0</v>
+      </c>
+      <c r="O297" s="1">
+        <v>370</v>
+      </c>
+      <c r="P297" s="1">
+        <v>548</v>
+      </c>
+      <c r="Q297" s="1">
+        <v>44</v>
+      </c>
+      <c r="R297" s="37">
+        <v>6.263567857338867E-2</v>
+      </c>
+      <c r="S297" s="39">
+        <v>330</v>
+      </c>
+      <c r="T297" s="39">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="298" spans="1:23">
+      <c r="A298" s="12">
+        <v>44210</v>
+      </c>
+      <c r="B298" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D298" s="1">
+        <v>30</v>
+      </c>
+      <c r="E298" s="1">
+        <v>2481</v>
+      </c>
+      <c r="F298" s="1">
+        <v>2463</v>
+      </c>
+      <c r="G298" s="1">
+        <v>388</v>
+      </c>
+      <c r="I298" s="1">
+        <v>10</v>
+      </c>
+      <c r="J298" s="1">
+        <v>31</v>
+      </c>
+      <c r="K298" s="1">
+        <v>2063</v>
+      </c>
+      <c r="M298" s="1">
+        <v>250</v>
+      </c>
+      <c r="N298" s="1">
+        <v>0</v>
+      </c>
+      <c r="O298" s="1">
+        <v>370</v>
+      </c>
+      <c r="P298" s="1">
+        <v>499</v>
+      </c>
+      <c r="Q298" s="1">
+        <v>15</v>
+      </c>
+      <c r="R298" s="37">
+        <v>5.2049029083933558E-2</v>
+      </c>
+      <c r="S298" s="39">
+        <v>341</v>
+      </c>
+      <c r="T298" s="39">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="299" spans="1:23">
+      <c r="A299" s="12">
+        <v>44211</v>
+      </c>
+      <c r="B299" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D299" s="1">
+        <v>44</v>
+      </c>
+      <c r="E299" s="1">
+        <v>2525</v>
+      </c>
+      <c r="F299" s="1">
+        <v>2507</v>
+      </c>
+      <c r="G299" s="1">
+        <v>393</v>
+      </c>
+      <c r="I299" s="1">
+        <v>12</v>
+      </c>
+      <c r="J299" s="1">
+        <v>31</v>
+      </c>
+      <c r="K299" s="1">
+        <v>2101</v>
+      </c>
+      <c r="M299" s="1">
+        <v>250</v>
+      </c>
+      <c r="N299" s="1">
+        <v>0</v>
+      </c>
+      <c r="O299" s="1">
+        <v>370</v>
+      </c>
+      <c r="R299" s="37"/>
+      <c r="S299" s="39">
+        <v>348</v>
+      </c>
+      <c r="T299" s="39">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="300" spans="1:23">
+      <c r="A300" s="12">
+        <v>44212</v>
+      </c>
+      <c r="B300" s="1">
+        <v>290009</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D300" s="1">
+        <v>39</v>
+      </c>
+      <c r="E300" s="1">
+        <v>2564</v>
+      </c>
+      <c r="F300" s="1">
+        <v>2546</v>
+      </c>
+      <c r="G300" s="1">
+        <v>398</v>
+      </c>
+      <c r="I300" s="1">
+        <v>12</v>
+      </c>
+      <c r="J300" s="1">
+        <v>31</v>
+      </c>
+      <c r="K300" s="1">
+        <v>2135</v>
+      </c>
+      <c r="M300" s="1">
+        <v>250</v>
+      </c>
+      <c r="N300" s="1">
+        <v>0</v>
+      </c>
+      <c r="O300" s="1">
+        <v>370</v>
+      </c>
+      <c r="R300" s="37"/>
+      <c r="S300" s="39">
+        <v>353</v>
+      </c>
+      <c r="T300" s="39">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="301" spans="1:23">
+      <c r="R301" s="37"/>
+      <c r="S301" s="37"/>
+      <c r="T301" s="37"/>
+    </row>
+    <row r="302" spans="1:23">
+      <c r="R302" s="37"/>
+      <c r="S302" s="37"/>
+      <c r="T302" s="37"/>
+    </row>
+    <row r="303" spans="1:23">
+      <c r="R303" s="37"/>
+      <c r="S303" s="37"/>
+      <c r="T303" s="37"/>
+    </row>
+    <row r="304" spans="1:23">
+      <c r="R304" s="37"/>
+      <c r="S304" s="37"/>
+      <c r="T304" s="37"/>
+    </row>
+    <row r="305" spans="18:20">
+      <c r="R305" s="37"/>
+      <c r="S305" s="37"/>
+      <c r="T305" s="37"/>
+    </row>
+    <row r="306" spans="18:20">
+      <c r="R306" s="37"/>
+      <c r="S306" s="37"/>
+      <c r="T306" s="37"/>
+    </row>
+    <row r="307" spans="18:20">
+      <c r="R307" s="37"/>
+      <c r="S307" s="37"/>
+      <c r="T307" s="37"/>
+    </row>
+    <row r="308" spans="18:20">
+      <c r="R308" s="37"/>
+      <c r="S308" s="37"/>
+      <c r="T308" s="37"/>
+    </row>
+    <row r="309" spans="18:20">
+      <c r="R309" s="37"/>
+      <c r="S309" s="37"/>
+      <c r="T309" s="37"/>
+    </row>
+    <row r="310" spans="18:20">
+      <c r="R310" s="37"/>
+      <c r="S310" s="37"/>
+      <c r="T310" s="37"/>
+    </row>
+    <row r="311" spans="18:20">
+      <c r="R311" s="37"/>
+      <c r="S311" s="37"/>
+      <c r="T311" s="37"/>
+    </row>
+    <row r="312" spans="18:20">
+      <c r="R312" s="37"/>
+      <c r="S312" s="37"/>
+      <c r="T312" s="37"/>
+    </row>
+    <row r="313" spans="18:20">
+      <c r="R313" s="37"/>
+      <c r="S313" s="37"/>
+      <c r="T313" s="37"/>
+    </row>
+    <row r="314" spans="18:20">
+      <c r="R314" s="37"/>
+      <c r="S314" s="37"/>
+      <c r="T314" s="37"/>
+    </row>
+    <row r="315" spans="18:20">
+      <c r="R315" s="37"/>
+      <c r="S315" s="37"/>
+      <c r="T315" s="37"/>
+    </row>
+    <row r="316" spans="18:20">
+      <c r="R316" s="37"/>
+      <c r="S316" s="37"/>
+      <c r="T316" s="37"/>
+    </row>
+    <row r="317" spans="18:20">
+      <c r="R317" s="37"/>
+      <c r="S317" s="37"/>
+      <c r="T317" s="37"/>
+    </row>
+    <row r="318" spans="18:20">
+      <c r="R318" s="37"/>
+      <c r="S318" s="37"/>
+      <c r="T318" s="37"/>
+    </row>
+    <row r="319" spans="18:20">
+      <c r="R319" s="37"/>
+      <c r="S319" s="37"/>
+      <c r="T319" s="37"/>
+    </row>
+    <row r="320" spans="18:20">
+      <c r="R320" s="37"/>
+      <c r="S320" s="37"/>
+      <c r="T320" s="37"/>
+    </row>
+    <row r="321" spans="18:20">
+      <c r="R321" s="37"/>
+      <c r="S321" s="37"/>
+      <c r="T321" s="37"/>
+    </row>
+    <row r="322" spans="18:20">
+      <c r="R322" s="37"/>
+      <c r="S322" s="37"/>
+      <c r="T322" s="37"/>
+    </row>
+    <row r="323" spans="18:20">
+      <c r="R323" s="37"/>
+      <c r="S323" s="37"/>
+      <c r="T323" s="37"/>
+    </row>
+    <row r="324" spans="18:20">
+      <c r="R324" s="37"/>
+      <c r="S324" s="37"/>
+      <c r="T324" s="37"/>
+    </row>
+    <row r="325" spans="18:20">
+      <c r="R325" s="37"/>
+      <c r="S325" s="37"/>
+      <c r="T325" s="37"/>
+    </row>
+    <row r="326" spans="18:20">
+      <c r="R326" s="37"/>
+      <c r="S326" s="37"/>
+      <c r="T326" s="37"/>
+    </row>
+    <row r="327" spans="18:20">
+      <c r="R327" s="37"/>
+      <c r="S327" s="37"/>
+      <c r="T327" s="37"/>
+    </row>
+    <row r="328" spans="18:20">
+      <c r="R328" s="37"/>
+      <c r="S328" s="37"/>
+      <c r="T328" s="37"/>
+    </row>
+    <row r="329" spans="18:20">
+      <c r="R329" s="37"/>
+      <c r="S329" s="37"/>
+      <c r="T329" s="37"/>
+    </row>
+    <row r="330" spans="18:20">
+      <c r="R330" s="37"/>
+      <c r="S330" s="37"/>
+      <c r="T330" s="37"/>
+    </row>
+    <row r="331" spans="18:20">
+      <c r="R331" s="37"/>
+      <c r="S331" s="37"/>
+      <c r="T331" s="37"/>
+    </row>
+    <row r="332" spans="18:20">
+      <c r="R332" s="37"/>
+      <c r="S332" s="37"/>
+      <c r="T332" s="37"/>
+    </row>
+    <row r="333" spans="18:20">
+      <c r="R333" s="37"/>
+      <c r="S333" s="37"/>
+      <c r="T333" s="37"/>
+    </row>
+    <row r="334" spans="18:20">
+      <c r="R334" s="37"/>
+      <c r="S334" s="37"/>
+      <c r="T334" s="37"/>
+    </row>
+    <row r="335" spans="18:20">
+      <c r="R335" s="37"/>
+      <c r="S335" s="37"/>
+      <c r="T335" s="37"/>
+    </row>
+    <row r="336" spans="18:20">
+      <c r="R336" s="37"/>
+      <c r="S336" s="37"/>
+      <c r="T336" s="37"/>
+    </row>
+    <row r="337" spans="18:20">
+      <c r="R337" s="37"/>
+      <c r="S337" s="37"/>
+      <c r="T337" s="37"/>
+    </row>
+    <row r="338" spans="18:20">
+      <c r="R338" s="37"/>
+      <c r="S338" s="37"/>
+      <c r="T338" s="37"/>
+    </row>
+    <row r="339" spans="18:20">
+      <c r="R339" s="37"/>
+      <c r="S339" s="37"/>
+      <c r="T339" s="37"/>
+    </row>
+    <row r="340" spans="18:20">
+      <c r="R340" s="37"/>
+      <c r="S340" s="37"/>
+      <c r="T340" s="37"/>
+    </row>
+    <row r="341" spans="18:20">
+      <c r="R341" s="37"/>
+      <c r="S341" s="37"/>
+      <c r="T341" s="37"/>
+    </row>
+    <row r="342" spans="18:20">
+      <c r="R342" s="37"/>
+      <c r="S342" s="37"/>
+      <c r="T342" s="37"/>
+    </row>
+    <row r="343" spans="18:20">
+      <c r="R343" s="37"/>
+      <c r="S343" s="37"/>
+      <c r="T343" s="37"/>
+    </row>
+    <row r="344" spans="18:20">
+      <c r="R344" s="37"/>
+      <c r="S344" s="37"/>
+      <c r="T344" s="37"/>
+    </row>
+    <row r="345" spans="18:20">
+      <c r="R345" s="37"/>
+      <c r="S345" s="37"/>
+      <c r="T345" s="37"/>
+    </row>
+    <row r="346" spans="18:20">
+      <c r="R346" s="37"/>
+      <c r="S346" s="37"/>
+      <c r="T346" s="37"/>
+    </row>
+    <row r="347" spans="18:20">
+      <c r="R347" s="37"/>
+      <c r="S347" s="37"/>
+      <c r="T347" s="37"/>
+    </row>
+    <row r="348" spans="18:20">
+      <c r="R348" s="37"/>
+      <c r="S348" s="37"/>
+      <c r="T348" s="37"/>
+    </row>
+    <row r="349" spans="18:20">
+      <c r="R349" s="37"/>
+      <c r="S349" s="37"/>
+      <c r="T349" s="37"/>
+    </row>
+    <row r="350" spans="18:20">
+      <c r="R350" s="37"/>
+      <c r="S350" s="37"/>
+      <c r="T350" s="37"/>
+    </row>
+    <row r="351" spans="18:20">
+      <c r="R351" s="37"/>
+      <c r="S351" s="37"/>
+      <c r="T351" s="37"/>
+    </row>
+    <row r="352" spans="18:20">
+      <c r="R352" s="37"/>
+      <c r="S352" s="37"/>
+      <c r="T352" s="37"/>
+    </row>
+    <row r="353" spans="18:20">
+      <c r="R353" s="37"/>
+      <c r="S353" s="37"/>
+      <c r="T353" s="37"/>
+    </row>
+    <row r="354" spans="18:20">
+      <c r="R354" s="37"/>
+      <c r="S354" s="37"/>
+      <c r="T354" s="37"/>
+    </row>
+    <row r="355" spans="18:20">
+      <c r="R355" s="37"/>
+      <c r="S355" s="37"/>
+      <c r="T355" s="37"/>
+    </row>
+    <row r="356" spans="18:20">
+      <c r="R356" s="37"/>
+      <c r="S356" s="37"/>
+      <c r="T356" s="37"/>
+    </row>
+    <row r="357" spans="18:20">
+      <c r="R357" s="37"/>
+      <c r="S357" s="37"/>
+      <c r="T357" s="37"/>
+    </row>
+    <row r="358" spans="18:20">
+      <c r="R358" s="37"/>
+      <c r="S358" s="37"/>
+      <c r="T358" s="37"/>
+    </row>
+    <row r="359" spans="18:20">
+      <c r="R359" s="37"/>
+      <c r="S359" s="37"/>
+      <c r="T359" s="37"/>
+    </row>
+    <row r="360" spans="18:20">
+      <c r="R360" s="37"/>
+      <c r="S360" s="37"/>
+      <c r="T360" s="37"/>
+    </row>
+    <row r="361" spans="18:20">
+      <c r="R361" s="37"/>
+      <c r="S361" s="37"/>
+      <c r="T361" s="37"/>
+    </row>
+    <row r="362" spans="18:20">
+      <c r="R362" s="37"/>
+      <c r="S362" s="37"/>
+      <c r="T362" s="37"/>
+    </row>
+    <row r="363" spans="18:20">
+      <c r="R363" s="37"/>
+      <c r="S363" s="37"/>
+      <c r="T363" s="37"/>
+    </row>
+    <row r="364" spans="18:20">
+      <c r="R364" s="37"/>
+      <c r="S364" s="37"/>
+      <c r="T364" s="37"/>
+    </row>
+    <row r="365" spans="18:20">
+      <c r="R365" s="32"/>
+      <c r="S365" s="32"/>
+      <c r="T365" s="32"/>
+    </row>
+    <row r="366" spans="18:20">
+      <c r="R366" s="32"/>
+      <c r="S366" s="32"/>
+      <c r="T366" s="32"/>
+    </row>
+    <row r="367" spans="18:20">
+      <c r="R367" s="32"/>
+      <c r="S367" s="32"/>
+      <c r="T367" s="32"/>
+    </row>
+    <row r="368" spans="18:20">
+      <c r="R368" s="32"/>
+      <c r="S368" s="32"/>
+      <c r="T368" s="32"/>
+    </row>
+    <row r="369" spans="18:20">
+      <c r="R369" s="32"/>
+      <c r="S369" s="32"/>
+      <c r="T369" s="32"/>
+    </row>
+    <row r="370" spans="18:20">
+      <c r="R370" s="32"/>
+      <c r="S370" s="32"/>
+      <c r="T370" s="32"/>
+    </row>
+    <row r="371" spans="18:20">
+      <c r="R371" s="32"/>
+      <c r="S371" s="32"/>
+      <c r="T371" s="32"/>
+    </row>
+    <row r="372" spans="18:20">
+      <c r="R372" s="32"/>
+      <c r="S372" s="32"/>
+      <c r="T372" s="32"/>
+    </row>
+    <row r="373" spans="18:20">
+      <c r="R373" s="32"/>
+      <c r="S373" s="32"/>
+      <c r="T373" s="32"/>
+    </row>
+    <row r="374" spans="18:20">
+      <c r="R374" s="32"/>
+      <c r="S374" s="32"/>
+      <c r="T374" s="32"/>
+    </row>
+    <row r="375" spans="18:20">
+      <c r="R375" s="32"/>
+      <c r="S375" s="32"/>
+      <c r="T375" s="32"/>
+    </row>
+    <row r="376" spans="18:20">
+      <c r="R376" s="32"/>
+      <c r="S376" s="32"/>
+      <c r="T376" s="32"/>
+    </row>
+    <row r="377" spans="18:20">
+      <c r="R377" s="32"/>
+      <c r="S377" s="32"/>
+      <c r="T377" s="32"/>
+    </row>
+    <row r="378" spans="18:20">
+      <c r="R378" s="32"/>
+      <c r="S378" s="32"/>
+      <c r="T378" s="32"/>
+    </row>
+    <row r="379" spans="18:20">
+      <c r="R379" s="32"/>
+      <c r="S379" s="32"/>
+      <c r="T379" s="32"/>
+    </row>
+    <row r="380" spans="18:20">
+      <c r="R380" s="32"/>
+      <c r="S380" s="32"/>
+      <c r="T380" s="32"/>
+    </row>
+    <row r="381" spans="18:20">
+      <c r="R381" s="32"/>
+      <c r="S381" s="32"/>
+      <c r="T381" s="32"/>
+    </row>
+    <row r="382" spans="18:20">
+      <c r="R382" s="32"/>
+      <c r="S382" s="32"/>
+      <c r="T382" s="32"/>
+    </row>
+    <row r="383" spans="18:20">
+      <c r="R383" s="32"/>
+      <c r="S383" s="32"/>
+      <c r="T383" s="32"/>
+    </row>
+    <row r="384" spans="18:20">
+      <c r="R384" s="32"/>
+      <c r="S384" s="32"/>
+      <c r="T384" s="32"/>
+    </row>
+    <row r="385" spans="18:20">
+      <c r="R385" s="32"/>
+      <c r="S385" s="32"/>
+      <c r="T385" s="32"/>
+    </row>
+    <row r="386" spans="18:20">
+      <c r="R386" s="32"/>
+      <c r="S386" s="32"/>
+      <c r="T386" s="32"/>
+    </row>
+    <row r="387" spans="18:20">
+      <c r="R387" s="32"/>
+      <c r="S387" s="32"/>
+      <c r="T387" s="32"/>
+    </row>
+    <row r="388" spans="18:20">
+      <c r="R388" s="32"/>
+      <c r="S388" s="32"/>
+      <c r="T388" s="32"/>
+    </row>
+    <row r="389" spans="18:20">
+      <c r="R389" s="32"/>
+      <c r="S389" s="32"/>
+      <c r="T389" s="32"/>
+    </row>
+    <row r="390" spans="18:20">
+      <c r="R390" s="32"/>
+      <c r="S390" s="32"/>
+      <c r="T390" s="32"/>
+    </row>
+    <row r="391" spans="18:20">
+      <c r="R391" s="32"/>
+      <c r="S391" s="32"/>
+      <c r="T391" s="32"/>
+    </row>
+    <row r="392" spans="18:20">
+      <c r="R392" s="32"/>
+      <c r="S392" s="32"/>
+      <c r="T392" s="32"/>
+    </row>
+    <row r="393" spans="18:20">
+      <c r="R393" s="32"/>
+      <c r="S393" s="32"/>
+      <c r="T393" s="32"/>
+    </row>
+    <row r="394" spans="18:20">
+      <c r="R394" s="32"/>
+      <c r="S394" s="32"/>
+      <c r="T394" s="32"/>
+    </row>
+    <row r="395" spans="18:20">
+      <c r="R395" s="32"/>
+      <c r="S395" s="32"/>
+      <c r="T395" s="32"/>
+    </row>
+    <row r="396" spans="18:20">
+      <c r="R396" s="32"/>
+      <c r="S396" s="32"/>
+      <c r="T396" s="32"/>
+    </row>
+    <row r="397" spans="18:20">
+      <c r="R397" s="32"/>
+      <c r="S397" s="32"/>
+      <c r="T397" s="32"/>
+    </row>
+    <row r="398" spans="18:20">
+      <c r="R398" s="32"/>
+      <c r="S398" s="32"/>
+      <c r="T398" s="32"/>
+    </row>
+    <row r="399" spans="18:20">
+      <c r="R399" s="32"/>
+      <c r="S399" s="32"/>
+      <c r="T399" s="32"/>
+    </row>
+    <row r="400" spans="18:20">
+      <c r="R400" s="32"/>
+      <c r="S400" s="32"/>
+      <c r="T400" s="32"/>
+    </row>
+    <row r="401" spans="18:20">
+      <c r="R401" s="32"/>
+      <c r="S401" s="32"/>
+      <c r="T401" s="32"/>
+    </row>
+    <row r="402" spans="18:20">
+      <c r="R402" s="32"/>
+      <c r="S402" s="32"/>
+      <c r="T402" s="32"/>
+    </row>
+    <row r="403" spans="18:20">
+      <c r="R403" s="32"/>
+      <c r="S403" s="32"/>
+      <c r="T403" s="32"/>
+    </row>
+    <row r="404" spans="18:20">
+      <c r="R404" s="32"/>
+      <c r="S404" s="32"/>
+      <c r="T404" s="32"/>
+    </row>
+    <row r="405" spans="18:20">
+      <c r="R405" s="32"/>
+      <c r="S405" s="32"/>
+      <c r="T405" s="32"/>
+    </row>
+    <row r="406" spans="18:20">
+      <c r="R406" s="32"/>
+      <c r="S406" s="32"/>
+      <c r="T406" s="32"/>
+    </row>
+    <row r="407" spans="18:20">
+      <c r="R407" s="32"/>
+      <c r="S407" s="32"/>
+      <c r="T407" s="32"/>
+    </row>
+    <row r="408" spans="18:20">
+      <c r="R408" s="32"/>
+      <c r="S408" s="32"/>
+      <c r="T408" s="32"/>
+    </row>
+    <row r="409" spans="18:20">
+      <c r="R409" s="32"/>
+      <c r="S409" s="32"/>
+      <c r="T409" s="32"/>
+    </row>
+    <row r="410" spans="18:20">
+      <c r="R410" s="32"/>
+      <c r="S410" s="32"/>
+      <c r="T410" s="32"/>
+    </row>
+    <row r="411" spans="18:20">
+      <c r="R411" s="32"/>
+      <c r="S411" s="32"/>
+      <c r="T411" s="32"/>
+    </row>
+    <row r="412" spans="18:20">
+      <c r="R412" s="32"/>
+      <c r="S412" s="32"/>
+      <c r="T412" s="32"/>
+    </row>
+    <row r="413" spans="18:20">
+      <c r="R413" s="32"/>
+      <c r="S413" s="32"/>
+      <c r="T413" s="32"/>
+    </row>
+    <row r="414" spans="18:20">
+      <c r="R414" s="32"/>
+      <c r="S414" s="32"/>
+      <c r="T414" s="32"/>
+    </row>
+    <row r="415" spans="18:20">
+      <c r="R415" s="32"/>
+      <c r="S415" s="32"/>
+      <c r="T415" s="32"/>
+    </row>
+    <row r="416" spans="18:20">
+      <c r="R416" s="32"/>
+      <c r="S416" s="32"/>
+      <c r="T416" s="32"/>
+    </row>
+    <row r="417" spans="18:20">
+      <c r="R417" s="32"/>
+      <c r="S417" s="32"/>
+      <c r="T417" s="32"/>
+    </row>
+    <row r="418" spans="18:20">
+      <c r="R418" s="32"/>
+      <c r="S418" s="32"/>
+      <c r="T418" s="32"/>
+    </row>
+    <row r="419" spans="18:20">
+      <c r="R419" s="32"/>
+      <c r="S419" s="32"/>
+      <c r="T419" s="32"/>
+    </row>
+    <row r="420" spans="18:20">
+      <c r="R420" s="32"/>
+      <c r="S420" s="32"/>
+      <c r="T420" s="32"/>
+    </row>
+    <row r="421" spans="18:20">
+      <c r="R421" s="32"/>
+      <c r="S421" s="32"/>
+      <c r="T421" s="32"/>
+    </row>
+    <row r="422" spans="18:20">
+      <c r="R422" s="32"/>
+      <c r="S422" s="32"/>
+      <c r="T422" s="32"/>
+    </row>
+    <row r="423" spans="18:20">
+      <c r="R423" s="32"/>
+      <c r="S423" s="32"/>
+      <c r="T423" s="32"/>
+    </row>
+    <row r="424" spans="18:20">
+      <c r="R424" s="32"/>
+      <c r="S424" s="32"/>
+      <c r="T424" s="32"/>
+    </row>
+    <row r="425" spans="18:20">
+      <c r="R425" s="32"/>
+      <c r="S425" s="32"/>
+      <c r="T425" s="32"/>
+    </row>
+    <row r="426" spans="18:20">
+      <c r="R426" s="32"/>
+      <c r="S426" s="32"/>
+      <c r="T426" s="32"/>
+    </row>
+    <row r="427" spans="18:20">
+      <c r="R427" s="32"/>
+      <c r="S427" s="32"/>
+      <c r="T427" s="32"/>
+    </row>
+    <row r="428" spans="18:20">
+      <c r="R428" s="32"/>
+      <c r="S428" s="32"/>
+      <c r="T428" s="32"/>
+    </row>
+    <row r="429" spans="18:20">
+      <c r="R429" s="32"/>
+      <c r="S429" s="32"/>
+      <c r="T429" s="32"/>
+    </row>
+    <row r="430" spans="18:20">
+      <c r="R430" s="32"/>
+      <c r="S430" s="32"/>
+      <c r="T430" s="32"/>
+    </row>
+    <row r="431" spans="18:20">
+      <c r="R431" s="32"/>
+      <c r="S431" s="32"/>
+      <c r="T431" s="32"/>
+    </row>
+    <row r="432" spans="18:20">
+      <c r="R432" s="32"/>
+      <c r="S432" s="32"/>
+      <c r="T432" s="32"/>
+    </row>
+    <row r="433" spans="18:20">
+      <c r="R433" s="32"/>
+      <c r="S433" s="32"/>
+      <c r="T433" s="32"/>
+    </row>
+    <row r="434" spans="18:20">
+      <c r="R434" s="32"/>
+      <c r="S434" s="32"/>
+      <c r="T434" s="32"/>
+    </row>
+    <row r="435" spans="18:20">
+      <c r="R435" s="32"/>
+      <c r="S435" s="32"/>
+      <c r="T435" s="32"/>
+    </row>
+    <row r="436" spans="18:20">
+      <c r="R436" s="32"/>
+      <c r="S436" s="32"/>
+      <c r="T436" s="32"/>
+    </row>
+    <row r="437" spans="18:20">
+      <c r="R437" s="32"/>
+      <c r="S437" s="32"/>
+      <c r="T437" s="32"/>
+    </row>
+    <row r="438" spans="18:20">
+      <c r="R438" s="32"/>
+      <c r="S438" s="32"/>
+      <c r="T438" s="32"/>
+    </row>
+    <row r="439" spans="18:20">
+      <c r="R439" s="32"/>
+      <c r="S439" s="32"/>
+      <c r="T439" s="32"/>
+    </row>
+    <row r="440" spans="18:20">
+      <c r="R440" s="32"/>
+      <c r="S440" s="32"/>
+      <c r="T440" s="32"/>
+    </row>
+    <row r="441" spans="18:20">
+      <c r="R441" s="32"/>
+      <c r="S441" s="32"/>
+      <c r="T441" s="32"/>
+    </row>
+    <row r="442" spans="18:20">
+      <c r="R442" s="32"/>
+      <c r="S442" s="32"/>
+      <c r="T442" s="32"/>
+    </row>
+    <row r="443" spans="18:20">
+      <c r="R443" s="32"/>
+      <c r="S443" s="32"/>
+      <c r="T443" s="32"/>
+    </row>
+    <row r="444" spans="18:20">
+      <c r="R444" s="32"/>
+      <c r="S444" s="32"/>
+      <c r="T444" s="32"/>
+    </row>
+    <row r="445" spans="18:20">
+      <c r="R445" s="32"/>
+      <c r="S445" s="32"/>
+      <c r="T445" s="32"/>
+    </row>
+    <row r="446" spans="18:20">
+      <c r="R446" s="32"/>
+      <c r="S446" s="32"/>
+      <c r="T446" s="32"/>
+    </row>
+    <row r="447" spans="18:20">
+      <c r="R447" s="32"/>
+      <c r="S447" s="32"/>
+      <c r="T447" s="32"/>
+    </row>
+    <row r="448" spans="18:20">
+      <c r="R448" s="32"/>
+      <c r="S448" s="32"/>
+      <c r="T448" s="32"/>
+    </row>
+    <row r="449" spans="18:20">
+      <c r="R449" s="32"/>
+      <c r="S449" s="32"/>
+      <c r="T449" s="32"/>
+    </row>
+    <row r="450" spans="18:20">
+      <c r="R450" s="32"/>
+      <c r="S450" s="32"/>
+      <c r="T450" s="32"/>
+    </row>
+    <row r="451" spans="18:20">
+      <c r="R451" s="32"/>
+      <c r="S451" s="32"/>
+      <c r="T451" s="32"/>
+    </row>
+    <row r="452" spans="18:20">
+      <c r="R452" s="32"/>
+      <c r="S452" s="32"/>
+      <c r="T452" s="32"/>
+    </row>
+    <row r="453" spans="18:20">
+      <c r="R453" s="32"/>
+      <c r="S453" s="32"/>
+      <c r="T453" s="32"/>
+    </row>
+    <row r="454" spans="18:20">
+      <c r="R454" s="32"/>
+      <c r="S454" s="32"/>
+      <c r="T454" s="32"/>
+    </row>
+    <row r="455" spans="18:20">
+      <c r="R455" s="32"/>
+      <c r="S455" s="32"/>
+      <c r="T455" s="32"/>
+    </row>
+    <row r="456" spans="18:20">
+      <c r="R456" s="32"/>
+      <c r="S456" s="32"/>
+      <c r="T456" s="32"/>
+    </row>
+    <row r="457" spans="18:20">
+      <c r="R457" s="32"/>
+      <c r="S457" s="32"/>
+      <c r="T457" s="32"/>
+    </row>
+    <row r="458" spans="18:20">
+      <c r="R458" s="32"/>
+      <c r="S458" s="32"/>
+      <c r="T458" s="32"/>
+    </row>
+    <row r="459" spans="18:20">
+      <c r="R459" s="32"/>
+      <c r="S459" s="32"/>
+      <c r="T459" s="32"/>
+    </row>
+    <row r="460" spans="18:20">
+      <c r="R460" s="32"/>
+      <c r="S460" s="32"/>
+      <c r="T460" s="32"/>
+    </row>
+    <row r="461" spans="18:20">
+      <c r="R461" s="32"/>
+      <c r="S461" s="32"/>
+      <c r="T461" s="32"/>
+    </row>
+    <row r="462" spans="18:20">
+      <c r="R462" s="32"/>
+      <c r="S462" s="32"/>
+      <c r="T462" s="32"/>
+    </row>
+    <row r="463" spans="18:20">
+      <c r="R463" s="32"/>
+      <c r="S463" s="32"/>
+      <c r="T463" s="32"/>
+    </row>
+    <row r="464" spans="18:20">
+      <c r="R464" s="32"/>
+      <c r="S464" s="32"/>
+      <c r="T464" s="32"/>
+    </row>
+    <row r="465" spans="18:20">
+      <c r="R465" s="32"/>
+      <c r="S465" s="32"/>
+      <c r="T465" s="32"/>
+    </row>
+    <row r="466" spans="18:20">
+      <c r="R466" s="32"/>
+      <c r="S466" s="32"/>
+      <c r="T466" s="32"/>
+    </row>
+    <row r="467" spans="18:20">
+      <c r="R467" s="32"/>
+      <c r="S467" s="32"/>
+      <c r="T467" s="32"/>
+    </row>
+    <row r="468" spans="18:20">
+      <c r="R468" s="32"/>
+      <c r="S468" s="32"/>
+      <c r="T468" s="32"/>
+    </row>
+    <row r="469" spans="18:20">
+      <c r="R469" s="32"/>
+      <c r="S469" s="32"/>
+      <c r="T469" s="32"/>
+    </row>
+    <row r="470" spans="18:20">
+      <c r="R470" s="32"/>
+      <c r="S470" s="32"/>
+      <c r="T470" s="32"/>
+    </row>
+    <row r="471" spans="18:20">
+      <c r="R471" s="32"/>
+      <c r="S471" s="32"/>
+      <c r="T471" s="32"/>
+    </row>
+    <row r="472" spans="18:20">
+      <c r="R472" s="32"/>
+      <c r="S472" s="32"/>
+      <c r="T472" s="32"/>
+    </row>
+    <row r="473" spans="18:20">
+      <c r="R473" s="32"/>
+      <c r="S473" s="32"/>
+      <c r="T473" s="32"/>
+    </row>
+    <row r="474" spans="18:20">
+      <c r="R474" s="32"/>
+      <c r="S474" s="32"/>
+      <c r="T474" s="32"/>
+    </row>
+    <row r="475" spans="18:20">
+      <c r="R475" s="32"/>
+      <c r="S475" s="32"/>
+      <c r="T475" s="32"/>
+    </row>
+    <row r="476" spans="18:20">
+      <c r="R476" s="32"/>
+      <c r="S476" s="32"/>
+      <c r="T476" s="32"/>
+    </row>
+    <row r="477" spans="18:20">
+      <c r="R477" s="32"/>
+      <c r="S477" s="32"/>
+      <c r="T477" s="32"/>
+    </row>
+    <row r="478" spans="18:20">
+      <c r="R478" s="32"/>
+      <c r="S478" s="32"/>
+      <c r="T478" s="32"/>
+    </row>
+    <row r="479" spans="18:20">
+      <c r="R479" s="32"/>
+      <c r="S479" s="32"/>
+      <c r="T479" s="32"/>
+    </row>
+    <row r="480" spans="18:20">
+      <c r="R480" s="32"/>
+      <c r="S480" s="32"/>
+      <c r="T480" s="32"/>
+    </row>
+    <row r="481" spans="18:20">
+      <c r="R481" s="32"/>
+      <c r="S481" s="32"/>
+      <c r="T481" s="32"/>
+    </row>
+    <row r="482" spans="18:20">
+      <c r="R482" s="32"/>
+      <c r="S482" s="32"/>
+      <c r="T482" s="32"/>
+    </row>
+    <row r="483" spans="18:20">
+      <c r="R483" s="32"/>
+      <c r="S483" s="32"/>
+      <c r="T483" s="32"/>
+    </row>
+    <row r="484" spans="18:20">
+      <c r="R484" s="32"/>
+      <c r="S484" s="32"/>
+      <c r="T484" s="32"/>
+    </row>
+    <row r="485" spans="18:20">
+      <c r="R485" s="32"/>
+      <c r="S485" s="32"/>
+      <c r="T485" s="32"/>
+    </row>
+    <row r="486" spans="18:20">
+      <c r="R486" s="32"/>
+      <c r="S486" s="32"/>
+      <c r="T486" s="32"/>
+    </row>
+    <row r="487" spans="18:20">
+      <c r="R487" s="32"/>
+      <c r="S487" s="32"/>
+      <c r="T487" s="32"/>
+    </row>
+    <row r="488" spans="18:20">
+      <c r="R488" s="32"/>
+      <c r="S488" s="32"/>
+      <c r="T488" s="32"/>
+    </row>
+    <row r="489" spans="18:20">
+      <c r="R489" s="32"/>
+      <c r="S489" s="32"/>
+      <c r="T489" s="32"/>
+    </row>
+    <row r="490" spans="18:20">
+      <c r="R490" s="32"/>
+      <c r="S490" s="32"/>
+      <c r="T490" s="32"/>
+    </row>
+    <row r="491" spans="18:20">
+      <c r="R491" s="32"/>
+      <c r="S491" s="32"/>
+      <c r="T491" s="32"/>
+    </row>
+    <row r="492" spans="18:20">
+      <c r="R492" s="32"/>
+      <c r="S492" s="32"/>
+      <c r="T492" s="32"/>
+    </row>
+    <row r="493" spans="18:20">
+      <c r="R493" s="32"/>
+      <c r="S493" s="32"/>
+      <c r="T493" s="32"/>
+    </row>
+    <row r="494" spans="18:20">
+      <c r="R494" s="32"/>
+      <c r="S494" s="32"/>
+      <c r="T494" s="32"/>
+    </row>
+    <row r="495" spans="18:20">
+      <c r="R495" s="32"/>
+      <c r="S495" s="32"/>
+      <c r="T495" s="32"/>
+    </row>
+    <row r="496" spans="18:20">
+      <c r="R496" s="32"/>
+      <c r="S496" s="32"/>
+      <c r="T496" s="32"/>
+    </row>
+    <row r="497" spans="18:20">
+      <c r="R497" s="32"/>
+      <c r="S497" s="32"/>
+      <c r="T497" s="32"/>
+    </row>
+    <row r="498" spans="18:20">
+      <c r="R498" s="32"/>
+      <c r="S498" s="32"/>
+      <c r="T498" s="32"/>
+    </row>
+    <row r="499" spans="18:20">
+      <c r="R499" s="32"/>
+      <c r="S499" s="32"/>
+      <c r="T499" s="32"/>
+    </row>
+    <row r="500" spans="18:20">
+      <c r="R500" s="32"/>
+      <c r="S500" s="32"/>
+      <c r="T500" s="32"/>
+    </row>
+    <row r="501" spans="18:20">
+      <c r="R501" s="32"/>
+      <c r="S501" s="32"/>
+      <c r="T501" s="32"/>
+    </row>
+    <row r="502" spans="18:20">
+      <c r="R502" s="32"/>
+      <c r="S502" s="32"/>
+      <c r="T502" s="32"/>
+    </row>
+    <row r="503" spans="18:20">
+      <c r="R503" s="32"/>
+      <c r="S503" s="32"/>
+      <c r="T503" s="32"/>
+    </row>
+    <row r="504" spans="18:20">
+      <c r="R504" s="32"/>
+      <c r="S504" s="32"/>
+      <c r="T504" s="32"/>
+    </row>
+    <row r="505" spans="18:20">
+      <c r="R505" s="32"/>
+      <c r="S505" s="32"/>
+      <c r="T505" s="32"/>
+    </row>
+    <row r="506" spans="18:20">
+      <c r="R506" s="32"/>
+      <c r="S506" s="32"/>
+      <c r="T506" s="32"/>
+    </row>
+    <row r="507" spans="18:20">
+      <c r="R507" s="32"/>
+      <c r="S507" s="32"/>
+      <c r="T507" s="32"/>
+    </row>
+    <row r="508" spans="18:20">
+      <c r="R508" s="32"/>
+      <c r="S508" s="32"/>
+      <c r="T508" s="32"/>
+    </row>
+    <row r="509" spans="18:20">
+      <c r="R509" s="32"/>
+      <c r="S509" s="32"/>
+      <c r="T509" s="32"/>
+    </row>
+    <row r="510" spans="18:20">
+      <c r="R510" s="32"/>
+      <c r="S510" s="32"/>
+      <c r="T510" s="32"/>
+    </row>
+    <row r="511" spans="18:20">
+      <c r="R511" s="32"/>
+      <c r="S511" s="32"/>
+      <c r="T511" s="32"/>
+    </row>
+    <row r="512" spans="18:20">
+      <c r="R512" s="32"/>
+      <c r="S512" s="32"/>
+      <c r="T512" s="32"/>
+    </row>
+    <row r="513" spans="18:20">
+      <c r="R513" s="32"/>
+      <c r="S513" s="32"/>
+      <c r="T513" s="32"/>
+    </row>
+    <row r="514" spans="18:20">
+      <c r="R514" s="32"/>
+      <c r="S514" s="32"/>
+      <c r="T514" s="32"/>
+    </row>
+    <row r="515" spans="18:20">
+      <c r="R515" s="32"/>
+      <c r="S515" s="32"/>
+      <c r="T515" s="32"/>
+    </row>
+    <row r="516" spans="18:20">
+      <c r="R516" s="32"/>
+      <c r="S516" s="32"/>
+      <c r="T516" s="32"/>
+    </row>
+    <row r="517" spans="18:20">
+      <c r="R517" s="32"/>
+      <c r="S517" s="32"/>
+      <c r="T517" s="32"/>
+    </row>
+    <row r="518" spans="18:20">
+      <c r="R518" s="32"/>
+      <c r="S518" s="32"/>
+      <c r="T518" s="32"/>
+    </row>
+    <row r="519" spans="18:20">
+      <c r="R519" s="32"/>
+      <c r="S519" s="32"/>
+      <c r="T519" s="32"/>
+    </row>
+    <row r="520" spans="18:20">
+      <c r="R520" s="32"/>
+      <c r="S520" s="32"/>
+      <c r="T520" s="32"/>
+    </row>
+    <row r="521" spans="18:20">
+      <c r="R521" s="32"/>
+      <c r="S521" s="32"/>
+      <c r="T521" s="32"/>
+    </row>
+    <row r="522" spans="18:20">
+      <c r="R522" s="32"/>
+      <c r="S522" s="32"/>
+      <c r="T522" s="32"/>
+    </row>
+    <row r="523" spans="18:20">
+      <c r="R523" s="32"/>
+      <c r="S523" s="32"/>
+      <c r="T523" s="32"/>
+    </row>
+    <row r="524" spans="18:20">
+      <c r="R524" s="32"/>
+      <c r="S524" s="32"/>
+      <c r="T524" s="32"/>
+    </row>
+    <row r="525" spans="18:20">
+      <c r="R525" s="32"/>
+      <c r="S525" s="32"/>
+      <c r="T525" s="32"/>
+    </row>
+    <row r="526" spans="18:20">
+      <c r="R526" s="32"/>
+      <c r="S526" s="32"/>
+      <c r="T526" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
